--- a/scrap/old BLM/full_organic_SPEC.det.xlsx
+++ b/scrap/old BLM/full_organic_SPEC.det.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9AB3AA-5855-49B8-8F3C-F22E77B2BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{834F5ACA-0B10-498D-A8C7-2F1CAB9086C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1116" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="full_organic_SPEC.det" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="124">
-  <si>
-    <t>Ver 3.57.2.50, build 2023-06-15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
+  <si>
+    <t>Ver 3.57.2.45, build 2021-04-05</t>
   </si>
   <si>
     <t>C:\Program Files (x86)\Biotic Ligand Model - Research Mode\Model\Cu_freshwater_acute_and_chronic_2017-01-17.dat</t>
@@ -145,9 +145,6 @@
     <t>CuHCO3</t>
   </si>
   <si>
-    <t>OH</t>
-  </si>
-  <si>
     <t>TOrg.H</t>
   </si>
   <si>
@@ -166,18 +163,24 @@
     <t>TOrg.K</t>
   </si>
   <si>
-    <t>HA Charge</t>
-  </si>
-  <si>
-    <t>FA Charge</t>
-  </si>
-  <si>
     <t>Charge</t>
   </si>
   <si>
     <t>Ionic S.</t>
   </si>
   <si>
+    <t>Act_z1</t>
+  </si>
+  <si>
+    <t>Act_z2</t>
+  </si>
+  <si>
+    <t>Act_z3</t>
+  </si>
+  <si>
+    <t>Act_z4</t>
+  </si>
+  <si>
     <t>Temp (K)</t>
   </si>
   <si>
@@ -227,9 +230,6 @@
   </si>
   <si>
     <t>mol / kg wet</t>
-  </si>
-  <si>
-    <t>eq / L</t>
   </si>
   <si>
     <t>eq</t>
@@ -467,39 +467,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -551,7 +551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -662,13 +662,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -677,6 +670,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -741,11 +741,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,7 +775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -935,201 +957,189 @@
         <v>53</v>
       </c>
       <c r="AY5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ5" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="BA5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BM5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="AB6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AY6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BA6" s="2" t="s">
-        <v>73</v>
+      <c r="AZ6" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BB6" s="2" t="s">
         <v>73</v>
@@ -1162,6 +1172,9 @@
         <v>73</v>
       </c>
       <c r="BL6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM6" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1278,43 +1291,43 @@
         <v>1.7560205378686078E-7</v>
       </c>
       <c r="AL7" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>1.0793017642812827E-9</v>
       </c>
       <c r="AM7" s="1">
-        <v>1.0793017642812827E-9</v>
+        <v>1.5845822624387198E-8</v>
       </c>
       <c r="AN7" s="1">
-        <v>1.5845822624387198E-8</v>
+        <v>1.1806091098449586E-8</v>
       </c>
       <c r="AO7" s="1">
-        <v>1.1806091098449586E-8</v>
+        <v>1.9685325094878723E-8</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.9685325094878723E-8</v>
+        <v>1.4453969576777581E-8</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1.4453969576777581E-8</v>
+        <v>7.0544436958641654E-10</v>
       </c>
       <c r="AR7" s="1">
-        <v>7.0544436958641654E-10</v>
+        <v>2.5023911740083525E-3</v>
       </c>
       <c r="AS7" s="1">
-        <v>-2.1115638126900649E-9</v>
+        <v>3.035488759531595E-3</v>
       </c>
       <c r="AT7" s="1">
-        <v>-4.9626770248778485E-8</v>
+        <v>0.97428977489471436</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.5023911740083525E-3</v>
+        <v>0.903114914894104</v>
       </c>
       <c r="AV7" s="1">
-        <v>3.035488759531595E-3</v>
+        <v>0.79901474714279175</v>
       </c>
       <c r="AW7" s="1">
+        <v>0.67670148611068726</v>
+      </c>
+      <c r="AX7" s="1">
         <v>288</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>1</v>
@@ -1475,43 +1488,43 @@
         <v>2.137178540806417E-7</v>
       </c>
       <c r="AL8" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>8.2776048450534965E-10</v>
       </c>
       <c r="AM8" s="1">
-        <v>8.2776048450534965E-10</v>
+        <v>1.3049375140815783E-8</v>
       </c>
       <c r="AN8" s="1">
-        <v>1.3049375140815783E-8</v>
+        <v>1.299671401077708E-8</v>
       </c>
       <c r="AO8" s="1">
-        <v>1.299671401077708E-8</v>
+        <v>2.1627551867085208E-8</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.1627551867085208E-8</v>
+        <v>1.2962535045346613E-8</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1.2962535045346613E-8</v>
+        <v>6.3265287453262431E-10</v>
       </c>
       <c r="AR8" s="1">
-        <v>6.3265287453262431E-10</v>
+        <v>2.7632727662240553E-3</v>
       </c>
       <c r="AS8" s="1">
-        <v>-2.2101518393213837E-9</v>
+        <v>3.825972231499949E-3</v>
       </c>
       <c r="AT8" s="1">
-        <v>-4.9192884432613937E-8</v>
+        <v>0.96431922912597656</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.7632727662240553E-3</v>
+        <v>0.86854833364486694</v>
       </c>
       <c r="AV8" s="1">
-        <v>3.825972231499949E-3</v>
+        <v>0.7350771427154541</v>
       </c>
       <c r="AW8" s="1">
+        <v>0.58769595623016357</v>
+      </c>
+      <c r="AX8" s="1">
         <v>288</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>1</v>
       </c>
       <c r="AY8" s="1">
         <v>1</v>
@@ -1672,43 +1685,43 @@
         <v>2.4767925310698047E-7</v>
       </c>
       <c r="AL9" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>6.2635599685405632E-10</v>
       </c>
       <c r="AM9" s="1">
-        <v>6.2635599685405632E-10</v>
+        <v>1.0230034916217332E-8</v>
       </c>
       <c r="AN9" s="1">
-        <v>1.0230034916217332E-8</v>
+        <v>1.4167870350761773E-8</v>
       </c>
       <c r="AO9" s="1">
-        <v>1.4167870350761773E-8</v>
+        <v>2.3526112730566477E-8</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.3526112730566477E-8</v>
+        <v>1.14590292810135E-8</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1.14590292810135E-8</v>
+        <v>5.592723506531172E-10</v>
       </c>
       <c r="AR9" s="1">
-        <v>5.592723506531172E-10</v>
+        <v>3.0068722737743147E-3</v>
       </c>
       <c r="AS9" s="1">
-        <v>-2.3209059119011499E-9</v>
+        <v>5.5830521753780886E-3</v>
       </c>
       <c r="AT9" s="1">
-        <v>-4.8311637357301151E-8</v>
+        <v>0.94568377733230591</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.0068722737743147E-3</v>
+        <v>0.80802702903747559</v>
       </c>
       <c r="AV9" s="1">
-        <v>5.5830521753780886E-3</v>
+        <v>0.63216120004653931</v>
       </c>
       <c r="AW9" s="1">
+        <v>0.45789790153503418</v>
+      </c>
+      <c r="AX9" s="1">
         <v>288</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>1</v>
       </c>
       <c r="AY9" s="1">
         <v>1</v>
@@ -1869,43 +1882,43 @@
         <v>2.6343693093622278E-7</v>
       </c>
       <c r="AL10" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.5126498836957378E-10</v>
       </c>
       <c r="AM10" s="1">
-        <v>5.5126498836957378E-10</v>
+        <v>8.4668842147087107E-9</v>
       </c>
       <c r="AN10" s="1">
-        <v>8.4668842147087107E-9</v>
+        <v>1.483114214382783E-8</v>
       </c>
       <c r="AO10" s="1">
-        <v>1.483114214382783E-8</v>
+        <v>2.4610872113796541E-8</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.4610872113796541E-8</v>
+        <v>1.0733304023347046E-8</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1.0733304023347046E-8</v>
+        <v>5.2385262794274468E-10</v>
       </c>
       <c r="AR10" s="1">
-        <v>5.2385262794274468E-10</v>
+        <v>3.1384469699312742E-3</v>
       </c>
       <c r="AS10" s="1">
-        <v>-2.3850339481157334E-9</v>
+        <v>8.1322923982073431E-3</v>
       </c>
       <c r="AT10" s="1">
-        <v>-4.7645684730923676E-8</v>
+        <v>0.92635989189147949</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.1384469699312742E-3</v>
+        <v>0.75043618679046631</v>
       </c>
       <c r="AV10" s="1">
-        <v>8.1322923982073431E-3</v>
+        <v>0.54419207572937012</v>
       </c>
       <c r="AW10" s="1">
+        <v>0.35976284742355347</v>
+      </c>
+      <c r="AX10" s="1">
         <v>288</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>1</v>
       </c>
       <c r="AY10" s="1">
         <v>1</v>
@@ -2066,43 +2079,43 @@
         <v>2.7411226710682968E-7</v>
       </c>
       <c r="AL11" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.3401148434451375E-10</v>
       </c>
       <c r="AM11" s="1">
-        <v>5.3401148434451375E-10</v>
+        <v>6.7408095631111472E-9</v>
       </c>
       <c r="AN11" s="1">
-        <v>6.7408095631111472E-9</v>
+        <v>1.5400749885444154E-8</v>
       </c>
       <c r="AO11" s="1">
-        <v>1.5400749885444154E-8</v>
+        <v>2.554980113784501E-8</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.554980113784501E-8</v>
+        <v>1.0388052196219633E-8</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1.0388052196219633E-8</v>
+        <v>5.0700194043074021E-10</v>
       </c>
       <c r="AR11" s="1">
-        <v>5.0700194043074021E-10</v>
+        <v>3.2669494528385534E-3</v>
       </c>
       <c r="AS11" s="1">
-        <v>-2.4518278518570469E-9</v>
+        <v>1.2870710287702493E-2</v>
       </c>
       <c r="AT11" s="1">
-        <v>-4.7142570736014022E-8</v>
+        <v>0.90161097049713135</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.2669494528385534E-3</v>
+        <v>0.68356496095657349</v>
       </c>
       <c r="AV11" s="1">
-        <v>1.2870710287702493E-2</v>
+        <v>0.45325031876564026</v>
       </c>
       <c r="AW11" s="1">
+        <v>0.27036988735198975</v>
+      </c>
+      <c r="AX11" s="1">
         <v>288</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>1</v>
       </c>
       <c r="AY11" s="1">
         <v>1</v>
@@ -2263,43 +2276,43 @@
         <v>2.8400916107784724E-7</v>
       </c>
       <c r="AL12" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>6.0408932910655379E-10</v>
       </c>
       <c r="AM12" s="1">
-        <v>6.0408932910655379E-10</v>
+        <v>4.4637916563133494E-9</v>
       </c>
       <c r="AN12" s="1">
-        <v>4.4637916563133494E-9</v>
+        <v>1.6079290233485255E-8</v>
       </c>
       <c r="AO12" s="1">
-        <v>1.6079290233485255E-8</v>
+        <v>2.6658059763991215E-8</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.6658059763991215E-8</v>
+        <v>1.0517629434048104E-8</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1.0517629434048104E-8</v>
+        <v>5.1332615935706372E-10</v>
       </c>
       <c r="AR12" s="1">
-        <v>5.1332615935706372E-10</v>
+        <v>3.5124426115541426E-3</v>
       </c>
       <c r="AS12" s="1">
-        <v>-2.5833812866693506E-9</v>
+        <v>2.6025033209277466E-2</v>
       </c>
       <c r="AT12" s="1">
-        <v>-4.6750415094720665E-8</v>
+        <v>0.85940617322921753</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.5124426115541426E-3</v>
+        <v>0.58494079113006592</v>
       </c>
       <c r="AV12" s="1">
-        <v>2.6025033209277466E-2</v>
+        <v>0.33894208073616028</v>
       </c>
       <c r="AW12" s="1">
+        <v>0.17493276298046112</v>
+      </c>
+      <c r="AX12" s="1">
         <v>288</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>1</v>
       </c>
       <c r="AY12" s="1">
         <v>1</v>
@@ -2460,43 +2473,43 @@
         <v>2.8937085971847409E-7</v>
       </c>
       <c r="AL13" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>7.4446952536890711E-10</v>
       </c>
       <c r="AM13" s="1">
-        <v>7.4446952536890711E-10</v>
+        <v>2.8981341774295476E-9</v>
       </c>
       <c r="AN13" s="1">
-        <v>2.8981341774295476E-9</v>
+        <v>1.6528485279228289E-8</v>
       </c>
       <c r="AO13" s="1">
-        <v>1.6528485279228289E-8</v>
+        <v>2.7364244936396026E-8</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.7364244936396026E-8</v>
+        <v>1.1049430703735652E-8</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1.1049430703735652E-8</v>
+        <v>5.3928134180480924E-10</v>
       </c>
       <c r="AR13" s="1">
-        <v>5.3928134180480924E-10</v>
+        <v>3.8356982014008654E-3</v>
       </c>
       <c r="AS13" s="1">
-        <v>-2.7278332925817494E-9</v>
+        <v>4.6414494448565109E-2</v>
       </c>
       <c r="AT13" s="1">
-        <v>-4.6521872576477108E-8</v>
+        <v>0.81981778144836426</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.8356982014008654E-3</v>
+        <v>0.5072169303894043</v>
       </c>
       <c r="AV13" s="1">
-        <v>4.6414494448565109E-2</v>
+        <v>0.26369211077690125</v>
       </c>
       <c r="AW13" s="1">
+        <v>0.12218616157770157</v>
+      </c>
+      <c r="AX13" s="1">
         <v>288</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>1</v>
       </c>
       <c r="AY13" s="1">
         <v>1</v>
@@ -2657,43 +2670,43 @@
         <v>2.5905802658598986E-7</v>
       </c>
       <c r="AL14" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.6894885978593483E-10</v>
       </c>
       <c r="AM14" s="1">
-        <v>5.6894885978593483E-10</v>
+        <v>9.0225432822009302E-9</v>
       </c>
       <c r="AN14" s="1">
-        <v>9.0225432822009302E-9</v>
+        <v>1.4631063248969622E-8</v>
       </c>
       <c r="AO14" s="1">
-        <v>1.4631063248969622E-8</v>
+        <v>2.4282343117254697E-8</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.4282343117254697E-8</v>
+        <v>1.0925802484962333E-8</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1.0925802484962333E-8</v>
+        <v>5.3324761273287891E-10</v>
       </c>
       <c r="AR14" s="1">
-        <v>5.3324761273287891E-10</v>
+        <v>3.0984529150511926E-3</v>
       </c>
       <c r="AS14" s="1">
-        <v>-2.3653179415106251E-9</v>
+        <v>7.1371250983980339E-3</v>
       </c>
       <c r="AT14" s="1">
-        <v>-4.7846359763070723E-8</v>
+        <v>0.93313455581665039</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.0984529150511926E-3</v>
+        <v>0.77006024122238159</v>
       </c>
       <c r="AV14" s="1">
-        <v>7.1371250983980339E-3</v>
+        <v>0.57312440872192383</v>
       </c>
       <c r="AW14" s="1">
+        <v>0.39075762033462524</v>
+      </c>
+      <c r="AX14" s="1">
         <v>288</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>1</v>
       </c>
       <c r="AY14" s="1">
         <v>1</v>
@@ -2854,43 +2867,43 @@
         <v>6.6366418138841254E-8</v>
       </c>
       <c r="AL15" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>2.862390786201319E-8</v>
       </c>
       <c r="AM15" s="1">
-        <v>2.862390786201319E-8</v>
+        <v>3.1560689468094732E-7</v>
       </c>
       <c r="AN15" s="1">
-        <v>3.1560689468094732E-7</v>
+        <v>7.5567457765574053E-7</v>
       </c>
       <c r="AO15" s="1">
-        <v>7.5567457765574053E-7</v>
+        <v>1.2529032601404921E-6</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.2529032601404921E-6</v>
+        <v>5.5744044402672444E-7</v>
       </c>
       <c r="AQ15" s="1">
-        <v>5.5744044402672444E-7</v>
+        <v>2.7206585428984909E-8</v>
       </c>
       <c r="AR15" s="1">
-        <v>2.7206585428984909E-8</v>
+        <v>2.1130677782019327E-3</v>
       </c>
       <c r="AS15" s="1">
-        <v>-1.2282941952435067E-7</v>
+        <v>7.6243569005749866E-3</v>
       </c>
       <c r="AT15" s="1">
-        <v>-2.4601615677966038E-6</v>
+        <v>0.93315684795379639</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.1130677782019327E-3</v>
+        <v>0.77012580633163452</v>
       </c>
       <c r="AV15" s="1">
-        <v>7.6243569005749866E-3</v>
+        <v>0.57322287559509277</v>
       </c>
       <c r="AW15" s="1">
+        <v>0.39086520671844482</v>
+      </c>
+      <c r="AX15" s="1">
         <v>288</v>
-      </c>
-      <c r="AX15" s="1">
-        <v>1</v>
       </c>
       <c r="AY15" s="1">
         <v>1</v>
@@ -3051,43 +3064,43 @@
         <v>1.8487964936753087E-8</v>
       </c>
       <c r="AL16" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.7675532828815885E-8</v>
       </c>
       <c r="AM16" s="1">
-        <v>5.7675532828815885E-8</v>
+        <v>3.9176351474045899E-7</v>
       </c>
       <c r="AN16" s="1">
-        <v>3.9176351474045899E-7</v>
+        <v>1.5561905789690522E-6</v>
       </c>
       <c r="AO16" s="1">
-        <v>1.5561905789690522E-6</v>
+        <v>2.5770099900540577E-6</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.5770099900540577E-6</v>
+        <v>1.1352216233717627E-6</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1.1352216233717627E-6</v>
+        <v>5.5405923404805435E-8</v>
       </c>
       <c r="AR16" s="1">
-        <v>5.5405923404805435E-8</v>
+        <v>1.1069586297016395E-3</v>
       </c>
       <c r="AS16" s="1">
-        <v>-2.5433195105506456E-7</v>
+        <v>8.1200806818931461E-3</v>
       </c>
       <c r="AT16" s="1">
-        <v>-5.0442436076991726E-6</v>
+        <v>0.93318110704421997</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.1069586297016395E-3</v>
+        <v>0.77019709348678589</v>
       </c>
       <c r="AV16" s="1">
-        <v>8.1200806818931461E-3</v>
+        <v>0.57332992553710938</v>
       </c>
       <c r="AW16" s="1">
+        <v>0.3909822404384613</v>
+      </c>
+      <c r="AX16" s="1">
         <v>288</v>
-      </c>
-      <c r="AX16" s="1">
-        <v>1</v>
       </c>
       <c r="AY16" s="1">
         <v>1</v>
@@ -3248,43 +3261,43 @@
         <v>5.4320801190499424E-9</v>
       </c>
       <c r="AL17" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>1.1606258612083949E-7</v>
       </c>
       <c r="AM17" s="1">
-        <v>1.1606258612083949E-7</v>
+        <v>4.1252763651014492E-7</v>
       </c>
       <c r="AN17" s="1">
-        <v>4.1252763651014492E-7</v>
+        <v>3.1866778337219515E-6</v>
       </c>
       <c r="AO17" s="1">
-        <v>3.1866778337219515E-6</v>
+        <v>5.2665701475995697E-6</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.2665701475995697E-6</v>
+        <v>2.3035370304569369E-6</v>
       </c>
       <c r="AQ17" s="1">
-        <v>2.3035370304569369E-6</v>
+        <v>1.1242703834568601E-7</v>
       </c>
       <c r="AR17" s="1">
-        <v>1.1242703834568601E-7</v>
+        <v>-9.0556657709961355E-4</v>
       </c>
       <c r="AS17" s="1">
-        <v>-5.2583595788746607E-7</v>
+        <v>9.1107622960835792E-3</v>
       </c>
       <c r="AT17" s="1">
-        <v>-1.0271794963045977E-5</v>
+        <v>0.93323057889938354</v>
       </c>
       <c r="AU17" s="1">
-        <v>-9.0556657709961355E-4</v>
+        <v>0.77034264802932739</v>
       </c>
       <c r="AV17" s="1">
-        <v>9.1107622960835792E-3</v>
+        <v>0.57354855537414551</v>
       </c>
       <c r="AW17" s="1">
+        <v>0.39122125506401062</v>
+      </c>
+      <c r="AX17" s="1">
         <v>288</v>
-      </c>
-      <c r="AX17" s="1">
-        <v>1</v>
       </c>
       <c r="AY17" s="1">
         <v>1</v>
@@ -3445,43 +3458,43 @@
         <v>1.4328112030170814E-9</v>
       </c>
       <c r="AL18" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>2.91729214505973E-7</v>
       </c>
       <c r="AM18" s="1">
-        <v>2.91729214505973E-7</v>
+        <v>4.1887792466901552E-7</v>
       </c>
       <c r="AN18" s="1">
-        <v>4.1887792466901552E-7</v>
+        <v>8.0962475287882363E-6</v>
       </c>
       <c r="AO18" s="1">
-        <v>8.0962475287882363E-6</v>
+        <v>1.3342353470280344E-5</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.3342353470280344E-5</v>
+        <v>5.8377981986268423E-6</v>
       </c>
       <c r="AQ18" s="1">
-        <v>5.8377981986268423E-6</v>
+        <v>2.8492110004663118E-7</v>
       </c>
       <c r="AR18" s="1">
-        <v>2.8492110004663118E-7</v>
+        <v>-6.9428901325376121E-3</v>
       </c>
       <c r="AS18" s="1">
-        <v>-1.3543849490815774E-6</v>
+        <v>1.2082915985017321E-2</v>
       </c>
       <c r="AT18" s="1">
-        <v>-2.5965729946619831E-5</v>
+        <v>0.93337982892990112</v>
       </c>
       <c r="AU18" s="1">
-        <v>-6.9428901325376121E-3</v>
+        <v>0.77078181505203247</v>
       </c>
       <c r="AV18" s="1">
-        <v>1.2082915985017321E-2</v>
+        <v>0.57420849800109863</v>
       </c>
       <c r="AW18" s="1">
+        <v>0.39194324612617493</v>
+      </c>
+      <c r="AX18" s="1">
         <v>288</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>1</v>
       </c>
       <c r="AY18" s="1">
         <v>1</v>
@@ -3642,43 +3655,43 @@
         <v>8.5186641074486147E-10</v>
       </c>
       <c r="AL19" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>4.3871460777547213E-7</v>
       </c>
       <c r="AM19" s="1">
-        <v>4.3871460777547213E-7</v>
+        <v>4.1980715758157299E-7</v>
       </c>
       <c r="AN19" s="1">
-        <v>4.1980715758157299E-7</v>
+        <v>1.218352345733198E-5</v>
       </c>
       <c r="AO19" s="1">
-        <v>1.218352345733198E-5</v>
+        <v>2.0060090131002184E-5</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.0060090131002184E-5</v>
+        <v>8.8181013779831119E-6</v>
       </c>
       <c r="AQ19" s="1">
-        <v>8.8181013779831119E-6</v>
+        <v>4.3037854879912629E-7</v>
       </c>
       <c r="AR19" s="1">
-        <v>4.3037854879912629E-7</v>
+        <v>-1.1973685784724825E-2</v>
       </c>
       <c r="AS19" s="1">
-        <v>-2.0501295239228057E-6</v>
+        <v>1.4560062189143247E-2</v>
       </c>
       <c r="AT19" s="1">
-        <v>-3.9068920159479603E-5</v>
+        <v>0.93350446224212646</v>
       </c>
       <c r="AU19" s="1">
-        <v>-1.1973685784724825E-2</v>
+        <v>0.7711489200592041</v>
       </c>
       <c r="AV19" s="1">
-        <v>1.4560062189143247E-2</v>
+        <v>0.5747605562210083</v>
       </c>
       <c r="AW19" s="1">
+        <v>0.39254769682884216</v>
+      </c>
+      <c r="AX19" s="1">
         <v>288</v>
-      </c>
-      <c r="AX19" s="1">
-        <v>1</v>
       </c>
       <c r="AY19" s="1">
         <v>1</v>
@@ -3839,43 +3852,43 @@
         <v>5.9968596755055614E-10</v>
       </c>
       <c r="AL20" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.862725895224713E-7</v>
       </c>
       <c r="AM20" s="1">
-        <v>5.862725895224713E-7</v>
+        <v>4.2021107600448151E-7</v>
       </c>
       <c r="AN20" s="1">
-        <v>4.2021107600448151E-7</v>
+        <v>1.6262838366198906E-5</v>
       </c>
       <c r="AO20" s="1">
-        <v>1.6262838366198906E-5</v>
+        <v>2.6766246068232746E-5</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.6766246068232746E-5</v>
+        <v>1.1832788914034609E-5</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1.1832788914034609E-5</v>
+        <v>5.7751412896323018E-7</v>
       </c>
       <c r="AR20" s="1">
-        <v>5.7751412896323018E-7</v>
+        <v>-1.700429948106259E-2</v>
       </c>
       <c r="AS20" s="1">
-        <v>-2.748551423792378E-6</v>
+        <v>1.7037443932533262E-2</v>
       </c>
       <c r="AT20" s="1">
-        <v>-5.2204777603037655E-5</v>
+        <v>0.93362933397293091</v>
       </c>
       <c r="AU20" s="1">
-        <v>-1.700429948106259E-2</v>
+        <v>0.77151685953140259</v>
       </c>
       <c r="AV20" s="1">
-        <v>1.7037443932533262E-2</v>
+        <v>0.57531428337097168</v>
       </c>
       <c r="AW20" s="1">
+        <v>0.39315438270568848</v>
+      </c>
+      <c r="AX20" s="1">
         <v>288</v>
-      </c>
-      <c r="AX20" s="1">
-        <v>1</v>
       </c>
       <c r="AY20" s="1">
         <v>1</v>
@@ -4036,43 +4049,43 @@
         <v>3.7214589743150839E-10</v>
       </c>
       <c r="AL21" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>8.831254825368216E-7</v>
       </c>
       <c r="AM21" s="1">
-        <v>8.831254825368216E-7</v>
+        <v>4.205618508137978E-7</v>
       </c>
       <c r="AN21" s="1">
-        <v>4.205618508137978E-7</v>
+        <v>2.439233648021677E-5</v>
       </c>
       <c r="AO21" s="1">
-        <v>2.439233648021677E-5</v>
+        <v>4.0140446064595992E-5</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.0140446064595992E-5</v>
+        <v>1.7968468455364928E-5</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1.7968468455364928E-5</v>
+        <v>8.7697361550453934E-7</v>
       </c>
       <c r="AR21" s="1">
-        <v>8.7697361550453934E-7</v>
+        <v>-2.7065238867628762E-2</v>
       </c>
       <c r="AS21" s="1">
-        <v>-4.1522448555042502E-6</v>
+        <v>2.1992671739904601E-2</v>
       </c>
       <c r="AT21" s="1">
-        <v>-7.8586403105873615E-5</v>
+        <v>0.93387967348098755</v>
       </c>
       <c r="AU21" s="1">
-        <v>-2.7065238867628762E-2</v>
+        <v>0.77225512266159058</v>
       </c>
       <c r="AV21" s="1">
-        <v>2.1992671739904601E-2</v>
+        <v>0.57642638683319092</v>
       </c>
       <c r="AW21" s="1">
+        <v>0.39437434077262878</v>
+      </c>
+      <c r="AX21" s="1">
         <v>288</v>
-      </c>
-      <c r="AX21" s="1">
-        <v>1</v>
       </c>
       <c r="AY21" s="1">
         <v>1</v>
@@ -4233,43 +4246,43 @@
         <v>2.673633814342935E-10</v>
       </c>
       <c r="AL22" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>1.1822925471082456E-6</v>
       </c>
       <c r="AM22" s="1">
-        <v>1.1822925471082456E-6</v>
+        <v>4.2072620506857624E-7</v>
       </c>
       <c r="AN22" s="1">
-        <v>4.2072620506857624E-7</v>
+        <v>3.2479831417742133E-5</v>
       </c>
       <c r="AO22" s="1">
-        <v>3.2479831417742133E-5</v>
+        <v>5.3461060396831073E-5</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.3461060396831073E-5</v>
+        <v>2.4251328795799054E-5</v>
       </c>
       <c r="AQ22" s="1">
-        <v>2.4251328795799054E-5</v>
+        <v>1.1836166322609643E-6</v>
       </c>
       <c r="AR22" s="1">
-        <v>1.1836166322609643E-6</v>
+        <v>-3.7126035358513082E-2</v>
       </c>
       <c r="AS22" s="1">
-        <v>-5.5648101806582417E-6</v>
+        <v>2.6948278474829661E-2</v>
       </c>
       <c r="AT22" s="1">
-        <v>-1.0512244625715539E-4</v>
+        <v>0.93413078784942627</v>
       </c>
       <c r="AU22" s="1">
-        <v>-3.7126035358513082E-2</v>
+        <v>0.77299642562866211</v>
       </c>
       <c r="AV22" s="1">
-        <v>2.6948278474829661E-2</v>
+        <v>0.57754462957382202</v>
       </c>
       <c r="AW22" s="1">
+        <v>0.39560288190841675</v>
+      </c>
+      <c r="AX22" s="1">
         <v>288</v>
-      </c>
-      <c r="AX22" s="1">
-        <v>1</v>
       </c>
       <c r="AY22" s="1">
         <v>1</v>
@@ -4430,43 +4443,43 @@
         <v>2.061236159534019E-8</v>
       </c>
       <c r="AL23" s="1">
-        <v>4.4979849705972796E-11</v>
+        <v>1.0398105565591158E-8</v>
       </c>
       <c r="AM23" s="1">
-        <v>1.0398105565591158E-8</v>
+        <v>5.8341632679611073E-10</v>
       </c>
       <c r="AN23" s="1">
-        <v>5.8341632679611073E-10</v>
+        <v>7.6069991021575993E-9</v>
       </c>
       <c r="AO23" s="1">
-        <v>7.6069991021575993E-9</v>
+        <v>1.2755204825832971E-8</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.2755204825832971E-8</v>
+        <v>1.0528623306527152E-8</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1.0528623306527152E-8</v>
+        <v>5.1386273014486505E-10</v>
       </c>
       <c r="AR23" s="1">
-        <v>5.1386273014486505E-10</v>
+        <v>1.2491880935093878E-3</v>
       </c>
       <c r="AS23" s="1">
-        <v>-1.6523592494266381E-9</v>
+        <v>3.6939247766086081E-3</v>
       </c>
       <c r="AT23" s="1">
-        <v>-4.2496669294678213E-8</v>
+        <v>0.93664896488189697</v>
       </c>
       <c r="AU23" s="1">
-        <v>1.2491880935093878E-3</v>
+        <v>0.78047728538513184</v>
       </c>
       <c r="AV23" s="1">
-        <v>3.6939247766086081E-3</v>
+        <v>0.58891528844833374</v>
       </c>
       <c r="AW23" s="1">
+        <v>0.40820139646530151</v>
+      </c>
+      <c r="AX23" s="1">
         <v>288</v>
-      </c>
-      <c r="AX23" s="1">
-        <v>1</v>
       </c>
       <c r="AY23" s="1">
         <v>1</v>
@@ -4627,43 +4640,43 @@
         <v>1.3885093608223542E-7</v>
       </c>
       <c r="AL24" s="1">
-        <v>4.4979850399862187E-10</v>
+        <v>9.4845825926188204E-9</v>
       </c>
       <c r="AM24" s="1">
-        <v>9.4845825926188204E-9</v>
+        <v>2.4211103541920192E-9</v>
       </c>
       <c r="AN24" s="1">
-        <v>2.4211103541920192E-9</v>
+        <v>1.1717371566049402E-8</v>
       </c>
       <c r="AO24" s="1">
-        <v>1.1717371566049402E-8</v>
+        <v>1.9562370966097079E-8</v>
       </c>
       <c r="AP24" s="1">
-        <v>1.9562370966097079E-8</v>
+        <v>1.1404772237710858E-8</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1.1404772237710858E-8</v>
+        <v>5.5662424669478128E-10</v>
       </c>
       <c r="AR24" s="1">
-        <v>5.5662424669478128E-10</v>
+        <v>1.5256022555239059E-3</v>
       </c>
       <c r="AS24" s="1">
-        <v>-2.3521511405277806E-9</v>
+        <v>4.0761082626160038E-3</v>
       </c>
       <c r="AT24" s="1">
-        <v>-4.6177881074527249E-8</v>
+        <v>0.93688255548477173</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.5256022555239059E-3</v>
+        <v>0.78117567300796509</v>
       </c>
       <c r="AV24" s="1">
-        <v>4.0761082626160038E-3</v>
+        <v>0.5899847149848938</v>
       </c>
       <c r="AW24" s="1">
+        <v>0.40939635038375854</v>
+      </c>
+      <c r="AX24" s="1">
         <v>288</v>
-      </c>
-      <c r="AX24" s="1">
-        <v>1</v>
       </c>
       <c r="AY24" s="1">
         <v>1</v>
@@ -4824,43 +4837,43 @@
         <v>3.2252543746835727E-7</v>
       </c>
       <c r="AL25" s="1">
-        <v>4.4979850954973699E-9</v>
+        <v>6.5943375775114749E-9</v>
       </c>
       <c r="AM25" s="1">
-        <v>6.5943375775114749E-9</v>
+        <v>4.9578719777426585E-9</v>
       </c>
       <c r="AN25" s="1">
-        <v>4.9578719777426585E-9</v>
+        <v>1.3766468189928182E-8</v>
       </c>
       <c r="AO25" s="1">
-        <v>1.3766468189928182E-8</v>
+        <v>2.2875949697994244E-8</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.2875949697994244E-8</v>
+        <v>1.1206672034802523E-8</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1.1206672034802523E-8</v>
+        <v>5.4695575846253064E-10</v>
       </c>
       <c r="AR25" s="1">
-        <v>5.4695575846253064E-10</v>
+        <v>2.3756143234378909E-3</v>
       </c>
       <c r="AS25" s="1">
-        <v>-2.397474885285078E-9</v>
+        <v>5.3504701995818645E-3</v>
       </c>
       <c r="AT25" s="1">
-        <v>-4.6222844218846149E-8</v>
+        <v>0.93581908941268921</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.3756143234378909E-3</v>
+        <v>0.77800267934799194</v>
       </c>
       <c r="AV25" s="1">
-        <v>5.3504701995818645E-3</v>
+        <v>0.58513659238815308</v>
       </c>
       <c r="AW25" s="1">
+        <v>0.40399312973022461</v>
+      </c>
+      <c r="AX25" s="1">
         <v>288</v>
-      </c>
-      <c r="AX25" s="1">
-        <v>1</v>
       </c>
       <c r="AY25" s="1">
         <v>1</v>
@@ -5021,43 +5034,43 @@
         <v>3.3428815982006199E-7</v>
       </c>
       <c r="AL26" s="1">
-        <v>4.497984917861686E-8</v>
+        <v>1.692515486594569E-9</v>
       </c>
       <c r="AM26" s="1">
-        <v>1.692515486594569E-9</v>
+        <v>7.312585725378506E-9</v>
       </c>
       <c r="AN26" s="1">
-        <v>7.312585725378506E-9</v>
+        <v>1.4261458708799465E-8</v>
       </c>
       <c r="AO26" s="1">
-        <v>1.4261458708799465E-8</v>
+        <v>2.3670382844135892E-8</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.3670382844135892E-8</v>
+        <v>1.0848707709953942E-8</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1.0848707709953942E-8</v>
+        <v>5.2948484485781933E-10</v>
       </c>
       <c r="AR26" s="1">
-        <v>5.2948484485781933E-10</v>
+        <v>2.9410255973027193E-3</v>
       </c>
       <c r="AS26" s="1">
-        <v>-2.3680424288130553E-9</v>
+        <v>6.759722728174271E-3</v>
       </c>
       <c r="AT26" s="1">
-        <v>-4.6679179632747037E-8</v>
+        <v>0.93367773294448853</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.9410255973027193E-3</v>
+        <v>0.77165943384170532</v>
       </c>
       <c r="AV26" s="1">
-        <v>6.759722728174271E-3</v>
+        <v>0.57552897930145264</v>
       </c>
       <c r="AW26" s="1">
+        <v>0.39338973164558411</v>
+      </c>
+      <c r="AX26" s="1">
         <v>288</v>
-      </c>
-      <c r="AX26" s="1">
-        <v>1</v>
       </c>
       <c r="AY26" s="1">
         <v>1</v>
@@ -5218,43 +5231,43 @@
         <v>1.6801651270270668E-7</v>
       </c>
       <c r="AL27" s="1">
-        <v>4.4979850599702331E-7</v>
+        <v>2.6246100323472354E-10</v>
       </c>
       <c r="AM27" s="1">
-        <v>2.6246100323472354E-10</v>
+        <v>1.0097348400122257E-8</v>
       </c>
       <c r="AN27" s="1">
-        <v>1.0097348400122257E-8</v>
+        <v>1.5080825523268448E-8</v>
       </c>
       <c r="AO27" s="1">
-        <v>1.5080825523268448E-8</v>
+        <v>2.5027419202610507E-8</v>
       </c>
       <c r="AP27" s="1">
-        <v>2.5027419202610507E-8</v>
+        <v>1.1120830478716925E-8</v>
       </c>
       <c r="AQ27" s="1">
-        <v>1.1120830478716925E-8</v>
+        <v>5.4276610983450269E-10</v>
       </c>
       <c r="AR27" s="1">
-        <v>5.4276610983450269E-10</v>
+        <v>3.1439506728161686E-3</v>
       </c>
       <c r="AS27" s="1">
-        <v>-2.3981083785429291E-9</v>
+        <v>7.2498701155968466E-3</v>
       </c>
       <c r="AT27" s="1">
-        <v>-4.9272994573357209E-8</v>
+        <v>0.9329717755317688</v>
       </c>
       <c r="AU27" s="1">
-        <v>3.1439506728161686E-3</v>
+        <v>0.76958161592483521</v>
       </c>
       <c r="AV27" s="1">
-        <v>7.2498701155968466E-3</v>
+        <v>0.57240617275238037</v>
       </c>
       <c r="AW27" s="1">
+        <v>0.38997307419776917</v>
+      </c>
+      <c r="AX27" s="1">
         <v>288</v>
-      </c>
-      <c r="AX27" s="1">
-        <v>1</v>
       </c>
       <c r="AY27" s="1">
         <v>1</v>
@@ -5415,43 +5428,43 @@
         <v>2.5246603030382175E-8</v>
       </c>
       <c r="AL28" s="1">
-        <v>4.4979851736570708E-6</v>
+        <v>8.7163037511199895E-11</v>
       </c>
       <c r="AM28" s="1">
-        <v>8.7163037511199895E-11</v>
+        <v>1.2125907891023076E-8</v>
       </c>
       <c r="AN28" s="1">
-        <v>1.2125907891023076E-8</v>
+        <v>1.6585499392277048E-8</v>
       </c>
       <c r="AO28" s="1">
-        <v>1.6585499392277048E-8</v>
+        <v>2.7674042727549031E-8</v>
       </c>
       <c r="AP28" s="1">
-        <v>2.7674042727549031E-8</v>
+        <v>1.1885022743740592E-8</v>
       </c>
       <c r="AQ28" s="1">
-        <v>1.1885022743740592E-8</v>
+        <v>5.8006349723527251E-10</v>
       </c>
       <c r="AR28" s="1">
-        <v>5.8006349723527251E-10</v>
+        <v>3.1137379871646982E-3</v>
       </c>
       <c r="AS28" s="1">
-        <v>-2.6187751966944006E-9</v>
+        <v>7.3390701579148137E-3</v>
       </c>
       <c r="AT28" s="1">
-        <v>-5.3969031910128251E-8</v>
+        <v>0.93269175291061401</v>
       </c>
       <c r="AU28" s="1">
-        <v>3.1137379871646982E-3</v>
+        <v>0.76875925064086914</v>
       </c>
       <c r="AV28" s="1">
-        <v>7.3390701579148137E-3</v>
+        <v>0.57117354869842529</v>
       </c>
       <c r="AW28" s="1">
+        <v>0.38862845301628113</v>
+      </c>
+      <c r="AX28" s="1">
         <v>288</v>
-      </c>
-      <c r="AX28" s="1">
-        <v>1</v>
       </c>
       <c r="AY28" s="1">
         <v>1</v>
@@ -5612,43 +5625,43 @@
         <v>1.2988572439809332E-9</v>
       </c>
       <c r="AL29" s="1">
-        <v>4.4979849917581305E-5</v>
+        <v>4.3744077920117292E-11</v>
       </c>
       <c r="AM29" s="1">
-        <v>4.3744077920117292E-11</v>
+        <v>1.4485365898694518E-8</v>
       </c>
       <c r="AN29" s="1">
-        <v>1.4485365898694518E-8</v>
+        <v>1.7436842197557367E-8</v>
       </c>
       <c r="AO29" s="1">
-        <v>1.7436842197557367E-8</v>
+        <v>3.0690675667521816E-8</v>
       </c>
       <c r="AP29" s="1">
-        <v>3.0690675667521816E-8</v>
+        <v>1.2929461945532239E-8</v>
       </c>
       <c r="AQ29" s="1">
-        <v>1.2929461945532239E-8</v>
+        <v>6.3103866576597056E-10</v>
       </c>
       <c r="AR29" s="1">
-        <v>6.3103866576597056E-10</v>
+        <v>2.7595461980379978E-3</v>
       </c>
       <c r="AS29" s="1">
-        <v>-2.8358366765957044E-9</v>
+        <v>7.5365753973853514E-3</v>
       </c>
       <c r="AT29" s="1">
-        <v>-5.8767312793861493E-8</v>
+        <v>0.93113869428634644</v>
       </c>
       <c r="AU29" s="1">
-        <v>2.7595461980379978E-3</v>
+        <v>0.76421678066253662</v>
       </c>
       <c r="AV29" s="1">
-        <v>7.5365753973853514E-3</v>
+        <v>0.56439882516860962</v>
       </c>
       <c r="AW29" s="1">
+        <v>0.38127866387367249</v>
+      </c>
+      <c r="AX29" s="1">
         <v>288</v>
-      </c>
-      <c r="AX29" s="1">
-        <v>1</v>
       </c>
       <c r="AY29" s="1">
         <v>1</v>
@@ -5809,43 +5822,43 @@
         <v>2.5680094495328376E-7</v>
       </c>
       <c r="AL30" s="1">
-        <v>5.0386113059630588E-8</v>
+        <v>6.5108985290349662E-10</v>
       </c>
       <c r="AM30" s="1">
-        <v>6.5108985290349662E-10</v>
+        <v>9.46897275793528E-9</v>
       </c>
       <c r="AN30" s="1">
-        <v>9.46897275793528E-9</v>
+        <v>1.4339961917995275E-8</v>
       </c>
       <c r="AO30" s="1">
-        <v>1.4339961917995275E-8</v>
+        <v>2.4105911040895028E-8</v>
       </c>
       <c r="AP30" s="1">
-        <v>2.4105911040895028E-8</v>
+        <v>1.0658757432224775E-8</v>
       </c>
       <c r="AQ30" s="1">
-        <v>1.0658757432224775E-8</v>
+        <v>5.2021409402414065E-10</v>
       </c>
       <c r="AR30" s="1">
-        <v>5.2021409402414065E-10</v>
+        <v>3.1148071807254054E-3</v>
       </c>
       <c r="AS30" s="1">
-        <v>-2.3170536600503056E-9</v>
+        <v>7.1865160025454695E-3</v>
       </c>
       <c r="AT30" s="1">
-        <v>-4.7161023530861712E-8</v>
+        <v>0.93423563241958618</v>
       </c>
       <c r="AU30" s="1">
-        <v>3.1148071807254054E-3</v>
+        <v>0.77355730533599854</v>
       </c>
       <c r="AV30" s="1">
-        <v>7.1865160025454695E-3</v>
+        <v>0.57877033948898315</v>
       </c>
       <c r="AW30" s="1">
+        <v>0.39736798405647278</v>
+      </c>
+      <c r="AX30" s="1">
         <v>274</v>
-      </c>
-      <c r="AX30" s="1">
-        <v>1</v>
       </c>
       <c r="AY30" s="1">
         <v>1</v>
@@ -6006,43 +6019,43 @@
         <v>2.5794932412281923E-7</v>
       </c>
       <c r="AL31" s="1">
-        <v>7.1851538052669639E-8</v>
+        <v>6.248171407347014E-10</v>
       </c>
       <c r="AM31" s="1">
-        <v>6.248171407347014E-10</v>
+        <v>9.3205768644424622E-9</v>
       </c>
       <c r="AN31" s="1">
-        <v>9.3205768644424622E-9</v>
+        <v>1.4414301038358224E-8</v>
       </c>
       <c r="AO31" s="1">
-        <v>1.4414301038358224E-8</v>
+        <v>2.4154820491440604E-8</v>
       </c>
       <c r="AP31" s="1">
-        <v>2.4154820491440604E-8</v>
+        <v>1.0728481214528074E-8</v>
       </c>
       <c r="AQ31" s="1">
-        <v>1.0728481214528074E-8</v>
+        <v>5.2361703861691922E-10</v>
       </c>
       <c r="AR31" s="1">
-        <v>5.2361703861691922E-10</v>
+        <v>3.1098493988407534E-3</v>
       </c>
       <c r="AS31" s="1">
-        <v>-2.3298341034205805E-9</v>
+        <v>7.173630456403424E-3</v>
       </c>
       <c r="AT31" s="1">
-        <v>-4.7339916875444032E-8</v>
+        <v>0.93391072750091553</v>
       </c>
       <c r="AU31" s="1">
-        <v>3.1098493988407534E-3</v>
+        <v>0.77252644300460815</v>
       </c>
       <c r="AV31" s="1">
-        <v>7.173630456403424E-3</v>
+        <v>0.57710623741149902</v>
       </c>
       <c r="AW31" s="1">
+        <v>0.39541810750961304</v>
+      </c>
+      <c r="AX31" s="1">
         <v>278</v>
-      </c>
-      <c r="AX31" s="1">
-        <v>1</v>
       </c>
       <c r="AY31" s="1">
         <v>1</v>
@@ -6203,43 +6216,43 @@
         <v>2.5883386456371227E-7</v>
       </c>
       <c r="AL32" s="1">
-        <v>1.1039902858556161E-7</v>
+        <v>5.952485073856123E-10</v>
       </c>
       <c r="AM32" s="1">
-        <v>5.952485073856123E-10</v>
+        <v>9.1571212176030084E-9</v>
       </c>
       <c r="AN32" s="1">
-        <v>9.1571212176030084E-9</v>
+        <v>1.4516749084173171E-8</v>
       </c>
       <c r="AO32" s="1">
-        <v>1.4516749084173171E-8</v>
+        <v>2.4217216888951232E-8</v>
       </c>
       <c r="AP32" s="1">
-        <v>2.4217216888951232E-8</v>
+        <v>1.0822861717940668E-8</v>
       </c>
       <c r="AQ32" s="1">
-        <v>1.0822861717940668E-8</v>
+        <v>5.2822335394608899E-10</v>
       </c>
       <c r="AR32" s="1">
-        <v>5.2822335394608899E-10</v>
+        <v>3.1039915447911284E-3</v>
       </c>
       <c r="AS32" s="1">
-        <v>-2.3467738863303111E-9</v>
+        <v>7.156130876253157E-3</v>
       </c>
       <c r="AT32" s="1">
-        <v>-4.758155114359397E-8</v>
+        <v>0.93351620435714722</v>
       </c>
       <c r="AU32" s="1">
-        <v>3.1039915447911284E-3</v>
+        <v>0.77127355337142944</v>
       </c>
       <c r="AV32" s="1">
-        <v>7.156130876253157E-3</v>
+        <v>0.57508355379104614</v>
       </c>
       <c r="AW32" s="1">
+        <v>0.39304983615875244</v>
+      </c>
+      <c r="AX32" s="1">
         <v>283</v>
-      </c>
-      <c r="AX32" s="1">
-        <v>1</v>
       </c>
       <c r="AY32" s="1">
         <v>1</v>
@@ -6400,43 +6413,43 @@
         <v>2.5905774236889556E-7</v>
       </c>
       <c r="AL33" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.6895281758465033E-10</v>
       </c>
       <c r="AM33" s="1">
-        <v>5.6895281758465033E-10</v>
+        <v>9.0225792038986964E-9</v>
       </c>
       <c r="AN33" s="1">
-        <v>9.0225792038986964E-9</v>
+        <v>1.4631477221319945E-8</v>
       </c>
       <c r="AO33" s="1">
-        <v>1.4631477221319945E-8</v>
+        <v>2.4283039289432762E-8</v>
       </c>
       <c r="AP33" s="1">
-        <v>2.4283039289432762E-8</v>
+        <v>1.0926068050309823E-8</v>
       </c>
       <c r="AQ33" s="1">
-        <v>1.0926068050309823E-8</v>
+        <v>5.3326054683111579E-10</v>
       </c>
       <c r="AR33" s="1">
-        <v>5.3326054683111579E-10</v>
+        <v>3.0984529692265898E-3</v>
       </c>
       <c r="AS33" s="1">
-        <v>-2.3653181635552301E-9</v>
+        <v>7.1371251514870228E-3</v>
       </c>
       <c r="AT33" s="1">
-        <v>-4.7847176887216847E-8</v>
+        <v>0.93313455581665039</v>
       </c>
       <c r="AU33" s="1">
-        <v>3.0984529692265898E-3</v>
+        <v>0.77006024122238159</v>
       </c>
       <c r="AV33" s="1">
-        <v>7.1371251514870228E-3</v>
+        <v>0.57312440872192383</v>
       </c>
       <c r="AW33" s="1">
+        <v>0.39075762033462524</v>
+      </c>
+      <c r="AX33" s="1">
         <v>288</v>
-      </c>
-      <c r="AX33" s="1">
-        <v>1</v>
       </c>
       <c r="AY33" s="1">
         <v>1</v>
@@ -6597,43 +6610,43 @@
         <v>2.5853290708255372E-7</v>
       </c>
       <c r="AL34" s="1">
-        <v>2.4941655851762334E-7</v>
+        <v>5.4557986844646147E-10</v>
       </c>
       <c r="AM34" s="1">
-        <v>5.4557986844646147E-10</v>
+        <v>8.9220320198626619E-9</v>
       </c>
       <c r="AN34" s="1">
-        <v>8.9220320198626619E-9</v>
+        <v>1.4759921008176448E-8</v>
       </c>
       <c r="AO34" s="1">
-        <v>1.4759921008176448E-8</v>
+        <v>2.4353866790415013E-8</v>
       </c>
       <c r="AP34" s="1">
-        <v>2.4353866790415013E-8</v>
+        <v>1.103874502916824E-8</v>
       </c>
       <c r="AQ34" s="1">
-        <v>1.103874502916824E-8</v>
+        <v>5.3875987005014281E-10</v>
       </c>
       <c r="AR34" s="1">
-        <v>5.3875987005014281E-10</v>
+        <v>3.0931885314652357E-3</v>
       </c>
       <c r="AS34" s="1">
-        <v>-2.3860471376480064E-9</v>
+        <v>7.1166596089337125E-3</v>
       </c>
       <c r="AT34" s="1">
-        <v>-4.8139835229221717E-8</v>
+        <v>0.93276584148406982</v>
       </c>
       <c r="AU34" s="1">
-        <v>3.0931885314652357E-3</v>
+        <v>0.7688862681388855</v>
       </c>
       <c r="AV34" s="1">
-        <v>7.1166596089337125E-3</v>
+        <v>0.5712282657623291</v>
       </c>
       <c r="AW34" s="1">
+        <v>0.38854023814201355</v>
+      </c>
+      <c r="AX34" s="1">
         <v>293</v>
-      </c>
-      <c r="AX34" s="1">
-        <v>1</v>
       </c>
       <c r="AY34" s="1">
         <v>1</v>
@@ -6794,43 +6807,43 @@
         <v>2.5712898832352948E-7</v>
       </c>
       <c r="AL35" s="1">
-        <v>3.6727897168020718E-7</v>
+        <v>5.2481405828671938E-10</v>
       </c>
       <c r="AM35" s="1">
-        <v>5.2481405828671938E-10</v>
+        <v>8.8600900077142551E-9</v>
       </c>
       <c r="AN35" s="1">
-        <v>8.8600900077142551E-9</v>
+        <v>1.4902400140509933E-8</v>
       </c>
       <c r="AO35" s="1">
-        <v>1.4902400140509933E-8</v>
+        <v>2.4429472522810233E-8</v>
       </c>
       <c r="AP35" s="1">
-        <v>2.4429472522810233E-8</v>
+        <v>1.1160876667304365E-8</v>
       </c>
       <c r="AQ35" s="1">
-        <v>1.1160876667304365E-8</v>
+        <v>5.4472060195820404E-10</v>
       </c>
       <c r="AR35" s="1">
-        <v>5.4472060195820404E-10</v>
+        <v>3.0881496887887449E-3</v>
       </c>
       <c r="AS35" s="1">
-        <v>-2.4094830575194237E-9</v>
+        <v>7.0947942592767006E-3</v>
       </c>
       <c r="AT35" s="1">
-        <v>-4.8459224188945882E-8</v>
+        <v>0.93240982294082642</v>
       </c>
       <c r="AU35" s="1">
-        <v>3.0881496887887449E-3</v>
+        <v>0.76775115728378296</v>
       </c>
       <c r="AV35" s="1">
-        <v>7.0947942592767006E-3</v>
+        <v>0.56939399242401123</v>
       </c>
       <c r="AW35" s="1">
+        <v>0.38639608025550842</v>
+      </c>
+      <c r="AX35" s="1">
         <v>298</v>
-      </c>
-      <c r="AX35" s="1">
-        <v>1</v>
       </c>
       <c r="AY35" s="1">
         <v>1</v>
@@ -6991,43 +7004,43 @@
         <v>1.2209516730976588E-9</v>
       </c>
       <c r="AL36" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>1.0852616299551762E-7</v>
       </c>
       <c r="AM36" s="1">
-        <v>1.0852616299551762E-7</v>
+        <v>4.183657516475821E-7</v>
       </c>
       <c r="AN36" s="1">
-        <v>4.183657516475821E-7</v>
+        <v>1.4185524507930036E-6</v>
       </c>
       <c r="AO36" s="1">
-        <v>1.4185524507930036E-6</v>
+        <v>2.3501101289909176E-6</v>
       </c>
       <c r="AP36" s="1">
-        <v>2.3501101289909176E-6</v>
+        <v>1.5558740642518387E-6</v>
       </c>
       <c r="AQ36" s="1">
-        <v>1.5558740642518387E-6</v>
+        <v>7.5936426924272382E-8</v>
       </c>
       <c r="AR36" s="1">
-        <v>7.5936426924272382E-8</v>
+        <v>4.8752561467802673E-4</v>
       </c>
       <c r="AS36" s="1">
-        <v>-2.5621042709644826E-7</v>
+        <v>4.0169389923219983E-3</v>
       </c>
       <c r="AT36" s="1">
-        <v>-5.4653723964293022E-6</v>
+        <v>0.97440832853317261</v>
       </c>
       <c r="AU36" s="1">
-        <v>4.8752561467802673E-4</v>
+        <v>0.90353554487228394</v>
       </c>
       <c r="AV36" s="1">
-        <v>4.0169389923219983E-3</v>
+        <v>0.79981696605682373</v>
       </c>
       <c r="AW36" s="1">
+        <v>0.67785972356796265</v>
+      </c>
+      <c r="AX36" s="1">
         <v>288</v>
-      </c>
-      <c r="AX36" s="1">
-        <v>1</v>
       </c>
       <c r="AY36" s="1">
         <v>1</v>
@@ -7188,43 +7201,43 @@
         <v>3.1481290907464654E-9</v>
       </c>
       <c r="AL37" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>8.3707256060688877E-8</v>
       </c>
       <c r="AM37" s="1">
-        <v>8.3707256060688877E-8</v>
+        <v>4.1516866560213789E-7</v>
       </c>
       <c r="AN37" s="1">
-        <v>4.1516866560213789E-7</v>
+        <v>1.4706404143083329E-6</v>
       </c>
       <c r="AO37" s="1">
-        <v>1.4706404143083329E-6</v>
+        <v>2.4358894233911244E-6</v>
       </c>
       <c r="AP37" s="1">
-        <v>2.4358894233911244E-6</v>
+        <v>1.3758934755969676E-6</v>
       </c>
       <c r="AQ37" s="1">
-        <v>1.3758934755969676E-6</v>
+        <v>6.7152221561173064E-8</v>
       </c>
       <c r="AR37" s="1">
-        <v>6.7152221561173064E-8</v>
+        <v>7.6585490419767447E-4</v>
       </c>
       <c r="AS37" s="1">
-        <v>-2.5466687247899245E-7</v>
+        <v>4.8107019868062857E-3</v>
       </c>
       <c r="AT37" s="1">
-        <v>-5.3202797971607652E-6</v>
+        <v>0.96441179513931274</v>
       </c>
       <c r="AU37" s="1">
-        <v>7.6585490419767447E-4</v>
+        <v>0.86886215209960938</v>
       </c>
       <c r="AV37" s="1">
-        <v>4.8107019868062857E-3</v>
+        <v>0.73564034700393677</v>
       </c>
       <c r="AW37" s="1">
+        <v>0.58845162391662598</v>
+      </c>
+      <c r="AX37" s="1">
         <v>288</v>
-      </c>
-      <c r="AX37" s="1">
-        <v>1</v>
       </c>
       <c r="AY37" s="1">
         <v>1</v>
@@ -7385,43 +7398,43 @@
         <v>1.0436821185066947E-8</v>
       </c>
       <c r="AL38" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>6.3479242803227143E-8</v>
       </c>
       <c r="AM38" s="1">
-        <v>6.3479242803227143E-8</v>
+        <v>4.0386055056309893E-7</v>
       </c>
       <c r="AN38" s="1">
-        <v>4.0386055056309893E-7</v>
+        <v>1.5297625433619011E-6</v>
       </c>
       <c r="AO38" s="1">
-        <v>1.5297625433619011E-6</v>
+        <v>2.5334123965187194E-6</v>
       </c>
       <c r="AP38" s="1">
-        <v>2.5334123965187194E-6</v>
+        <v>1.1983946706095594E-6</v>
       </c>
       <c r="AQ38" s="1">
-        <v>1.1983946706095594E-6</v>
+        <v>5.8489153076379807E-8</v>
       </c>
       <c r="AR38" s="1">
-        <v>5.8489153076379807E-8</v>
+        <v>1.0145536559166175E-3</v>
       </c>
       <c r="AS38" s="1">
-        <v>-2.5387871005477791E-7</v>
+        <v>6.5662035609586333E-3</v>
       </c>
       <c r="AT38" s="1">
-        <v>-5.1342444749025162E-6</v>
+        <v>0.94574403762817383</v>
       </c>
       <c r="AU38" s="1">
-        <v>1.0145536559166175E-3</v>
+        <v>0.80821460485458374</v>
       </c>
       <c r="AV38" s="1">
-        <v>6.5662035609586333E-3</v>
+        <v>0.63246321678161621</v>
       </c>
       <c r="AW38" s="1">
+        <v>0.45825493335723877</v>
+      </c>
+      <c r="AX38" s="1">
         <v>288</v>
-      </c>
-      <c r="AX38" s="1">
-        <v>1</v>
       </c>
       <c r="AY38" s="1">
         <v>1</v>
@@ -7582,43 +7595,43 @@
         <v>2.3894120459999613E-8</v>
       </c>
       <c r="AL39" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.5878355793154151E-8</v>
       </c>
       <c r="AM39" s="1">
-        <v>5.5878355793154151E-8</v>
+        <v>3.8373821727822641E-7</v>
       </c>
       <c r="AN39" s="1">
-        <v>3.8373821727822641E-7</v>
+        <v>1.5680852317595528E-6</v>
       </c>
       <c r="AO39" s="1">
-        <v>1.5680852317595528E-6</v>
+        <v>2.5966141058847425E-6</v>
       </c>
       <c r="AP39" s="1">
-        <v>2.5966141058847425E-6</v>
+        <v>1.1118974043711205E-6</v>
       </c>
       <c r="AQ39" s="1">
-        <v>1.1118974043711205E-6</v>
+        <v>5.4267566440557857E-8</v>
       </c>
       <c r="AR39" s="1">
-        <v>5.4267566440557857E-8</v>
+        <v>1.1472220484468592E-3</v>
       </c>
       <c r="AS39" s="1">
-        <v>-2.5483362264822063E-7</v>
+        <v>9.1152954847186721E-3</v>
       </c>
       <c r="AT39" s="1">
-        <v>-5.0035923777613789E-6</v>
+        <v>0.92640066146850586</v>
       </c>
       <c r="AU39" s="1">
-        <v>1.1472220484468592E-3</v>
+        <v>0.75055265426635742</v>
       </c>
       <c r="AV39" s="1">
-        <v>9.1152954847186721E-3</v>
+        <v>0.5443606972694397</v>
       </c>
       <c r="AW39" s="1">
+        <v>0.35993984341621399</v>
+      </c>
+      <c r="AX39" s="1">
         <v>288</v>
-      </c>
-      <c r="AX39" s="1">
-        <v>1</v>
       </c>
       <c r="AY39" s="1">
         <v>1</v>
@@ -7779,43 +7792,43 @@
         <v>4.9048662020823031E-8</v>
       </c>
       <c r="AL40" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.406338348008799E-8</v>
       </c>
       <c r="AM40" s="1">
-        <v>5.406338348008799E-8</v>
+        <v>3.4701382584706173E-7</v>
       </c>
       <c r="AN40" s="1">
-        <v>3.4701382584706173E-7</v>
+        <v>1.6026292241622109E-6</v>
       </c>
       <c r="AO40" s="1">
-        <v>1.6026292241622109E-6</v>
+        <v>2.6533014374496844E-6</v>
       </c>
       <c r="AP40" s="1">
-        <v>2.6533014374496844E-6</v>
+        <v>1.0661287888069637E-6</v>
       </c>
       <c r="AQ40" s="1">
-        <v>1.0661287888069637E-6</v>
+        <v>5.2033747977020539E-8</v>
       </c>
       <c r="AR40" s="1">
-        <v>5.2033747977020539E-8</v>
+        <v>1.2763079053072378E-3</v>
       </c>
       <c r="AS40" s="1">
-        <v>-2.5792752467168611E-7</v>
+        <v>1.3854174876868377E-2</v>
       </c>
       <c r="AT40" s="1">
-        <v>-4.8885995056480169E-6</v>
+        <v>0.90163719654083252</v>
       </c>
       <c r="AU40" s="1">
-        <v>1.2763079053072378E-3</v>
+        <v>0.68363213539123535</v>
       </c>
       <c r="AV40" s="1">
-        <v>1.3854174876868377E-2</v>
+        <v>0.4533359706401825</v>
       </c>
       <c r="AW40" s="1">
+        <v>0.27044841647148132</v>
+      </c>
+      <c r="AX40" s="1">
         <v>288</v>
-      </c>
-      <c r="AX40" s="1">
-        <v>1</v>
       </c>
       <c r="AY40" s="1">
         <v>1</v>
@@ -7976,43 +7989,43 @@
         <v>1.0305642916819124E-7</v>
       </c>
       <c r="AL41" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>6.091680330609292E-8</v>
       </c>
       <c r="AM41" s="1">
-        <v>6.091680330609292E-8</v>
+        <v>2.6996251910852805E-7</v>
       </c>
       <c r="AN41" s="1">
-        <v>2.6996251910852805E-7</v>
+        <v>1.6446263312874798E-6</v>
       </c>
       <c r="AO41" s="1">
-        <v>1.6446263312874798E-6</v>
+        <v>2.7208790590871335E-6</v>
       </c>
       <c r="AP41" s="1">
-        <v>2.7208790590871335E-6</v>
+        <v>1.0666167327144649E-6</v>
       </c>
       <c r="AQ41" s="1">
-        <v>1.0666167327144649E-6</v>
+        <v>5.2057572474950575E-8</v>
       </c>
       <c r="AR41" s="1">
-        <v>5.2057572474950575E-8</v>
+        <v>1.5221696712095375E-3</v>
       </c>
       <c r="AS41" s="1">
-        <v>-2.6668746500035923E-7</v>
+        <v>2.7009327548093619E-2</v>
       </c>
       <c r="AT41" s="1">
-        <v>-4.7670728235971183E-6</v>
+        <v>0.85941970348358154</v>
       </c>
       <c r="AU41" s="1">
-        <v>1.5221696712095375E-3</v>
+        <v>0.58496969938278198</v>
       </c>
       <c r="AV41" s="1">
-        <v>2.7009327548093619E-2</v>
+        <v>0.33897235989570618</v>
       </c>
       <c r="AW41" s="1">
+        <v>0.17495560646057129</v>
+      </c>
+      <c r="AX41" s="1">
         <v>288</v>
-      </c>
-      <c r="AX41" s="1">
-        <v>1</v>
       </c>
       <c r="AY41" s="1">
         <v>1</v>
@@ -8173,43 +8186,43 @@
         <v>1.5442310541402549E-7</v>
       </c>
       <c r="AL42" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>7.4795844752810134E-8</v>
       </c>
       <c r="AM42" s="1">
-        <v>7.4795844752810134E-8</v>
+        <v>1.9794738796789774E-7</v>
       </c>
       <c r="AN42" s="1">
-        <v>1.9794738796789774E-7</v>
+        <v>1.6735200709661058E-6</v>
       </c>
       <c r="AO42" s="1">
-        <v>1.6735200709661058E-6</v>
+        <v>2.7655472825127703E-6</v>
       </c>
       <c r="AP42" s="1">
-        <v>2.7655472825127703E-6</v>
+        <v>1.1125849823656608E-6</v>
       </c>
       <c r="AQ42" s="1">
-        <v>1.1125849823656608E-6</v>
+        <v>5.4301107610399413E-8</v>
       </c>
       <c r="AR42" s="1">
-        <v>5.4301107610399413E-8</v>
+        <v>1.8455365637069909E-3</v>
       </c>
       <c r="AS42" s="1">
-        <v>-2.7771901045525738E-7</v>
+        <v>4.7399451577391179E-2</v>
       </c>
       <c r="AT42" s="1">
-        <v>-4.6963991735538002E-6</v>
+        <v>0.81982553005218506</v>
       </c>
       <c r="AU42" s="1">
-        <v>1.8455365637069909E-3</v>
+        <v>0.50723087787628174</v>
       </c>
       <c r="AV42" s="1">
-        <v>4.7399451577391179E-2</v>
+        <v>0.26370453834533691</v>
       </c>
       <c r="AW42" s="1">
+        <v>0.12219421565532684</v>
+      </c>
+      <c r="AX42" s="1">
         <v>288</v>
-      </c>
-      <c r="AX42" s="1">
-        <v>1</v>
       </c>
       <c r="AY42" s="1">
         <v>1</v>
@@ -8370,43 +8383,43 @@
         <v>1.810232674870349E-8</v>
       </c>
       <c r="AL43" s="1">
-        <v>4.4979849705972796E-11</v>
+        <v>1.039410845549843E-6</v>
       </c>
       <c r="AM43" s="1">
-        <v>1.039410845549843E-6</v>
+        <v>5.1953401638667905E-8</v>
       </c>
       <c r="AN43" s="1">
-        <v>5.1953401638667905E-8</v>
+        <v>7.61771361369951E-7</v>
       </c>
       <c r="AO43" s="1">
-        <v>7.61771361369951E-7</v>
+        <v>1.2773193446459246E-6</v>
       </c>
       <c r="AP43" s="1">
-        <v>1.2773193446459246E-6</v>
+        <v>1.0534571401876747E-6</v>
       </c>
       <c r="AQ43" s="1">
-        <v>1.0534571401876747E-6</v>
+        <v>5.1415302237955984E-8</v>
       </c>
       <c r="AR43" s="1">
-        <v>5.1415302237955984E-8</v>
+        <v>-7.371304861770755E-4</v>
       </c>
       <c r="AS43" s="1">
-        <v>-1.6531390656382428E-7</v>
+        <v>4.6795887204886793E-3</v>
       </c>
       <c r="AT43" s="1">
-        <v>-4.2519600356172305E-6</v>
+        <v>0.93667101860046387</v>
       </c>
       <c r="AU43" s="1">
-        <v>-7.371304861770755E-4</v>
+        <v>0.78054326772689819</v>
       </c>
       <c r="AV43" s="1">
-        <v>4.6795887204886793E-3</v>
+        <v>0.58901619911193848</v>
       </c>
       <c r="AW43" s="1">
+        <v>0.40831413865089417</v>
+      </c>
+      <c r="AX43" s="1">
         <v>288</v>
-      </c>
-      <c r="AX43" s="1">
-        <v>1</v>
       </c>
       <c r="AY43" s="1">
         <v>1</v>
@@ -8567,43 +8580,43 @@
         <v>8.473807611153461E-8</v>
       </c>
       <c r="AL44" s="1">
-        <v>4.4979850399862187E-10</v>
+        <v>9.4957947287949152E-7</v>
       </c>
       <c r="AM44" s="1">
-        <v>9.4957947287949152E-7</v>
+        <v>1.6573201911716401E-7</v>
       </c>
       <c r="AN44" s="1">
-        <v>1.6573201911716401E-7</v>
+        <v>1.1842633701431085E-6</v>
       </c>
       <c r="AO44" s="1">
-        <v>1.1842633701431085E-6</v>
+        <v>1.9764400214719444E-6</v>
       </c>
       <c r="AP44" s="1">
-        <v>1.9764400214719444E-6</v>
+        <v>1.1450317742855987E-6</v>
       </c>
       <c r="AQ44" s="1">
-        <v>1.1450317742855987E-6</v>
+        <v>5.5884722627297378E-8</v>
       </c>
       <c r="AR44" s="1">
-        <v>5.5884722627297378E-8</v>
+        <v>-4.7229598000750843E-4</v>
       </c>
       <c r="AS44" s="1">
-        <v>-2.3985225539036037E-7</v>
+        <v>5.0510324479078623E-3</v>
       </c>
       <c r="AT44" s="1">
-        <v>-4.6351615310413763E-6</v>
+        <v>0.93692123889923096</v>
       </c>
       <c r="AU44" s="1">
-        <v>-4.7229598000750843E-4</v>
+        <v>0.78129136562347412</v>
       </c>
       <c r="AV44" s="1">
-        <v>5.0510324479078623E-3</v>
+        <v>0.59016209840774536</v>
       </c>
       <c r="AW44" s="1">
+        <v>0.40959468483924866</v>
+      </c>
+      <c r="AX44" s="1">
         <v>288</v>
-      </c>
-      <c r="AX44" s="1">
-        <v>1</v>
       </c>
       <c r="AY44" s="1">
         <v>1</v>
@@ -8764,43 +8777,43 @@
         <v>1.0565872088363903E-7</v>
       </c>
       <c r="AL45" s="1">
-        <v>4.4979850954973699E-9</v>
+        <v>6.6322111041267062E-7</v>
       </c>
       <c r="AM45" s="1">
-        <v>6.6322111041267062E-7</v>
+        <v>2.8489269851998463E-7</v>
       </c>
       <c r="AN45" s="1">
-        <v>2.8489269851998463E-7</v>
+        <v>1.4132458037620236E-6</v>
       </c>
       <c r="AO45" s="1">
-        <v>1.4132458037620236E-6</v>
+        <v>2.3457964679898195E-6</v>
       </c>
       <c r="AP45" s="1">
-        <v>2.3457964679898195E-6</v>
+        <v>1.1374683026588173E-6</v>
       </c>
       <c r="AQ45" s="1">
-        <v>1.1374683026588173E-6</v>
+        <v>5.5515581465215291E-8</v>
       </c>
       <c r="AR45" s="1">
-        <v>5.5515581465215291E-8</v>
+        <v>3.7287308713088071E-4</v>
       </c>
       <c r="AS45" s="1">
-        <v>-2.499622553386871E-7</v>
+        <v>6.3213803935189333E-3</v>
       </c>
       <c r="AT45" s="1">
-        <v>-4.7087742132134736E-6</v>
+        <v>0.93586510419845581</v>
       </c>
       <c r="AU45" s="1">
-        <v>3.7287308713088071E-4</v>
+        <v>0.77813959121704102</v>
       </c>
       <c r="AV45" s="1">
-        <v>6.3213803935189333E-3</v>
+        <v>0.58534520864486694</v>
       </c>
       <c r="AW45" s="1">
+        <v>0.40422490239143372</v>
+      </c>
+      <c r="AX45" s="1">
         <v>288</v>
-      </c>
-      <c r="AX45" s="1">
-        <v>1</v>
       </c>
       <c r="AY45" s="1">
         <v>1</v>
@@ -8961,43 +8974,43 @@
         <v>4.6087048843901357E-8</v>
       </c>
       <c r="AL46" s="1">
-        <v>4.497984917861686E-8</v>
+        <v>1.7112754369802419E-7</v>
       </c>
       <c r="AM46" s="1">
-        <v>1.7112754369802419E-7</v>
+        <v>3.6413202624361457E-7</v>
       </c>
       <c r="AN46" s="1">
-        <v>3.6413202624361457E-7</v>
+        <v>1.4933970201407021E-6</v>
       </c>
       <c r="AO46" s="1">
-        <v>1.4933970201407021E-6</v>
+        <v>2.4752200749530995E-6</v>
       </c>
       <c r="AP46" s="1">
-        <v>2.4752200749530995E-6</v>
+        <v>1.1173843859069166E-6</v>
       </c>
       <c r="AQ46" s="1">
-        <v>1.1173843859069166E-6</v>
+        <v>5.4535355786811124E-8</v>
       </c>
       <c r="AR46" s="1">
-        <v>5.4535355786811124E-8</v>
+        <v>9.4492897864416716E-4</v>
       </c>
       <c r="AS46" s="1">
-        <v>-2.5148895588245068E-7</v>
+        <v>7.7379574022964212E-3</v>
       </c>
       <c r="AT46" s="1">
-        <v>-4.8580168368062004E-6</v>
+        <v>0.93372339010238647</v>
       </c>
       <c r="AU46" s="1">
-        <v>9.4492897864416716E-4</v>
+        <v>0.77179414033889771</v>
       </c>
       <c r="AV46" s="1">
-        <v>7.7379574022964212E-3</v>
+        <v>0.57573181390762329</v>
       </c>
       <c r="AW46" s="1">
+        <v>0.39361217617988586</v>
+      </c>
+      <c r="AX46" s="1">
         <v>288</v>
-      </c>
-      <c r="AX46" s="1">
-        <v>1</v>
       </c>
       <c r="AY46" s="1">
         <v>1</v>
@@ -9158,43 +9171,43 @@
         <v>8.1458466638650862E-9</v>
       </c>
       <c r="AL47" s="1">
-        <v>4.4979850599702331E-7</v>
+        <v>2.6638046440527477E-8</v>
       </c>
       <c r="AM47" s="1">
-        <v>2.6638046440527477E-8</v>
+        <v>4.0123879271493517E-7</v>
       </c>
       <c r="AN47" s="1">
-        <v>4.0123879271493517E-7</v>
+        <v>1.614937308630493E-6</v>
       </c>
       <c r="AO47" s="1">
-        <v>1.614937308630493E-6</v>
+        <v>2.6702815567603011E-6</v>
       </c>
       <c r="AP47" s="1">
-        <v>2.6702815567603011E-6</v>
+        <v>1.1565533668544958E-6</v>
       </c>
       <c r="AQ47" s="1">
-        <v>1.1565533668544958E-6</v>
+        <v>5.6447053253805279E-8</v>
       </c>
       <c r="AR47" s="1">
-        <v>5.6447053253805279E-8</v>
+        <v>1.1535871840948448E-3</v>
       </c>
       <c r="AS47" s="1">
-        <v>-2.5818081894612988E-7</v>
+        <v>8.2337945752603784E-3</v>
       </c>
       <c r="AT47" s="1">
-        <v>-5.2024802243977319E-6</v>
+        <v>0.93301945924758911</v>
       </c>
       <c r="AU47" s="1">
-        <v>1.1535871840948448E-3</v>
+        <v>0.76972180604934692</v>
       </c>
       <c r="AV47" s="1">
-        <v>8.2337945752603784E-3</v>
+        <v>0.5726165771484375</v>
       </c>
       <c r="AW47" s="1">
+        <v>0.39020279049873352</v>
+      </c>
+      <c r="AX47" s="1">
         <v>288</v>
-      </c>
-      <c r="AX47" s="1">
-        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>1</v>
@@ -9355,43 +9368,43 @@
         <v>7.3798700483962421E-10</v>
       </c>
       <c r="AL48" s="1">
-        <v>4.4979851736570708E-6</v>
+        <v>8.8174946274565541E-9</v>
       </c>
       <c r="AM48" s="1">
-        <v>8.8174946274565541E-9</v>
+        <v>4.0919967703498561E-7</v>
       </c>
       <c r="AN48" s="1">
-        <v>4.0919967703498561E-7</v>
+        <v>1.7746335758683784E-6</v>
       </c>
       <c r="AO48" s="1">
-        <v>1.7746335758683784E-6</v>
+        <v>2.9296702779291195E-6</v>
       </c>
       <c r="AP48" s="1">
-        <v>2.9296702779291195E-6</v>
+        <v>1.2126946558055351E-6</v>
       </c>
       <c r="AQ48" s="1">
-        <v>1.2126946558055351E-6</v>
+        <v>5.9187087231293845E-8</v>
       </c>
       <c r="AR48" s="1">
-        <v>5.9187087231293845E-8</v>
+        <v>1.1229346720723523E-3</v>
       </c>
       <c r="AS48" s="1">
-        <v>-2.6569929900688294E-7</v>
+        <v>8.3223293811068456E-3</v>
       </c>
       <c r="AT48" s="1">
-        <v>-5.5457053349527996E-6</v>
+        <v>0.93274253606796265</v>
       </c>
       <c r="AU48" s="1">
-        <v>1.1229346720723523E-3</v>
+        <v>0.76890832185745239</v>
       </c>
       <c r="AV48" s="1">
-        <v>8.3223293811068456E-3</v>
+        <v>0.57139688730239868</v>
       </c>
       <c r="AW48" s="1">
+        <v>0.38887187838554382</v>
+      </c>
+      <c r="AX48" s="1">
         <v>288</v>
-      </c>
-      <c r="AX48" s="1">
-        <v>1</v>
       </c>
       <c r="AY48" s="1">
         <v>1</v>
@@ -9552,43 +9565,43 @@
         <v>2.9408184221146882E-11</v>
       </c>
       <c r="AL49" s="1">
-        <v>4.4979849917581305E-5</v>
+        <v>4.3835715982120695E-9</v>
       </c>
       <c r="AM49" s="1">
-        <v>4.3835715982120695E-9</v>
+        <v>4.1195969622466681E-7</v>
       </c>
       <c r="AN49" s="1">
-        <v>4.1195969622466681E-7</v>
+        <v>1.8808077916210308E-6</v>
       </c>
       <c r="AO49" s="1">
-        <v>1.8808077916210308E-6</v>
+        <v>3.26474084832995E-6</v>
       </c>
       <c r="AP49" s="1">
-        <v>3.26474084832995E-6</v>
+        <v>1.3013127500016708E-6</v>
       </c>
       <c r="AQ49" s="1">
-        <v>1.3013127500016708E-6</v>
+        <v>6.3512210601857078E-8</v>
       </c>
       <c r="AR49" s="1">
-        <v>6.3512210601857078E-8</v>
+        <v>7.6808612075729692E-4</v>
       </c>
       <c r="AS49" s="1">
-        <v>-2.6943556008518499E-7</v>
+        <v>8.5202269591933937E-3</v>
       </c>
       <c r="AT49" s="1">
-        <v>-5.923292974330252E-6</v>
+        <v>0.93118423223495483</v>
       </c>
       <c r="AU49" s="1">
-        <v>7.6808612075729692E-4</v>
+        <v>0.76434963941574097</v>
       </c>
       <c r="AV49" s="1">
-        <v>8.5202269591933937E-3</v>
+        <v>0.56459617614746094</v>
       </c>
       <c r="AW49" s="1">
+        <v>0.38149181008338928</v>
+      </c>
+      <c r="AX49" s="1">
         <v>288</v>
-      </c>
-      <c r="AX49" s="1">
-        <v>1</v>
       </c>
       <c r="AY49" s="1">
         <v>1</v>
@@ -9749,43 +9762,43 @@
         <v>1.4944971482577785E-8</v>
       </c>
       <c r="AL50" s="1">
-        <v>5.0386113059630588E-8</v>
+        <v>6.6204596560134887E-8</v>
       </c>
       <c r="AM50" s="1">
-        <v>6.6204596560134887E-8</v>
+        <v>3.9720876133042141E-7</v>
       </c>
       <c r="AN50" s="1">
-        <v>3.9720876133042141E-7</v>
+        <v>1.5405814329863543E-6</v>
       </c>
       <c r="AO50" s="1">
-        <v>1.5405814329863543E-6</v>
+        <v>2.5835288706768655E-6</v>
       </c>
       <c r="AP50" s="1">
-        <v>2.5835288706768655E-6</v>
+        <v>1.1145443750137929E-6</v>
       </c>
       <c r="AQ50" s="1">
-        <v>1.1145443750137929E-6</v>
+        <v>5.4396746662632722E-8</v>
       </c>
       <c r="AR50" s="1">
-        <v>5.4396746662632722E-8</v>
+        <v>1.1238568601179692E-3</v>
       </c>
       <c r="AS50" s="1">
-        <v>-2.5221413579856744E-7</v>
+        <v>8.1700843285073717E-3</v>
       </c>
       <c r="AT50" s="1">
-        <v>-5.0178014134871773E-6</v>
+        <v>0.93428242206573486</v>
       </c>
       <c r="AU50" s="1">
-        <v>1.1238568601179692E-3</v>
+        <v>0.77369523048400879</v>
       </c>
       <c r="AV50" s="1">
-        <v>8.1700843285073717E-3</v>
+        <v>0.57897841930389404</v>
       </c>
       <c r="AW50" s="1">
+        <v>0.39759686589241028</v>
+      </c>
+      <c r="AX50" s="1">
         <v>274</v>
-      </c>
-      <c r="AX50" s="1">
-        <v>1</v>
       </c>
       <c r="AY50" s="1">
         <v>1</v>
@@ -9946,43 +9959,43 @@
         <v>1.6051993512178342E-8</v>
       </c>
       <c r="AL51" s="1">
-        <v>7.1851538052669639E-8</v>
+        <v>6.3480456212808289E-8</v>
       </c>
       <c r="AM51" s="1">
-        <v>6.3480456212808289E-8</v>
+        <v>3.9554587605126253E-7</v>
       </c>
       <c r="AN51" s="1">
-        <v>3.9554587605126253E-7</v>
+        <v>1.5442351513419994E-6</v>
       </c>
       <c r="AO51" s="1">
-        <v>1.5442351513419994E-6</v>
+        <v>2.5816992413607576E-6</v>
       </c>
       <c r="AP51" s="1">
-        <v>2.5816992413607576E-6</v>
+        <v>1.1198925449207309E-6</v>
       </c>
       <c r="AQ51" s="1">
-        <v>1.1198925449207309E-6</v>
+        <v>5.4657760983900516E-8</v>
       </c>
       <c r="AR51" s="1">
-        <v>5.4657760983900516E-8</v>
+        <v>1.1187283702755939E-3</v>
       </c>
       <c r="AS51" s="1">
-        <v>-2.5269363845836779E-7</v>
+        <v>8.1569931342962889E-3</v>
       </c>
       <c r="AT51" s="1">
-        <v>-5.0243038458575029E-6</v>
+        <v>0.93395745754241943</v>
       </c>
       <c r="AU51" s="1">
-        <v>1.1187283702755939E-3</v>
+        <v>0.77266407012939453</v>
       </c>
       <c r="AV51" s="1">
-        <v>8.1569931342962889E-3</v>
+        <v>0.57731354236602783</v>
       </c>
       <c r="AW51" s="1">
+        <v>0.39564573764801025</v>
+      </c>
+      <c r="AX51" s="1">
         <v>278</v>
-      </c>
-      <c r="AX51" s="1">
-        <v>1</v>
       </c>
       <c r="AY51" s="1">
         <v>1</v>
@@ -10143,43 +10156,43 @@
         <v>1.7351450054547968E-8</v>
       </c>
       <c r="AL52" s="1">
-        <v>1.1039902858556161E-7</v>
+        <v>6.0411027380177784E-8</v>
       </c>
       <c r="AM52" s="1">
-        <v>6.0411027380177784E-8</v>
+        <v>3.9355082448417774E-7</v>
       </c>
       <c r="AN52" s="1">
-        <v>3.9355082448417774E-7</v>
+        <v>1.5497199496034009E-6</v>
       </c>
       <c r="AO52" s="1">
-        <v>1.5497199496034009E-6</v>
+        <v>2.5794144350305137E-6</v>
       </c>
       <c r="AP52" s="1">
-        <v>2.5794144350305137E-6</v>
+        <v>1.127223754338047E-6</v>
       </c>
       <c r="AQ52" s="1">
-        <v>1.127223754338047E-6</v>
+        <v>5.5015576094774588E-8</v>
       </c>
       <c r="AR52" s="1">
-        <v>5.5015576094774588E-8</v>
+        <v>1.1126735678306365E-3</v>
       </c>
       <c r="AS52" s="1">
-        <v>-2.5342274057038594E-7</v>
+        <v>8.1392734645958659E-3</v>
       </c>
       <c r="AT52" s="1">
-        <v>-5.0335570449533407E-6</v>
+        <v>0.93356281518936157</v>
       </c>
       <c r="AU52" s="1">
-        <v>1.1126735678306365E-3</v>
+        <v>0.77141082286834717</v>
       </c>
       <c r="AV52" s="1">
-        <v>8.1392734645958659E-3</v>
+        <v>0.57528996467590332</v>
       </c>
       <c r="AW52" s="1">
+        <v>0.39327597618103027</v>
+      </c>
+      <c r="AX52" s="1">
         <v>283</v>
-      </c>
-      <c r="AX52" s="1">
-        <v>1</v>
       </c>
       <c r="AY52" s="1">
         <v>1</v>
@@ -10340,43 +10353,43 @@
         <v>1.8487964936753087E-8</v>
       </c>
       <c r="AL53" s="1">
-        <v>1.6711598505025904E-7</v>
+        <v>5.7675532828815885E-8</v>
       </c>
       <c r="AM53" s="1">
-        <v>5.7675532828815885E-8</v>
+        <v>3.9176351474045899E-7</v>
       </c>
       <c r="AN53" s="1">
-        <v>3.9176351474045899E-7</v>
+        <v>1.5561905789690522E-6</v>
       </c>
       <c r="AO53" s="1">
-        <v>1.5561905789690522E-6</v>
+        <v>2.5770099900540577E-6</v>
       </c>
       <c r="AP53" s="1">
-        <v>2.5770099900540577E-6</v>
+        <v>1.1352216233717627E-6</v>
       </c>
       <c r="AQ53" s="1">
-        <v>1.1352216233717627E-6</v>
+        <v>5.5405923404805435E-8</v>
       </c>
       <c r="AR53" s="1">
-        <v>5.5405923404805435E-8</v>
+        <v>1.1069586301759315E-3</v>
       </c>
       <c r="AS53" s="1">
-        <v>-2.5433195105506456E-7</v>
+        <v>8.1200806814626363E-3</v>
       </c>
       <c r="AT53" s="1">
-        <v>-5.0442436076991726E-6</v>
+        <v>0.93318110704421997</v>
       </c>
       <c r="AU53" s="1">
-        <v>1.1069586301759315E-3</v>
+        <v>0.77019709348678589</v>
       </c>
       <c r="AV53" s="1">
-        <v>8.1200806814626363E-3</v>
+        <v>0.57332992553710938</v>
       </c>
       <c r="AW53" s="1">
+        <v>0.3909822404384613</v>
+      </c>
+      <c r="AX53" s="1">
         <v>288</v>
-      </c>
-      <c r="AX53" s="1">
-        <v>1</v>
       </c>
       <c r="AY53" s="1">
         <v>1</v>
@@ -10537,43 +10550,43 @@
         <v>1.937315907696302E-8</v>
       </c>
       <c r="AL54" s="1">
-        <v>2.4941655851762334E-7</v>
+        <v>5.5238297909723795E-8</v>
       </c>
       <c r="AM54" s="1">
-        <v>5.5238297909723795E-8</v>
+        <v>3.9028106891014842E-7</v>
       </c>
       <c r="AN54" s="1">
-        <v>3.9028106891014842E-7</v>
+        <v>1.5639020537056014E-6</v>
       </c>
       <c r="AO54" s="1">
-        <v>1.5639020537056014E-6</v>
+        <v>2.57485223947862E-6</v>
       </c>
       <c r="AP54" s="1">
-        <v>2.57485223947862E-6</v>
+        <v>1.1440396292528021E-6</v>
       </c>
       <c r="AQ54" s="1">
-        <v>1.1440396292528021E-6</v>
+        <v>5.5836295587141649E-8</v>
       </c>
       <c r="AR54" s="1">
-        <v>5.5836295587141649E-8</v>
+        <v>1.1015286039247872E-3</v>
       </c>
       <c r="AS54" s="1">
-        <v>-2.5546404458509642E-7</v>
+        <v>8.099457408802007E-3</v>
       </c>
       <c r="AT54" s="1">
-        <v>-5.0565754463605117E-6</v>
+        <v>0.93281227350234985</v>
       </c>
       <c r="AU54" s="1">
-        <v>1.1015286039247872E-3</v>
+        <v>0.76902276277542114</v>
       </c>
       <c r="AV54" s="1">
-        <v>8.099457408802007E-3</v>
+        <v>0.57143288850784302</v>
       </c>
       <c r="AW54" s="1">
+        <v>0.38876339793205261</v>
+      </c>
+      <c r="AX54" s="1">
         <v>293</v>
-      </c>
-      <c r="AX54" s="1">
-        <v>1</v>
       </c>
       <c r="AY54" s="1">
         <v>1</v>
@@ -10734,43 +10747,43 @@
         <v>1.9921785110454948E-8</v>
       </c>
       <c r="AL55" s="1">
-        <v>3.6727897168020718E-7</v>
+        <v>5.3067108114063239E-8</v>
       </c>
       <c r="AM55" s="1">
-        <v>5.3067108114063239E-8</v>
+        <v>3.8923465716031883E-7</v>
       </c>
       <c r="AN55" s="1">
-        <v>3.8923465716031883E-7</v>
+        <v>1.5728806264381223E-6</v>
       </c>
       <c r="AO55" s="1">
-        <v>1.5728806264381223E-6</v>
+        <v>2.5729332538693139E-6</v>
       </c>
       <c r="AP55" s="1">
-        <v>2.5729332538693139E-6</v>
+        <v>1.1536811825862969E-6</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1.1536811825862969E-6</v>
+        <v>5.6306873830180848E-8</v>
       </c>
       <c r="AR55" s="1">
-        <v>5.6306873830180848E-8</v>
+        <v>1.0963356103017526E-3</v>
       </c>
       <c r="AS55" s="1">
-        <v>-2.5685477567094495E-7</v>
+        <v>8.0774562067730173E-3</v>
       </c>
       <c r="AT55" s="1">
-        <v>-5.0706016736512538E-6</v>
+        <v>0.93245619535446167</v>
       </c>
       <c r="AU55" s="1">
-        <v>1.0963356103017526E-3</v>
+        <v>0.76788729429244995</v>
       </c>
       <c r="AV55" s="1">
-        <v>8.0774562067730173E-3</v>
+        <v>0.56959778070449829</v>
       </c>
       <c r="AW55" s="1">
+        <v>0.38661786913871765</v>
+      </c>
+      <c r="AX55" s="1">
         <v>298</v>
-      </c>
-      <c r="AX55" s="1">
-        <v>1</v>
       </c>
       <c r="AY55" s="1">
         <v>1</v>
@@ -10822,8 +10835,8 @@
   <printOptions gridLines="1"/>
   <pageMargins left="1.5" right="1.5" top="1.5" bottom="1.5" header="0.5" footer="0.5"/>
   <headerFooter>
-    <oddHeader>BLM version Ver 3.57.2.50, build 2023-06-15</oddHeader>
-    <oddFooter>BLM Output File, C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\full_organic.det.xls, created 01-31-2024</oddFooter>
+    <oddHeader>BLM version Ver 3.57.2.45, build 2021-04-05</oddHeader>
+    <oddFooter>BLM Output File, C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\full_organic.det.xls, created 03-05-2024</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/scrap/old BLM/full_organic_SPEC.det.xlsx
+++ b/scrap/old BLM/full_organic_SPEC.det.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,27 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{834F5ACA-0B10-498D-A8C7-2F1CAB9086C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F04D69-1658-46AD-B346-7A7D9E5A1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="full_organic_SPEC.det" sheetId="1" r:id="rId1"/>
+    <sheet name="full_organic.det" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
-  <si>
-    <t>Ver 3.57.2.45, build 2021-04-05</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Biotic Ligand Model - Research Mode\Model\Cu_freshwater_acute_and_chronic_2017-01-17.dat</t>
-  </si>
-  <si>
-    <t>C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\full_organic.blm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="138">
+  <si>
+    <t>Ver 3.57.2.45d, build 2024-03-06</t>
+  </si>
+  <si>
+    <t>Cu_freshwater_acute_and_chronic_2017-01-17.dat</t>
+  </si>
+  <si>
+    <t>full_organic.blm</t>
   </si>
   <si>
     <t>/S FULL_ORGANIC_SPEC.BLMSCR, /W /Q /VER3.57 /O3</t>
@@ -181,6 +194,36 @@
     <t>Act_z4</t>
   </si>
   <si>
+    <t>Z_HS</t>
+  </si>
+  <si>
+    <t>Z_FS</t>
+  </si>
+  <si>
+    <t>DDLVol_HS</t>
+  </si>
+  <si>
+    <t>DDLVol_FS</t>
+  </si>
+  <si>
+    <t>DDLMaxV_HS</t>
+  </si>
+  <si>
+    <t>DDLMaxV_FS</t>
+  </si>
+  <si>
+    <t>TH_HS</t>
+  </si>
+  <si>
+    <t>TH_FS</t>
+  </si>
+  <si>
+    <t>Ratio_HS</t>
+  </si>
+  <si>
+    <t>Ratio_FS</t>
+  </si>
+  <si>
     <t>Temp (K)</t>
   </si>
   <si>
@@ -268,40 +311,31 @@
     <t>"Hard ser 1000       "</t>
   </si>
   <si>
-    <t>"DOC ser 1           "</t>
-  </si>
-  <si>
-    <t>"DOC ser 2           "</t>
-  </si>
-  <si>
-    <t>"DOC ser 3           "</t>
-  </si>
-  <si>
-    <t>"DOC ser 4           "</t>
-  </si>
-  <si>
-    <t>"DOC ser 5           "</t>
-  </si>
-  <si>
-    <t>"DOC ser 6           "</t>
-  </si>
-  <si>
-    <t>"DOC ser 7           "</t>
-  </si>
-  <si>
-    <t>"DOC ser 8           "</t>
-  </si>
-  <si>
-    <t>"DOC ser 9           "</t>
-  </si>
-  <si>
-    <t>"pH ser 1            "</t>
-  </si>
-  <si>
-    <t>"pH ser 2            "</t>
-  </si>
-  <si>
-    <t>"pH ser 3            "</t>
+    <t>"DOC ser 0.01        "</t>
+  </si>
+  <si>
+    <t>"DOC ser 0.5         "</t>
+  </si>
+  <si>
+    <t>"DOC ser 1.0         "</t>
+  </si>
+  <si>
+    <t>"DOC ser 2.0         "</t>
+  </si>
+  <si>
+    <t>"DOC ser 5.0         "</t>
+  </si>
+  <si>
+    <t>"DOC ser 7.5         "</t>
+  </si>
+  <si>
+    <t>"DOC ser 10.0        "</t>
+  </si>
+  <si>
+    <t>"DOC ser 15.0        "</t>
+  </si>
+  <si>
+    <t>"DOC ser 20.0        "</t>
   </si>
   <si>
     <t>"pH ser 4            "</t>
@@ -316,52 +350,52 @@
     <t>"pH ser 7            "</t>
   </si>
   <si>
+    <t>"pH ser 8            "</t>
+  </si>
+  <si>
+    <t>"pH ser 9            "</t>
+  </si>
+  <si>
+    <t>"pH ser 10           "</t>
+  </si>
+  <si>
     <t>"Temp ser 1          "</t>
   </si>
   <si>
-    <t>"Temp ser 2          "</t>
-  </si>
-  <si>
-    <t>"Temp ser 3          "</t>
-  </si>
-  <si>
-    <t>"Temp ser 4          "</t>
-  </si>
-  <si>
     <t>"Temp ser 5          "</t>
   </si>
   <si>
-    <t>"Temp ser 6          "</t>
-  </si>
-  <si>
-    <t>"hi DOC Hard ser 1   "</t>
-  </si>
-  <si>
-    <t>"hi DOC Hard ser 2   "</t>
-  </si>
-  <si>
-    <t>"hi DOC Hard ser 3   "</t>
-  </si>
-  <si>
-    <t>"hi DOC Hard ser 4   "</t>
-  </si>
-  <si>
-    <t>"hi DOC Hard ser 5   "</t>
-  </si>
-  <si>
-    <t>"hi DOC Hard ser 6   "</t>
-  </si>
-  <si>
-    <t>"hi DOC Hard ser 7   "</t>
-  </si>
-  <si>
-    <t>"hi DOC pH ser 1     "</t>
-  </si>
-  <si>
-    <t>"hi DOC pH ser 2     "</t>
-  </si>
-  <si>
-    <t>"hi DOC pH ser 3     "</t>
+    <t>"Temp ser 10         "</t>
+  </si>
+  <si>
+    <t>"Temp ser 15         "</t>
+  </si>
+  <si>
+    <t>"Temp ser 20         "</t>
+  </si>
+  <si>
+    <t>"Temp ser 25         "</t>
+  </si>
+  <si>
+    <t>"hi DOC Hard ser 10  "</t>
+  </si>
+  <si>
+    <t>"hi DOC Hard ser 20  "</t>
+  </si>
+  <si>
+    <t>"hi DOC Hard ser 50  "</t>
+  </si>
+  <si>
+    <t>"hi DOC Hard ser 100 "</t>
+  </si>
+  <si>
+    <t>"hi DOC Hard ser 200 "</t>
+  </si>
+  <si>
+    <t>"hi DOC Hard ser 500 "</t>
+  </si>
+  <si>
+    <t>"hi DOC Hard ser 1000"</t>
   </si>
   <si>
     <t>"hi DOC pH ser 4     "</t>
@@ -376,29 +410,50 @@
     <t>"hi DOC pH ser 7     "</t>
   </si>
   <si>
+    <t>"hi DOC pH ser 8     "</t>
+  </si>
+  <si>
+    <t>"hi DOC pH ser 9     "</t>
+  </si>
+  <si>
+    <t>"hi DOC pH ser 10    "</t>
+  </si>
+  <si>
     <t>"hi DOC Temp ser 1   "</t>
   </si>
   <si>
-    <t>"hi DOC Temp ser 2   "</t>
-  </si>
-  <si>
-    <t>"hi DOC Temp ser 3   "</t>
-  </si>
-  <si>
-    <t>"hi DOC Temp ser 4   "</t>
-  </si>
-  <si>
     <t>"hi DOC Temp ser 5   "</t>
   </si>
   <si>
-    <t>"hi DOC Temp ser 6   "</t>
+    <t>"hi DOC Temp ser 10  "</t>
+  </si>
+  <si>
+    <t>"hi DOC Temp ser 15  "</t>
+  </si>
+  <si>
+    <t>"hi DOC Temp ser 20  "</t>
+  </si>
+  <si>
+    <t>"hi DOC Temp ser 25  "</t>
+  </si>
+  <si>
+    <t>L/gHS</t>
+  </si>
+  <si>
+    <t>gHS/L</t>
+  </si>
+  <si>
+    <t>charge / gHS / L</t>
+  </si>
+  <si>
+    <t>L / L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -407,14 +462,26 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -429,16 +496,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,40 +851,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BW55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="12" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AS1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
     </row>
-    <row r="2" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
     </row>
-    <row r="3" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="3"/>
+      <c r="BN3" s="4"/>
     </row>
-    <row r="4" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
     </row>
-    <row r="5" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -960,37 +1060,37 @@
         <v>54</v>
       </c>
       <c r="AZ5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="BK5" s="2" t="s">
         <v>65</v>
@@ -1001,189 +1101,249 @@
       <c r="BM5" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="BN5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW5" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AX6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AY6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="BI6" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="BM6" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW6" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1">
         <v>2.7625608467474194E-8</v>
@@ -1312,7 +1472,7 @@
         <v>2.5023911740083525E-3</v>
       </c>
       <c r="AS7" s="1">
-        <v>3.035488759531595E-3</v>
+        <v>3.0354887595315902E-3</v>
       </c>
       <c r="AT7" s="1">
         <v>0.97428977489471436</v>
@@ -1327,60 +1487,90 @@
         <v>0.67670148611068726</v>
       </c>
       <c r="AX7" s="1">
+        <v>-1.055781845934689E-3</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>-2.7570426464080811E-3</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0.549885094165802</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>4.5460629463195801</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>5.6480581633877591E-7</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>6.0048936575185508E-5</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>4.0018072128295898</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>1.71265184879303</v>
+      </c>
+      <c r="BH7" s="1">
         <v>288</v>
       </c>
-      <c r="AY7" s="1">
+      <c r="BI7" s="1">
         <v>1</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="BJ7" s="1">
         <v>1</v>
       </c>
-      <c r="BA7" s="1">
+      <c r="BK7" s="1">
         <v>12</v>
       </c>
-      <c r="BB7" s="1">
+      <c r="BL7" s="1">
         <v>-1.1324521082475842E-3</v>
       </c>
-      <c r="BC7" s="1">
+      <c r="BM7" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BN7" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE7" s="1">
+      <c r="BO7" s="1">
         <v>3.7426998460432515E-5</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BP7" s="1">
         <v>6.274424958974123E-5</v>
       </c>
-      <c r="BG7" s="1">
+      <c r="BQ7" s="1">
         <v>1.3756120461039245E-4</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BR7" s="1">
         <v>6.7138498707208782E-6</v>
       </c>
-      <c r="BI7" s="1">
+      <c r="BS7" s="1">
         <v>9.9935867183376104E-5</v>
       </c>
-      <c r="BJ7" s="1">
+      <c r="BT7" s="1">
         <v>6.6990119194088038E-6</v>
       </c>
-      <c r="BK7" s="1">
+      <c r="BU7" s="1">
         <v>1.3748370110988617E-4</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BV7" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM7" s="1">
+      <c r="BW7" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1">
         <v>2.7911243094536076E-8</v>
@@ -1509,7 +1699,7 @@
         <v>2.7632727662240553E-3</v>
       </c>
       <c r="AS8" s="1">
-        <v>3.825972231499949E-3</v>
+        <v>3.8259722314999498E-3</v>
       </c>
       <c r="AT8" s="1">
         <v>0.96431922912597656</v>
@@ -1524,60 +1714,90 @@
         <v>0.58769595623016357</v>
       </c>
       <c r="AX8" s="1">
+        <v>-1.1050758184865117E-3</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>-2.7329379227012396E-3</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0.22587405145168304</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>1.7463641166687012</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>2.3714868291335733E-7</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>2.3013693862594664E-5</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>4.5349826812744141</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>2.0007889270782471</v>
+      </c>
+      <c r="BH8" s="1">
         <v>288</v>
       </c>
-      <c r="AY8" s="1">
+      <c r="BI8" s="1">
         <v>1</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="BJ8" s="1">
         <v>1</v>
       </c>
-      <c r="BA8" s="1">
+      <c r="BK8" s="1">
         <v>13</v>
       </c>
-      <c r="BB8" s="1">
+      <c r="BL8" s="1">
         <v>-1.0992556863287197E-3</v>
       </c>
-      <c r="BC8" s="1">
+      <c r="BM8" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD8" s="1">
+      <c r="BN8" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE8" s="1">
+      <c r="BO8" s="1">
         <v>7.4853996920865029E-5</v>
       </c>
-      <c r="BF8" s="1">
+      <c r="BP8" s="1">
         <v>1.2548849917948246E-4</v>
       </c>
-      <c r="BG8" s="1">
+      <c r="BQ8" s="1">
         <v>2.7512249653227627E-4</v>
       </c>
-      <c r="BH8" s="1">
+      <c r="BR8" s="1">
         <v>1.3427699741441756E-5</v>
       </c>
-      <c r="BI8" s="1">
+      <c r="BS8" s="1">
         <v>1.9987170526292175E-4</v>
       </c>
-      <c r="BJ8" s="1">
+      <c r="BT8" s="1">
         <v>1.3398020200838801E-5</v>
       </c>
-      <c r="BK8" s="1">
+      <c r="BU8" s="1">
         <v>2.7496748953126371E-4</v>
       </c>
-      <c r="BL8" s="1">
+      <c r="BV8" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM8" s="1">
+      <c r="BW8" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1">
         <v>2.8461256462719575E-8</v>
@@ -1721,60 +1941,90 @@
         <v>0.45789790153503418</v>
       </c>
       <c r="AX9" s="1">
+        <v>-1.1604528408497572E-3</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>-2.6839796919375658E-3</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>7.5395435094833374E-2</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0.51942646503448486</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>8.0994922768695687E-8</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>6.8117483351670671E-6</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>5.1410102844238281</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>2.3847744464874268</v>
+      </c>
+      <c r="BH9" s="1">
         <v>288</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="BI9" s="1">
         <v>1</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="BJ9" s="1">
         <v>1</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="BK9" s="1">
         <v>12</v>
       </c>
-      <c r="BB9" s="1">
+      <c r="BL9" s="1">
         <v>-7.6565895192361503E-4</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="BM9" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="BN9" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE9" s="1">
+      <c r="BO9" s="1">
         <v>1.8713499594014138E-4</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="BP9" s="1">
         <v>3.1372118974104524E-4</v>
       </c>
-      <c r="BG9" s="1">
+      <c r="BQ9" s="1">
         <v>6.8780622677877545E-4</v>
       </c>
-      <c r="BH9" s="1">
+      <c r="BR9" s="1">
         <v>3.3569249353604391E-5</v>
       </c>
-      <c r="BI9" s="1">
+      <c r="BS9" s="1">
         <v>4.9967941595241427E-4</v>
       </c>
-      <c r="BJ9" s="1">
+      <c r="BT9" s="1">
         <v>3.349506005179137E-5</v>
       </c>
-      <c r="BK9" s="1">
+      <c r="BU9" s="1">
         <v>6.8741879658773541E-4</v>
       </c>
-      <c r="BL9" s="1">
+      <c r="BV9" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM9" s="1">
+      <c r="BW9" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1">
         <v>2.9054959327368124E-8</v>
@@ -1918,60 +2168,90 @@
         <v>0.35976284742355347</v>
       </c>
       <c r="AX10" s="1">
+        <v>-1.1925168801099062E-3</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>-2.6469824369996786E-3</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>3.5316586494445801E-2</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0.21862888336181641</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>3.8417610426222382E-8</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>2.8562578791024862E-6</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>5.463411808013916</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>2.6583046913146973</v>
+      </c>
+      <c r="BH10" s="1">
         <v>288</v>
       </c>
-      <c r="AY10" s="1">
+      <c r="BI10" s="1">
         <v>1</v>
       </c>
-      <c r="AZ10" s="1">
+      <c r="BJ10" s="1">
         <v>1</v>
       </c>
-      <c r="BA10" s="1">
+      <c r="BK10" s="1">
         <v>12</v>
       </c>
-      <c r="BB10" s="1">
+      <c r="BL10" s="1">
         <v>-8.4372428244424024E-5</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BM10" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD10" s="1">
+      <c r="BN10" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE10" s="1">
+      <c r="BO10" s="1">
         <v>3.7426999188028276E-4</v>
       </c>
-      <c r="BF10" s="1">
+      <c r="BP10" s="1">
         <v>6.274424958974123E-4</v>
       </c>
-      <c r="BG10" s="1">
+      <c r="BQ10" s="1">
         <v>1.3756119878962636E-3</v>
       </c>
-      <c r="BH10" s="1">
+      <c r="BR10" s="1">
         <v>6.7138498707208782E-5</v>
       </c>
-      <c r="BI10" s="1">
+      <c r="BS10" s="1">
         <v>9.9935871548950672E-4</v>
       </c>
-      <c r="BJ10" s="1">
+      <c r="BT10" s="1">
         <v>6.699012010358274E-5</v>
       </c>
-      <c r="BK10" s="1">
+      <c r="BU10" s="1">
         <v>1.3748379424214363E-3</v>
       </c>
-      <c r="BL10" s="1">
+      <c r="BV10" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM10" s="1">
+      <c r="BW10" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1">
         <v>2.9852508021122048E-8</v>
@@ -2115,60 +2395,90 @@
         <v>0.27036988735198975</v>
       </c>
       <c r="AX11" s="1">
+        <v>-1.2259138748049736E-3</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>-2.6190315838903189E-3</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>1.769353449344635E-2</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>9.7111627459526062E-2</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>1.9489300839836687E-8</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>1.265004698325356E-6</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>5.6453189849853516</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>2.8978524208068848</v>
+      </c>
+      <c r="BH11" s="1">
         <v>288</v>
       </c>
-      <c r="AY11" s="1">
+      <c r="BI11" s="1">
         <v>1</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="BJ11" s="1">
         <v>1</v>
       </c>
-      <c r="BA11" s="1">
+      <c r="BK11" s="1">
         <v>11</v>
       </c>
-      <c r="BB11" s="1">
+      <c r="BL11" s="1">
         <v>1.3367648706989537E-3</v>
       </c>
-      <c r="BC11" s="1">
+      <c r="BM11" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD11" s="1">
+      <c r="BN11" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE11" s="1">
+      <c r="BO11" s="1">
         <v>7.4853998376056552E-4</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BP11" s="1">
         <v>1.2548849917948246E-3</v>
       </c>
-      <c r="BG11" s="1">
+      <c r="BQ11" s="1">
         <v>2.7512249071151018E-3</v>
       </c>
-      <c r="BH11" s="1">
+      <c r="BR11" s="1">
         <v>1.3427699741441756E-4</v>
       </c>
-      <c r="BI11" s="1">
+      <c r="BS11" s="1">
         <v>1.9987174309790134E-3</v>
       </c>
-      <c r="BJ11" s="1">
+      <c r="BT11" s="1">
         <v>1.3398019655141979E-4</v>
       </c>
-      <c r="BK11" s="1">
+      <c r="BU11" s="1">
         <v>2.749674953520298E-3</v>
       </c>
-      <c r="BL11" s="1">
+      <c r="BV11" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM11" s="1">
+      <c r="BW11" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1">
         <v>3.1318542426106433E-8</v>
@@ -2312,60 +2622,90 @@
         <v>0.17493276298046112</v>
       </c>
       <c r="AX12" s="1">
+        <v>-1.2916905106976628E-3</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>-2.597245154902339E-3</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>7.8508500009775162E-3</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>3.63633893430233E-2</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>8.8501206363389429E-9</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>4.7258487256840453E-7</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>5.6814699172973633</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>3.1293396949768066</v>
+      </c>
+      <c r="BH12" s="1">
         <v>288</v>
       </c>
-      <c r="AY12" s="1">
+      <c r="BI12" s="1">
         <v>1</v>
       </c>
-      <c r="AZ12" s="1">
+      <c r="BJ12" s="1">
         <v>1</v>
       </c>
-      <c r="BA12" s="1">
+      <c r="BK12" s="1">
         <v>9</v>
       </c>
-      <c r="BB12" s="1">
+      <c r="BL12" s="1">
         <v>5.6374584008497186E-3</v>
       </c>
-      <c r="BC12" s="1">
+      <c r="BM12" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD12" s="1">
+      <c r="BN12" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE12" s="1">
+      <c r="BO12" s="1">
         <v>1.8713499885052443E-3</v>
       </c>
-      <c r="BF12" s="1">
+      <c r="BP12" s="1">
         <v>3.1372124794870615E-3</v>
       </c>
-      <c r="BG12" s="1">
+      <c r="BQ12" s="1">
         <v>6.87806261703372E-3</v>
       </c>
-      <c r="BH12" s="1">
+      <c r="BR12" s="1">
         <v>3.356924862600863E-4</v>
       </c>
-      <c r="BI12" s="1">
+      <c r="BS12" s="1">
         <v>4.9967938102781773E-3</v>
       </c>
-      <c r="BJ12" s="1">
+      <c r="BT12" s="1">
         <v>3.349506005179137E-4</v>
       </c>
-      <c r="BK12" s="1">
+      <c r="BU12" s="1">
         <v>6.874187383800745E-3</v>
       </c>
-      <c r="BL12" s="1">
+      <c r="BV12" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM12" s="1">
+      <c r="BW12" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1">
         <v>3.283089000660766E-8</v>
@@ -2509,60 +2849,90 @@
         <v>0.12218616157770157</v>
       </c>
       <c r="AX13" s="1">
+        <v>-1.3639165554195642E-3</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>-2.5845484342426062E-3</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>4.5474525541067123E-3</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>1.854226179420948E-2</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>5.2475170875254662E-9</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>2.4064976855697751E-7</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>5.5748147964477539</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>3.2162275314331055</v>
+      </c>
+      <c r="BH13" s="1">
         <v>288</v>
       </c>
-      <c r="AY13" s="1">
+      <c r="BI13" s="1">
         <v>1</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="BJ13" s="1">
         <v>1</v>
       </c>
-      <c r="BA13" s="1">
+      <c r="BK13" s="1">
         <v>8</v>
       </c>
-      <c r="BB13" s="1">
+      <c r="BL13" s="1">
         <v>1.2786129630485248E-2</v>
       </c>
-      <c r="BC13" s="1">
+      <c r="BM13" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD13" s="1">
+      <c r="BN13" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE13" s="1">
+      <c r="BO13" s="1">
         <v>3.7426999770104885E-3</v>
       </c>
-      <c r="BF13" s="1">
+      <c r="BP13" s="1">
         <v>6.274424958974123E-3</v>
       </c>
-      <c r="BG13" s="1">
+      <c r="BQ13" s="1">
         <v>1.375612523406744E-2</v>
       </c>
-      <c r="BH13" s="1">
+      <c r="BR13" s="1">
         <v>6.713849725201726E-4</v>
       </c>
-      <c r="BI13" s="1">
+      <c r="BS13" s="1">
         <v>9.9935876205563545E-3</v>
       </c>
-      <c r="BJ13" s="1">
+      <c r="BT13" s="1">
         <v>6.699012010358274E-4</v>
       </c>
-      <c r="BK13" s="1">
+      <c r="BU13" s="1">
         <v>1.374837476760149E-2</v>
       </c>
-      <c r="BL13" s="1">
+      <c r="BV13" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM13" s="1">
+      <c r="BW13" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1">
         <v>2.8844016952689344E-8</v>
@@ -2706,60 +3076,90 @@
         <v>0.39075762033462524</v>
       </c>
       <c r="AX14" s="1">
+        <v>-1.1826589470729232E-3</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>-2.6581310667097569E-3</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>4.4758372008800507E-2</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0.28726810216903687</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>4.8504045224717629E-8</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>3.7573104236798827E-6</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>5.3745512962341309</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>2.5730240345001221</v>
+      </c>
+      <c r="BH14" s="1">
         <v>288</v>
       </c>
-      <c r="AY14" s="1">
+      <c r="BI14" s="1">
         <v>1</v>
       </c>
-      <c r="AZ14" s="1">
+      <c r="BJ14" s="1">
         <v>1</v>
       </c>
-      <c r="BA14" s="1">
+      <c r="BK14" s="1">
         <v>12</v>
       </c>
-      <c r="BB14" s="1">
+      <c r="BL14" s="1">
         <v>-3.6262628406324277E-4</v>
       </c>
-      <c r="BC14" s="1">
+      <c r="BM14" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD14" s="1">
+      <c r="BN14" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE14" s="1">
+      <c r="BO14" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF14" s="1">
+      <c r="BP14" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG14" s="1">
+      <c r="BQ14" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH14" s="1">
+      <c r="BR14" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI14" s="1">
+      <c r="BS14" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ14" s="1">
+      <c r="BT14" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK14" s="1">
+      <c r="BU14" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL14" s="1">
+      <c r="BV14" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM14" s="1">
+      <c r="BW14" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1">
         <v>2.8843327726235657E-8</v>
@@ -2903,60 +3303,90 @@
         <v>0.39086520671844482</v>
       </c>
       <c r="AX15" s="1">
+        <v>-1.2282941024750471E-3</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>-2.733512781560421E-3</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>4.4795271009206772E-2</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0.28753983974456787</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>2.469232867952087E-6</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>1.8947156786452979E-4</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>1.0000000474974513E-4</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>9.0000004274770617E-4</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>5.4401884078979492</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>2.6054244041442871</v>
+      </c>
+      <c r="BH15" s="1">
         <v>288</v>
       </c>
-      <c r="AY15" s="1">
+      <c r="BI15" s="1">
         <v>1</v>
       </c>
-      <c r="AZ15" s="1">
+      <c r="BJ15" s="1">
         <v>1</v>
       </c>
-      <c r="BA15" s="1">
+      <c r="BK15" s="1">
         <v>12</v>
       </c>
-      <c r="BB15" s="1">
+      <c r="BL15" s="1">
         <v>-3.6145004619136381E-4</v>
       </c>
-      <c r="BC15" s="1">
+      <c r="BM15" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD15" s="1">
+      <c r="BN15" s="1">
         <v>1.0000000474974513E-3</v>
       </c>
-      <c r="BE15" s="1">
+      <c r="BO15" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF15" s="1">
+      <c r="BP15" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG15" s="1">
+      <c r="BQ15" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH15" s="1">
+      <c r="BR15" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI15" s="1">
+      <c r="BS15" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ15" s="1">
+      <c r="BT15" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK15" s="1">
+      <c r="BU15" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL15" s="1">
+      <c r="BV15" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM15" s="1">
+      <c r="BW15" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1">
         <v>2.884257810364943E-8</v>
@@ -3100,60 +3530,90 @@
         <v>0.3909822404384613</v>
       </c>
       <c r="AX16" s="1">
+        <v>-1.2716597411781549E-3</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>-2.8023573104292154E-3</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>4.4835485517978668E-2</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>0.28783589601516724</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>5.0197204473079182E-6</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>3.8184583536349237E-4</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>5.5025248527526855</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>2.6351020336151123</v>
+      </c>
+      <c r="BH16" s="1">
         <v>288</v>
       </c>
-      <c r="AY16" s="1">
+      <c r="BI16" s="1">
         <v>1</v>
       </c>
-      <c r="AZ16" s="1">
+      <c r="BJ16" s="1">
         <v>1</v>
       </c>
-      <c r="BA16" s="1">
+      <c r="BK16" s="1">
         <v>12</v>
       </c>
-      <c r="BB16" s="1">
+      <c r="BL16" s="1">
         <v>-3.6045702398427052E-4</v>
       </c>
-      <c r="BC16" s="1">
+      <c r="BM16" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD16" s="1">
+      <c r="BN16" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE16" s="1">
+      <c r="BO16" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF16" s="1">
+      <c r="BP16" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG16" s="1">
+      <c r="BQ16" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH16" s="1">
+      <c r="BR16" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI16" s="1">
+      <c r="BS16" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ16" s="1">
+      <c r="BT16" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK16" s="1">
+      <c r="BU16" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL16" s="1">
+      <c r="BV16" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM16" s="1">
+      <c r="BW16" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1">
         <v>2.8841048660410706E-8</v>
@@ -3297,257 +3757,317 @@
         <v>0.39122125506401062</v>
       </c>
       <c r="AX17" s="1">
+        <v>-1.3145897537469864E-3</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>-2.8532762080430984E-3</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>4.4917672872543335E-2</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0.28844115138053894</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>1.0204540558333974E-5</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>7.6890632044523954E-4</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>4.0000001899898052E-4</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>3.6000001709908247E-3</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>5.5707311630249023</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>2.6604528427124023</v>
+      </c>
+      <c r="BH17" s="1">
         <v>288</v>
       </c>
-      <c r="AY17" s="1">
+      <c r="BI17" s="1">
         <v>1</v>
       </c>
-      <c r="AZ17" s="1">
+      <c r="BJ17" s="1">
         <v>1</v>
       </c>
-      <c r="BA17" s="1">
+      <c r="BK17" s="1">
         <v>11</v>
       </c>
-      <c r="BB17" s="1">
+      <c r="BL17" s="1">
         <v>-3.5861334249732806E-4</v>
       </c>
-      <c r="BC17" s="1">
+      <c r="BM17" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD17" s="1">
+      <c r="BN17" s="1">
         <v>4.0000001899898052E-3</v>
       </c>
-      <c r="BE17" s="1">
+      <c r="BO17" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF17" s="1">
+      <c r="BP17" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG17" s="1">
+      <c r="BQ17" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH17" s="1">
+      <c r="BR17" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI17" s="1">
+      <c r="BS17" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ17" s="1">
+      <c r="BT17" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK17" s="1">
+      <c r="BU17" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL17" s="1">
+      <c r="BV17" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM17" s="1">
+      <c r="BW17" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="18" spans="1:75" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="7">
         <v>2.8836437238055623E-8</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>1.1464059562760198E-10</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>1.0000000474974513E-2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <v>2.6778952451422811E-4</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>4.4970380258746445E-4</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="7">
         <v>1.096791704185307E-3</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="7">
         <v>5.3530304285231978E-5</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="7">
         <v>7.4405578197911382E-4</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="7">
         <v>5.3696847317041829E-5</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="7">
         <v>1.7500308331364067E-6</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="7">
         <v>1.4140072881102111E-26</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="7">
         <v>1.3977825733018339E-10</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="7">
         <v>2.5795216846182991E-13</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="7">
         <v>1.9948363733684879E-14</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="7">
         <v>9.5497969236515149E-11</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="7">
         <v>1.6037147077707954E-10</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="7">
         <v>9.0588190489140114E-13</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="7">
         <v>1.3716838833381691E-10</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="7">
         <v>1.02692109066993E-3</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="7">
         <v>6.6102096752729267E-5</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="7">
         <v>2.4964655006909894E-20</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="7">
         <v>6.271657958879697E-21</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="7">
         <v>3.9977949199965224E-6</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="7">
         <v>3.7962203691677132E-7</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18" s="7">
         <v>3.5485794796841219E-5</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18" s="7">
         <v>2.3295442588278092E-6</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18" s="7">
         <v>3.7356875282057445E-7</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="7">
         <v>2.1396712327259593E-5</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18" s="7">
         <v>4.7778198064563071E-11</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AF18" s="7">
         <v>1.4869831711436521E-12</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AG18" s="7">
         <v>1.0237363040621617E-11</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18" s="7">
         <v>6.7026606487274876E-10</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AI18" s="7">
         <v>1.7349743603595202E-12</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="7">
         <v>1.0829417027566953E-14</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AK18" s="7">
         <v>1.4328112030170814E-9</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AL18" s="7">
         <v>2.91729214505973E-7</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AM18" s="7">
         <v>4.1887792466901552E-7</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AN18" s="7">
         <v>8.0962475287882363E-6</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AO18" s="7">
         <v>1.3342353470280344E-5</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AP18" s="7">
         <v>5.8377981986268423E-6</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AQ18" s="7">
         <v>2.8492110004663118E-7</v>
       </c>
-      <c r="AR18" s="1">
+      <c r="AR18" s="7">
         <v>-6.9428901325376121E-3</v>
       </c>
-      <c r="AS18" s="1">
+      <c r="AS18" s="7">
         <v>1.2082915985017321E-2</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AT18" s="7">
         <v>0.93337982892990112</v>
       </c>
-      <c r="AU18" s="1">
+      <c r="AU18" s="7">
         <v>0.77078181505203247</v>
       </c>
-      <c r="AV18" s="1">
+      <c r="AV18" s="7">
         <v>0.57420849800109863</v>
       </c>
-      <c r="AW18" s="1">
+      <c r="AW18" s="7">
         <v>0.39194324612617493</v>
       </c>
-      <c r="AX18" s="1">
+      <c r="AX18" s="7">
+        <v>-1.3543848181143403E-3</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>-2.885080873966217E-3</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>4.5166913419961929E-2</v>
+      </c>
+      <c r="BA18" s="7">
+        <v>0.29027733206748962</v>
+      </c>
+      <c r="BB18" s="7">
+        <v>2.5982746592490003E-5</v>
+      </c>
+      <c r="BC18" s="7">
+        <v>1.940053072758019E-3</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>1.0000000474974513E-3</v>
+      </c>
+      <c r="BE18" s="7">
+        <v>9.0000005438923836E-3</v>
+      </c>
+      <c r="BF18" s="7">
+        <v>5.6610274314880371</v>
+      </c>
+      <c r="BG18" s="7">
+        <v>2.6892986297607422</v>
+      </c>
+      <c r="BH18" s="7">
         <v>288</v>
       </c>
-      <c r="AY18" s="1">
+      <c r="BI18" s="7">
         <v>1</v>
       </c>
-      <c r="AZ18" s="1">
+      <c r="BJ18" s="7">
         <v>1</v>
       </c>
-      <c r="BA18" s="1">
+      <c r="BK18" s="7">
         <v>11</v>
       </c>
-      <c r="BB18" s="1">
+      <c r="BL18" s="7">
         <v>-3.5335871491764203E-4</v>
       </c>
-      <c r="BC18" s="1">
+      <c r="BM18" s="7">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD18" s="1">
+      <c r="BN18" s="7">
         <v>1.0000000474974513E-2</v>
       </c>
-      <c r="BE18" s="1">
+      <c r="BO18" s="7">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF18" s="1">
+      <c r="BP18" s="7">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG18" s="1">
+      <c r="BQ18" s="7">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH18" s="1">
+      <c r="BR18" s="7">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI18" s="1">
+      <c r="BS18" s="7">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ18" s="1">
+      <c r="BT18" s="7">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK18" s="1">
+      <c r="BU18" s="7">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL18" s="1">
+      <c r="BV18" s="7">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM18" s="1">
+      <c r="BW18" s="7">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1">
         <v>2.8832586096427804E-8</v>
@@ -3691,60 +4211,90 @@
         <v>0.39254769682884216</v>
       </c>
       <c r="AX19" s="1">
+        <v>-1.3667528983205557E-3</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>-2.8939938638359308E-3</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>4.5376677066087723E-2</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0.29182359576225281</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>3.9306200051214546E-5</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>2.9279021546244621E-3</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>1.5000001294538379E-3</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>1.3500000350177288E-2</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>5.7105731964111328</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>2.7067346572875977</v>
+      </c>
+      <c r="BH19" s="1">
         <v>288</v>
       </c>
-      <c r="AY19" s="1">
+      <c r="BI19" s="1">
         <v>1</v>
       </c>
-      <c r="AZ19" s="1">
+      <c r="BJ19" s="1">
         <v>1</v>
       </c>
-      <c r="BA19" s="1">
+      <c r="BK19" s="1">
         <v>11</v>
       </c>
-      <c r="BB19" s="1">
+      <c r="BL19" s="1">
         <v>-3.4916541939725935E-4</v>
       </c>
-      <c r="BC19" s="1">
+      <c r="BM19" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD19" s="1">
+      <c r="BN19" s="1">
         <v>1.500000071246177E-2</v>
       </c>
-      <c r="BE19" s="1">
+      <c r="BO19" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF19" s="1">
+      <c r="BP19" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG19" s="1">
+      <c r="BQ19" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH19" s="1">
+      <c r="BR19" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI19" s="1">
+      <c r="BS19" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ19" s="1">
+      <c r="BT19" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK19" s="1">
+      <c r="BU19" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL19" s="1">
+      <c r="BV19" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM19" s="1">
+      <c r="BW19" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1">
         <v>2.8828729625729466E-8</v>
@@ -3888,60 +4438,90 @@
         <v>0.39315438270568848</v>
       </c>
       <c r="AX20" s="1">
+        <v>-1.3742756564170122E-3</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>-2.9002653900533915E-3</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>4.5588251203298569E-2</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0.29338392615318298</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>5.2774688811041415E-5</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>3.9269234985113144E-3</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>2.0000000949949026E-3</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>1.8000001087784767E-2</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>5.7544355392456055</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>2.7235665321350098</v>
+      </c>
+      <c r="BH20" s="1">
         <v>288</v>
       </c>
-      <c r="AY20" s="1">
+      <c r="BI20" s="1">
         <v>1</v>
       </c>
-      <c r="AZ20" s="1">
+      <c r="BJ20" s="1">
         <v>1</v>
       </c>
-      <c r="BA20" s="1">
+      <c r="BK20" s="1">
         <v>10</v>
       </c>
-      <c r="BB20" s="1">
+      <c r="BL20" s="1">
         <v>-3.4508139728086956E-4</v>
       </c>
-      <c r="BC20" s="1">
+      <c r="BM20" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD20" s="1">
+      <c r="BN20" s="1">
         <v>2.0000000949949026E-2</v>
       </c>
-      <c r="BE20" s="1">
+      <c r="BO20" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF20" s="1">
+      <c r="BP20" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG20" s="1">
+      <c r="BQ20" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH20" s="1">
+      <c r="BR20" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI20" s="1">
+      <c r="BS20" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ20" s="1">
+      <c r="BT20" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK20" s="1">
+      <c r="BU20" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL20" s="1">
+      <c r="BV20" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM20" s="1">
+      <c r="BW20" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1">
         <v>2.8821002473478075E-8</v>
@@ -4085,60 +4665,90 @@
         <v>0.39437434077262878</v>
       </c>
       <c r="AX21" s="1">
+        <v>-1.3840815518051386E-3</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>-2.9106074944138527E-3</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>4.6016741544008255E-2</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>0.29654648900032043</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>8.0145240644924343E-5</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>5.9593101032078266E-3</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>3.0000002589076757E-3</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>2.7000000700354576E-2</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>5.838228702545166</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>2.7572898864746094</v>
+      </c>
+      <c r="BH21" s="1">
         <v>288</v>
       </c>
-      <c r="AY21" s="1">
+      <c r="BI21" s="1">
         <v>1</v>
       </c>
-      <c r="AZ21" s="1">
+      <c r="BJ21" s="1">
         <v>1</v>
       </c>
-      <c r="BA21" s="1">
+      <c r="BK21" s="1">
         <v>10</v>
       </c>
-      <c r="BB21" s="1">
+      <c r="BL21" s="1">
         <v>-3.3710538219580504E-4</v>
       </c>
-      <c r="BC21" s="1">
+      <c r="BM21" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD21" s="1">
+      <c r="BN21" s="1">
         <v>3.0000001424923539E-2</v>
       </c>
-      <c r="BE21" s="1">
+      <c r="BO21" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF21" s="1">
+      <c r="BP21" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG21" s="1">
+      <c r="BQ21" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH21" s="1">
+      <c r="BR21" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI21" s="1">
+      <c r="BS21" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ21" s="1">
+      <c r="BT21" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK21" s="1">
+      <c r="BU21" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL21" s="1">
+      <c r="BV21" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM21" s="1">
+      <c r="BW21" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1">
         <v>2.8813254004944611E-8</v>
@@ -4282,60 +4892,90 @@
         <v>0.39560288190841675</v>
       </c>
       <c r="AX22" s="1">
+        <v>-1.3912024442106485E-3</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>-2.9200678691267967E-3</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>4.6452455222606659E-2</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0.29976540803909302</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>1.0810422099893913E-4</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>8.0386549234390259E-3</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>4.0000001899898052E-3</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>3.6000002175569534E-2</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>5.9220385551452637</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>2.7920002937316895</v>
+      </c>
+      <c r="BH22" s="1">
         <v>288</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="BI22" s="1">
         <v>1</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="BJ22" s="1">
         <v>1</v>
       </c>
-      <c r="BA22" s="1">
+      <c r="BK22" s="1">
         <v>9</v>
       </c>
-      <c r="BB22" s="1">
+      <c r="BL22" s="1">
         <v>-3.292616986213825E-4</v>
       </c>
-      <c r="BC22" s="1">
+      <c r="BM22" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD22" s="1">
+      <c r="BN22" s="1">
         <v>4.0000001899898052E-2</v>
       </c>
-      <c r="BE22" s="1">
+      <c r="BO22" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF22" s="1">
+      <c r="BP22" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG22" s="1">
+      <c r="BQ22" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH22" s="1">
+      <c r="BR22" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI22" s="1">
+      <c r="BS22" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ22" s="1">
+      <c r="BT22" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK22" s="1">
+      <c r="BU22" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL22" s="1">
+      <c r="BV22" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM22" s="1">
+      <c r="BW22" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1">
         <v>1.0676358215278015E-4</v>
@@ -4479,60 +5119,90 @@
         <v>0.40820139646530151</v>
       </c>
       <c r="AX23" s="1">
+        <v>-8.2617957377806306E-4</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>-2.3609260097146034E-3</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>5.1176268607378006E-2</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0.33486422896385193</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>4.6305185463779708E-8</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>4.2341353037045337E-6</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>4.4975886344909668</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>2.2104082107543945</v>
+      </c>
+      <c r="BH23" s="1">
         <v>288</v>
       </c>
-      <c r="AY23" s="1">
+      <c r="BI23" s="1">
         <v>1</v>
       </c>
-      <c r="AZ23" s="1">
+      <c r="BJ23" s="1">
         <v>1</v>
       </c>
-      <c r="BA23" s="1">
+      <c r="BK23" s="1">
         <v>4</v>
       </c>
-      <c r="BB23" s="1">
+      <c r="BL23" s="1">
         <v>2.2707461733246551E-3</v>
       </c>
-      <c r="BC23" s="1">
+      <c r="BM23" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD23" s="1">
+      <c r="BN23" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE23" s="1">
+      <c r="BO23" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF23" s="1">
+      <c r="BP23" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG23" s="1">
+      <c r="BQ23" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH23" s="1">
+      <c r="BR23" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI23" s="1">
+      <c r="BS23" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ23" s="1">
+      <c r="BT23" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK23" s="1">
+      <c r="BU23" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL23" s="1">
+      <c r="BV23" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM23" s="1">
+      <c r="BW23" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1">
         <v>1.0673696124285925E-5</v>
@@ -4676,60 +5346,90 @@
         <v>0.40939635038375854</v>
       </c>
       <c r="AX24" s="1">
+        <v>-1.1760755442082882E-3</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>-2.5654376950114965E-3</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>5.1649622619152069E-2</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>0.33840048313140869</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>5.5828820677561453E-8</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>4.3828044908877928E-6</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>4.9521450996398926</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>2.3015244007110596</v>
+      </c>
+      <c r="BH24" s="1">
         <v>288</v>
       </c>
-      <c r="AY24" s="1">
+      <c r="BI24" s="1">
         <v>1</v>
       </c>
-      <c r="AZ24" s="1">
+      <c r="BJ24" s="1">
         <v>1</v>
       </c>
-      <c r="BA24" s="1">
+      <c r="BK24" s="1">
         <v>6</v>
       </c>
-      <c r="BB24" s="1">
+      <c r="BL24" s="1">
         <v>1.9277820774653812E-3</v>
       </c>
-      <c r="BC24" s="1">
+      <c r="BM24" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD24" s="1">
+      <c r="BN24" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE24" s="1">
+      <c r="BO24" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF24" s="1">
+      <c r="BP24" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG24" s="1">
+      <c r="BQ24" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH24" s="1">
+      <c r="BR24" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI24" s="1">
+      <c r="BS24" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ24" s="1">
+      <c r="BT24" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK24" s="1">
+      <c r="BU24" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL24" s="1">
+      <c r="BV24" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM24" s="1">
+      <c r="BW24" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1">
         <v>1.0685826055123471E-6</v>
@@ -4873,60 +5573,90 @@
         <v>0.40399312973022461</v>
       </c>
       <c r="AX25" s="1">
+        <v>-1.1987374164164066E-3</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>-2.5679357349872589E-3</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>4.9545031040906906E-2</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>0.32270380854606628</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>5.402326763714882E-8</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>4.1806492845353205E-6</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF25" s="1">
+        <v>5.0989618301391602</v>
+      </c>
+      <c r="BG25" s="1">
+        <v>2.3699951171875</v>
+      </c>
+      <c r="BH25" s="1">
         <v>288</v>
       </c>
-      <c r="AY25" s="1">
+      <c r="BI25" s="1">
         <v>1</v>
       </c>
-      <c r="AZ25" s="1">
+      <c r="BJ25" s="1">
         <v>1</v>
       </c>
-      <c r="BA25" s="1">
+      <c r="BK25" s="1">
         <v>9</v>
       </c>
-      <c r="BB25" s="1">
+      <c r="BL25" s="1">
         <v>1.0665126869339697E-3</v>
       </c>
-      <c r="BC25" s="1">
+      <c r="BM25" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD25" s="1">
+      <c r="BN25" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE25" s="1">
+      <c r="BO25" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF25" s="1">
+      <c r="BP25" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG25" s="1">
+      <c r="BQ25" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH25" s="1">
+      <c r="BR25" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI25" s="1">
+      <c r="BS25" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ25" s="1">
+      <c r="BT25" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK25" s="1">
+      <c r="BU25" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL25" s="1">
+      <c r="BV25" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM25" s="1">
+      <c r="BW25" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1">
         <v>1.0710333953056761E-7</v>
@@ -5070,60 +5800,90 @@
         <v>0.39338973164558411</v>
       </c>
       <c r="AX26" s="1">
+        <v>-1.1840211227536201E-3</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>-2.5932877324521542E-3</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>4.5670580118894577E-2</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>0.29399138689041138</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>4.9518693145955694E-8</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>3.8191424209799152E-6</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>5.3151035308837891</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>2.5123665332794189</v>
+      </c>
+      <c r="BH26" s="1">
         <v>288</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="BI26" s="1">
         <v>1</v>
       </c>
-      <c r="AZ26" s="1">
+      <c r="BJ26" s="1">
         <v>1</v>
       </c>
-      <c r="BA26" s="1">
+      <c r="BK26" s="1">
         <v>11</v>
       </c>
-      <c r="BB26" s="1">
+      <c r="BL26" s="1">
         <v>-6.3332194344963838E-5</v>
       </c>
-      <c r="BC26" s="1">
+      <c r="BM26" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD26" s="1">
+      <c r="BN26" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE26" s="1">
+      <c r="BO26" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF26" s="1">
+      <c r="BP26" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG26" s="1">
+      <c r="BQ26" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH26" s="1">
+      <c r="BR26" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI26" s="1">
+      <c r="BS26" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ26" s="1">
+      <c r="BT26" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK26" s="1">
+      <c r="BU26" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL26" s="1">
+      <c r="BV26" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM26" s="1">
+      <c r="BW26" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1">
         <v>1.0718437692958105E-8</v>
@@ -5267,60 +6027,90 @@
         <v>0.38997307419776917</v>
       </c>
       <c r="AX27" s="1">
+        <v>-1.1990540660917759E-3</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>-2.7373884804546833E-3</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>4.4490117579698563E-2</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0.2852938175201416</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>4.851728263588484E-8</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>3.7612576306855772E-6</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF27" s="1">
+        <v>5.4181065559387207</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>2.6168613433837891</v>
+      </c>
+      <c r="BH27" s="1">
         <v>288</v>
       </c>
-      <c r="AY27" s="1">
+      <c r="BI27" s="1">
         <v>1</v>
       </c>
-      <c r="AZ27" s="1">
+      <c r="BJ27" s="1">
         <v>1</v>
       </c>
-      <c r="BA27" s="1">
+      <c r="BK27" s="1">
         <v>12</v>
       </c>
-      <c r="BB27" s="1">
+      <c r="BL27" s="1">
         <v>-4.528572602934871E-4</v>
       </c>
-      <c r="BC27" s="1">
+      <c r="BM27" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD27" s="1">
+      <c r="BN27" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE27" s="1">
+      <c r="BO27" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF27" s="1">
+      <c r="BP27" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG27" s="1">
+      <c r="BQ27" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH27" s="1">
+      <c r="BR27" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI27" s="1">
+      <c r="BS27" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ27" s="1">
+      <c r="BT27" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK27" s="1">
+      <c r="BU27" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL27" s="1">
+      <c r="BV27" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM27" s="1">
+      <c r="BW27" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1">
         <v>1.0721655785417283E-9</v>
@@ -5464,60 +6254,90 @@
         <v>0.38862845301628113</v>
       </c>
       <c r="AX28" s="1">
+        <v>-1.3093875022605062E-3</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>-2.99827940762043E-3</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>4.4034220278263092E-2</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0.28194141387939453</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>4.9933468915241974E-8</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>3.8056630273786141E-6</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE28" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>5.6514730453491211</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>2.7637228965759277</v>
+      </c>
+      <c r="BH28" s="1">
         <v>288</v>
       </c>
-      <c r="AY28" s="1">
+      <c r="BI28" s="1">
         <v>1</v>
       </c>
-      <c r="AZ28" s="1">
+      <c r="BJ28" s="1">
         <v>1</v>
       </c>
-      <c r="BA28" s="1">
+      <c r="BK28" s="1">
         <v>13</v>
       </c>
-      <c r="BB28" s="1">
+      <c r="BL28" s="1">
         <v>-5.6213427185447355E-4</v>
       </c>
-      <c r="BC28" s="1">
+      <c r="BM28" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD28" s="1">
+      <c r="BN28" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE28" s="1">
+      <c r="BO28" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF28" s="1">
+      <c r="BP28" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG28" s="1">
+      <c r="BQ28" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH28" s="1">
+      <c r="BR28" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI28" s="1">
+      <c r="BS28" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ28" s="1">
+      <c r="BT28" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK28" s="1">
+      <c r="BU28" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL28" s="1">
+      <c r="BV28" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM28" s="1">
+      <c r="BW28" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1">
         <v>1.0739539119120067E-10</v>
@@ -5661,60 +6481,90 @@
         <v>0.38127866387367249</v>
       </c>
       <c r="AX29" s="1">
+        <v>-1.4179182471707463E-3</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>-3.2648504711687565E-3</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>4.1625645011663437E-2</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0.26429441571235657</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>4.8820318454545486E-8</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>3.6418327908904757E-6</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>6.3302021026611328</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>3.1412889957427979</v>
+      </c>
+      <c r="BH29" s="1">
         <v>288</v>
       </c>
-      <c r="AY29" s="1">
+      <c r="BI29" s="1">
         <v>1</v>
       </c>
-      <c r="AZ29" s="1">
+      <c r="BJ29" s="1">
         <v>1</v>
       </c>
-      <c r="BA29" s="1">
+      <c r="BK29" s="1">
         <v>11</v>
       </c>
-      <c r="BB29" s="1">
+      <c r="BL29" s="1">
         <v>-9.2439965252263424E-4</v>
       </c>
-      <c r="BC29" s="1">
+      <c r="BM29" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD29" s="1">
+      <c r="BN29" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE29" s="1">
+      <c r="BO29" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF29" s="1">
+      <c r="BP29" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG29" s="1">
+      <c r="BQ29" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH29" s="1">
+      <c r="BR29" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI29" s="1">
+      <c r="BS29" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ29" s="1">
+      <c r="BT29" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK29" s="1">
+      <c r="BU29" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL29" s="1">
+      <c r="BV29" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM29" s="1">
+      <c r="BW29" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1">
         <v>2.8810021035496902E-8</v>
@@ -5858,60 +6708,90 @@
         <v>0.39736798405647278</v>
       </c>
       <c r="AX30" s="1">
+        <v>-1.1585267493501306E-3</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>-2.6200567372143269E-3</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>4.4180016964673996E-2</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>0.28301310539245605</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>4.7424698834674928E-8</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>3.6870105759589933E-6</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>5.3324065208435059</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>2.5583813190460205</v>
+      </c>
+      <c r="BH30" s="1">
         <v>274</v>
       </c>
-      <c r="AY30" s="1">
+      <c r="BI30" s="1">
         <v>1</v>
       </c>
-      <c r="AZ30" s="1">
+      <c r="BJ30" s="1">
         <v>1</v>
       </c>
-      <c r="BA30" s="1">
+      <c r="BK30" s="1">
         <v>12</v>
       </c>
-      <c r="BB30" s="1">
+      <c r="BL30" s="1">
         <v>-3.4972361395705395E-4</v>
       </c>
-      <c r="BC30" s="1">
+      <c r="BM30" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD30" s="1">
+      <c r="BN30" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE30" s="1">
+      <c r="BO30" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF30" s="1">
+      <c r="BP30" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG30" s="1">
+      <c r="BQ30" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH30" s="1">
+      <c r="BR30" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI30" s="1">
+      <c r="BS30" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ30" s="1">
+      <c r="BT30" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK30" s="1">
+      <c r="BU30" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL30" s="1">
+      <c r="BV30" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM30" s="1">
+      <c r="BW30" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1">
         <v>2.8820043240784798E-8</v>
@@ -6055,60 +6935,90 @@
         <v>0.39541810750961304</v>
       </c>
       <c r="AX31" s="1">
+        <v>-1.1649170191958547E-3</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>-2.6299953460693359E-3</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>4.4329915195703506E-2</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>0.28411537408828735</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>4.7706841144190548E-8</v>
+      </c>
+      <c r="BC31" s="1">
+        <v>3.7052384413982509E-6</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE31" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF31" s="1">
+        <v>5.3438258171081543</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>2.562342643737793</v>
+      </c>
+      <c r="BH31" s="1">
         <v>278</v>
       </c>
-      <c r="AY31" s="1">
+      <c r="BI31" s="1">
         <v>1</v>
       </c>
-      <c r="AZ31" s="1">
+      <c r="BJ31" s="1">
         <v>1</v>
       </c>
-      <c r="BA31" s="1">
+      <c r="BK31" s="1">
         <v>12</v>
       </c>
-      <c r="BB31" s="1">
+      <c r="BL31" s="1">
         <v>-3.5378082050559049E-4</v>
       </c>
-      <c r="BC31" s="1">
+      <c r="BM31" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD31" s="1">
+      <c r="BN31" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE31" s="1">
+      <c r="BO31" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF31" s="1">
+      <c r="BP31" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG31" s="1">
+      <c r="BQ31" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH31" s="1">
+      <c r="BR31" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI31" s="1">
+      <c r="BS31" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ31" s="1">
+      <c r="BT31" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK31" s="1">
+      <c r="BU31" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL31" s="1">
+      <c r="BV31" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM31" s="1">
+      <c r="BW31" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1">
         <v>2.8832223719632566E-8</v>
@@ -6252,60 +7162,90 @@
         <v>0.39304983615875244</v>
       </c>
       <c r="AX32" s="1">
+        <v>-1.1733868159353733E-3</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>-2.6434194296598434E-3</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>4.4534545391798019E-2</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>0.28562068939208984</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>4.8087397175322621E-8</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>3.7300881103874417E-6</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>5.3587179183959961</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>2.5675280094146729</v>
+      </c>
+      <c r="BH32" s="1">
         <v>283</v>
       </c>
-      <c r="AY32" s="1">
+      <c r="BI32" s="1">
         <v>1</v>
       </c>
-      <c r="AZ32" s="1">
+      <c r="BJ32" s="1">
         <v>1</v>
       </c>
-      <c r="BA32" s="1">
+      <c r="BK32" s="1">
         <v>12</v>
       </c>
-      <c r="BB32" s="1">
+      <c r="BL32" s="1">
         <v>-3.5841954209276457E-4</v>
       </c>
-      <c r="BC32" s="1">
+      <c r="BM32" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD32" s="1">
+      <c r="BN32" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE32" s="1">
+      <c r="BO32" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF32" s="1">
+      <c r="BP32" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG32" s="1">
+      <c r="BQ32" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH32" s="1">
+      <c r="BR32" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI32" s="1">
+      <c r="BS32" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ32" s="1">
+      <c r="BT32" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK32" s="1">
+      <c r="BU32" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL32" s="1">
+      <c r="BV32" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM32" s="1">
+      <c r="BW32" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1">
         <v>2.8844016952689344E-8</v>
@@ -6449,60 +7389,90 @@
         <v>0.39075762033462524</v>
       </c>
       <c r="AX33" s="1">
+        <v>-1.182659063488245E-3</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>-2.6581764686852694E-3</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>4.4758372008800507E-2</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>0.28726810216903687</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>4.8504048777431308E-8</v>
+      </c>
+      <c r="BC33" s="1">
+        <v>3.7573279314528918E-6</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE33" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF33" s="1">
+        <v>5.3746652603149414</v>
+      </c>
+      <c r="BG33" s="1">
+        <v>2.5730748176574707</v>
+      </c>
+      <c r="BH33" s="1">
         <v>288</v>
       </c>
-      <c r="AY33" s="1">
+      <c r="BI33" s="1">
         <v>1</v>
       </c>
-      <c r="AZ33" s="1">
+      <c r="BJ33" s="1">
         <v>1</v>
       </c>
-      <c r="BA33" s="1">
+      <c r="BK33" s="1">
         <v>12</v>
       </c>
-      <c r="BB33" s="1">
+      <c r="BL33" s="1">
         <v>-3.6262631056491797E-4</v>
       </c>
-      <c r="BC33" s="1">
+      <c r="BM33" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD33" s="1">
+      <c r="BN33" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE33" s="1">
+      <c r="BO33" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF33" s="1">
+      <c r="BP33" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG33" s="1">
+      <c r="BQ33" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH33" s="1">
+      <c r="BR33" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI33" s="1">
+      <c r="BS33" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ33" s="1">
+      <c r="BT33" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK33" s="1">
+      <c r="BU33" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL33" s="1">
+      <c r="BV33" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM33" s="1">
+      <c r="BW33" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1">
         <v>2.8855417610884615E-8</v>
@@ -6646,60 +7616,90 @@
         <v>0.38854023814201355</v>
       </c>
       <c r="AX34" s="1">
+        <v>-1.193023519590497E-3</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>-2.6744352653622627E-3</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>4.5001327991485596E-2</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>0.28905731439590454</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>4.8962217391590457E-8</v>
+      </c>
+      <c r="BC34" s="1">
+        <v>3.7870233882131288E-6</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE34" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF34" s="1">
+        <v>5.3919339179992676</v>
+      </c>
+      <c r="BG34" s="1">
+        <v>2.5790627002716064</v>
+      </c>
+      <c r="BH34" s="1">
         <v>293</v>
       </c>
-      <c r="AY34" s="1">
+      <c r="BI34" s="1">
         <v>1</v>
       </c>
-      <c r="AZ34" s="1">
+      <c r="BJ34" s="1">
         <v>1</v>
       </c>
-      <c r="BA34" s="1">
+      <c r="BK34" s="1">
         <v>12</v>
       </c>
-      <c r="BB34" s="1">
+      <c r="BL34" s="1">
         <v>-3.6645613269120809E-4</v>
       </c>
-      <c r="BC34" s="1">
+      <c r="BM34" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD34" s="1">
+      <c r="BN34" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE34" s="1">
+      <c r="BO34" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF34" s="1">
+      <c r="BP34" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG34" s="1">
+      <c r="BQ34" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH34" s="1">
+      <c r="BR34" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI34" s="1">
+      <c r="BS34" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ34" s="1">
+      <c r="BT34" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK34" s="1">
+      <c r="BU34" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL34" s="1">
+      <c r="BV34" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM34" s="1">
+      <c r="BW34" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1">
         <v>2.8866436352359415E-8</v>
@@ -6843,60 +7843,90 @@
         <v>0.38639608025550842</v>
       </c>
       <c r="AX35" s="1">
+        <v>-1.204741420224309E-3</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>-2.6921790558844805E-3</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>4.5263241976499557E-2</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>0.29098740220069885</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>4.946657838900137E-8</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>3.8191606108739506E-6</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>2.0000002223241609E-6</v>
+      </c>
+      <c r="BE35" s="1">
+        <v>1.8000000636675395E-5</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>5.4111833572387695</v>
+      </c>
+      <c r="BG35" s="1">
+        <v>2.585458517074585</v>
+      </c>
+      <c r="BH35" s="1">
         <v>298</v>
       </c>
-      <c r="AY35" s="1">
+      <c r="BI35" s="1">
         <v>1</v>
       </c>
-      <c r="AZ35" s="1">
+      <c r="BJ35" s="1">
         <v>1</v>
       </c>
-      <c r="BA35" s="1">
+      <c r="BK35" s="1">
         <v>12</v>
       </c>
-      <c r="BB35" s="1">
+      <c r="BL35" s="1">
         <v>-3.6995051283789169E-4</v>
       </c>
-      <c r="BC35" s="1">
+      <c r="BM35" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD35" s="1">
+      <c r="BN35" s="1">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="BE35" s="1">
+      <c r="BO35" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF35" s="1">
+      <c r="BP35" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG35" s="1">
+      <c r="BQ35" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH35" s="1">
+      <c r="BR35" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI35" s="1">
+      <c r="BS35" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ35" s="1">
+      <c r="BT35" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK35" s="1">
+      <c r="BU35" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL35" s="1">
+      <c r="BV35" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM35" s="1">
+      <c r="BW35" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1">
         <v>2.7622247600334049E-8</v>
@@ -7040,60 +8070,90 @@
         <v>0.67785972356796265</v>
       </c>
       <c r="AX36" s="1">
+        <v>-1.2810520129278302E-3</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>-3.0363178811967373E-3</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>0.55692970752716064</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>4.6080780029296875</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>6.2554994656238705E-5</v>
+      </c>
+      <c r="BC36" s="1">
+        <v>6.2395632266998291E-3</v>
+      </c>
+      <c r="BD36" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE36" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF36" s="1">
+        <v>4.3281688690185547</v>
+      </c>
+      <c r="BG36" s="1">
+        <v>1.824701189994812</v>
+      </c>
+      <c r="BH36" s="1">
         <v>288</v>
       </c>
-      <c r="AY36" s="1">
+      <c r="BI36" s="1">
         <v>1</v>
       </c>
-      <c r="AZ36" s="1">
+      <c r="BJ36" s="1">
         <v>1</v>
       </c>
-      <c r="BA36" s="1">
+      <c r="BK36" s="1">
         <v>11</v>
       </c>
-      <c r="BB36" s="1">
+      <c r="BL36" s="1">
         <v>-1.0971859134872187E-3</v>
       </c>
-      <c r="BC36" s="1">
+      <c r="BM36" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD36" s="1">
+      <c r="BN36" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE36" s="1">
+      <c r="BO36" s="1">
         <v>3.7426998460432515E-5</v>
       </c>
-      <c r="BF36" s="1">
+      <c r="BP36" s="1">
         <v>6.274424958974123E-5</v>
       </c>
-      <c r="BG36" s="1">
+      <c r="BQ36" s="1">
         <v>1.3756120461039245E-4</v>
       </c>
-      <c r="BH36" s="1">
+      <c r="BR36" s="1">
         <v>6.7138498707208782E-6</v>
       </c>
-      <c r="BI36" s="1">
+      <c r="BS36" s="1">
         <v>9.9935867183376104E-5</v>
       </c>
-      <c r="BJ36" s="1">
+      <c r="BT36" s="1">
         <v>6.6990119194088038E-6</v>
       </c>
-      <c r="BK36" s="1">
+      <c r="BU36" s="1">
         <v>1.3748370110988617E-4</v>
       </c>
-      <c r="BL36" s="1">
+      <c r="BV36" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM36" s="1">
+      <c r="BW36" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1">
         <v>2.790856434842226E-8</v>
@@ -7237,60 +8297,90 @@
         <v>0.58845162391662598</v>
       </c>
       <c r="AX37" s="1">
+        <v>-1.2733342591673136E-3</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>-2.955710981041193E-3</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>0.22744898498058319</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>1.7596051692962646</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>2.5479632313363254E-5</v>
+      </c>
+      <c r="BC37" s="1">
+        <v>2.3666017223149538E-3</v>
+      </c>
+      <c r="BD37" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE37" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF37" s="1">
+        <v>4.7724027633666992</v>
+      </c>
+      <c r="BG37" s="1">
+        <v>2.0876462459564209</v>
+      </c>
+      <c r="BH37" s="1">
         <v>288</v>
       </c>
-      <c r="AY37" s="1">
+      <c r="BI37" s="1">
         <v>1</v>
       </c>
-      <c r="AZ37" s="1">
+      <c r="BJ37" s="1">
         <v>1</v>
       </c>
-      <c r="BA37" s="1">
+      <c r="BK37" s="1">
         <v>12</v>
       </c>
-      <c r="BB37" s="1">
+      <c r="BL37" s="1">
         <v>-1.0864728973522537E-3</v>
       </c>
-      <c r="BC37" s="1">
+      <c r="BM37" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD37" s="1">
+      <c r="BN37" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE37" s="1">
+      <c r="BO37" s="1">
         <v>7.4853996920865029E-5</v>
       </c>
-      <c r="BF37" s="1">
+      <c r="BP37" s="1">
         <v>1.2548849917948246E-4</v>
       </c>
-      <c r="BG37" s="1">
+      <c r="BQ37" s="1">
         <v>2.7512249653227627E-4</v>
       </c>
-      <c r="BH37" s="1">
+      <c r="BR37" s="1">
         <v>1.3427699741441756E-5</v>
       </c>
-      <c r="BI37" s="1">
+      <c r="BS37" s="1">
         <v>1.9987170526292175E-4</v>
       </c>
-      <c r="BJ37" s="1">
+      <c r="BT37" s="1">
         <v>1.3398020200838801E-5</v>
       </c>
-      <c r="BK37" s="1">
+      <c r="BU37" s="1">
         <v>2.7496748953126371E-4</v>
       </c>
-      <c r="BL37" s="1">
+      <c r="BV37" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM37" s="1">
+      <c r="BW37" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1">
         <v>2.8459442802386548E-8</v>
@@ -7434,60 +8524,90 @@
         <v>0.45825493335723877</v>
       </c>
       <c r="AX38" s="1">
+        <v>-1.26939348410815E-3</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>-2.8523579239845276E-3</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>7.5608789920806885E-2</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>0.52108019590377808</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>8.4584107753471471E-6</v>
+      </c>
+      <c r="BC38" s="1">
+        <v>6.9447158602997661E-4</v>
+      </c>
+      <c r="BD38" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE38" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF38" s="1">
+        <v>5.2967147827148438</v>
+      </c>
+      <c r="BG38" s="1">
+        <v>2.454042911529541</v>
+      </c>
+      <c r="BH38" s="1">
         <v>288</v>
       </c>
-      <c r="AY38" s="1">
+      <c r="BI38" s="1">
         <v>1</v>
       </c>
-      <c r="AZ38" s="1">
+      <c r="BJ38" s="1">
         <v>1</v>
       </c>
-      <c r="BA38" s="1">
+      <c r="BK38" s="1">
         <v>12</v>
       </c>
-      <c r="BB38" s="1">
+      <c r="BL38" s="1">
         <v>-7.6196731112159041E-4</v>
       </c>
-      <c r="BC38" s="1">
+      <c r="BM38" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD38" s="1">
+      <c r="BN38" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE38" s="1">
+      <c r="BO38" s="1">
         <v>1.8713499594014138E-4</v>
       </c>
-      <c r="BF38" s="1">
+      <c r="BP38" s="1">
         <v>3.1372118974104524E-4</v>
       </c>
-      <c r="BG38" s="1">
+      <c r="BQ38" s="1">
         <v>6.8780622677877545E-4</v>
       </c>
-      <c r="BH38" s="1">
+      <c r="BR38" s="1">
         <v>3.3569249353604391E-5</v>
       </c>
-      <c r="BI38" s="1">
+      <c r="BS38" s="1">
         <v>4.9967941595241427E-4</v>
       </c>
-      <c r="BJ38" s="1">
+      <c r="BT38" s="1">
         <v>3.349506005179137E-5</v>
       </c>
-      <c r="BK38" s="1">
+      <c r="BU38" s="1">
         <v>6.8741879658773541E-4</v>
       </c>
-      <c r="BL38" s="1">
+      <c r="BV38" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM38" s="1">
+      <c r="BW38" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1">
         <v>2.9053680350443756E-8</v>
@@ -7631,60 +8751,90 @@
         <v>0.35993984341621399</v>
       </c>
       <c r="AX39" s="1">
+        <v>-1.2741680257022381E-3</v>
+      </c>
+      <c r="AY39" s="1">
+        <v>-2.779773436486721E-3</v>
+      </c>
+      <c r="AZ39" s="1">
+        <v>3.5364340990781784E-2</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>0.21897122263908386</v>
+      </c>
+      <c r="BB39" s="1">
+        <v>3.962778009736212E-6</v>
+      </c>
+      <c r="BC39" s="1">
+        <v>2.8986996039748192E-4</v>
+      </c>
+      <c r="BD39" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE39" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF39" s="1">
+        <v>5.5808143615722656</v>
+      </c>
+      <c r="BG39" s="1">
+        <v>2.7168879508972168</v>
+      </c>
+      <c r="BH39" s="1">
         <v>288</v>
       </c>
-      <c r="AY39" s="1">
+      <c r="BI39" s="1">
         <v>1</v>
       </c>
-      <c r="AZ39" s="1">
+      <c r="BJ39" s="1">
         <v>1</v>
       </c>
-      <c r="BA39" s="1">
+      <c r="BK39" s="1">
         <v>11</v>
       </c>
-      <c r="BB39" s="1">
+      <c r="BL39" s="1">
         <v>-8.2637843734463537E-5</v>
       </c>
-      <c r="BC39" s="1">
+      <c r="BM39" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD39" s="1">
+      <c r="BN39" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE39" s="1">
+      <c r="BO39" s="1">
         <v>3.7426999188028276E-4</v>
       </c>
-      <c r="BF39" s="1">
+      <c r="BP39" s="1">
         <v>6.274424958974123E-4</v>
       </c>
-      <c r="BG39" s="1">
+      <c r="BQ39" s="1">
         <v>1.3756119878962636E-3</v>
       </c>
-      <c r="BH39" s="1">
+      <c r="BR39" s="1">
         <v>6.7138498707208782E-5</v>
       </c>
-      <c r="BI39" s="1">
+      <c r="BS39" s="1">
         <v>9.9935871548950672E-4</v>
       </c>
-      <c r="BJ39" s="1">
+      <c r="BT39" s="1">
         <v>6.699012010358274E-5</v>
       </c>
-      <c r="BK39" s="1">
+      <c r="BU39" s="1">
         <v>1.3748379424214363E-3</v>
       </c>
-      <c r="BL39" s="1">
+      <c r="BV39" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM39" s="1">
+      <c r="BW39" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1">
         <v>2.9851637606270742E-8</v>
@@ -7828,60 +8978,90 @@
         <v>0.27044841647148132</v>
       </c>
       <c r="AX40" s="1">
+        <v>-1.2896375264972448E-3</v>
+      </c>
+      <c r="AY40" s="1">
+        <v>-2.7158884331583977E-3</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>1.7704561352729797E-2</v>
+      </c>
+      <c r="BA40" s="1">
+        <v>9.7183689475059509E-2</v>
+      </c>
+      <c r="BB40" s="1">
+        <v>1.9944177438446786E-6</v>
+      </c>
+      <c r="BC40" s="1">
+        <v>1.2785424769390374E-4</v>
+      </c>
+      <c r="BD40" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE40" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF40" s="1">
+        <v>5.7363972663879395</v>
+      </c>
+      <c r="BG40" s="1">
+        <v>2.9437503814697266</v>
+      </c>
+      <c r="BH40" s="1">
         <v>288</v>
       </c>
-      <c r="AY40" s="1">
+      <c r="BI40" s="1">
         <v>1</v>
       </c>
-      <c r="AZ40" s="1">
+      <c r="BJ40" s="1">
         <v>1</v>
       </c>
-      <c r="BA40" s="1">
+      <c r="BK40" s="1">
         <v>11</v>
       </c>
-      <c r="BB40" s="1">
+      <c r="BL40" s="1">
         <v>1.3377324047793083E-3</v>
       </c>
-      <c r="BC40" s="1">
+      <c r="BM40" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD40" s="1">
+      <c r="BN40" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE40" s="1">
+      <c r="BO40" s="1">
         <v>7.4853998376056552E-4</v>
       </c>
-      <c r="BF40" s="1">
+      <c r="BP40" s="1">
         <v>1.2548849917948246E-3</v>
       </c>
-      <c r="BG40" s="1">
+      <c r="BQ40" s="1">
         <v>2.7512249071151018E-3</v>
       </c>
-      <c r="BH40" s="1">
+      <c r="BR40" s="1">
         <v>1.3427699741441756E-4</v>
       </c>
-      <c r="BI40" s="1">
+      <c r="BS40" s="1">
         <v>1.9987174309790134E-3</v>
       </c>
-      <c r="BJ40" s="1">
+      <c r="BT40" s="1">
         <v>1.3398019655141979E-4</v>
       </c>
-      <c r="BK40" s="1">
+      <c r="BU40" s="1">
         <v>2.749674953520298E-3</v>
       </c>
-      <c r="BL40" s="1">
+      <c r="BV40" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM40" s="1">
+      <c r="BW40" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1">
         <v>3.1318048598905079E-8</v>
@@ -8025,60 +9205,90 @@
         <v>0.17495560646057129</v>
       </c>
       <c r="AX41" s="1">
+        <v>-1.3334372779354453E-3</v>
+      </c>
+      <c r="AY41" s="1">
+        <v>-2.6483736000955105E-3</v>
+      </c>
+      <c r="AZ41" s="1">
+        <v>7.8525310382246971E-3</v>
+      </c>
+      <c r="BA41" s="1">
+        <v>3.6372944712638855E-2</v>
+      </c>
+      <c r="BB41" s="1">
+        <v>8.9746214371189126E-7</v>
+      </c>
+      <c r="BC41" s="1">
+        <v>4.7525962145300582E-5</v>
+      </c>
+      <c r="BD41" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE41" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF41" s="1">
+        <v>5.7393412590026855</v>
+      </c>
+      <c r="BG41" s="1">
+        <v>3.1555576324462891</v>
+      </c>
+      <c r="BH41" s="1">
         <v>288</v>
       </c>
-      <c r="AY41" s="1">
+      <c r="BI41" s="1">
         <v>1</v>
       </c>
-      <c r="AZ41" s="1">
+      <c r="BJ41" s="1">
         <v>1</v>
       </c>
-      <c r="BA41" s="1">
+      <c r="BK41" s="1">
         <v>9</v>
       </c>
-      <c r="BB41" s="1">
+      <c r="BL41" s="1">
         <v>5.6380396117108721E-3</v>
       </c>
-      <c r="BC41" s="1">
+      <c r="BM41" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD41" s="1">
+      <c r="BN41" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE41" s="1">
+      <c r="BO41" s="1">
         <v>1.8713499885052443E-3</v>
       </c>
-      <c r="BF41" s="1">
+      <c r="BP41" s="1">
         <v>3.1372124794870615E-3</v>
       </c>
-      <c r="BG41" s="1">
+      <c r="BQ41" s="1">
         <v>6.87806261703372E-3</v>
       </c>
-      <c r="BH41" s="1">
+      <c r="BR41" s="1">
         <v>3.356924862600863E-4</v>
       </c>
-      <c r="BI41" s="1">
+      <c r="BS41" s="1">
         <v>4.9967938102781773E-3</v>
       </c>
-      <c r="BJ41" s="1">
+      <c r="BT41" s="1">
         <v>3.349506005179137E-4</v>
       </c>
-      <c r="BK41" s="1">
+      <c r="BU41" s="1">
         <v>6.874187383800745E-3</v>
       </c>
-      <c r="BL41" s="1">
+      <c r="BV41" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM41" s="1">
+      <c r="BW41" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1">
         <v>3.2830580920517605E-8</v>
@@ -8222,60 +9432,90 @@
         <v>0.12219421565532684</v>
       </c>
       <c r="AX42" s="1">
+        <v>-1.3885949738323689E-3</v>
+      </c>
+      <c r="AY42" s="1">
+        <v>-2.6091104373335838E-3</v>
+      </c>
+      <c r="AZ42" s="1">
+        <v>4.5478777028620243E-3</v>
+      </c>
+      <c r="BA42" s="1">
+        <v>1.8544409424066544E-2</v>
+      </c>
+      <c r="BB42" s="1">
+        <v>5.2877618372804136E-7</v>
+      </c>
+      <c r="BC42" s="1">
+        <v>2.4131139070959762E-5</v>
+      </c>
+      <c r="BD42" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE42" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF42" s="1">
+        <v>5.6074800491333008</v>
+      </c>
+      <c r="BG42" s="1">
+        <v>3.2292988300323486</v>
+      </c>
+      <c r="BH42" s="1">
         <v>288</v>
       </c>
-      <c r="AY42" s="1">
+      <c r="BI42" s="1">
         <v>1</v>
       </c>
-      <c r="AZ42" s="1">
+      <c r="BJ42" s="1">
         <v>1</v>
       </c>
-      <c r="BA42" s="1">
+      <c r="BK42" s="1">
         <v>8</v>
       </c>
-      <c r="BB42" s="1">
+      <c r="BL42" s="1">
         <v>1.2786606930404693E-2</v>
       </c>
-      <c r="BC42" s="1">
+      <c r="BM42" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD42" s="1">
+      <c r="BN42" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE42" s="1">
+      <c r="BO42" s="1">
         <v>3.7426999770104885E-3</v>
       </c>
-      <c r="BF42" s="1">
+      <c r="BP42" s="1">
         <v>6.274424958974123E-3</v>
       </c>
-      <c r="BG42" s="1">
+      <c r="BQ42" s="1">
         <v>1.375612523406744E-2</v>
       </c>
-      <c r="BH42" s="1">
+      <c r="BR42" s="1">
         <v>6.713849725201726E-4</v>
       </c>
-      <c r="BI42" s="1">
+      <c r="BS42" s="1">
         <v>9.9935876205563545E-3</v>
       </c>
-      <c r="BJ42" s="1">
+      <c r="BT42" s="1">
         <v>6.699012010358274E-4</v>
       </c>
-      <c r="BK42" s="1">
+      <c r="BU42" s="1">
         <v>1.374837476760149E-2</v>
       </c>
-      <c r="BL42" s="1">
+      <c r="BV42" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM42" s="1">
+      <c r="BW42" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1">
         <v>1.0676106467144564E-4</v>
@@ -8419,60 +9659,90 @@
         <v>0.40831413865089417</v>
       </c>
       <c r="AX43" s="1">
+        <v>-8.2656950689852238E-4</v>
+      </c>
+      <c r="AY43" s="1">
+        <v>-2.3621998261660337E-3</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>5.1220722496509552E-2</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>0.33519616723060608</v>
+      </c>
+      <c r="BB43" s="1">
+        <v>4.6357381506823003E-6</v>
+      </c>
+      <c r="BC43" s="1">
+        <v>4.2390124872326851E-4</v>
+      </c>
+      <c r="BD43" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE43" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF43" s="1">
+        <v>4.5048379898071289</v>
+      </c>
+      <c r="BG43" s="1">
+        <v>2.2140243053436279</v>
+      </c>
+      <c r="BH43" s="1">
         <v>288</v>
       </c>
-      <c r="AY43" s="1">
+      <c r="BI43" s="1">
         <v>1</v>
       </c>
-      <c r="AZ43" s="1">
+      <c r="BJ43" s="1">
         <v>1</v>
       </c>
-      <c r="BA43" s="1">
+      <c r="BK43" s="1">
         <v>3</v>
       </c>
-      <c r="BB43" s="1">
+      <c r="BL43" s="1">
         <v>2.2715808629788022E-3</v>
       </c>
-      <c r="BC43" s="1">
+      <c r="BM43" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD43" s="1">
+      <c r="BN43" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE43" s="1">
+      <c r="BO43" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF43" s="1">
+      <c r="BP43" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG43" s="1">
+      <c r="BQ43" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH43" s="1">
+      <c r="BR43" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI43" s="1">
+      <c r="BS43" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ43" s="1">
+      <c r="BT43" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK43" s="1">
+      <c r="BU43" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL43" s="1">
+      <c r="BV43" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM43" s="1">
+      <c r="BW43" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1">
         <v>1.0673255928850267E-5</v>
@@ -8616,60 +9886,90 @@
         <v>0.40959468483924866</v>
       </c>
       <c r="AX44" s="1">
+        <v>-1.199261168949306E-3</v>
+      </c>
+      <c r="AY44" s="1">
+        <v>-2.5750896893441677E-3</v>
+      </c>
+      <c r="AZ44" s="1">
+        <v>5.1728632301092148E-2</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>0.33899110555648804</v>
+      </c>
+      <c r="BB44" s="1">
+        <v>5.6415437938994728E-6</v>
+      </c>
+      <c r="BC44" s="1">
+        <v>4.39507479313761E-4</v>
+      </c>
+      <c r="BD44" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE44" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF44" s="1">
+        <v>4.9895844459533691</v>
+      </c>
+      <c r="BG44" s="1">
+        <v>2.3089487552642822</v>
+      </c>
+      <c r="BH44" s="1">
         <v>288</v>
       </c>
-      <c r="AY44" s="1">
+      <c r="BI44" s="1">
         <v>1</v>
       </c>
-      <c r="AZ44" s="1">
+      <c r="BJ44" s="1">
         <v>1</v>
       </c>
-      <c r="BA44" s="1">
+      <c r="BK44" s="1">
         <v>5</v>
       </c>
-      <c r="BB44" s="1">
+      <c r="BL44" s="1">
         <v>1.9336906368223597E-3</v>
       </c>
-      <c r="BC44" s="1">
+      <c r="BM44" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD44" s="1">
+      <c r="BN44" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE44" s="1">
+      <c r="BO44" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF44" s="1">
+      <c r="BP44" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG44" s="1">
+      <c r="BQ44" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH44" s="1">
+      <c r="BR44" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI44" s="1">
+      <c r="BS44" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ44" s="1">
+      <c r="BT44" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK44" s="1">
+      <c r="BU44" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL44" s="1">
+      <c r="BV44" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM44" s="1">
+      <c r="BW44" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1">
         <v>1.0685300821933197E-6</v>
@@ -8813,60 +10113,90 @@
         <v>0.40422490239143372</v>
       </c>
       <c r="AX45" s="1">
+        <v>-1.2498111464083195E-3</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>-2.6159854605793953E-3</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>4.96334508061409E-2</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>0.32336187362670898</v>
+      </c>
+      <c r="BB45" s="1">
+        <v>5.5144578254839871E-6</v>
+      </c>
+      <c r="BC45" s="1">
+        <v>4.2108522029593587E-4</v>
+      </c>
+      <c r="BD45" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE45" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF45" s="1">
+        <v>5.1727075576782227</v>
+      </c>
+      <c r="BG45" s="1">
+        <v>2.3925573825836182</v>
+      </c>
+      <c r="BH45" s="1">
         <v>288</v>
       </c>
-      <c r="AY45" s="1">
+      <c r="BI45" s="1">
         <v>1</v>
       </c>
-      <c r="AZ45" s="1">
+      <c r="BJ45" s="1">
         <v>1</v>
       </c>
-      <c r="BA45" s="1">
+      <c r="BK45" s="1">
         <v>8</v>
       </c>
-      <c r="BB45" s="1">
+      <c r="BL45" s="1">
         <v>1.0749874785126309E-3</v>
       </c>
-      <c r="BC45" s="1">
+      <c r="BM45" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD45" s="1">
+      <c r="BN45" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE45" s="1">
+      <c r="BO45" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF45" s="1">
+      <c r="BP45" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG45" s="1">
+      <c r="BQ45" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH45" s="1">
+      <c r="BR45" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI45" s="1">
+      <c r="BS45" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ45" s="1">
+      <c r="BT45" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK45" s="1">
+      <c r="BU45" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL45" s="1">
+      <c r="BV45" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM45" s="1">
+      <c r="BW45" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1">
         <v>1.0709810283060506E-7</v>
@@ -9010,60 +10340,90 @@
         <v>0.39361217617988586</v>
       </c>
       <c r="AX46" s="1">
+        <v>-1.2574447318911552E-3</v>
+      </c>
+      <c r="AY46" s="1">
+        <v>-2.6988980825990438E-3</v>
+      </c>
+      <c r="AZ46" s="1">
+        <v>4.5748546719551086E-2</v>
+      </c>
+      <c r="BA46" s="1">
+        <v>0.29456660151481628</v>
+      </c>
+      <c r="BB46" s="1">
+        <v>5.0965827540494502E-6</v>
+      </c>
+      <c r="BC46" s="1">
+        <v>3.868745407089591E-4</v>
+      </c>
+      <c r="BD46" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE46" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF46" s="1">
+        <v>5.4212980270385742</v>
+      </c>
+      <c r="BG46" s="1">
+        <v>2.5588366985321045</v>
+      </c>
+      <c r="BH46" s="1">
         <v>288</v>
       </c>
-      <c r="AY46" s="1">
+      <c r="BI46" s="1">
         <v>1</v>
       </c>
-      <c r="AZ46" s="1">
+      <c r="BJ46" s="1">
         <v>1</v>
       </c>
-      <c r="BA46" s="1">
+      <c r="BK46" s="1">
         <v>11</v>
       </c>
-      <c r="BB46" s="1">
+      <c r="BL46" s="1">
         <v>-5.850510415032329E-5</v>
       </c>
-      <c r="BC46" s="1">
+      <c r="BM46" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD46" s="1">
+      <c r="BN46" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE46" s="1">
+      <c r="BO46" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF46" s="1">
+      <c r="BP46" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG46" s="1">
+      <c r="BQ46" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH46" s="1">
+      <c r="BR46" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI46" s="1">
+      <c r="BS46" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ46" s="1">
+      <c r="BT46" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK46" s="1">
+      <c r="BU46" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL46" s="1">
+      <c r="BV46" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM46" s="1">
+      <c r="BW46" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1">
         <v>1.071788968687315E-8</v>
@@ -9207,60 +10567,90 @@
         <v>0.39020279049873352</v>
       </c>
       <c r="AX47" s="1">
+        <v>-1.2909040087834001E-3</v>
+      </c>
+      <c r="AY47" s="1">
+        <v>-2.8902667108923197E-3</v>
+      </c>
+      <c r="AZ47" s="1">
+        <v>4.4568490236997604E-2</v>
+      </c>
+      <c r="BA47" s="1">
+        <v>0.28587046265602112</v>
+      </c>
+      <c r="BB47" s="1">
+        <v>5.022789537179051E-6</v>
+      </c>
+      <c r="BC47" s="1">
+        <v>3.8229650817811489E-4</v>
+      </c>
+      <c r="BD47" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE47" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF47" s="1">
+        <v>5.5503854751586914</v>
+      </c>
+      <c r="BG47" s="1">
+        <v>2.6821949481964111</v>
+      </c>
+      <c r="BH47" s="1">
         <v>288</v>
       </c>
-      <c r="AY47" s="1">
+      <c r="BI47" s="1">
         <v>1</v>
       </c>
-      <c r="AZ47" s="1">
+      <c r="BJ47" s="1">
         <v>1</v>
       </c>
-      <c r="BA47" s="1">
+      <c r="BK47" s="1">
         <v>12</v>
       </c>
-      <c r="BB47" s="1">
+      <c r="BL47" s="1">
         <v>-4.5158228738886077E-4</v>
       </c>
-      <c r="BC47" s="1">
+      <c r="BM47" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD47" s="1">
+      <c r="BN47" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE47" s="1">
+      <c r="BO47" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF47" s="1">
+      <c r="BP47" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG47" s="1">
+      <c r="BQ47" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH47" s="1">
+      <c r="BR47" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI47" s="1">
+      <c r="BS47" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ47" s="1">
+      <c r="BT47" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK47" s="1">
+      <c r="BU47" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL47" s="1">
+      <c r="BV47" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM47" s="1">
+      <c r="BW47" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1">
         <v>1.0721071808106331E-9</v>
@@ -9404,60 +10794,90 @@
         <v>0.38887187838554382</v>
       </c>
       <c r="AX48" s="1">
+        <v>-1.3284963788464665E-3</v>
+      </c>
+      <c r="AY48" s="1">
+        <v>-3.0809473246335983E-3</v>
+      </c>
+      <c r="AZ48" s="1">
+        <v>4.4116396456956863E-2</v>
+      </c>
+      <c r="BA48" s="1">
+        <v>0.28254547715187073</v>
+      </c>
+      <c r="BB48" s="1">
+        <v>5.0340190682618413E-6</v>
+      </c>
+      <c r="BC48" s="1">
+        <v>3.839583951048553E-4</v>
+      </c>
+      <c r="BD48" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE48" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF48" s="1">
+        <v>5.6907157897949219</v>
+      </c>
+      <c r="BG48" s="1">
+        <v>2.8019042015075684</v>
+      </c>
+      <c r="BH48" s="1">
         <v>288</v>
       </c>
-      <c r="AY48" s="1">
+      <c r="BI48" s="1">
         <v>1</v>
       </c>
-      <c r="AZ48" s="1">
+      <c r="BJ48" s="1">
         <v>1</v>
       </c>
-      <c r="BA48" s="1">
+      <c r="BK48" s="1">
         <v>12</v>
       </c>
-      <c r="BB48" s="1">
+      <c r="BL48" s="1">
         <v>-5.6124836261241305E-4</v>
       </c>
-      <c r="BC48" s="1">
+      <c r="BM48" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD48" s="1">
+      <c r="BN48" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE48" s="1">
+      <c r="BO48" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF48" s="1">
+      <c r="BP48" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG48" s="1">
+      <c r="BQ48" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH48" s="1">
+      <c r="BR48" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI48" s="1">
+      <c r="BS48" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ48" s="1">
+      <c r="BT48" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK48" s="1">
+      <c r="BU48" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL48" s="1">
+      <c r="BV48" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM48" s="1">
+      <c r="BW48" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1">
         <v>1.0739013844851542E-10</v>
@@ -9601,60 +11021,90 @@
         <v>0.38149181008338928</v>
       </c>
       <c r="AX49" s="1">
+        <v>-1.3471777783706784E-3</v>
+      </c>
+      <c r="AY49" s="1">
+        <v>-3.2907181885093451E-3</v>
+      </c>
+      <c r="AZ49" s="1">
+        <v>4.1693553328514099E-2</v>
+      </c>
+      <c r="BA49" s="1">
+        <v>0.26479041576385498</v>
+      </c>
+      <c r="BB49" s="1">
+        <v>4.7860567065072246E-6</v>
+      </c>
+      <c r="BC49" s="1">
+        <v>3.6554050166159868E-4</v>
+      </c>
+      <c r="BD49" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE49" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF49" s="1">
+        <v>6.2490181922912598</v>
+      </c>
+      <c r="BG49" s="1">
+        <v>3.1605029106140137</v>
+      </c>
+      <c r="BH49" s="1">
         <v>288</v>
       </c>
-      <c r="AY49" s="1">
+      <c r="BI49" s="1">
         <v>1</v>
       </c>
-      <c r="AZ49" s="1">
+      <c r="BJ49" s="1">
         <v>1</v>
       </c>
-      <c r="BA49" s="1">
+      <c r="BK49" s="1">
         <v>11</v>
       </c>
-      <c r="BB49" s="1">
+      <c r="BL49" s="1">
         <v>-9.2354387557411492E-4</v>
       </c>
-      <c r="BC49" s="1">
+      <c r="BM49" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD49" s="1">
+      <c r="BN49" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE49" s="1">
+      <c r="BO49" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF49" s="1">
+      <c r="BP49" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG49" s="1">
+      <c r="BQ49" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH49" s="1">
+      <c r="BR49" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI49" s="1">
+      <c r="BS49" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ49" s="1">
+      <c r="BT49" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK49" s="1">
+      <c r="BU49" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL49" s="1">
+      <c r="BV49" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM49" s="1">
+      <c r="BW49" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1">
         <v>2.8808578633743309E-8</v>
@@ -9798,60 +11248,90 @@
         <v>0.39759686589241028</v>
       </c>
       <c r="AX50" s="1">
+        <v>-1.261070603504777E-3</v>
+      </c>
+      <c r="AY50" s="1">
+        <v>-2.7876673266291618E-3</v>
+      </c>
+      <c r="AZ50" s="1">
+        <v>4.4257644563913345E-2</v>
+      </c>
+      <c r="BA50" s="1">
+        <v>0.28358396887779236</v>
+      </c>
+      <c r="BB50" s="1">
+        <v>4.9367777137376834E-6</v>
+      </c>
+      <c r="BC50" s="1">
+        <v>3.7568452535197139E-4</v>
+      </c>
+      <c r="BD50" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE50" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF50" s="1">
+        <v>5.477752685546875</v>
+      </c>
+      <c r="BG50" s="1">
+        <v>2.6296348571777344</v>
+      </c>
+      <c r="BH50" s="1">
         <v>274</v>
       </c>
-      <c r="AY50" s="1">
+      <c r="BI50" s="1">
         <v>1</v>
       </c>
-      <c r="AZ50" s="1">
+      <c r="BJ50" s="1">
         <v>1</v>
       </c>
-      <c r="BA50" s="1">
+      <c r="BK50" s="1">
         <v>12</v>
       </c>
-      <c r="BB50" s="1">
+      <c r="BL50" s="1">
         <v>-3.4751548388904803E-4</v>
       </c>
-      <c r="BC50" s="1">
+      <c r="BM50" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD50" s="1">
+      <c r="BN50" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE50" s="1">
+      <c r="BO50" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF50" s="1">
+      <c r="BP50" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG50" s="1">
+      <c r="BQ50" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH50" s="1">
+      <c r="BR50" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI50" s="1">
+      <c r="BS50" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ50" s="1">
+      <c r="BT50" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK50" s="1">
+      <c r="BU50" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL50" s="1">
+      <c r="BV50" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM50" s="1">
+      <c r="BW50" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1">
         <v>2.8818602615388045E-8</v>
@@ -9995,60 +11475,90 @@
         <v>0.39564573764801025</v>
       </c>
       <c r="AX51" s="1">
+        <v>-1.2634681770578027E-3</v>
+      </c>
+      <c r="AY51" s="1">
+        <v>-2.7912796940654516E-3</v>
+      </c>
+      <c r="AZ51" s="1">
+        <v>4.4407378882169724E-2</v>
+      </c>
+      <c r="BA51" s="1">
+        <v>0.28468510508537292</v>
+      </c>
+      <c r="BB51" s="1">
+        <v>4.9576406127016526E-6</v>
+      </c>
+      <c r="BC51" s="1">
+        <v>3.7727222661487758E-4</v>
+      </c>
+      <c r="BD51" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE51" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF51" s="1">
+        <v>5.4840435981750488</v>
+      </c>
+      <c r="BG51" s="1">
+        <v>2.6311178207397461</v>
+      </c>
+      <c r="BH51" s="1">
         <v>278</v>
       </c>
-      <c r="AY51" s="1">
+      <c r="BI51" s="1">
         <v>1</v>
       </c>
-      <c r="AZ51" s="1">
+      <c r="BJ51" s="1">
         <v>1</v>
       </c>
-      <c r="BA51" s="1">
+      <c r="BK51" s="1">
         <v>12</v>
       </c>
-      <c r="BB51" s="1">
+      <c r="BL51" s="1">
         <v>-3.5158803095160489E-4</v>
       </c>
-      <c r="BC51" s="1">
+      <c r="BM51" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD51" s="1">
+      <c r="BN51" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE51" s="1">
+      <c r="BO51" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF51" s="1">
+      <c r="BP51" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG51" s="1">
+      <c r="BQ51" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH51" s="1">
+      <c r="BR51" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI51" s="1">
+      <c r="BS51" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ51" s="1">
+      <c r="BT51" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK51" s="1">
+      <c r="BU51" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL51" s="1">
+      <c r="BV51" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM51" s="1">
+      <c r="BW51" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1">
         <v>2.8830784870592652E-8</v>
@@ -10192,60 +11702,90 @@
         <v>0.39327597618103027</v>
       </c>
       <c r="AX52" s="1">
+        <v>-1.2671136064454913E-3</v>
+      </c>
+      <c r="AY52" s="1">
+        <v>-2.7964203618466854E-3</v>
+      </c>
+      <c r="AZ52" s="1">
+        <v>4.461180791258812E-2</v>
+      </c>
+      <c r="BA52" s="1">
+        <v>0.28618925809860229</v>
+      </c>
+      <c r="BB52" s="1">
+        <v>4.986801741324598E-6</v>
+      </c>
+      <c r="BC52" s="1">
+        <v>3.7944954237900674E-4</v>
+      </c>
+      <c r="BD52" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE52" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF52" s="1">
+        <v>5.492927074432373</v>
+      </c>
+      <c r="BG52" s="1">
+        <v>2.6331124305725098</v>
+      </c>
+      <c r="BH52" s="1">
         <v>283</v>
       </c>
-      <c r="AY52" s="1">
+      <c r="BI52" s="1">
         <v>1</v>
       </c>
-      <c r="AZ52" s="1">
+      <c r="BJ52" s="1">
         <v>1</v>
       </c>
-      <c r="BA52" s="1">
+      <c r="BK52" s="1">
         <v>12</v>
       </c>
-      <c r="BB52" s="1">
+      <c r="BL52" s="1">
         <v>-3.5623951714758208E-4</v>
       </c>
-      <c r="BC52" s="1">
+      <c r="BM52" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD52" s="1">
+      <c r="BN52" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE52" s="1">
+      <c r="BO52" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF52" s="1">
+      <c r="BP52" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG52" s="1">
+      <c r="BQ52" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH52" s="1">
+      <c r="BR52" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI52" s="1">
+      <c r="BS52" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ52" s="1">
+      <c r="BT52" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK52" s="1">
+      <c r="BU52" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL52" s="1">
+      <c r="BV52" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM52" s="1">
+      <c r="BW52" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1">
         <v>2.884257810364943E-8</v>
@@ -10389,60 +11929,90 @@
         <v>0.3909822404384613</v>
       </c>
       <c r="AX53" s="1">
+        <v>-1.2716597411781549E-3</v>
+      </c>
+      <c r="AY53" s="1">
+        <v>-2.8023573104292154E-3</v>
+      </c>
+      <c r="AZ53" s="1">
+        <v>4.4835485517978668E-2</v>
+      </c>
+      <c r="BA53" s="1">
+        <v>0.28783589601516724</v>
+      </c>
+      <c r="BB53" s="1">
+        <v>5.0197204473079182E-6</v>
+      </c>
+      <c r="BC53" s="1">
+        <v>3.8184583536349237E-4</v>
+      </c>
+      <c r="BD53" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE53" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF53" s="1">
+        <v>5.5025248527526855</v>
+      </c>
+      <c r="BG53" s="1">
+        <v>2.6351020336151123</v>
+      </c>
+      <c r="BH53" s="1">
         <v>288</v>
       </c>
-      <c r="AY53" s="1">
+      <c r="BI53" s="1">
         <v>1</v>
       </c>
-      <c r="AZ53" s="1">
+      <c r="BJ53" s="1">
         <v>1</v>
       </c>
-      <c r="BA53" s="1">
+      <c r="BK53" s="1">
         <v>12</v>
       </c>
-      <c r="BB53" s="1">
+      <c r="BL53" s="1">
         <v>-3.6045702398946038E-4</v>
       </c>
-      <c r="BC53" s="1">
+      <c r="BM53" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD53" s="1">
+      <c r="BN53" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE53" s="1">
+      <c r="BO53" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF53" s="1">
+      <c r="BP53" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG53" s="1">
+      <c r="BQ53" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH53" s="1">
+      <c r="BR53" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI53" s="1">
+      <c r="BS53" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ53" s="1">
+      <c r="BT53" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK53" s="1">
+      <c r="BU53" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL53" s="1">
+      <c r="BV53" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM53" s="1">
+      <c r="BW53" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1">
         <v>2.885398231455838E-8</v>
@@ -10586,60 +12156,90 @@
         <v>0.38876339793205261</v>
       </c>
       <c r="AX54" s="1">
+        <v>-1.2773200869560242E-3</v>
+      </c>
+      <c r="AY54" s="1">
+        <v>-2.8092083521187305E-3</v>
+      </c>
+      <c r="AZ54" s="1">
+        <v>4.5078326016664505E-2</v>
+      </c>
+      <c r="BA54" s="1">
+        <v>0.28962460160255432</v>
+      </c>
+      <c r="BB54" s="1">
+        <v>5.0567732614581473E-6</v>
+      </c>
+      <c r="BC54" s="1">
+        <v>3.8446532562375069E-4</v>
+      </c>
+      <c r="BD54" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE54" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF54" s="1">
+        <v>5.5140042304992676</v>
+      </c>
+      <c r="BG54" s="1">
+        <v>2.6373970508575439</v>
+      </c>
+      <c r="BH54" s="1">
         <v>293</v>
       </c>
-      <c r="AY54" s="1">
+      <c r="BI54" s="1">
         <v>1</v>
       </c>
-      <c r="AZ54" s="1">
+      <c r="BJ54" s="1">
         <v>1</v>
       </c>
-      <c r="BA54" s="1">
+      <c r="BK54" s="1">
         <v>12</v>
       </c>
-      <c r="BB54" s="1">
+      <c r="BL54" s="1">
         <v>-3.6429187344674753E-4</v>
       </c>
-      <c r="BC54" s="1">
+      <c r="BM54" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD54" s="1">
+      <c r="BN54" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE54" s="1">
+      <c r="BO54" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF54" s="1">
+      <c r="BP54" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG54" s="1">
+      <c r="BQ54" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH54" s="1">
+      <c r="BR54" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI54" s="1">
+      <c r="BS54" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ54" s="1">
+      <c r="BT54" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK54" s="1">
+      <c r="BU54" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL54" s="1">
+      <c r="BV54" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM54" s="1">
+      <c r="BW54" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:75" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1">
         <v>2.886499927967634E-8</v>
@@ -10783,60 +12383,91 @@
         <v>0.38661786913871765</v>
       </c>
       <c r="AX55" s="1">
+        <v>-1.2842738069593906E-3</v>
+      </c>
+      <c r="AY55" s="1">
+        <v>-2.8170007281005383E-3</v>
+      </c>
+      <c r="AZ55" s="1">
+        <v>4.5340206474065781E-2</v>
+      </c>
+      <c r="BA55" s="1">
+        <v>0.29155468940734863</v>
+      </c>
+      <c r="BB55" s="1">
+        <v>5.0982716857106425E-6</v>
+      </c>
+      <c r="BC55" s="1">
+        <v>3.8730871165171266E-4</v>
+      </c>
+      <c r="BD55" s="1">
+        <v>2.0000000949949026E-4</v>
+      </c>
+      <c r="BE55" s="1">
+        <v>1.8000000854954123E-3</v>
+      </c>
+      <c r="BF55" s="1">
+        <v>5.5269174575805664</v>
+      </c>
+      <c r="BG55" s="1">
+        <v>2.6399924755096436</v>
+      </c>
+      <c r="BH55" s="1">
         <v>298</v>
       </c>
-      <c r="AY55" s="1">
+      <c r="BI55" s="1">
         <v>1</v>
       </c>
-      <c r="AZ55" s="1">
+      <c r="BJ55" s="1">
         <v>1</v>
       </c>
-      <c r="BA55" s="1">
+      <c r="BK55" s="1">
         <v>12</v>
       </c>
-      <c r="BB55" s="1">
+      <c r="BL55" s="1">
         <v>-3.6778909641669677E-4</v>
       </c>
-      <c r="BC55" s="1">
+      <c r="BM55" s="1">
         <v>4.211200064219156E-7</v>
       </c>
-      <c r="BD55" s="1">
+      <c r="BN55" s="1">
         <v>2.0000000949949026E-3</v>
       </c>
-      <c r="BE55" s="1">
+      <c r="BO55" s="1">
         <v>2.9941598768346012E-4</v>
       </c>
-      <c r="BF55" s="1">
+      <c r="BP55" s="1">
         <v>5.0195399671792984E-4</v>
       </c>
-      <c r="BG55" s="1">
+      <c r="BQ55" s="1">
         <v>1.1004899861291051E-3</v>
       </c>
-      <c r="BH55" s="1">
+      <c r="BR55" s="1">
         <v>5.3710798965767026E-5</v>
       </c>
-      <c r="BI55" s="1">
+      <c r="BS55" s="1">
         <v>7.9948699567466974E-4</v>
       </c>
-      <c r="BJ55" s="1">
+      <c r="BT55" s="1">
         <v>5.3592098993249238E-5</v>
       </c>
-      <c r="BK55" s="1">
+      <c r="BU55" s="1">
         <v>1.0998699581250548E-3</v>
       </c>
-      <c r="BL55" s="1">
+      <c r="BV55" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="BM55" s="1">
+      <c r="BW55" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="1.5" right="1.5" top="1.5" bottom="1.5" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>BLM version Ver 3.57.2.45, build 2021-04-05</oddHeader>
-    <oddFooter>BLM Output File, C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\full_organic.det.xls, created 03-05-2024</oddFooter>
+    <oddHeader>BLM version Ver 3.57.2.45d, build 2024-03-06</oddHeader>
+    <oddFooter>BLM Output File, full_organic.det.xls, created 03-06-2024</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/scrap/old BLM/full_organic_SPEC.det.xlsx
+++ b/scrap/old BLM/full_organic_SPEC.det.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D21A0BB-0561-43C3-AC5B-B912C300E0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6C51D-E719-4FE8-A96D-F4945FA33914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_organic.det" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">full_organic.det!$A$5:$IV$71</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="341">
   <si>
     <t>2.50X, build for test only</t>
   </si>
@@ -1011,12 +1027,45 @@
   <si>
     <t>"hi DOC Cu ser 100000"</t>
   </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>fully prot</t>
+  </si>
+  <si>
+    <t>fully deprot</t>
+  </si>
+  <si>
+    <t>site 2 prot</t>
+  </si>
+  <si>
+    <t>site 1 prot</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Not Converged</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1026,13 +1075,30 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1047,16 +1113,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,38 +1471,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IW71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="16" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="101" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="109" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="117" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="125" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="131" max="133" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="139" max="141" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="147" max="149" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="155" max="157" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="159" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="165" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="167" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="171" max="173" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="174" max="175" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="179" max="181" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="182" max="183" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="187" max="189" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="190" max="191" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="195" max="196" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="21" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="21" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="207" max="208" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="213" max="214" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="219" max="220" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="225" max="226" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="231" max="232" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="237" max="238" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="243" max="244" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="249" max="250" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="254" max="255" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AX1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>332</v>
+      </c>
     </row>
-    <row r="2" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AX2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AY2">
+        <f>MIN($AX$7:$AX$71,$BD$7:$BD$71,$BJ$7:$BJ$71,$BP$7:$BP$71,$BV$7:$BV$71,$CB$7:$CB$71,$CH$7:$CH$71,$CN$7:$CN$71)</f>
+        <v>4.9004568326540358E-17</v>
+      </c>
+      <c r="BB2">
+        <f>MIN($AY$7:$AY$71,$BE$7:$BE$71,$BK$7:$BK$71,$BQ$7:$BQ$71,$BW$7:$BW$71,$CC$7:$CC$71,$CI$7:$CI$71,$CO$7:$CO$71)</f>
+        <v>1.2887462609854979E-15</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BE2">
+        <f>MAX($AX$7:$AX$71,$BD$7:$BD$71,$BJ$7:$BJ$71,$BP$7:$BP$71,$BV$7:$BV$71,$CB$7:$CB$71,$CH$7:$CH$71,$CN$7:$CN$71)</f>
+        <v>1.5565085295010191E-6</v>
+      </c>
+      <c r="BH2">
+        <f>MAX($AY$7:$AY$71,$BE$7:$BE$71,$BK$7:$BK$71,$BQ$7:$BQ$71,$BW$7:$BW$71,$CC$7:$CC$71,$CI$7:$CI$71,$CO$7:$CO$71)</f>
+        <v>7.9055862864355674E-7</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK2">
+        <f>MEDIAN($AX$7:$AX$71,$BD$7:$BD$71,$BJ$7:$BJ$71,$BP$7:$BP$71,$BV$7:$BV$71,$CB$7:$CB$71,$CH$7:$CH$71,$CN$7:$CN$71)</f>
+        <v>7.828977859337401E-10</v>
+      </c>
+      <c r="BN2">
+        <f>MEDIAN($AY$7:$AY$71,$BE$7:$BE$71,$BK$7:$BK$71,$BQ$7:$BQ$71,$BW$7:$BW$71,$CC$7:$CC$71,$CI$7:$CI$71,$CO$7:$CO$71)</f>
+        <v>4.0862238916898321E-10</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BQ2">
+        <f>MIN(_xlfn.MINIFS($AX$7:$AX$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($BD$7:$BD$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($BJ$7:$BJ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($BP$7:$BP$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($BV$7:$BV$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($CB$7:$CB$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($CH$7:$CH$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($CN$7:$CN$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>1.0815156263739867E-12</v>
+      </c>
+      <c r="BT2">
+        <f>MIN(_xlfn.MINIFS($AY$7:$AY$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($BE$7:$BE$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($BK$7:$BK$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($BQ$7:$BQ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($BW$7:$BW$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($CC$7:$CC$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($CI$7:$CI$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($CO$7:$CO$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>1.2887462609854979E-15</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BW2">
+        <f>MAX(_xlfn.MAXIFS($AX$7:$AX$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($BD$7:$BD$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($BJ$7:$BJ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($BP$7:$BP$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($BV$7:$BV$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($CB$7:$CB$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($CH$7:$CH$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($CN$7:$CN$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>1.5565085295010191E-6</v>
+      </c>
+      <c r="BZ2">
+        <f>MAX(_xlfn.MAXIFS($AY$7:$AY$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($BE$7:$BE$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($BK$7:$BK$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($BQ$7:$BQ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($BW$7:$BW$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($CC$7:$CC$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($CI$7:$CI$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($CO$7:$CO$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>7.9055862864355674E-7</v>
+      </c>
     </row>
-    <row r="3" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AX3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AY3">
+        <f>MIN($CT$7:$CT$71,$DB$7:$DB$71,$DJ$7:$DJ$71,$DR$7:$DR$71,$DZ$7:$DZ$71,$EH$7:$EH$71,$EP$7:$EP$71,$EX$7:$EX$71,$FF$7:$FF$71,$FN$7:$FN$71,$FV$7:$FV$71,$GD$7:$GD$71)</f>
+        <v>4.6833535059695634E-19</v>
+      </c>
+      <c r="AZ3">
+        <f>MIN($CU$7:$CU$71,$DC$7:$DC$71,$DK$7:$DK$71,$DS$7:$DS$71,$EA$7:$EA$71,$EI$7:$EI$71,$EQ$7:$EQ$71,$EY$7:$EY$71,$FG$7:$FG$71,$FO$7:$FO$71,$FW$7:$FW$71,$GE$7:$GE$71)</f>
+        <v>4.407992710807955E-22</v>
+      </c>
+      <c r="BA3">
+        <f>MIN($CV$7:$CV$71,$DD$7:$DD$71,$DL$7:$DL$71,$DT$7:$DT$71,$EB$7:$EB$71,$EJ$7:$EJ$71,$ER$7:$ER$71,$EZ$7:$EZ$71,$FH$7:$FH$71,$FP$7:$FP$71,$FX$7:$FX$71,$GF$7:$GF$71)</f>
+        <v>1.0125473286017288E-16</v>
+      </c>
+      <c r="BB3">
+        <f>MIN($CW$7:$CW$71,$DE$7:$DE$71,$DM$7:$DM$71,$DU$7:$DU$71,$EC$7:$EC$71,$EK$7:$EK$71,$ES$7:$ES$71,$FA$7:$FA$71,$FI$7:$FI$71,$FQ$7:$FQ$71,$FY$7:$FY$71,$GG$7:$GG$71)</f>
+        <v>1.8961039172402116E-21</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE3">
+        <f>MAX($CT$7:$CT$71,$DB$7:$DB$71,$DJ$7:$DJ$71,$DR$7:$DR$71,$DZ$7:$DZ$71,$EH$7:$EH$71,$EP$7:$EP$71,$EX$7:$EX$71,$FF$7:$FF$71,$FN$7:$FN$71,$FV$7:$FV$71,$GD$7:$GD$71)</f>
+        <v>3.5201191904995786E-7</v>
+      </c>
+      <c r="BF3">
+        <f>MAX($CU$7:$CU$71,$DC$7:$DC$71,$DK$7:$DK$71,$DS$7:$DS$71,$EA$7:$EA$71,$EI$7:$EI$71,$EQ$7:$EQ$71,$EY$7:$EY$71,$FG$7:$FG$71,$FO$7:$FO$71,$FW$7:$FW$71,$GE$7:$GE$71)</f>
+        <v>2.2785871324921916E-8</v>
+      </c>
+      <c r="BG3">
+        <f>MAX($CV$7:$CV$71,$DD$7:$DD$71,$DL$7:$DL$71,$DT$7:$DT$71,$EB$7:$EB$71,$EJ$7:$EJ$71,$ER$7:$ER$71,$EZ$7:$EZ$71,$FH$7:$FH$71,$FP$7:$FP$71,$FX$7:$FX$71,$GF$7:$GF$71)</f>
+        <v>3.9471793109358495E-7</v>
+      </c>
+      <c r="BH3">
+        <f>MAX($CW$7:$CW$71,$DE$7:$DE$71,$DM$7:$DM$71,$DU$7:$DU$71,$EC$7:$EC$71,$EK$7:$EK$71,$ES$7:$ES$71,$FA$7:$FA$71,$FI$7:$FI$71,$FQ$7:$FQ$71,$FY$7:$FY$71,$GG$7:$GG$71)</f>
+        <v>1.9798817461519247E-7</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK3">
+        <f>MEDIAN($CT$7:$CT$71,$DB$7:$DB$71,$DJ$7:$DJ$71,$DR$7:$DR$71,$DZ$7:$DZ$71,$EH$7:$EH$71,$EP$7:$EP$71,$EX$7:$EX$71,$FF$7:$FF$71,$FN$7:$FN$71,$FV$7:$FV$71,$GD$7:$GD$71)</f>
+        <v>6.829735915744033E-11</v>
+      </c>
+      <c r="BL3">
+        <f>MEDIAN($CU$7:$CU$71,$DC$7:$DC$71,$DK$7:$DK$71,$DS$7:$DS$71,$EA$7:$EA$71,$EI$7:$EI$71,$EQ$7:$EQ$71,$EY$7:$EY$71,$FG$7:$FG$71,$FO$7:$FO$71,$FW$7:$FW$71,$GE$7:$GE$71)</f>
+        <v>9.3838151824964298E-14</v>
+      </c>
+      <c r="BM3">
+        <f>MEDIAN($CV$7:$CV$71,$DD$7:$DD$71,$DL$7:$DL$71,$DT$7:$DT$71,$EB$7:$EB$71,$EJ$7:$EJ$71,$ER$7:$ER$71,$EZ$7:$EZ$71,$FH$7:$FH$71,$FP$7:$FP$71,$FX$7:$FX$71,$GF$7:$GF$71)</f>
+        <v>1.3090463306333961E-10</v>
+      </c>
+      <c r="BN3">
+        <f>MEDIAN($CW$7:$CW$71,$DE$7:$DE$71,$DM$7:$DM$71,$DU$7:$DU$71,$EC$7:$EC$71,$EK$7:$EK$71,$ES$7:$ES$71,$FA$7:$FA$71,$FI$7:$FI$71,$FQ$7:$FQ$71,$FY$7:$FY$71,$GG$7:$GG$71)</f>
+        <v>3.0179316539598672E-13</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BQ3">
+        <f>MIN(_xlfn.MINIFS($CT$7:$CT$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DB$7:$DB$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DJ$7:$DJ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DR$7:$DR$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DZ$7:$DZ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EH$7:$EH$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EP$7:$EP$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EX$7:$EX$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FF$7:$FF$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FN$7:$FN$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FV$7:$FV$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($GD$7:$GD$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>2.3516025047700657E-15</v>
+      </c>
+      <c r="BR3">
+        <f>MIN(_xlfn.MINIFS($CU$7:$CU$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DC$7:$DC$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DK$7:$DK$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DS$7:$DS$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EA$7:$EA$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EI$7:$EI$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EQ$7:$EQ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EY$7:$EY$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FG$7:$FG$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FO$7:$FO$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FW$7:$FW$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($GE$7:$GE$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>5.9429229244621498E-20</v>
+      </c>
+      <c r="BS3">
+        <f>MIN(_xlfn.MINIFS($CV$7:$CV$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DD$7:$DD$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DL$7:$DL$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DT$7:$DT$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EB$7:$EB$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EJ$7:$EJ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($ER$7:$ER$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EZ$7:$EZ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FH$7:$FH$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FP$7:$FP$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FX$7:$FX$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($GF$7:$GF$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>5.3200539002218108E-16</v>
+      </c>
+      <c r="BT3">
+        <f>MIN(_xlfn.MINIFS($CW$7:$CW$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DE$7:$DE$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DM$7:$DM$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($DU$7:$DU$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EC$7:$EC$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($EK$7:$EK$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($ES$7:$ES$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FA$7:$FA$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FI$7:$FI$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FQ$7:$FQ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($FY$7:$FY$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MINIFS($GG$7:$GG$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>1.8961039172402116E-21</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW3">
+        <f>MAX(_xlfn.MAXIFS($CT$7:$CT$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DB$7:$DB$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DJ$7:$DJ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DR$7:$DR$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DZ$7:$DZ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EH$7:$EH$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EP$7:$EP$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EX$7:$EX$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FF$7:$FF$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FN$7:$FN$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FV$7:$FV$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($GD$7:$GD$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>3.5201191904995786E-7</v>
+      </c>
+      <c r="BX3">
+        <f>MAX(_xlfn.MAXIFS($CU$7:$CU$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DC$7:$DC$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DK$7:$DK$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DS$7:$DS$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EA$7:$EA$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EI$7:$EI$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EQ$7:$EQ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EY$7:$EY$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FG$7:$FG$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FO$7:$FO$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FW$7:$FW$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($GE$7:$GE$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>1.230889837900781E-9</v>
+      </c>
+      <c r="BY3">
+        <f>MAX(_xlfn.MAXIFS($CV$7:$CV$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DD$7:$DD$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DL$7:$DL$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DT$7:$DT$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EB$7:$EB$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EJ$7:$EJ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($ER$7:$ER$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EZ$7:$EZ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FH$7:$FH$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FP$7:$FP$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FX$7:$FX$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($GF$7:$GF$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>3.9471793109358495E-7</v>
+      </c>
+      <c r="BZ3">
+        <f>MAX(_xlfn.MAXIFS($CW$7:$CW$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DE$7:$DE$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DM$7:$DM$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($DU$7:$DU$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EC$7:$EC$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($EK$7:$EK$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($ES$7:$ES$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FA$7:$FA$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FI$7:$FI$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FQ$7:$FQ$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($FY$7:$FY$71,$IW$7:$IW$71,"Not Converged"),_xlfn.MAXIFS($GG$7:$GG$71,$IW$7:$IW$71,"Not Converged"))</f>
+        <v>5.4170868650895116E-9</v>
+      </c>
     </row>
-    <row r="4" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2190,8 +2661,11 @@
       <c r="IV5" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="IW5" s="7" t="s">
+        <v>339</v>
+      </c>
     </row>
-    <row r="6" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>260</v>
       </c>
@@ -2955,7 +3429,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>264</v>
       </c>
@@ -3725,7 +4199,7 @@
         <v>1.2398998975573352E-18</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>264</v>
       </c>
@@ -4495,7 +4969,7 @@
         <v>8.5927437660755968E-19</v>
       </c>
     </row>
-    <row r="9" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>264</v>
       </c>
@@ -5265,7 +5739,7 @@
         <v>5.2613992086834981E-19</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>264</v>
       </c>
@@ -6035,7 +6509,7 @@
         <v>3.6841048771687206E-19</v>
       </c>
     </row>
-    <row r="11" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>264</v>
       </c>
@@ -6805,7 +7279,7 @@
         <v>2.6338322019040415E-19</v>
       </c>
     </row>
-    <row r="12" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>264</v>
       </c>
@@ -7575,7 +8049,7 @@
         <v>1.736102110791753E-19</v>
       </c>
     </row>
-    <row r="13" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
@@ -8345,7 +8819,7 @@
         <v>1.2797625486192726E-19</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>264</v>
       </c>
@@ -9115,7 +9589,7 @@
         <v>4.1229278872012727E-19</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -9885,7 +10359,7 @@
         <v>2.2202543218662192E-17</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>264</v>
       </c>
@@ -10655,7 +11129,7 @@
         <v>4.7518590109374253E-17</v>
       </c>
     </row>
-    <row r="17" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>264</v>
       </c>
@@ -11425,7 +11899,7 @@
         <v>9.9975276514006513E-17</v>
       </c>
     </row>
-    <row r="18" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>264</v>
       </c>
@@ -12195,7 +12669,7 @@
         <v>2.5851371379090047E-16</v>
       </c>
     </row>
-    <row r="19" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>264</v>
       </c>
@@ -12965,7 +13439,7 @@
         <v>3.9203412446199635E-16</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>264</v>
       </c>
@@ -13735,7 +14209,7 @@
         <v>5.271043192289735E-16</v>
       </c>
     </row>
-    <row r="21" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>264</v>
       </c>
@@ -14505,777 +14979,780 @@
         <v>8.0230599249476684E-16</v>
       </c>
     </row>
-    <row r="22" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:257" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>2.8813254004944611E-8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <v>2.1204033320842974E-11</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="5">
         <v>4.0000001899898052E-2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="5">
         <v>2.4652411229908466E-4</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="5">
         <v>4.147190775256604E-4</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="5">
         <v>1.0847977828234434E-3</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="5">
         <v>5.2944920753361657E-5</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="5">
         <v>7.5212441151961684E-4</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="5">
         <v>5.401827729656361E-5</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="5">
         <v>1.756856818246888E-6</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="5">
         <v>1.4176013815352288E-26</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="5">
         <v>1.5968171784638838E-10</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="5">
         <v>4.5543975820849283E-14</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="5">
         <v>3.6867975917268208E-15</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="5">
         <v>8.392119683156083E-11</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="5">
         <v>1.4117775746256487E-10</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="5">
         <v>9.8863708996270939E-13</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="5">
         <v>1.4818125782254759E-10</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="5">
         <v>1.0330579243600368E-3</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="5">
         <v>6.655061588389799E-5</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="5">
         <v>2.507980921105236E-20</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="5">
         <v>6.3056842434033932E-21</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="5">
         <v>3.7194786273175851E-6</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="5">
         <v>3.5347750326764071E-7</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22" s="5">
         <v>3.3270436688326299E-5</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="5">
         <v>2.1635680695908377E-6</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22" s="5">
         <v>3.4723171893347171E-7</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="5">
         <v>2.0025781850563362E-5</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="5">
         <v>8.8553617563769116E-12</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="5">
         <v>2.758238787110151E-13</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="5">
         <v>1.9250623230909758E-12</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="5">
         <v>1.2517263614508778E-10</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="5">
         <v>3.2527187323813656E-13</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="5">
         <v>2.0207969954506855E-15</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" s="5">
         <v>2.673633814342935E-10</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AL22" s="5">
         <v>1.6711598505025904E-7</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AM22" s="5">
         <v>1.7864032883679974E-11</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AN22" s="5">
         <v>7.7853281580553361E-14</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AO22" s="5">
         <v>9.0514432843665892E-7</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AP22" s="5">
         <v>1.5226932942232087E-6</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AQ22" s="5">
         <v>6.7256767242534921E-7</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AR22" s="5">
         <v>3.2825510820680404E-8</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AS22" s="5">
         <v>2.306052924963973E-9</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AT22" s="5">
         <v>1.3413983033203872E-9</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU22" s="5">
         <v>5.4902676135466472E-15</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AV22" s="5">
         <v>1.25288123627E-18</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AW22" s="5">
         <v>1.657635832482508E-13</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AX22" s="5">
         <v>1.5565085295010191E-6</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="AY22" s="5">
         <v>6.8952094510899478E-10</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="AZ22" s="5">
         <v>1.6200906664105062E-13</v>
       </c>
-      <c r="BA22" s="1">
+      <c r="BA22" s="5">
         <v>3.7582021798410472E-8</v>
       </c>
-      <c r="BB22" s="1">
+      <c r="BB22" s="5">
         <v>5.0219785973857122E-8</v>
       </c>
-      <c r="BC22" s="1">
+      <c r="BC22" s="5">
         <v>6.7013368525946802E-15</v>
       </c>
-      <c r="BD22" s="1">
+      <c r="BD22" s="5">
         <v>1.3451782197724819E-6</v>
       </c>
-      <c r="BE22" s="1">
+      <c r="BE22" s="5">
         <v>2.3361947445248095E-9</v>
       </c>
-      <c r="BF22" s="1">
+      <c r="BF22" s="5">
         <v>5.4890972154653122E-13</v>
       </c>
-      <c r="BG22" s="1">
+      <c r="BG22" s="5">
         <v>1.2733323696907123E-7</v>
       </c>
-      <c r="BH22" s="1">
+      <c r="BH22" s="5">
         <v>1.7015178390102514E-7</v>
       </c>
-      <c r="BI22" s="1">
+      <c r="BI22" s="5">
         <v>2.270508021469824E-14</v>
       </c>
-      <c r="BJ22" s="1">
+      <c r="BJ22" s="5">
         <v>8.7789096212935922E-7</v>
       </c>
-      <c r="BK22" s="1">
+      <c r="BK22" s="5">
         <v>5.9772720492135119E-9</v>
       </c>
-      <c r="BL22" s="1">
+      <c r="BL22" s="5">
         <v>1.4044129859985313E-12</v>
       </c>
-      <c r="BM22" s="1">
+      <c r="BM22" s="5">
         <v>3.2578846822978099E-7</v>
       </c>
-      <c r="BN22" s="1">
+      <c r="BN22" s="5">
         <v>4.3534189784194877E-7</v>
       </c>
-      <c r="BO22" s="1">
+      <c r="BO22" s="5">
         <v>5.8092085986382871E-14</v>
       </c>
-      <c r="BP22" s="1">
+      <c r="BP22" s="5">
         <v>3.7169227793916055E-7</v>
       </c>
-      <c r="BQ22" s="1">
+      <c r="BQ22" s="5">
         <v>9.9215437439614843E-9</v>
       </c>
-      <c r="BR22" s="1">
+      <c r="BR22" s="5">
         <v>2.3311547134099719E-12</v>
       </c>
-      <c r="BS22" s="1">
+      <c r="BS22" s="5">
         <v>5.4076921900662487E-7</v>
       </c>
-      <c r="BT22" s="1">
+      <c r="BT22" s="5">
         <v>7.226145005350353E-7</v>
       </c>
-      <c r="BU22" s="1">
+      <c r="BU22" s="5">
         <v>9.6425795543007701E-14</v>
       </c>
-      <c r="BV22" s="1">
+      <c r="BV22" s="5">
         <v>2.4653059392577329E-7</v>
       </c>
-      <c r="BW22" s="1">
+      <c r="BW22" s="5">
         <v>5.5369000811795035E-7</v>
       </c>
-      <c r="BX22" s="1">
+      <c r="BX22" s="5">
         <v>1.3009436990528052E-10</v>
       </c>
-      <c r="BY22" s="1">
+      <c r="BY22" s="5">
         <v>1.2014315532210807E-8</v>
       </c>
-      <c r="BZ22" s="1">
+      <c r="BZ22" s="5">
         <v>1.0129648698248955E-8</v>
       </c>
-      <c r="CA22" s="1">
+      <c r="CA22" s="5">
         <v>5.3812183933507513E-12</v>
       </c>
-      <c r="CB22" s="1">
+      <c r="CB22" s="5">
         <v>2.4553413052059887E-8</v>
       </c>
-      <c r="CC22" s="1">
+      <c r="CC22" s="5">
         <v>7.670807397940785E-7</v>
       </c>
-      <c r="CD22" s="1">
+      <c r="CD22" s="5">
         <v>1.8023239935014897E-10</v>
       </c>
-      <c r="CE22" s="1">
+      <c r="CE22" s="5">
         <v>1.664460330107224E-8</v>
       </c>
-      <c r="CF22" s="1">
+      <c r="CF22" s="5">
         <v>1.4033589407417947E-8</v>
       </c>
-      <c r="CG22" s="1">
+      <c r="CG22" s="5">
         <v>7.4551266481753515E-12</v>
       </c>
-      <c r="CH22" s="1">
+      <c r="CH22" s="5">
         <v>1.8154552939810333E-9</v>
       </c>
-      <c r="CI22" s="1">
+      <c r="CI22" s="5">
         <v>7.889391426982121E-7</v>
       </c>
-      <c r="CJ22" s="1">
+      <c r="CJ22" s="5">
         <v>1.8536824512072669E-10</v>
       </c>
-      <c r="CK22" s="1">
+      <c r="CK22" s="5">
         <v>1.7118902991585444E-8</v>
       </c>
-      <c r="CL22" s="1">
+      <c r="CL22" s="5">
         <v>1.4433487880318749E-8</v>
       </c>
-      <c r="CM22" s="1">
+      <c r="CM22" s="5">
         <v>7.6675656135816349E-12</v>
       </c>
-      <c r="CN22" s="1">
+      <c r="CN22" s="5">
         <v>1.3078231307295839E-10</v>
       </c>
-      <c r="CO22" s="1">
+      <c r="CO22" s="5">
         <v>7.9055862864355674E-7</v>
       </c>
-      <c r="CP22" s="1">
+      <c r="CP22" s="5">
         <v>1.8574872656294341E-10</v>
       </c>
-      <c r="CQ22" s="1">
+      <c r="CQ22" s="5">
         <v>1.7154038592573187E-8</v>
       </c>
-      <c r="CR22" s="1">
+      <c r="CR22" s="5">
         <v>1.4463112852646709E-8</v>
       </c>
-      <c r="CS22" s="1">
+      <c r="CS22" s="5">
         <v>7.6833032477477989E-12</v>
       </c>
-      <c r="CT22" s="1">
+      <c r="CT22" s="5">
         <v>3.5201191904995786E-7</v>
       </c>
-      <c r="CU22" s="1">
+      <c r="CU22" s="5">
         <v>1.559384889729802E-10</v>
       </c>
-      <c r="CV22" s="1">
+      <c r="CV22" s="5">
         <v>6.1134531402452749E-10</v>
       </c>
-      <c r="CW22" s="1">
+      <c r="CW22" s="5">
         <v>2.708211391042025E-13</v>
       </c>
-      <c r="CX22" s="1">
+      <c r="CX22" s="5">
         <v>6.1274308539784067E-12</v>
       </c>
-      <c r="CY22" s="1">
+      <c r="CY22" s="5">
         <v>2.8360852848997737E-8</v>
       </c>
-      <c r="CZ22" s="1">
+      <c r="CZ22" s="5">
         <v>3.0103299261204143E-8</v>
       </c>
-      <c r="DA22" s="1">
+      <c r="DA22" s="5">
         <v>2.5345485248715587E-13</v>
       </c>
-      <c r="DB22" s="1">
+      <c r="DB22" s="5">
         <v>1.1487040185683434E-7</v>
       </c>
-      <c r="DC22" s="1">
+      <c r="DC22" s="5">
         <v>5.088667528841365E-11</v>
       </c>
-      <c r="DD22" s="1">
+      <c r="DD22" s="5">
         <v>3.0662237408425768E-9</v>
       </c>
-      <c r="DE22" s="1">
+      <c r="DE22" s="5">
         <v>1.3583128985066637E-12</v>
       </c>
-      <c r="DF22" s="1">
+      <c r="DF22" s="5">
         <v>3.0732356786953937E-11</v>
       </c>
-      <c r="DG22" s="1">
+      <c r="DG22" s="5">
         <v>1.4224490535397998E-7</v>
       </c>
-      <c r="DH22" s="1">
+      <c r="DH22" s="5">
         <v>1.5098421853053829E-7</v>
       </c>
-      <c r="DI22" s="1">
+      <c r="DI22" s="5">
         <v>1.2712120849132832E-12</v>
       </c>
-      <c r="DJ22" s="1">
+      <c r="DJ22" s="5">
         <v>1.2259626327111035E-8</v>
       </c>
-      <c r="DK22" s="1">
+      <c r="DK22" s="5">
         <v>5.4309172746491079E-12</v>
       </c>
-      <c r="DL22" s="1">
+      <c r="DL22" s="5">
         <v>3.830067592300869E-7</v>
       </c>
-      <c r="DM22" s="1">
+      <c r="DM22" s="5">
         <v>1.6966895779588688E-10</v>
       </c>
-      <c r="DN22" s="1">
+      <c r="DN22" s="5">
         <v>3.8388249781553769E-9</v>
       </c>
-      <c r="DO22" s="1">
+      <c r="DO22" s="5">
         <v>7.0735730963954337E-9</v>
       </c>
-      <c r="DP22" s="1">
+      <c r="DP22" s="5">
         <v>4.7373380288288258E-9</v>
       </c>
-      <c r="DQ22" s="1">
+      <c r="DQ22" s="5">
         <v>1.587890285851225E-10</v>
       </c>
-      <c r="DR22" s="1">
+      <c r="DR22" s="5">
         <v>6.5298285115425024E-11</v>
       </c>
-      <c r="DS22" s="1">
+      <c r="DS22" s="5">
         <v>2.8926624443431581E-14</v>
       </c>
-      <c r="DT22" s="1">
+      <c r="DT22" s="5">
         <v>3.9471793109358495E-7</v>
       </c>
-      <c r="DU22" s="1">
+      <c r="DU22" s="5">
         <v>1.7485691135982549E-10</v>
       </c>
-      <c r="DV22" s="1">
+      <c r="DV22" s="5">
         <v>3.9562039151940402E-9</v>
       </c>
-      <c r="DW22" s="1">
+      <c r="DW22" s="5">
         <v>7.2898600416971319E-9</v>
       </c>
-      <c r="DX22" s="1">
+      <c r="DX22" s="5">
         <v>4.882190528376219E-9</v>
       </c>
-      <c r="DY22" s="1">
+      <c r="DY22" s="5">
         <v>1.6364429522687648E-10</v>
       </c>
-      <c r="DZ22" s="1">
+      <c r="DZ22" s="5">
         <v>1.1547006121422277E-7</v>
       </c>
-      <c r="EA22" s="1">
+      <c r="EA22" s="5">
         <v>2.0053890389256216E-10</v>
       </c>
-      <c r="EB22" s="1">
+      <c r="EB22" s="5">
         <v>7.8619784474846942E-10</v>
       </c>
-      <c r="EC22" s="1">
+      <c r="EC22" s="5">
         <v>1.3654036601121246E-12</v>
       </c>
-      <c r="ED22" s="1">
+      <c r="ED22" s="5">
         <v>3.0892772475312152E-11</v>
       </c>
-      <c r="EE22" s="1">
+      <c r="EE22" s="5">
         <v>1.4298737320802704E-7</v>
       </c>
-      <c r="EF22" s="1">
+      <c r="EF22" s="5">
         <v>1.5177230664099312E-7</v>
       </c>
-      <c r="EG22" s="1">
+      <c r="EG22" s="5">
         <v>1.2778475551797283E-12</v>
       </c>
-      <c r="EH22" s="1">
+      <c r="EH22" s="5">
         <v>1.1376242864026125E-7</v>
       </c>
-      <c r="EI22" s="1">
+      <c r="EI22" s="5">
         <v>1.9757321339933494E-10</v>
       </c>
-      <c r="EJ22" s="1">
+      <c r="EJ22" s="5">
         <v>2.5550224422480399E-7</v>
       </c>
-      <c r="EK22" s="1">
+      <c r="EK22" s="5">
         <v>4.43735243125003E-10</v>
       </c>
-      <c r="EL22" s="1">
+      <c r="EL22" s="5">
         <v>1.0039678749592129E-8</v>
       </c>
-      <c r="EM22" s="1">
+      <c r="EM22" s="5">
         <v>1.8499514195462856E-8</v>
       </c>
-      <c r="EN22" s="1">
+      <c r="EN22" s="5">
         <v>1.2389558512070173E-8</v>
       </c>
-      <c r="EO22" s="1">
+      <c r="EO22" s="5">
         <v>4.1528092805277097E-10</v>
       </c>
-      <c r="EP22" s="1">
+      <c r="EP22" s="5">
         <v>8.1171363643453864E-10</v>
       </c>
-      <c r="EQ22" s="1">
+      <c r="EQ22" s="5">
         <v>1.4097173902409319E-12</v>
       </c>
-      <c r="ER22" s="1">
+      <c r="ER22" s="5">
         <v>3.5274491366495512E-7</v>
       </c>
-      <c r="ES22" s="1">
+      <c r="ES22" s="5">
         <v>6.126183315998948E-10</v>
       </c>
-      <c r="ET22" s="1">
+      <c r="ET22" s="5">
         <v>1.3860723560230684E-8</v>
       </c>
-      <c r="EU22" s="1">
+      <c r="EU22" s="5">
         <v>2.5540325926902295E-8</v>
       </c>
-      <c r="EV22" s="1">
+      <c r="EV22" s="5">
         <v>1.7104954980176559E-8</v>
       </c>
-      <c r="EW22" s="1">
+      <c r="EW22" s="5">
         <v>5.7333451644974081E-10</v>
       </c>
-      <c r="EX22" s="1">
+      <c r="EX22" s="5">
         <v>1.0211764557689679E-8</v>
       </c>
-      <c r="EY22" s="1">
+      <c r="EY22" s="5">
         <v>6.9528561058391023E-11</v>
       </c>
-      <c r="EZ22" s="1">
+      <c r="EZ22" s="5">
         <v>2.7258157292622423E-10</v>
       </c>
-      <c r="FA22" s="1">
+      <c r="FA22" s="5">
         <v>1.8559187428574563E-12</v>
       </c>
-      <c r="FB22" s="1">
+      <c r="FB22" s="5">
         <v>4.1990835915548187E-11</v>
       </c>
-      <c r="FC22" s="1">
+      <c r="FC22" s="5">
         <v>1.9435485060056384E-7</v>
       </c>
-      <c r="FD22" s="1">
+      <c r="FD22" s="5">
         <v>2.0629571624666548E-7</v>
       </c>
-      <c r="FE22" s="1">
+      <c r="FE22" s="5">
         <v>1.736907367164914E-12</v>
       </c>
-      <c r="FF22" s="1">
+      <c r="FF22" s="5">
         <v>7.8663305493903425E-9</v>
       </c>
-      <c r="FG22" s="1">
+      <c r="FG22" s="5">
         <v>5.3559270121753773E-11</v>
       </c>
-      <c r="FH22" s="1">
+      <c r="FH22" s="5">
         <v>2.4575446742775592E-7</v>
       </c>
-      <c r="FI22" s="1">
+      <c r="FI22" s="5">
         <v>1.6732615781846236E-9</v>
       </c>
-      <c r="FJ22" s="1">
+      <c r="FJ22" s="5">
         <v>3.7858184420752631E-8</v>
       </c>
-      <c r="FK22" s="1">
+      <c r="FK22" s="5">
         <v>6.9759010914908152E-8</v>
       </c>
-      <c r="FL22" s="1">
+      <c r="FL22" s="5">
         <v>4.6719242563872838E-8</v>
       </c>
-      <c r="FM22" s="1">
+      <c r="FM22" s="5">
         <v>1.5659645275999788E-9</v>
       </c>
-      <c r="FN22" s="1">
+      <c r="FN22" s="5">
         <v>4.1449331367557716E-11</v>
       </c>
-      <c r="FO22" s="1">
+      <c r="FO22" s="5">
         <v>2.8221492542989802E-13</v>
       </c>
-      <c r="FP22" s="1">
+      <c r="FP22" s="5">
         <v>2.505547328009599E-7</v>
       </c>
-      <c r="FQ22" s="1">
+      <c r="FQ22" s="5">
         <v>1.7059450476923751E-9</v>
       </c>
-      <c r="FR22" s="1">
+      <c r="FR22" s="5">
         <v>3.8597654580120267E-8</v>
       </c>
-      <c r="FS22" s="1">
+      <c r="FS22" s="5">
         <v>7.1121586837992777E-8</v>
       </c>
-      <c r="FT22" s="1">
+      <c r="FT22" s="5">
         <v>4.7631793211187551E-8</v>
       </c>
-      <c r="FU22" s="1">
+      <c r="FU22" s="5">
         <v>1.5965520864286484E-9</v>
       </c>
-      <c r="FV22" s="1">
+      <c r="FV22" s="5">
         <v>4.6113010381065975E-8</v>
       </c>
-      <c r="FW22" s="1">
+      <c r="FW22" s="5">
         <v>1.230889837900781E-9</v>
       </c>
-      <c r="FX22" s="1">
+      <c r="FX22" s="5">
         <v>1.03566503695914E-7</v>
       </c>
-      <c r="FY22" s="1">
+      <c r="FY22" s="5">
         <v>2.7644901372541455E-9</v>
       </c>
-      <c r="FZ22" s="1">
+      <c r="FZ22" s="5">
         <v>6.2547634357986227E-8</v>
       </c>
-      <c r="GA22" s="1">
+      <c r="GA22" s="5">
         <v>1.1525278206951134E-7</v>
       </c>
-      <c r="GB22" s="1">
+      <c r="GB22" s="5">
         <v>7.7187494781391739E-8</v>
       </c>
-      <c r="GC22" s="1">
+      <c r="GC22" s="5">
         <v>2.587218327894228E-9</v>
       </c>
-      <c r="GD22" s="1">
+      <c r="GD22" s="5">
         <v>2.691447606033467E-10</v>
       </c>
-      <c r="GE22" s="1">
+      <c r="GE22" s="5">
         <v>7.1842533220084513E-12</v>
       </c>
-      <c r="GF22" s="1">
+      <c r="GF22" s="5">
         <v>1.169617517067604E-7</v>
       </c>
-      <c r="GG22" s="1">
+      <c r="GG22" s="5">
         <v>3.1220480750020363E-9</v>
       </c>
-      <c r="GH22" s="1">
+      <c r="GH22" s="5">
         <v>7.0637539182802967E-8</v>
       </c>
-      <c r="GI22" s="1">
+      <c r="GI22" s="5">
         <v>1.30159582838545E-7</v>
       </c>
-      <c r="GJ22" s="1">
+      <c r="GJ22" s="5">
         <v>8.7170916733533649E-8</v>
       </c>
-      <c r="GK22" s="1">
+      <c r="GK22" s="5">
         <v>2.9218489567853182E-9</v>
       </c>
-      <c r="GL22" s="1">
+      <c r="GL22" s="5">
         <v>6.2627412568170624E-10</v>
       </c>
-      <c r="GM22" s="1">
+      <c r="GM22" s="5">
         <v>1.2867853652262142E-12</v>
       </c>
-      <c r="GN22" s="1">
+      <c r="GN22" s="5">
         <v>1.4960531851692901E-5</v>
       </c>
-      <c r="GO22" s="1">
+      <c r="GO22" s="5">
         <v>2.516759076121066E-5</v>
       </c>
-      <c r="GP22" s="1">
+      <c r="GP22" s="5">
         <v>2.3578760467258511E-5</v>
       </c>
-      <c r="GQ22" s="1">
+      <c r="GQ22" s="5">
         <v>1.1507911016480377E-6</v>
       </c>
-      <c r="GR22" s="1">
+      <c r="GR22" s="5">
         <v>8.0845198241668648E-8</v>
       </c>
-      <c r="GS22" s="1">
+      <c r="GS22" s="5">
         <v>4.7026509847330739E-8</v>
       </c>
-      <c r="GT22" s="1">
+      <c r="GT22" s="5">
         <v>1.924768390853185E-13</v>
       </c>
-      <c r="GU22" s="1">
+      <c r="GU22" s="5">
         <v>4.3923289230415435E-17</v>
       </c>
-      <c r="GV22" s="1">
+      <c r="GV22" s="5">
         <v>5.8113108974795366E-12</v>
       </c>
-      <c r="GW22" s="1">
+      <c r="GW22" s="5">
         <v>2.5484238445718135E-5</v>
       </c>
-      <c r="GX22" s="1">
+      <c r="GX22" s="5">
         <v>1.1330964659773262E-10</v>
       </c>
-      <c r="GY22" s="1">
+      <c r="GY22" s="5">
         <v>4.6436341955177672E-14</v>
       </c>
-      <c r="GZ22" s="1">
+      <c r="GZ22" s="5">
         <v>2.1493089823829483E-8</v>
       </c>
-      <c r="HA22" s="1">
+      <c r="HA22" s="5">
         <v>3.6157093202293349E-8</v>
       </c>
-      <c r="HB22" s="1">
+      <c r="HB22" s="5">
         <v>5.519259699486927E-15</v>
       </c>
-      <c r="HC22" s="1">
+      <c r="HC22" s="5">
         <v>2.4811911900232802E-5</v>
       </c>
-      <c r="HD22" s="1">
+      <c r="HD22" s="5">
         <v>1.4321511327199704E-9</v>
       </c>
-      <c r="HE22" s="1">
+      <c r="HE22" s="5">
         <v>5.8692148441091353E-13</v>
       </c>
-      <c r="HF22" s="1">
+      <c r="HF22" s="5">
         <v>2.716569743375463E-7</v>
       </c>
-      <c r="HG22" s="1">
+      <c r="HG22" s="5">
         <v>4.5699926555778158E-7</v>
       </c>
-      <c r="HH22" s="1">
+      <c r="HH22" s="5">
         <v>6.9759413402421698E-14</v>
       </c>
-      <c r="HI22" s="1">
+      <c r="HI22" s="5">
         <v>1.8482082709666156E-5</v>
       </c>
-      <c r="HJ22" s="1">
+      <c r="HJ22" s="5">
         <v>1.3848817909756673E-8</v>
       </c>
-      <c r="HK22" s="1">
+      <c r="HK22" s="5">
         <v>5.6754964160941411E-12</v>
       </c>
-      <c r="HL22" s="1">
+      <c r="HL22" s="5">
         <v>2.626907210058607E-6</v>
       </c>
-      <c r="HM22" s="1">
+      <c r="HM22" s="5">
         <v>4.4191559769717081E-6</v>
       </c>
-      <c r="HN22" s="1">
+      <c r="HN22" s="5">
         <v>6.745695035544538E-13</v>
       </c>
-      <c r="HO22" s="1">
+      <c r="HO22" s="5">
         <v>4.2863904689526341E-6</v>
       </c>
-      <c r="HP22" s="1">
+      <c r="HP22" s="5">
         <v>4.1695267497064026E-8</v>
       </c>
-      <c r="HQ22" s="1">
+      <c r="HQ22" s="5">
         <v>1.7087472470442821E-11</v>
       </c>
-      <c r="HR22" s="1">
+      <c r="HR22" s="5">
         <v>7.9089469050082806E-6</v>
       </c>
-      <c r="HS22" s="1">
+      <c r="HS22" s="5">
         <v>1.3304950891382459E-5</v>
       </c>
-      <c r="HT22" s="1">
+      <c r="HT22" s="5">
         <v>2.030956775590005E-12</v>
       </c>
-      <c r="HU22" s="1">
+      <c r="HU22" s="5">
         <v>6.8400566380656988E-6</v>
       </c>
-      <c r="HV22" s="1">
+      <c r="HV22" s="5">
         <v>5.9300038336408048E-6</v>
       </c>
-      <c r="HW22" s="1">
+      <c r="HW22" s="5">
         <v>1.0414686742898867E-11</v>
       </c>
-      <c r="HX22" s="1">
+      <c r="HX22" s="5">
         <v>3.4600881053027199E-10</v>
       </c>
-      <c r="HY22" s="1">
+      <c r="HY22" s="5">
         <v>5.8207880436105847E-10</v>
       </c>
-      <c r="HZ22" s="1">
+      <c r="HZ22" s="5">
         <v>1.2378528950526571E-12</v>
       </c>
-      <c r="IA22" s="1">
+      <c r="IA22" s="5">
         <v>2.0940161084270935E-7</v>
       </c>
-      <c r="IB22" s="1">
+      <c r="IB22" s="5">
         <v>1.2559608489203729E-5</v>
       </c>
-      <c r="IC22" s="1">
+      <c r="IC22" s="5">
         <v>2.2058060712072088E-11</v>
       </c>
-      <c r="ID22" s="1">
+      <c r="ID22" s="5">
         <v>7.3283853817597393E-10</v>
       </c>
-      <c r="IE22" s="1">
+      <c r="IE22" s="5">
         <v>1.2328292092814433E-9</v>
       </c>
-      <c r="IF22" s="1">
+      <c r="IF22" s="5">
         <v>2.6217432310778585E-12</v>
       </c>
-      <c r="IG22" s="1">
+      <c r="IG22" s="5">
         <v>3.0763272801057254E-9</v>
       </c>
-      <c r="IH22" s="1">
+      <c r="IH22" s="5">
         <v>1.2765901224680868E-5</v>
       </c>
-      <c r="II22" s="1">
+      <c r="II22" s="5">
         <v>2.2420364920618872E-11</v>
       </c>
-      <c r="IJ22" s="1">
+      <c r="IJ22" s="5">
         <v>7.448753744316961E-10</v>
       </c>
-      <c r="IK22" s="1">
+      <c r="IK22" s="5">
         <v>1.253078484762524E-9</v>
       </c>
-      <c r="IL22" s="1">
+      <c r="IL22" s="5">
         <v>2.6648055374030834E-12</v>
       </c>
-      <c r="IM22" s="1">
+      <c r="IM22" s="5">
         <v>4.4143240554719751E-11</v>
       </c>
-      <c r="IN22" s="1">
+      <c r="IN22" s="5">
         <v>1.276893312790591E-5</v>
       </c>
-      <c r="IO22" s="1">
+      <c r="IO22" s="5">
         <v>2.2425690660789846E-11</v>
       </c>
-      <c r="IP22" s="1">
+      <c r="IP22" s="5">
         <v>7.4505232089987575E-10</v>
       </c>
-      <c r="IQ22" s="1">
+      <c r="IQ22" s="5">
         <v>1.2533759748131101E-9</v>
       </c>
-      <c r="IR22" s="1">
+      <c r="IR22" s="5">
         <v>2.6654382812986312E-12</v>
       </c>
-      <c r="IS22" s="1">
+      <c r="IS22" s="5">
         <v>4.2262706199003121E-6</v>
       </c>
-      <c r="IT22" s="1">
+      <c r="IT22" s="5">
         <v>1.879111501468288E-11</v>
       </c>
-      <c r="IU22" s="1">
+      <c r="IU22" s="5">
         <v>2.4394164282651912E-10</v>
       </c>
-      <c r="IV22" s="1">
+      <c r="IV22" s="5">
         <v>1.0846288348182613E-15</v>
       </c>
+      <c r="IW22" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="23" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>264</v>
       </c>
@@ -16045,7 +16522,7 @@
         <v>3.786293152159228E-12</v>
       </c>
     </row>
-    <row r="24" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>264</v>
       </c>
@@ -16815,7 +17292,7 @@
         <v>5.3938682664577043E-14</v>
       </c>
     </row>
-    <row r="25" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>264</v>
       </c>
@@ -17585,7 +18062,7 @@
         <v>5.4168068721787478E-16</v>
       </c>
     </row>
-    <row r="26" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>264</v>
       </c>
@@ -18355,7 +18832,7 @@
         <v>5.3846124678459269E-18</v>
       </c>
     </row>
-    <row r="27" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>264</v>
       </c>
@@ -19125,7 +19602,7 @@
         <v>6.1345158855405488E-20</v>
       </c>
     </row>
-    <row r="28" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>264</v>
       </c>
@@ -19895,777 +20372,780 @@
         <v>7.8773708921090182E-22</v>
       </c>
     </row>
-    <row r="29" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:257" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>1.0739539119120067E-10</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>1.6034036598444601E-10</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <v>2.0000000949949027E-5</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="5">
         <v>2.2552623704541475E-4</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="5">
         <v>4.077918129041791E-4</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="5">
         <v>1.1004811385646462E-3</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="5">
         <v>5.3710366046288982E-5</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="5">
         <v>7.4976426549255848E-4</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <v>5.359229544410482E-5</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="5">
         <v>3.0981277814134955E-4</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="5">
         <v>4.7787047936626694E-24</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="5">
         <v>1.3968527333992658E-10</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="5">
         <v>3.9214847930165375E-13</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="5">
         <v>7.9735295761407487E-12</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="5">
         <v>8.7418739756427547E-11</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="5">
         <v>1.5806873219763593E-10</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="5">
         <v>3.4431076876622656E-15</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29" s="5">
         <v>1.4045831739809207E-10</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29" s="5">
         <v>6.7130528623238206E-4</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29" s="5">
         <v>1.601601837819544E-7</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29" s="5">
         <v>3.1153867534863133E-20</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29" s="5">
         <v>2.9008570652969668E-23</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29" s="5">
         <v>2.3496384073951049E-6</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29" s="5">
         <v>5.9908274124609306E-5</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA29" s="5">
         <v>3.1875399145064875E-5</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AB29" s="5">
         <v>1.2715785260297707E-6</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AC29" s="5">
         <v>5.4751759307691827E-5</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AD29" s="5">
         <v>1.785008680599276E-5</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AE29" s="5">
         <v>1.7875711577630682E-8</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AF29" s="5">
         <v>1.4938102310679824E-7</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AG29" s="5">
         <v>1.418345475789895E-11</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AH29" s="5">
         <v>1.6314579909249005E-7</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AI29" s="5">
         <v>7.4761011603641236E-8</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AJ29" s="5">
         <v>1.4988137887381701E-14</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AK29" s="5">
         <v>1.2988572439809332E-9</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AL29" s="5">
         <v>4.4979849917581305E-5</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AM29" s="5">
         <v>3.3189247563692028E-17</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AN29" s="5">
         <v>3.1366945050918716E-16</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AO29" s="5">
         <v>4.4119075421052885E-10</v>
       </c>
-      <c r="AP29" s="1">
+      <c r="AP29" s="5">
         <v>7.9775189325938154E-10</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AQ29" s="5">
         <v>3.400904068146968E-10</v>
       </c>
-      <c r="AR29" s="1">
+      <c r="AR29" s="5">
         <v>1.6598539389295691E-11</v>
       </c>
-      <c r="AS29" s="1">
+      <c r="AS29" s="5">
         <v>7.2612737330079811E-13</v>
       </c>
-      <c r="AT29" s="1">
+      <c r="AT29" s="5">
         <v>3.9296598425862471E-13</v>
       </c>
-      <c r="AU29" s="1">
+      <c r="AU29" s="5">
         <v>5.5242725861030781E-15</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AV29" s="5">
         <v>4.6319029449769194E-21</v>
       </c>
-      <c r="AW29" s="1">
+      <c r="AW29" s="5">
         <v>4.0139615803972293E-16</v>
       </c>
-      <c r="AX29" s="1">
+      <c r="AX29" s="5">
         <v>7.8070952831295042E-10</v>
       </c>
-      <c r="AY29" s="1">
+      <c r="AY29" s="5">
         <v>1.2887462609854979E-15</v>
       </c>
-      <c r="AZ29" s="1">
+      <c r="AZ29" s="5">
         <v>6.1108930269988548E-16</v>
       </c>
-      <c r="BA29" s="1">
+      <c r="BA29" s="5">
         <v>1.7149790524959612E-11</v>
       </c>
-      <c r="BB29" s="1">
+      <c r="BB29" s="5">
         <v>2.4632040559141561E-11</v>
       </c>
-      <c r="BC29" s="1">
+      <c r="BC29" s="5">
         <v>6.783363514440207E-15</v>
       </c>
-      <c r="BD29" s="1">
+      <c r="BD29" s="5">
         <v>6.7983302618802497E-10</v>
       </c>
-      <c r="BE29" s="1">
+      <c r="BE29" s="5">
         <v>4.3996028359619751E-15</v>
       </c>
-      <c r="BF29" s="1">
+      <c r="BF29" s="5">
         <v>2.0861750203772566E-15</v>
       </c>
-      <c r="BG29" s="1">
+      <c r="BG29" s="5">
         <v>5.8547025360758955E-11</v>
       </c>
-      <c r="BH29" s="1">
+      <c r="BH29" s="5">
         <v>8.409039062631815E-11</v>
       </c>
-      <c r="BI29" s="1">
+      <c r="BI29" s="5">
         <v>2.3157469629289383E-14</v>
       </c>
-      <c r="BJ29" s="1">
+      <c r="BJ29" s="5">
         <v>4.5124748590681849E-10</v>
       </c>
-      <c r="BK29" s="1">
+      <c r="BK29" s="5">
         <v>1.1448780641836345E-14</v>
       </c>
-      <c r="BL29" s="1">
+      <c r="BL29" s="5">
         <v>5.4287087531460428E-15</v>
       </c>
-      <c r="BM29" s="1">
+      <c r="BM29" s="5">
         <v>1.5235287957800782E-10</v>
       </c>
-      <c r="BN29" s="1">
+      <c r="BN29" s="5">
         <v>2.1882260147810545E-10</v>
       </c>
-      <c r="BO29" s="1">
+      <c r="BO29" s="5">
         <v>6.026108638056958E-14</v>
       </c>
-      <c r="BP29" s="1">
+      <c r="BP29" s="5">
         <v>1.946546787007216E-10</v>
       </c>
-      <c r="BQ29" s="1">
+      <c r="BQ29" s="5">
         <v>1.9361657794479119E-14</v>
       </c>
-      <c r="BR29" s="1">
+      <c r="BR29" s="5">
         <v>9.1807824889422902E-15</v>
       </c>
-      <c r="BS29" s="1">
+      <c r="BS29" s="5">
         <v>2.5765219424218075E-10</v>
       </c>
-      <c r="BT29" s="1">
+      <c r="BT29" s="5">
         <v>3.7006275418256795E-10</v>
       </c>
-      <c r="BU29" s="1">
+      <c r="BU29" s="5">
         <v>1.019107827059471E-13</v>
       </c>
-      <c r="BV29" s="1">
+      <c r="BV29" s="5">
         <v>3.6045922220577322E-10</v>
       </c>
-      <c r="BW29" s="1">
+      <c r="BW29" s="5">
         <v>3.0167134595097283E-12</v>
       </c>
-      <c r="BX29" s="1">
+      <c r="BX29" s="5">
         <v>1.4304455815679479E-12</v>
       </c>
-      <c r="BY29" s="1">
+      <c r="BY29" s="5">
         <v>1.5981779100326777E-11</v>
       </c>
-      <c r="BZ29" s="1">
+      <c r="BZ29" s="5">
         <v>1.4483293644121555E-11</v>
       </c>
-      <c r="CA29" s="1">
+      <c r="CA29" s="5">
         <v>1.5878582363023847E-11</v>
       </c>
-      <c r="CB29" s="1">
+      <c r="CB29" s="5">
         <v>1.3893447183887282E-10</v>
       </c>
-      <c r="CC29" s="1">
+      <c r="CC29" s="5">
         <v>1.6174144432135633E-11</v>
       </c>
-      <c r="CD29" s="1">
+      <c r="CD29" s="5">
         <v>7.6693503955344373E-12</v>
       </c>
-      <c r="CE29" s="1">
+      <c r="CE29" s="5">
         <v>8.56865030736535E-11</v>
       </c>
-      <c r="CF29" s="1">
+      <c r="CF29" s="5">
         <v>7.7652346127232975E-11</v>
       </c>
-      <c r="CG29" s="1">
+      <c r="CG29" s="5">
         <v>8.5133210091335344E-11</v>
       </c>
-      <c r="CH29" s="1">
+      <c r="CH29" s="5">
         <v>1.455011777817775E-11</v>
       </c>
-      <c r="CI29" s="1">
+      <c r="CI29" s="5">
         <v>2.3561951065711263E-11</v>
       </c>
-      <c r="CJ29" s="1">
+      <c r="CJ29" s="5">
         <v>1.1172446070796374E-11</v>
       </c>
-      <c r="CK29" s="1">
+      <c r="CK29" s="5">
         <v>1.2482513489578704E-10</v>
       </c>
-      <c r="CL29" s="1">
+      <c r="CL29" s="5">
         <v>1.1312127555914526E-10</v>
       </c>
-      <c r="CM29" s="1">
+      <c r="CM29" s="5">
         <v>1.2401913332552146E-10</v>
       </c>
-      <c r="CN29" s="1">
+      <c r="CN29" s="5">
         <v>1.0815156263739867E-12</v>
       </c>
-      <c r="CO29" s="1">
+      <c r="CO29" s="5">
         <v>2.4361902913292156E-11</v>
       </c>
-      <c r="CP29" s="1">
+      <c r="CP29" s="5">
         <v>1.1551767249241533E-11</v>
       </c>
-      <c r="CQ29" s="1">
+      <c r="CQ29" s="5">
         <v>1.2906316239842836E-10</v>
       </c>
-      <c r="CR29" s="1">
+      <c r="CR29" s="5">
         <v>1.1696191931655634E-10</v>
       </c>
-      <c r="CS29" s="1">
+      <c r="CS29" s="5">
         <v>1.2822977412065863E-10</v>
       </c>
-      <c r="CT29" s="1">
+      <c r="CT29" s="5">
         <v>1.7748963350284644E-10</v>
       </c>
-      <c r="CU29" s="1">
+      <c r="CU29" s="5">
         <v>2.9298872942187647E-16</v>
       </c>
-      <c r="CV29" s="1">
+      <c r="CV29" s="5">
         <v>1.148640709729747E-15</v>
       </c>
-      <c r="CW29" s="1">
+      <c r="CW29" s="5">
         <v>1.8961039172402116E-21</v>
       </c>
-      <c r="CX29" s="1">
+      <c r="CX29" s="5">
         <v>2.3233870745444894E-14</v>
       </c>
-      <c r="CY29" s="1">
+      <c r="CY29" s="5">
         <v>1.3009950262246988E-11</v>
       </c>
-      <c r="CZ29" s="1">
+      <c r="CZ29" s="5">
         <v>1.4842850591005453E-11</v>
       </c>
-      <c r="DA29" s="1">
+      <c r="DA29" s="5">
         <v>2.5790632232414176E-13</v>
       </c>
-      <c r="DB29" s="1">
+      <c r="DB29" s="5">
         <v>5.9837966380620502E-11</v>
       </c>
-      <c r="DC29" s="1">
+      <c r="DC29" s="5">
         <v>9.8776750853560805E-17</v>
       </c>
-      <c r="DD29" s="1">
+      <c r="DD29" s="5">
         <v>5.951884551618173E-15</v>
       </c>
-      <c r="DE29" s="1">
+      <c r="DE29" s="5">
         <v>9.824997042459955E-21</v>
       </c>
-      <c r="DF29" s="1">
+      <c r="DF29" s="5">
         <v>1.2039039549071646E-13</v>
       </c>
-      <c r="DG29" s="1">
+      <c r="DG29" s="5">
         <v>6.7413362775850997E-11</v>
       </c>
-      <c r="DH29" s="1">
+      <c r="DH29" s="5">
         <v>7.6910853204345655E-11</v>
       </c>
-      <c r="DI29" s="1">
+      <c r="DI29" s="5">
         <v>1.3363872206705978E-12</v>
       </c>
-      <c r="DJ29" s="1">
+      <c r="DJ29" s="5">
         <v>6.7389309104135334E-12</v>
       </c>
-      <c r="DK29" s="1">
+      <c r="DK29" s="5">
         <v>1.1124203664293191E-17</v>
       </c>
-      <c r="DL29" s="1">
+      <c r="DL29" s="5">
         <v>7.8451687953436873E-13</v>
       </c>
-      <c r="DM29" s="1">
+      <c r="DM29" s="5">
         <v>1.2950311759955841E-18</v>
       </c>
-      <c r="DN29" s="1">
+      <c r="DN29" s="5">
         <v>1.5868641584828432E-11</v>
       </c>
-      <c r="DO29" s="1">
+      <c r="DO29" s="5">
         <v>3.5374761704264887E-12</v>
       </c>
-      <c r="DP29" s="1">
+      <c r="DP29" s="5">
         <v>2.5464537986751879E-12</v>
       </c>
-      <c r="DQ29" s="1">
+      <c r="DQ29" s="5">
         <v>1.7614898891191081E-10</v>
       </c>
-      <c r="DR29" s="1">
+      <c r="DR29" s="5">
         <v>3.6001629931860052E-14</v>
       </c>
-      <c r="DS29" s="1">
+      <c r="DS29" s="5">
         <v>5.9429229244621498E-20</v>
       </c>
-      <c r="DT29" s="1">
+      <c r="DT29" s="5">
         <v>8.1096213372422982E-13</v>
       </c>
-      <c r="DU29" s="1">
+      <c r="DU29" s="5">
         <v>1.3386852666125561E-18</v>
       </c>
-      <c r="DV29" s="1">
+      <c r="DV29" s="5">
         <v>1.6403451813762578E-11</v>
       </c>
-      <c r="DW29" s="1">
+      <c r="DW29" s="5">
         <v>3.65669729666126E-12</v>
       </c>
-      <c r="DX29" s="1">
+      <c r="DX29" s="5">
         <v>2.6322755472640081E-12</v>
       </c>
-      <c r="DY29" s="1">
+      <c r="DY29" s="5">
         <v>1.8208561801223377E-10</v>
       </c>
-      <c r="DZ29" s="1">
+      <c r="DZ29" s="5">
         <v>5.9839179745023814E-11</v>
       </c>
-      <c r="EA29" s="1">
+      <c r="EA29" s="5">
         <v>3.8725483371748453E-16</v>
       </c>
-      <c r="EB29" s="1">
+      <c r="EB29" s="5">
         <v>1.5182037737224818E-15</v>
       </c>
-      <c r="EC29" s="1">
+      <c r="EC29" s="5">
         <v>9.8251975092897983E-21</v>
       </c>
-      <c r="ED29" s="1">
+      <c r="ED29" s="5">
         <v>1.2039283975799918E-13</v>
       </c>
-      <c r="EE29" s="1">
+      <c r="EE29" s="5">
         <v>6.7414723380076097E-11</v>
       </c>
-      <c r="EF29" s="1">
+      <c r="EF29" s="5">
         <v>7.6912402983489753E-11</v>
       </c>
-      <c r="EG29" s="1">
+      <c r="EG29" s="5">
         <v>1.3364142781409833E-12</v>
       </c>
-      <c r="EH29" s="1">
+      <c r="EH29" s="5">
         <v>2.2125782623837704E-11</v>
       </c>
-      <c r="EI29" s="1">
+      <c r="EI29" s="5">
         <v>1.4318906401350568E-16</v>
       </c>
-      <c r="EJ29" s="1">
+      <c r="EJ29" s="5">
         <v>1.8517253070401405E-13</v>
       </c>
-      <c r="EK29" s="1">
+      <c r="EK29" s="5">
         <v>1.1983612936846706E-18</v>
       </c>
-      <c r="EL29" s="1">
+      <c r="EL29" s="5">
         <v>1.4684099182658555E-11</v>
       </c>
-      <c r="EM29" s="1">
+      <c r="EM29" s="5">
         <v>3.2734148136021829E-12</v>
       </c>
-      <c r="EN29" s="1">
+      <c r="EN29" s="5">
         <v>2.3563691575007687E-12</v>
       </c>
-      <c r="EO29" s="1">
+      <c r="EO29" s="5">
         <v>1.6300003692096134E-10</v>
       </c>
-      <c r="EP29" s="1">
+      <c r="EP29" s="5">
         <v>1.2805610879474261E-13</v>
       </c>
-      <c r="EQ29" s="1">
+      <c r="EQ29" s="5">
         <v>8.2872705519531254E-19</v>
       </c>
-      <c r="ER29" s="1">
+      <c r="ER29" s="5">
         <v>2.0736957320812142E-13</v>
       </c>
-      <c r="ES29" s="1">
+      <c r="ES29" s="5">
         <v>1.3420115378126117E-18</v>
       </c>
-      <c r="ET29" s="1">
+      <c r="ET29" s="5">
         <v>1.6444428192611274E-11</v>
       </c>
-      <c r="EU29" s="1">
+      <c r="EU29" s="5">
         <v>3.6658320350876282E-12</v>
       </c>
-      <c r="EV29" s="1">
+      <c r="EV29" s="5">
         <v>2.6388507399413875E-12</v>
       </c>
-      <c r="EW29" s="1">
+      <c r="EW29" s="5">
         <v>1.8254048182900567E-10</v>
       </c>
-      <c r="EX29" s="1">
+      <c r="EX29" s="5">
         <v>5.3485780819518847E-12</v>
       </c>
-      <c r="EY29" s="1">
+      <c r="EY29" s="5">
         <v>1.3570090706011348E-16</v>
       </c>
-      <c r="EZ29" s="1">
+      <c r="EZ29" s="5">
         <v>5.3200539002218108E-16</v>
       </c>
-      <c r="FA29" s="1">
+      <c r="FA29" s="5">
         <v>1.3497721295815605E-20</v>
       </c>
-      <c r="FB29" s="1">
+      <c r="FB29" s="5">
         <v>1.6539386100712092E-13</v>
       </c>
-      <c r="FC29" s="1">
+      <c r="FC29" s="5">
         <v>9.2613331907678567E-11</v>
       </c>
-      <c r="FD29" s="1">
+      <c r="FD29" s="5">
         <v>1.0566111169675631E-10</v>
       </c>
-      <c r="FE29" s="1">
+      <c r="FE29" s="5">
         <v>1.8359455447321882E-12</v>
       </c>
-      <c r="FF29" s="1">
+      <c r="FF29" s="5">
         <v>4.5397992764413847E-13</v>
       </c>
-      <c r="FG29" s="1">
+      <c r="FG29" s="5">
         <v>1.1518106642639388E-17</v>
       </c>
-      <c r="FH29" s="1">
+      <c r="FH29" s="5">
         <v>5.285035853270785E-14</v>
       </c>
-      <c r="FI29" s="1">
+      <c r="FI29" s="5">
         <v>1.3408876223146079E-18</v>
       </c>
-      <c r="FJ29" s="1">
+      <c r="FJ29" s="5">
         <v>1.6430696640077479E-11</v>
       </c>
-      <c r="FK29" s="1">
+      <c r="FK29" s="5">
         <v>3.6627711303285549E-12</v>
       </c>
-      <c r="FL29" s="1">
+      <c r="FL29" s="5">
         <v>2.6366472614077239E-12</v>
       </c>
-      <c r="FM29" s="1">
+      <c r="FM29" s="5">
         <v>1.8238806505196079E-10</v>
       </c>
-      <c r="FN29" s="1">
+      <c r="FN29" s="5">
         <v>2.3516025047700657E-15</v>
       </c>
-      <c r="FO29" s="1">
+      <c r="FO29" s="5">
         <v>5.9663448696007673E-20</v>
       </c>
-      <c r="FP29" s="1">
+      <c r="FP29" s="5">
         <v>5.2971508257399621E-14</v>
       </c>
-      <c r="FQ29" s="1">
+      <c r="FQ29" s="5">
         <v>1.3439613138699221E-18</v>
       </c>
-      <c r="FR29" s="1">
+      <c r="FR29" s="5">
         <v>1.6466865429398182E-11</v>
       </c>
-      <c r="FS29" s="1">
+      <c r="FS29" s="5">
         <v>3.6708338017560352E-12</v>
       </c>
-      <c r="FT29" s="1">
+      <c r="FT29" s="5">
         <v>2.6424514298659666E-12</v>
       </c>
-      <c r="FU29" s="1">
+      <c r="FU29" s="5">
         <v>1.827895524377416E-10</v>
       </c>
-      <c r="FV29" s="1">
+      <c r="FV29" s="5">
         <v>1.6020811825272984E-12</v>
       </c>
-      <c r="FW29" s="1">
+      <c r="FW29" s="5">
         <v>1.5935372880509006E-16</v>
       </c>
-      <c r="FX29" s="1">
+      <c r="FX29" s="5">
         <v>1.3407951344060765E-14</v>
       </c>
-      <c r="FY29" s="1">
+      <c r="FY29" s="5">
         <v>1.3336447229357353E-18</v>
       </c>
-      <c r="FZ29" s="1">
+      <c r="FZ29" s="5">
         <v>1.6341879015607991E-11</v>
       </c>
-      <c r="GA29" s="1">
+      <c r="GA29" s="5">
         <v>3.6429707463488803E-12</v>
       </c>
-      <c r="GB29" s="1">
+      <c r="GB29" s="5">
         <v>2.6223943409781808E-12</v>
       </c>
-      <c r="GC29" s="1">
+      <c r="GC29" s="5">
         <v>1.8140211447797772E-10</v>
       </c>
-      <c r="GD29" s="1">
+      <c r="GD29" s="5">
         <v>8.3419618112701836E-15</v>
       </c>
-      <c r="GE29" s="1">
+      <c r="GE29" s="5">
         <v>8.2974732720207206E-19</v>
       </c>
-      <c r="GF29" s="1">
+      <c r="GF29" s="5">
         <v>1.3508680541777655E-14</v>
       </c>
-      <c r="GG29" s="1">
+      <c r="GG29" s="5">
         <v>1.3436638068263327E-18</v>
       </c>
-      <c r="GH29" s="1">
+      <c r="GH29" s="5">
         <v>1.6469546620077055E-11</v>
       </c>
-      <c r="GI29" s="1">
+      <c r="GI29" s="5">
         <v>3.6714315672152243E-12</v>
       </c>
-      <c r="GJ29" s="1">
+      <c r="GJ29" s="5">
         <v>2.6428816209077261E-12</v>
       </c>
-      <c r="GK29" s="1">
+      <c r="GK29" s="5">
         <v>1.8281931110769164E-10</v>
       </c>
-      <c r="GL29" s="1">
+      <c r="GL29" s="5">
         <v>1.2285904335564512E-15</v>
       </c>
-      <c r="GM29" s="1">
+      <c r="GM29" s="5">
         <v>5.761986329290864E-15</v>
       </c>
-      <c r="GN29" s="1">
+      <c r="GN29" s="5">
         <v>8.1045036158490181E-9</v>
       </c>
-      <c r="GO29" s="1">
+      <c r="GO29" s="5">
         <v>1.465439417260212E-8</v>
       </c>
-      <c r="GP29" s="1">
+      <c r="GP29" s="5">
         <v>1.2589371950769579E-8</v>
       </c>
-      <c r="GQ29" s="1">
+      <c r="GQ29" s="5">
         <v>6.1444013555786847E-10</v>
       </c>
-      <c r="GR29" s="1">
+      <c r="GR29" s="5">
         <v>2.6879581485394287E-11</v>
       </c>
-      <c r="GS29" s="1">
+      <c r="GS29" s="5">
         <v>1.454670593189746E-11</v>
       </c>
-      <c r="GT29" s="1">
+      <c r="GT29" s="5">
         <v>2.0449599090085968E-13</v>
       </c>
-      <c r="GU29" s="1">
+      <c r="GU29" s="5">
         <v>1.7146249749331977E-19</v>
       </c>
-      <c r="GV29" s="1">
+      <c r="GV29" s="5">
         <v>1.4858771288998372E-14</v>
       </c>
-      <c r="GW29" s="1">
+      <c r="GW29" s="5">
         <v>1.273474470513348E-8</v>
       </c>
-      <c r="GX29" s="1">
+      <c r="GX29" s="5">
         <v>2.4250379012082899E-16</v>
       </c>
-      <c r="GY29" s="1">
+      <c r="GY29" s="5">
         <v>2.3051872164631078E-16</v>
       </c>
-      <c r="GZ29" s="1">
+      <c r="GZ29" s="5">
         <v>1.2908041300763501E-11</v>
       </c>
-      <c r="HA29" s="1">
+      <c r="HA29" s="5">
         <v>2.3340048671989299E-11</v>
       </c>
-      <c r="HB29" s="1">
+      <c r="HB29" s="5">
         <v>6.3972929218590278E-15</v>
       </c>
-      <c r="HC29" s="1">
+      <c r="HC29" s="5">
         <v>1.2315829874480467E-8</v>
       </c>
-      <c r="HD29" s="1">
+      <c r="HD29" s="5">
         <v>3.044565334133935E-15</v>
       </c>
-      <c r="HE29" s="1">
+      <c r="HE29" s="5">
         <v>2.894095815446277E-15</v>
       </c>
-      <c r="HF29" s="1">
+      <c r="HF29" s="5">
         <v>1.6205673664671331E-10</v>
       </c>
-      <c r="HG29" s="1">
+      <c r="HG29" s="5">
         <v>2.9302757993358458E-10</v>
       </c>
-      <c r="HH29" s="1">
+      <c r="HH29" s="5">
         <v>8.031617255578511E-14</v>
       </c>
-      <c r="HI29" s="1">
+      <c r="HI29" s="5">
         <v>8.6303264191096291E-9</v>
       </c>
-      <c r="HJ29" s="1">
+      <c r="HJ29" s="5">
         <v>2.7696318802845022E-14</v>
       </c>
-      <c r="HK29" s="1">
+      <c r="HK29" s="5">
         <v>2.6327505107974902E-14</v>
       </c>
-      <c r="HL29" s="1">
+      <c r="HL29" s="5">
         <v>1.4742252909250986E-9</v>
       </c>
-      <c r="HM29" s="1">
+      <c r="HM29" s="5">
         <v>2.6656632323187446E-9</v>
       </c>
-      <c r="HN29" s="1">
+      <c r="HN29" s="5">
         <v>7.3063381930963744E-13</v>
       </c>
-      <c r="HO29" s="1">
+      <c r="HO29" s="5">
         <v>1.7667799420649589E-9</v>
       </c>
-      <c r="HP29" s="1">
+      <c r="HP29" s="5">
         <v>7.3605546538415373E-14</v>
       </c>
-      <c r="HQ29" s="1">
+      <c r="HQ29" s="5">
         <v>6.9967770054545896E-14</v>
       </c>
-      <c r="HR29" s="1">
+      <c r="HR29" s="5">
         <v>3.9178897499089898E-9</v>
       </c>
-      <c r="HS29" s="1">
+      <c r="HS29" s="5">
         <v>7.0842454620206073E-9</v>
       </c>
-      <c r="HT29" s="1">
+      <c r="HT29" s="5">
         <v>1.9417265922493598E-12</v>
       </c>
-      <c r="HU29" s="1">
+      <c r="HU29" s="5">
         <v>6.3580419459984078E-9</v>
       </c>
-      <c r="HV29" s="1">
+      <c r="HV29" s="5">
         <v>2.3607593769036895E-11</v>
       </c>
-      <c r="HW29" s="1">
+      <c r="HW29" s="5">
         <v>9.6169963397120553E-14</v>
       </c>
-      <c r="HX29" s="1">
+      <c r="HX29" s="5">
         <v>3.8653935820459337E-13</v>
       </c>
-      <c r="HY29" s="1">
+      <c r="HY29" s="5">
         <v>6.9893239270363278E-13</v>
       </c>
-      <c r="HZ29" s="1">
+      <c r="HZ29" s="5">
         <v>2.6688829371274851E-12</v>
       </c>
-      <c r="IA29" s="1">
+      <c r="IA29" s="5">
         <v>4.9165474978724211E-9</v>
       </c>
-      <c r="IB29" s="1">
+      <c r="IB29" s="5">
         <v>1.262957506771622E-9</v>
       </c>
-      <c r="IC29" s="1">
+      <c r="IC29" s="5">
         <v>5.1448941008751303E-12</v>
       </c>
-      <c r="ID29" s="1">
+      <c r="ID29" s="5">
         <v>2.0679056255378105E-11</v>
       </c>
-      <c r="IE29" s="1">
+      <c r="IE29" s="5">
         <v>3.7391438085412941E-11</v>
       </c>
-      <c r="IF29" s="1">
+      <c r="IF29" s="5">
         <v>1.4277970108450751E-10</v>
       </c>
-      <c r="IG29" s="1">
+      <c r="IG29" s="5">
         <v>2.9466535673976164E-10</v>
       </c>
-      <c r="IH29" s="1">
+      <c r="IH29" s="5">
         <v>5.2367011399019618E-9</v>
       </c>
-      <c r="II29" s="1">
+      <c r="II29" s="5">
         <v>2.1332683063194269E-11</v>
       </c>
-      <c r="IJ29" s="1">
+      <c r="IJ29" s="5">
         <v>8.5743213580472566E-11</v>
       </c>
-      <c r="IK29" s="1">
+      <c r="IK29" s="5">
         <v>1.5503906982264432E-10</v>
       </c>
-      <c r="IL29" s="1">
+      <c r="IL29" s="5">
         <v>5.9201881870104055E-10</v>
       </c>
-      <c r="IM29" s="1">
+      <c r="IM29" s="5">
         <v>4.4619916279082929E-12</v>
       </c>
-      <c r="IN29" s="1">
+      <c r="IN29" s="5">
         <v>5.4862081955225289E-9</v>
       </c>
-      <c r="IO29" s="1">
+      <c r="IO29" s="5">
         <v>2.2349099362301188E-11</v>
       </c>
-      <c r="IP29" s="1">
+      <c r="IP29" s="5">
         <v>8.98285238631534E-11</v>
       </c>
-      <c r="IQ29" s="1">
+      <c r="IQ29" s="5">
         <v>1.6242606426827269E-10</v>
       </c>
-      <c r="IR29" s="1">
+      <c r="IR29" s="5">
         <v>6.2022615031401767E-10</v>
       </c>
-      <c r="IS29" s="1">
+      <c r="IS29" s="5">
         <v>2.1092795965064563E-9</v>
       </c>
-      <c r="IT29" s="1">
+      <c r="IT29" s="5">
         <v>4.0166357473770594E-17</v>
       </c>
-      <c r="IU29" s="1">
+      <c r="IU29" s="5">
         <v>5.2142972011607864E-16</v>
       </c>
-      <c r="IV29" s="1">
+      <c r="IV29" s="5">
         <v>9.9294246251571759E-24</v>
       </c>
+      <c r="IW29" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="30" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>264</v>
       </c>
@@ -21435,7 +21915,7 @@
         <v>3.9500799858372327E-19</v>
       </c>
     </row>
-    <row r="31" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>264</v>
       </c>
@@ -22205,7 +22685,7 @@
         <v>3.994434377120927E-19</v>
       </c>
     </row>
-    <row r="32" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>264</v>
       </c>
@@ -22975,7 +23455,7 @@
         <v>4.0552321732608335E-19</v>
       </c>
     </row>
-    <row r="33" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>264</v>
       </c>
@@ -23745,7 +24225,7 @@
         <v>4.1231110282185875E-19</v>
       </c>
     </row>
-    <row r="34" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>264</v>
       </c>
@@ -24515,7 +24995,7 @@
         <v>4.1990994855785267E-19</v>
       </c>
     </row>
-    <row r="35" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>264</v>
       </c>
@@ -25285,7 +25765,7 @@
         <v>4.2835419686086982E-19</v>
       </c>
     </row>
-    <row r="36" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>264</v>
       </c>
@@ -26055,7 +26535,7 @@
         <v>5.171114231812254E-19</v>
       </c>
     </row>
-    <row r="37" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -26825,7 +27305,7 @@
         <v>5.1413349116194248E-19</v>
       </c>
     </row>
-    <row r="38" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>264</v>
       </c>
@@ -27595,7 +28075,7 @@
         <v>4.9071306340126693E-19</v>
       </c>
     </row>
-    <row r="39" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>264</v>
       </c>
@@ -28365,7 +28845,7 @@
         <v>4.3508843976189625E-19</v>
       </c>
     </row>
-    <row r="40" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>264</v>
       </c>
@@ -29135,7 +29615,7 @@
         <v>3.8456633163702667E-19</v>
       </c>
     </row>
-    <row r="41" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>264</v>
       </c>
@@ -29905,7 +30385,7 @@
         <v>3.1817180508573364E-19</v>
       </c>
     </row>
-    <row r="42" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>264</v>
       </c>
@@ -30675,7 +31155,7 @@
         <v>1.996560834785507E-19</v>
       </c>
     </row>
-    <row r="43" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>264</v>
       </c>
@@ -31445,777 +31925,780 @@
         <v>4.1798004839487103E-20</v>
       </c>
     </row>
-    <row r="44" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:257" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="5">
         <v>2.7586775530608065E-8</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
         <v>1.2429219112264356E-11</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="5">
         <v>2.0000000949949026E-2</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="5">
         <v>2.3916258214740083E-5</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="5">
         <v>4.0370006900047883E-5</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="5">
         <v>1.2746734137181193E-4</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="5">
         <v>6.2212061493482906E-6</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="5">
         <v>1.0493661829968914E-4</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="5">
         <v>7.1051485974749085E-6</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="5">
         <v>2.0536432998596865E-7</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="5">
         <v>1.3003224168321525E-26</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="5">
         <v>4.1634557032020687E-10</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="5">
         <v>8.2492907605201513E-14</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="5">
         <v>6.6847619265036058E-15</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="5">
         <v>2.5157402826645265E-11</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="5">
         <v>4.2465025949293997E-11</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44" s="5">
         <v>2.575044112815917E-12</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44" s="5">
         <v>4.7367728212484909E-11</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U44" s="5">
         <v>1.3580886297859251E-4</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V44" s="5">
         <v>9.1379106379463337E-6</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W44" s="5">
         <v>2.5872288627556507E-20</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X44" s="5">
         <v>6.79413601070309E-21</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Y44" s="5">
         <v>5.5910884810828065E-8</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="Z44" s="5">
         <v>5.5496740536398192E-9</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AA44" s="5">
         <v>6.2346583717953763E-7</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AB44" s="5">
         <v>3.2412593498065689E-8</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AC44" s="5">
         <v>5.4331792398443213E-9</v>
       </c>
-      <c r="AD44" s="1">
+      <c r="AD44" s="5">
         <v>3.7400090491246374E-7</v>
       </c>
-      <c r="AE44" s="1">
+      <c r="AE44" s="5">
         <v>5.8377642997431423E-12</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AF44" s="5">
         <v>1.8991684852358304E-13</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AG44" s="5">
         <v>2.1722951399922447E-13</v>
       </c>
-      <c r="AH44" s="1">
+      <c r="AH44" s="5">
         <v>1.1834130030086154E-11</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AI44" s="5">
         <v>3.5946913611170032E-15</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AJ44" s="5">
         <v>1.8301479578832104E-16</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AK44" s="5">
         <v>2.4201231296760994E-11</v>
       </c>
-      <c r="AL44" s="1">
+      <c r="AL44" s="5">
         <v>1.6711598505025904E-7</v>
       </c>
-      <c r="AM44" s="1">
+      <c r="AM44" s="5">
         <v>9.1016590602813114E-11</v>
       </c>
-      <c r="AN44" s="1">
+      <c r="AN44" s="5">
         <v>2.3317714194740238E-13</v>
       </c>
-      <c r="AO44" s="1">
+      <c r="AO44" s="5">
         <v>4.4867859290682828E-7</v>
       </c>
-      <c r="AP44" s="1">
+      <c r="AP44" s="5">
         <v>7.5735754031696679E-7</v>
       </c>
-      <c r="AQ44" s="1">
+      <c r="AQ44" s="5">
         <v>4.2055086453445439E-7</v>
       </c>
-      <c r="AR44" s="1">
+      <c r="AR44" s="5">
         <v>2.0525522841760479E-8</v>
       </c>
-      <c r="AS44" s="1">
+      <c r="AS44" s="5">
         <v>1.8446585281660024E-10</v>
       </c>
-      <c r="AT44" s="1">
+      <c r="AT44" s="5">
         <v>1.0693833271014587E-10</v>
       </c>
-      <c r="AU44" s="1">
+      <c r="AU44" s="5">
         <v>1.9260438927093666E-14</v>
       </c>
-      <c r="AV44" s="1">
+      <c r="AV44" s="5">
         <v>6.038176475622037E-19</v>
       </c>
-      <c r="AW44" s="1">
+      <c r="AW44" s="5">
         <v>7.984671738707558E-14</v>
       </c>
-      <c r="AX44" s="1">
+      <c r="AX44" s="5">
         <v>7.8098810733757415E-7</v>
       </c>
-      <c r="AY44" s="1">
+      <c r="AY44" s="5">
         <v>9.8205631448521908E-10</v>
       </c>
-      <c r="AZ44" s="1">
+      <c r="AZ44" s="5">
         <v>4.5097841493836654E-13</v>
       </c>
-      <c r="BA44" s="1">
+      <c r="BA44" s="5">
         <v>1.7314307937542594E-8</v>
       </c>
-      <c r="BB44" s="1">
+      <c r="BB44" s="5">
         <v>2.321511348089737E-8</v>
       </c>
-      <c r="BC44" s="1">
+      <c r="BC44" s="5">
         <v>6.5717634111256606E-15</v>
       </c>
-      <c r="BD44" s="1">
+      <c r="BD44" s="5">
         <v>6.8066176672715132E-7</v>
       </c>
-      <c r="BE44" s="1">
+      <c r="BE44" s="5">
         <v>3.3554950816653667E-9</v>
       </c>
-      <c r="BF44" s="1">
+      <c r="BF44" s="5">
         <v>1.5409056985081455E-12</v>
       </c>
-      <c r="BG44" s="1">
+      <c r="BG44" s="5">
         <v>5.915963182774473E-8</v>
       </c>
-      <c r="BH44" s="1">
+      <c r="BH44" s="5">
         <v>7.9321533250993121E-8</v>
       </c>
-      <c r="BI44" s="1">
+      <c r="BI44" s="5">
         <v>2.2454440416090456E-14</v>
       </c>
-      <c r="BJ44" s="1">
+      <c r="BJ44" s="5">
         <v>4.5268188572842505E-7</v>
       </c>
-      <c r="BK44" s="1">
+      <c r="BK44" s="5">
         <v>8.7488623594085089E-9</v>
       </c>
-      <c r="BL44" s="1">
+      <c r="BL44" s="5">
         <v>4.0176401892935985E-12</v>
       </c>
-      <c r="BM44" s="1">
+      <c r="BM44" s="5">
         <v>1.5424828603087199E-7</v>
       </c>
-      <c r="BN44" s="1">
+      <c r="BN44" s="5">
         <v>2.0681689311532401E-7</v>
       </c>
-      <c r="BO44" s="1">
+      <c r="BO44" s="5">
         <v>5.8545990283219306E-14</v>
       </c>
-      <c r="BP44" s="1">
+      <c r="BP44" s="5">
         <v>1.957033895328023E-7</v>
       </c>
-      <c r="BQ44" s="1">
+      <c r="BQ44" s="5">
         <v>1.4828255792341539E-8</v>
       </c>
-      <c r="BR44" s="1">
+      <c r="BR44" s="5">
         <v>6.8094098041532113E-12</v>
       </c>
-      <c r="BS44" s="1">
+      <c r="BS44" s="5">
         <v>2.6143203799895319E-7</v>
       </c>
-      <c r="BT44" s="1">
+      <c r="BT44" s="5">
         <v>3.5052943194936978E-7</v>
       </c>
-      <c r="BU44" s="1">
+      <c r="BU44" s="5">
         <v>9.9228317779393833E-14</v>
       </c>
-      <c r="BV44" s="1">
+      <c r="BV44" s="5">
         <v>5.5121857408445434E-8</v>
       </c>
-      <c r="BW44" s="1">
+      <c r="BW44" s="5">
         <v>3.51411266939939E-7</v>
       </c>
-      <c r="BX44" s="1">
+      <c r="BX44" s="5">
         <v>1.6137456582566749E-10</v>
       </c>
-      <c r="BY44" s="1">
+      <c r="BY44" s="5">
         <v>2.4665167791784972E-9</v>
       </c>
-      <c r="BZ44" s="1">
+      <c r="BZ44" s="5">
         <v>2.0866540207620477E-9</v>
       </c>
-      <c r="CA44" s="1">
+      <c r="CA44" s="5">
         <v>2.3515881471041289E-12</v>
       </c>
-      <c r="CB44" s="1">
+      <c r="CB44" s="5">
         <v>4.5256876606510993E-9</v>
       </c>
-      <c r="CC44" s="1">
+      <c r="CC44" s="5">
         <v>4.0133728697187419E-7</v>
       </c>
-      <c r="CD44" s="1">
+      <c r="CD44" s="5">
         <v>1.8430150726086273E-10</v>
       </c>
-      <c r="CE44" s="1">
+      <c r="CE44" s="5">
         <v>2.8169419211844505E-9</v>
       </c>
-      <c r="CF44" s="1">
+      <c r="CF44" s="5">
         <v>2.3831108814698171E-9</v>
       </c>
-      <c r="CG44" s="1">
+      <c r="CG44" s="5">
         <v>2.6856849132380623E-12</v>
       </c>
-      <c r="CH44" s="1">
+      <c r="CH44" s="5">
         <v>3.2871497922807852E-10</v>
       </c>
-      <c r="CI44" s="1">
+      <c r="CI44" s="5">
         <v>4.0547865874740817E-7</v>
       </c>
-      <c r="CJ44" s="1">
+      <c r="CJ44" s="5">
         <v>1.8620331761601992E-10</v>
       </c>
-      <c r="CK44" s="1">
+      <c r="CK44" s="5">
         <v>2.8460100553548019E-9</v>
       </c>
-      <c r="CL44" s="1">
+      <c r="CL44" s="5">
         <v>2.4077022551317319E-9</v>
       </c>
-      <c r="CM44" s="1">
+      <c r="CM44" s="5">
         <v>2.7133985237396862E-12</v>
       </c>
-      <c r="CN44" s="1">
+      <c r="CN44" s="5">
         <v>2.3655632352415167E-11</v>
       </c>
-      <c r="CO44" s="1">
+      <c r="CO44" s="5">
         <v>4.0577967114991514E-7</v>
       </c>
-      <c r="CP44" s="1">
+      <c r="CP44" s="5">
         <v>1.863415608172556E-10</v>
       </c>
-      <c r="CQ44" s="1">
+      <c r="CQ44" s="5">
         <v>2.8481230390210572E-9</v>
       </c>
-      <c r="CR44" s="1">
+      <c r="CR44" s="5">
         <v>2.4094898670529736E-9</v>
       </c>
-      <c r="CS44" s="1">
+      <c r="CS44" s="5">
         <v>2.7154129124912444E-12</v>
       </c>
-      <c r="CT44" s="1">
+      <c r="CT44" s="5">
         <v>1.7740733404055913E-7</v>
       </c>
-      <c r="CU44" s="1">
+      <c r="CU44" s="5">
         <v>2.2308148858448905E-10</v>
       </c>
-      <c r="CV44" s="1">
+      <c r="CV44" s="5">
         <v>8.7457446871818114E-10</v>
       </c>
-      <c r="CW44" s="1">
+      <c r="CW44" s="5">
         <v>1.0997368139557378E-12</v>
       </c>
-      <c r="CX44" s="1">
+      <c r="CX44" s="5">
         <v>1.7132323041294872E-11</v>
       </c>
-      <c r="CY44" s="1">
+      <c r="CY44" s="5">
         <v>1.3123980066108472E-8</v>
       </c>
-      <c r="CZ44" s="1">
+      <c r="CZ44" s="5">
         <v>1.3977559983653971E-8</v>
       </c>
-      <c r="DA44" s="1">
+      <c r="DA44" s="5">
         <v>2.4965625198355268E-13</v>
       </c>
-      <c r="DB44" s="1">
+      <c r="DB44" s="5">
         <v>6.0008850841749344E-8</v>
       </c>
-      <c r="DC44" s="1">
+      <c r="DC44" s="5">
         <v>7.5458344189953501E-11</v>
       </c>
-      <c r="DD44" s="1">
+      <c r="DD44" s="5">
         <v>4.5468120263979792E-9</v>
       </c>
-      <c r="DE44" s="1">
+      <c r="DE44" s="5">
         <v>5.717405325799843E-12</v>
       </c>
-      <c r="DF44" s="1">
+      <c r="DF44" s="5">
         <v>8.9068987530516628E-11</v>
       </c>
-      <c r="DG44" s="1">
+      <c r="DG44" s="5">
         <v>6.823007021307332E-8</v>
       </c>
-      <c r="DH44" s="1">
+      <c r="DH44" s="5">
         <v>7.2667735180402471E-8</v>
       </c>
-      <c r="DI44" s="1">
+      <c r="DI44" s="5">
         <v>1.2979342662068265E-12</v>
       </c>
-      <c r="DJ44" s="1">
+      <c r="DJ44" s="5">
         <v>2.2243944056651323E-9</v>
       </c>
-      <c r="DK44" s="1">
+      <c r="DK44" s="5">
         <v>2.7970726666178402E-12</v>
       </c>
-      <c r="DL44" s="1">
+      <c r="DL44" s="5">
         <v>1.9725895491143183E-7</v>
       </c>
-      <c r="DM44" s="1">
+      <c r="DM44" s="5">
         <v>2.4804397962676293E-10</v>
       </c>
-      <c r="DN44" s="1">
+      <c r="DN44" s="5">
         <v>3.8641698682135008E-9</v>
       </c>
-      <c r="DO44" s="1">
+      <c r="DO44" s="5">
         <v>1.1784338189886738E-9</v>
       </c>
-      <c r="DP44" s="1">
+      <c r="DP44" s="5">
         <v>7.9190241772840627E-10</v>
       </c>
-      <c r="DQ44" s="1">
+      <c r="DQ44" s="5">
         <v>5.6309590777993371E-11</v>
       </c>
-      <c r="DR44" s="1">
+      <c r="DR44" s="5">
         <v>1.1624815496636915E-11</v>
       </c>
-      <c r="DS44" s="1">
+      <c r="DS44" s="5">
         <v>1.4617665221686312E-14</v>
       </c>
-      <c r="DT44" s="1">
+      <c r="DT44" s="5">
         <v>1.9940763928981587E-7</v>
       </c>
-      <c r="DU44" s="1">
+      <c r="DU44" s="5">
         <v>2.5074585051303035E-10</v>
       </c>
-      <c r="DV44" s="1">
+      <c r="DV44" s="5">
         <v>3.9062612850107868E-9</v>
       </c>
-      <c r="DW44" s="1">
+      <c r="DW44" s="5">
         <v>1.1912703141323599E-9</v>
       </c>
-      <c r="DX44" s="1">
+      <c r="DX44" s="5">
         <v>8.0052852063708949E-10</v>
       </c>
-      <c r="DY44" s="1">
+      <c r="DY44" s="5">
         <v>5.6922963271058227E-11</v>
       </c>
-      <c r="DZ44" s="1">
+      <c r="DZ44" s="5">
         <v>6.094744942898833E-8</v>
       </c>
-      <c r="EA44" s="1">
+      <c r="EA44" s="5">
         <v>3.0045594206026943E-10</v>
       </c>
-      <c r="EB44" s="1">
+      <c r="EB44" s="5">
         <v>1.1779151672283849E-9</v>
       </c>
-      <c r="EC44" s="1">
+      <c r="EC44" s="5">
         <v>5.80683171350345E-12</v>
       </c>
-      <c r="ED44" s="1">
+      <c r="ED44" s="5">
         <v>9.0462120316982279E-11</v>
       </c>
-      <c r="EE44" s="1">
+      <c r="EE44" s="5">
         <v>6.9297249518949126E-8</v>
       </c>
-      <c r="EF44" s="1">
+      <c r="EF44" s="5">
         <v>7.380433440117247E-8</v>
       </c>
-      <c r="EG44" s="1">
+      <c r="EG44" s="5">
         <v>1.3182353613101625E-12</v>
       </c>
-      <c r="EH44" s="1">
+      <c r="EH44" s="5">
         <v>2.5205581767487057E-8</v>
       </c>
-      <c r="EI44" s="1">
+      <c r="EI44" s="5">
         <v>1.2425732331814706E-10</v>
       </c>
-      <c r="EJ44" s="1">
+      <c r="EJ44" s="5">
         <v>1.6068989450494271E-7</v>
       </c>
-      <c r="EK44" s="1">
+      <c r="EK44" s="5">
         <v>7.9216163765288261E-10</v>
       </c>
-      <c r="EL44" s="1">
+      <c r="EL44" s="5">
         <v>1.2340744110118057E-8</v>
       </c>
-      <c r="EM44" s="1">
+      <c r="EM44" s="5">
         <v>3.7634865262082813E-9</v>
       </c>
-      <c r="EN44" s="1">
+      <c r="EN44" s="5">
         <v>2.5290465892584714E-9</v>
       </c>
-      <c r="EO44" s="1">
+      <c r="EO44" s="5">
         <v>1.7983222166236146E-10</v>
       </c>
-      <c r="EP44" s="1">
+      <c r="EP44" s="5">
         <v>1.4846246704847152E-10</v>
       </c>
-      <c r="EQ44" s="1">
+      <c r="EQ44" s="5">
         <v>7.3188346326433184E-13</v>
       </c>
-      <c r="ER44" s="1">
+      <c r="ER44" s="5">
         <v>1.8313240364192144E-7</v>
       </c>
-      <c r="ES44" s="1">
+      <c r="ES44" s="5">
         <v>9.0279773275935256E-10</v>
       </c>
-      <c r="ET44" s="1">
+      <c r="ET44" s="5">
         <v>1.4064293950008189E-8</v>
       </c>
-      <c r="EU44" s="1">
+      <c r="EU44" s="5">
         <v>4.2891076409381156E-9</v>
       </c>
-      <c r="EV44" s="1">
+      <c r="EV44" s="5">
         <v>2.8822616063946252E-9</v>
       </c>
-      <c r="EW44" s="1">
+      <c r="EW44" s="5">
         <v>2.0494818905100484E-10</v>
       </c>
-      <c r="EX44" s="1">
+      <c r="EX44" s="5">
         <v>5.5265022229964058E-9</v>
       </c>
-      <c r="EY44" s="1">
+      <c r="EY44" s="5">
         <v>1.0680923862464105E-10</v>
       </c>
-      <c r="EZ44" s="1">
+      <c r="EZ44" s="5">
         <v>4.1873770699566004E-10</v>
       </c>
-      <c r="FA44" s="1">
+      <c r="FA44" s="5">
         <v>8.0928320638446297E-12</v>
       </c>
-      <c r="FB44" s="1">
+      <c r="FB44" s="5">
         <v>1.2607468734961381E-10</v>
       </c>
-      <c r="FC44" s="1">
+      <c r="FC44" s="5">
         <v>9.6577777225027238E-8</v>
       </c>
-      <c r="FD44" s="1">
+      <c r="FD44" s="5">
         <v>1.0285916266340487E-7</v>
       </c>
-      <c r="FE44" s="1">
+      <c r="FE44" s="5">
         <v>1.8371899319618842E-12</v>
       </c>
-      <c r="FF44" s="1">
+      <c r="FF44" s="5">
         <v>1.5563925324148567E-9</v>
       </c>
-      <c r="FG44" s="1">
+      <c r="FG44" s="5">
         <v>3.0079983394608603E-11</v>
       </c>
-      <c r="FH44" s="1">
+      <c r="FH44" s="5">
         <v>1.3802064556965861E-7</v>
       </c>
-      <c r="FI44" s="1">
+      <c r="FI44" s="5">
         <v>2.6674884002980528E-9</v>
       </c>
-      <c r="FJ44" s="1">
+      <c r="FJ44" s="5">
         <v>4.1555647994939189E-8</v>
       </c>
-      <c r="FK44" s="1">
+      <c r="FK44" s="5">
         <v>1.2672988906919401E-8</v>
       </c>
-      <c r="FL44" s="1">
+      <c r="FL44" s="5">
         <v>8.5161941067323823E-9</v>
       </c>
-      <c r="FM44" s="1">
+      <c r="FM44" s="5">
         <v>6.0555871107198675E-10</v>
       </c>
-      <c r="FN44" s="1">
+      <c r="FN44" s="5">
         <v>8.1083902033781051E-12</v>
       </c>
-      <c r="FO44" s="1">
+      <c r="FO44" s="5">
         <v>1.567086974832883E-13</v>
       </c>
-      <c r="FP44" s="1">
+      <c r="FP44" s="5">
         <v>1.3908822233351742E-7</v>
       </c>
-      <c r="FQ44" s="1">
+      <c r="FQ44" s="5">
         <v>2.688121147434216E-9</v>
       </c>
-      <c r="FR44" s="1">
+      <c r="FR44" s="5">
         <v>4.1877074351749095E-8</v>
       </c>
-      <c r="FS44" s="1">
+      <c r="FS44" s="5">
         <v>1.2771012431542951E-8</v>
       </c>
-      <c r="FT44" s="1">
+      <c r="FT44" s="5">
         <v>8.582065173131696E-9</v>
       </c>
-      <c r="FU44" s="1">
+      <c r="FU44" s="5">
         <v>6.1024266585201209E-10</v>
       </c>
-      <c r="FV44" s="1">
+      <c r="FV44" s="5">
         <v>1.0596085451765922E-8</v>
       </c>
-      <c r="FW44" s="1">
+      <c r="FW44" s="5">
         <v>8.0285512891337354E-10</v>
       </c>
-      <c r="FX44" s="1">
+      <c r="FX44" s="5">
         <v>6.7551858864897398E-8</v>
       </c>
-      <c r="FY44" s="1">
+      <c r="FY44" s="5">
         <v>5.1183387965142398E-9</v>
       </c>
-      <c r="FZ44" s="1">
+      <c r="FZ44" s="5">
         <v>7.973640837385937E-8</v>
       </c>
-      <c r="GA44" s="1">
+      <c r="GA44" s="5">
         <v>2.431675899962862E-8</v>
       </c>
-      <c r="GB44" s="1">
+      <c r="GB44" s="5">
         <v>1.6340755658693145E-8</v>
       </c>
-      <c r="GC44" s="1">
+      <c r="GC44" s="5">
         <v>1.161937630678065E-9</v>
       </c>
-      <c r="GD44" s="1">
+      <c r="GD44" s="5">
         <v>5.7959624851349792E-11</v>
       </c>
-      <c r="GE44" s="1">
+      <c r="GE44" s="5">
         <v>4.391544833967316E-12</v>
       </c>
-      <c r="GF44" s="1">
+      <c r="GF44" s="5">
         <v>7.1494741395374339E-8</v>
       </c>
-      <c r="GG44" s="1">
+      <c r="GG44" s="5">
         <v>5.4170868650895116E-9</v>
       </c>
-      <c r="GH44" s="1">
+      <c r="GH44" s="5">
         <v>8.4390460330912166E-8</v>
       </c>
-      <c r="GI44" s="1">
+      <c r="GI44" s="5">
         <v>2.5736076480862534E-8</v>
       </c>
-      <c r="GJ44" s="1">
+      <c r="GJ44" s="5">
         <v>1.7294531883807931E-8</v>
       </c>
-      <c r="GK44" s="1">
+      <c r="GK44" s="5">
         <v>1.2297576306290097E-9</v>
       </c>
-      <c r="GL44" s="1">
+      <c r="GL44" s="5">
         <v>3.6707061178910506E-9</v>
       </c>
-      <c r="GM44" s="1">
+      <c r="GM44" s="5">
         <v>3.8892784112715209E-12</v>
       </c>
-      <c r="GN44" s="1">
+      <c r="GN44" s="5">
         <v>7.4837353688643493E-6</v>
       </c>
-      <c r="GO44" s="1">
+      <c r="GO44" s="5">
         <v>1.2632346219604849E-5</v>
       </c>
-      <c r="GP44" s="1">
+      <c r="GP44" s="5">
         <v>1.6960850257089128E-5</v>
       </c>
-      <c r="GQ44" s="1">
+      <c r="GQ44" s="5">
         <v>8.2779590899701106E-7</v>
       </c>
-      <c r="GR44" s="1">
+      <c r="GR44" s="5">
         <v>7.4395221099066333E-9</v>
       </c>
-      <c r="GS44" s="1">
+      <c r="GS44" s="5">
         <v>4.3128314126556478E-9</v>
       </c>
-      <c r="GT44" s="1">
+      <c r="GT44" s="5">
         <v>7.7677500094578631E-13</v>
       </c>
-      <c r="GU44" s="1">
+      <c r="GU44" s="5">
         <v>2.4352014639644417E-17</v>
       </c>
-      <c r="GV44" s="1">
+      <c r="GV44" s="5">
         <v>3.220224571238229E-12</v>
       </c>
-      <c r="GW44" s="1">
+      <c r="GW44" s="5">
         <v>1.2755813488033028E-5</v>
       </c>
-      <c r="GX44" s="1">
+      <c r="GX44" s="5">
         <v>1.2126706313901417E-10</v>
       </c>
-      <c r="GY44" s="1">
+      <c r="GY44" s="5">
         <v>7.3165275138549803E-14</v>
       </c>
-      <c r="GZ44" s="1">
+      <c r="GZ44" s="5">
         <v>5.6047258544029656E-9</v>
       </c>
-      <c r="HA44" s="1">
+      <c r="HA44" s="5">
         <v>9.4606276694529974E-9</v>
       </c>
-      <c r="HB44" s="1">
+      <c r="HB44" s="5">
         <v>4.0671338385887093E-15</v>
       </c>
-      <c r="HC44" s="1">
+      <c r="HC44" s="5">
         <v>1.2576619949123837E-5</v>
       </c>
-      <c r="HD44" s="1">
+      <c r="HD44" s="5">
         <v>1.5521439782510121E-9</v>
       </c>
-      <c r="HE44" s="1">
+      <c r="HE44" s="5">
         <v>9.3647058271824244E-13</v>
       </c>
-      <c r="HF44" s="1">
+      <c r="HF44" s="5">
         <v>7.173704649781525E-8</v>
       </c>
-      <c r="HG44" s="1">
+      <c r="HG44" s="5">
         <v>1.2109022740877451E-7</v>
       </c>
-      <c r="HH44" s="1">
+      <c r="HH44" s="5">
         <v>5.2056815131979112E-14</v>
       </c>
-      <c r="HI44" s="1">
+      <c r="HI44" s="5">
         <v>1.0636809469088026E-5</v>
       </c>
-      <c r="HJ44" s="1">
+      <c r="HJ44" s="5">
         <v>1.7041689003254156E-8</v>
       </c>
-      <c r="HK44" s="1">
+      <c r="HK44" s="5">
         <v>1.028193492533126E-11</v>
       </c>
-      <c r="HL44" s="1">
+      <c r="HL44" s="5">
         <v>7.8763360610107562E-7</v>
       </c>
-      <c r="HM44" s="1">
+      <c r="HM44" s="5">
         <v>1.329504557671089E-6</v>
       </c>
-      <c r="HN44" s="1">
+      <c r="HN44" s="5">
         <v>5.7155540007661499E-13</v>
       </c>
-      <c r="HO44" s="1">
+      <c r="HO44" s="5">
         <v>3.5428915328336932E-6</v>
       </c>
-      <c r="HP44" s="1">
+      <c r="HP44" s="5">
         <v>7.36872481455306E-8</v>
       </c>
-      <c r="HQ44" s="1">
+      <c r="HQ44" s="5">
         <v>4.4458459602654109E-11</v>
       </c>
-      <c r="HR44" s="1">
+      <c r="HR44" s="5">
         <v>3.405679048496034E-6</v>
       </c>
-      <c r="HS44" s="1">
+      <c r="HS44" s="5">
         <v>5.7486961577334289E-6</v>
       </c>
-      <c r="HT44" s="1">
+      <c r="HT44" s="5">
         <v>2.4713705077100391E-12</v>
       </c>
-      <c r="HU44" s="1">
+      <c r="HU44" s="5">
         <v>2.2375775231772919E-6</v>
       </c>
-      <c r="HV44" s="1">
+      <c r="HV44" s="5">
         <v>4.147752845627733E-6</v>
       </c>
-      <c r="HW44" s="1">
+      <c r="HW44" s="5">
         <v>1.0724450975897773E-11</v>
       </c>
-      <c r="HX44" s="1">
+      <c r="HX44" s="5">
         <v>5.8969109162199443E-11</v>
       </c>
-      <c r="HY44" s="1">
+      <c r="HY44" s="5">
         <v>9.9538287632474548E-11</v>
       </c>
-      <c r="HZ44" s="1">
+      <c r="HZ44" s="5">
         <v>5.961540996416462E-13</v>
       </c>
-      <c r="IA44" s="1">
+      <c r="IA44" s="5">
         <v>4.9404771240061295E-8</v>
       </c>
-      <c r="IB44" s="1">
+      <c r="IB44" s="5">
         <v>6.3358362216272317E-6</v>
       </c>
-      <c r="IC44" s="1">
+      <c r="IC44" s="5">
         <v>1.6381969771512332E-11</v>
       </c>
-      <c r="ID44" s="1">
+      <c r="ID44" s="5">
         <v>9.00773510261268E-11</v>
       </c>
-      <c r="IE44" s="1">
+      <c r="IE44" s="5">
         <v>1.5204817524638768E-10</v>
       </c>
-      <c r="IF44" s="1">
+      <c r="IF44" s="5">
         <v>9.1064592624307518E-13</v>
       </c>
-      <c r="IG44" s="1">
+      <c r="IG44" s="5">
         <v>7.1969548098048441E-10</v>
       </c>
-      <c r="IH44" s="1">
+      <c r="IH44" s="5">
         <v>6.3845190875086983E-6</v>
       </c>
-      <c r="II44" s="1">
+      <c r="II44" s="5">
         <v>1.6507846088495233E-11</v>
       </c>
-      <c r="IJ44" s="1">
+      <c r="IJ44" s="5">
         <v>9.0769493411393856E-11</v>
       </c>
-      <c r="IK44" s="1">
+      <c r="IK44" s="5">
         <v>1.5321648876297899E-10</v>
       </c>
-      <c r="IL44" s="1">
+      <c r="IL44" s="5">
         <v>9.1764326687320169E-13</v>
       </c>
-      <c r="IM44" s="1">
+      <c r="IM44" s="5">
         <v>1.0275927062343175E-11</v>
       </c>
-      <c r="IN44" s="1">
+      <c r="IN44" s="5">
         <v>6.3852285361167174E-6</v>
       </c>
-      <c r="IO44" s="1">
+      <c r="IO44" s="5">
         <v>1.6509681620332772E-11</v>
       </c>
-      <c r="IP44" s="1">
+      <c r="IP44" s="5">
         <v>9.0779573348888188E-11</v>
       </c>
-      <c r="IQ44" s="1">
+      <c r="IQ44" s="5">
         <v>1.5323351514431359E-10</v>
       </c>
-      <c r="IR44" s="1">
+      <c r="IR44" s="5">
         <v>9.1774506045292365E-13</v>
       </c>
-      <c r="IS44" s="1">
+      <c r="IS44" s="5">
         <v>2.1202376623138643E-6</v>
       </c>
-      <c r="IT44" s="1">
+      <c r="IT44" s="5">
         <v>2.0156691726902474E-11</v>
       </c>
-      <c r="IU44" s="1">
+      <c r="IU44" s="5">
         <v>2.6166919266168699E-10</v>
       </c>
-      <c r="IV44" s="1">
+      <c r="IV44" s="5">
         <v>2.487638765621998E-15</v>
       </c>
+      <c r="IW44" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="45" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>264</v>
       </c>
@@ -32985,777 +33468,780 @@
         <v>1.3779337894625932E-15</v>
       </c>
     </row>
-    <row r="46" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:257" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5">
         <v>2.8441920818522703E-8</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="5">
         <v>3.5948136828389821E-11</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="5">
         <v>2.0000000949949026E-2</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="5">
         <v>1.6210826288443059E-4</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="5">
         <v>2.7244642842561007E-4</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="5">
         <v>6.8002869375050068E-4</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="5">
         <v>3.3189655368914828E-5</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="5">
         <v>4.7860865015536547E-4</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="5">
         <v>3.3734999306034297E-5</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="5">
         <v>1.0619656904964359E-6</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="5">
         <v>1.3659935464478462E-26</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="5">
         <v>2.0058792976088407E-10</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="5">
         <v>1.1039470956041787E-13</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="5">
         <v>8.7649117484212333E-15</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="5">
         <v>7.8899968564384131E-11</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="5">
         <v>1.3260283131640364E-10</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46" s="5">
         <v>1.2662095012507991E-12</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46" s="5">
         <v>1.2052406733099569E-10</v>
       </c>
-      <c r="U46" s="1">
+      <c r="U46" s="5">
         <v>6.4593524439260364E-4</v>
       </c>
-      <c r="V46" s="1">
+      <c r="V46" s="5">
         <v>4.2155068513238803E-5</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W46" s="5">
         <v>2.4998265681643397E-20</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="5">
         <v>6.3672405365854033E-21</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y46" s="5">
         <v>1.6010208128136583E-6</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="Z46" s="5">
         <v>1.5413812093356682E-7</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AA46" s="5">
         <v>1.5272977179847658E-5</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AB46" s="5">
         <v>9.3219034624780761E-7</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AC46" s="5">
         <v>1.5156076926814421E-7</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AD46" s="5">
         <v>9.2018226496293209E-6</v>
       </c>
-      <c r="AE46" s="1">
+      <c r="AE46" s="5">
         <v>1.5529418029291975E-11</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AF46" s="5">
         <v>4.9002040489534715E-13</v>
       </c>
-      <c r="AG46" s="1">
+      <c r="AG46" s="5">
         <v>2.2805613734272479E-12</v>
       </c>
-      <c r="AH46" s="1">
+      <c r="AH46" s="5">
         <v>1.4086086463915848E-10</v>
       </c>
-      <c r="AI46" s="1">
+      <c r="AI46" s="5">
         <v>2.2125866677019657E-13</v>
       </c>
-      <c r="AJ46" s="1">
+      <c r="AJ46" s="5">
         <v>2.2420475069876659E-15</v>
       </c>
-      <c r="AK46" s="1">
+      <c r="AK46" s="5">
         <v>2.9699456782772415E-10</v>
       </c>
-      <c r="AL46" s="1">
+      <c r="AL46" s="5">
         <v>1.6711598505025904E-7</v>
       </c>
-      <c r="AM46" s="1">
+      <c r="AM46" s="5">
         <v>1.3989521610992975E-11</v>
       </c>
-      <c r="AN46" s="1">
+      <c r="AN46" s="5">
         <v>9.9394839292417194E-14</v>
       </c>
-      <c r="AO46" s="1">
+      <c r="AO46" s="5">
         <v>4.4822142321551705E-7</v>
       </c>
-      <c r="AP46" s="1">
+      <c r="AP46" s="5">
         <v>7.533010367824272E-7</v>
       </c>
-      <c r="AQ46" s="1">
+      <c r="AQ46" s="5">
         <v>3.3448078735175818E-7</v>
       </c>
-      <c r="AR46" s="1">
+      <c r="AR46" s="5">
         <v>1.6324755075948223E-8</v>
       </c>
-      <c r="AS46" s="1">
+      <c r="AS46" s="5">
         <v>7.8748252207935867E-10</v>
       </c>
-      <c r="AT46" s="1">
+      <c r="AT46" s="5">
         <v>4.5850973066151261E-10</v>
       </c>
-      <c r="AU46" s="1">
+      <c r="AU46" s="5">
         <v>7.6383425373290981E-15</v>
       </c>
-      <c r="AV46" s="1">
+      <c r="AV46" s="5">
         <v>1.1027796359352262E-18</v>
       </c>
-      <c r="AW46" s="1">
+      <c r="AW46" s="5">
         <v>1.460805647867671E-13</v>
       </c>
-      <c r="AX46" s="1">
+      <c r="AX46" s="5">
         <v>7.7911994740042341E-7</v>
       </c>
-      <c r="AY46" s="1">
+      <c r="AY46" s="5">
         <v>4.1122819594764743E-10</v>
       </c>
-      <c r="AZ46" s="1">
+      <c r="AZ46" s="5">
         <v>2.0452158994135545E-13</v>
       </c>
-      <c r="BA46" s="1">
+      <c r="BA46" s="5">
         <v>1.8402120041202826E-8</v>
       </c>
-      <c r="BB46" s="1">
+      <c r="BB46" s="5">
         <v>2.4566540817398133E-8</v>
       </c>
-      <c r="BC46" s="1">
+      <c r="BC46" s="5">
         <v>7.1003397508939874E-15</v>
       </c>
-      <c r="BD46" s="1">
+      <c r="BD46" s="5">
         <v>6.7513063006122242E-7</v>
       </c>
-      <c r="BE46" s="1">
+      <c r="BE46" s="5">
         <v>1.3970104447240645E-9</v>
       </c>
-      <c r="BF46" s="1">
+      <c r="BF46" s="5">
         <v>6.9479381106751613E-13</v>
       </c>
-      <c r="BG46" s="1">
+      <c r="BG46" s="5">
         <v>6.2515052618242364E-8</v>
       </c>
-      <c r="BH46" s="1">
+      <c r="BH46" s="5">
         <v>8.3456605678691238E-8</v>
       </c>
-      <c r="BI46" s="1">
+      <c r="BI46" s="5">
         <v>2.4121030971983598E-14</v>
       </c>
-      <c r="BJ46" s="1">
+      <c r="BJ46" s="5">
         <v>4.4321429978725872E-7</v>
       </c>
-      <c r="BK46" s="1">
+      <c r="BK46" s="5">
         <v>3.5954957111138375E-9</v>
       </c>
-      <c r="BL46" s="1">
+      <c r="BL46" s="5">
         <v>1.7881957875580791E-12</v>
       </c>
-      <c r="BM46" s="1">
+      <c r="BM46" s="5">
         <v>1.6089545570376129E-7</v>
       </c>
-      <c r="BN46" s="1">
+      <c r="BN46" s="5">
         <v>2.1479288554232255E-7</v>
       </c>
-      <c r="BO46" s="1">
+      <c r="BO46" s="5">
         <v>6.2080468716719048E-14</v>
       </c>
-      <c r="BP46" s="1">
+      <c r="BP46" s="5">
         <v>1.8886555626309735E-7</v>
       </c>
-      <c r="BQ46" s="1">
+      <c r="BQ46" s="5">
         <v>6.0066321720491426E-9</v>
       </c>
-      <c r="BR46" s="1">
+      <c r="BR46" s="5">
         <v>2.9873589466654505E-12</v>
       </c>
-      <c r="BS46" s="1">
+      <c r="BS46" s="5">
         <v>2.6879184409825448E-7</v>
       </c>
-      <c r="BT46" s="1">
+      <c r="BT46" s="5">
         <v>3.5883290069222177E-7</v>
       </c>
-      <c r="BU46" s="1">
+      <c r="BU46" s="5">
         <v>1.0371159979369789E-13</v>
       </c>
-      <c r="BV46" s="1">
+      <c r="BV46" s="5">
         <v>1.0922518910614629E-7</v>
       </c>
-      <c r="BW46" s="1">
+      <c r="BW46" s="5">
         <v>2.9228149855242483E-7</v>
       </c>
-      <c r="BX46" s="1">
+      <c r="BX46" s="5">
         <v>1.45364246660849E-10</v>
       </c>
-      <c r="BY46" s="1">
+      <c r="BY46" s="5">
         <v>5.2069806515004026E-9</v>
       </c>
-      <c r="BZ46" s="1">
+      <c r="BZ46" s="5">
         <v>4.3859410916878703E-9</v>
       </c>
-      <c r="CA46" s="1">
+      <c r="CA46" s="5">
         <v>5.0465842792473767E-12</v>
       </c>
-      <c r="CB46" s="1">
+      <c r="CB46" s="5">
         <v>1.0420910561276536E-8</v>
       </c>
-      <c r="CC46" s="1">
+      <c r="CC46" s="5">
         <v>3.8789833333287877E-7</v>
       </c>
-      <c r="CD46" s="1">
+      <c r="CD46" s="5">
         <v>1.9291865733065013E-10</v>
       </c>
-      <c r="CE46" s="1">
+      <c r="CE46" s="5">
         <v>6.9103901850105102E-9</v>
       </c>
-      <c r="CF46" s="1">
+      <c r="CF46" s="5">
         <v>5.8207559086287275E-9</v>
       </c>
-      <c r="CG46" s="1">
+      <c r="CG46" s="5">
         <v>6.6975224105955419E-12</v>
       </c>
-      <c r="CH46" s="1">
+      <c r="CH46" s="5">
         <v>7.6720550493884635E-10</v>
       </c>
-      <c r="CI46" s="1">
+      <c r="CI46" s="5">
         <v>3.9724060132091435E-7</v>
       </c>
-      <c r="CJ46" s="1">
+      <c r="CJ46" s="5">
         <v>1.9756493913303611E-10</v>
       </c>
-      <c r="CK46" s="1">
+      <c r="CK46" s="5">
         <v>7.0768218116244723E-9</v>
       </c>
-      <c r="CL46" s="1">
+      <c r="CL46" s="5">
         <v>5.9609440643765338E-9</v>
       </c>
-      <c r="CM46" s="1">
+      <c r="CM46" s="5">
         <v>6.8588267215048742E-12</v>
       </c>
-      <c r="CN46" s="1">
+      <c r="CN46" s="5">
         <v>5.5247944707700692E-11</v>
       </c>
-      <c r="CO46" s="1">
+      <c r="CO46" s="5">
         <v>3.9792959615883507E-7</v>
       </c>
-      <c r="CP46" s="1">
+      <c r="CP46" s="5">
         <v>1.9790761969991494E-10</v>
       </c>
-      <c r="CQ46" s="1">
+      <c r="CQ46" s="5">
         <v>7.0890972621973541E-9</v>
       </c>
-      <c r="CR46" s="1">
+      <c r="CR46" s="5">
         <v>5.9712836553847435E-9</v>
       </c>
-      <c r="CS46" s="1">
+      <c r="CS46" s="5">
         <v>6.8707238720018417E-12</v>
       </c>
-      <c r="CT46" s="1">
+      <c r="CT46" s="5">
         <v>1.7649749463908897E-7</v>
       </c>
-      <c r="CU46" s="1">
+      <c r="CU46" s="5">
         <v>9.3157345961778437E-11</v>
       </c>
-      <c r="CV46" s="1">
+      <c r="CV46" s="5">
         <v>3.6521648616755133E-10</v>
       </c>
-      <c r="CW46" s="1">
+      <c r="CW46" s="5">
         <v>1.9276533619626536E-13</v>
       </c>
-      <c r="CX46" s="1">
+      <c r="CX46" s="5">
         <v>7.7483045884809504E-12</v>
       </c>
-      <c r="CY46" s="1">
+      <c r="CY46" s="5">
         <v>1.3910262829494542E-8</v>
       </c>
-      <c r="CZ46" s="1">
+      <c r="CZ46" s="5">
         <v>1.4750665077680147E-8</v>
       </c>
-      <c r="DA46" s="1">
+      <c r="DA46" s="5">
         <v>2.6899650452458926E-13</v>
       </c>
-      <c r="DB46" s="1">
+      <c r="DB46" s="5">
         <v>5.8268953807299233E-8</v>
       </c>
-      <c r="DC46" s="1">
+      <c r="DC46" s="5">
         <v>3.0755005272769267E-11</v>
       </c>
-      <c r="DD46" s="1">
+      <c r="DD46" s="5">
         <v>1.8531709904955593E-9</v>
       </c>
-      <c r="DE46" s="1">
+      <c r="DE46" s="5">
         <v>9.7812432872665803E-13</v>
       </c>
-      <c r="DF46" s="1">
+      <c r="DF46" s="5">
         <v>3.9316228586131387E-11</v>
       </c>
-      <c r="DG46" s="1">
+      <c r="DG46" s="5">
         <v>7.0583071361516107E-8</v>
       </c>
-      <c r="DH46" s="1">
+      <c r="DH46" s="5">
         <v>7.4847401182369589E-8</v>
       </c>
-      <c r="DI46" s="1">
+      <c r="DI46" s="5">
         <v>1.3649344525684532E-12</v>
       </c>
-      <c r="DJ46" s="1">
+      <c r="DJ46" s="5">
         <v>5.1403134066290559E-9</v>
       </c>
-      <c r="DK46" s="1">
+      <c r="DK46" s="5">
         <v>2.7131145931747249E-12</v>
       </c>
-      <c r="DL46" s="1">
+      <c r="DL46" s="5">
         <v>1.913382640170559E-7</v>
       </c>
-      <c r="DM46" s="1">
+      <c r="DM46" s="5">
         <v>1.0099047349345764E-10</v>
       </c>
-      <c r="DN46" s="1">
+      <c r="DN46" s="5">
         <v>4.0593656303793074E-9</v>
       </c>
-      <c r="DO46" s="1">
+      <c r="DO46" s="5">
         <v>2.9012591326275922E-9</v>
       </c>
-      <c r="DP46" s="1">
+      <c r="DP46" s="5">
         <v>1.941169194993213E-9</v>
       </c>
-      <c r="DQ46" s="1">
+      <c r="DQ46" s="5">
         <v>1.4092827130738232E-10</v>
       </c>
-      <c r="DR46" s="1">
+      <c r="DR46" s="5">
         <v>2.7242986049413918E-11</v>
       </c>
-      <c r="DS46" s="1">
+      <c r="DS46" s="5">
         <v>1.4379152616393232E-14</v>
       </c>
-      <c r="DT46" s="1">
+      <c r="DT46" s="5">
         <v>1.9622070724688897E-7</v>
       </c>
-      <c r="DU46" s="1">
+      <c r="DU46" s="5">
         <v>1.035674842880907E-10</v>
       </c>
-      <c r="DV46" s="1">
+      <c r="DV46" s="5">
         <v>4.1629498058736138E-9</v>
       </c>
-      <c r="DW46" s="1">
+      <c r="DW46" s="5">
         <v>2.9752915501209086E-9</v>
       </c>
-      <c r="DX46" s="1">
+      <c r="DX46" s="5">
         <v>1.9907027799149155E-9</v>
       </c>
-      <c r="DY46" s="1">
+      <c r="DY46" s="5">
         <v>1.4452437089643389E-10</v>
       </c>
-      <c r="DZ46" s="1">
+      <c r="DZ46" s="5">
         <v>5.8637001524770079E-8</v>
       </c>
-      <c r="EA46" s="1">
+      <c r="EA46" s="5">
         <v>1.2133430213345861E-10</v>
       </c>
-      <c r="EB46" s="1">
+      <c r="EB46" s="5">
         <v>4.7568204766727218E-10</v>
       </c>
-      <c r="EC46" s="1">
+      <c r="EC46" s="5">
         <v>9.8430255136378557E-13</v>
       </c>
-      <c r="ED46" s="1">
+      <c r="ED46" s="5">
         <v>3.9564566836788654E-11</v>
       </c>
-      <c r="EE46" s="1">
+      <c r="EE46" s="5">
         <v>7.102889840954323E-8</v>
       </c>
-      <c r="EF46" s="1">
+      <c r="EF46" s="5">
         <v>7.5320171102721751E-8</v>
       </c>
-      <c r="EG46" s="1">
+      <c r="EG46" s="5">
         <v>1.3735560008979839E-12</v>
       </c>
-      <c r="EH46" s="1">
+      <c r="EH46" s="5">
         <v>4.9200088055249993E-8</v>
       </c>
-      <c r="EI46" s="1">
+      <c r="EI46" s="5">
         <v>1.0180701923458876E-10</v>
       </c>
-      <c r="EJ46" s="1">
+      <c r="EJ46" s="5">
         <v>1.3165713797729501E-7</v>
       </c>
-      <c r="EK46" s="1">
+      <c r="EK46" s="5">
         <v>2.7243081202570406E-10</v>
       </c>
-      <c r="EL46" s="1">
+      <c r="EL46" s="5">
         <v>1.0950500447396651E-8</v>
       </c>
-      <c r="EM46" s="1">
+      <c r="EM46" s="5">
         <v>7.8264041883140753E-9</v>
       </c>
-      <c r="EN46" s="1">
+      <c r="EN46" s="5">
         <v>5.2364769303219493E-9</v>
       </c>
-      <c r="EO46" s="1">
+      <c r="EO46" s="5">
         <v>3.8016652966126994E-10</v>
       </c>
-      <c r="EP46" s="1">
+      <c r="EP46" s="5">
         <v>3.3392419171452039E-10</v>
       </c>
-      <c r="EQ46" s="1">
+      <c r="EQ46" s="5">
         <v>6.9097087873396612E-13</v>
       </c>
-      <c r="ER46" s="1">
+      <c r="ER46" s="5">
         <v>1.728979329318623E-7</v>
       </c>
-      <c r="ES46" s="1">
+      <c r="ES46" s="5">
         <v>3.5776813645660272E-10</v>
       </c>
-      <c r="ET46" s="1">
+      <c r="ET46" s="5">
         <v>1.4380680796436207E-8</v>
       </c>
-      <c r="EU46" s="1">
+      <c r="EU46" s="5">
         <v>1.0277980015195865E-8</v>
       </c>
-      <c r="EV46" s="1">
+      <c r="EV46" s="5">
         <v>6.8767729854994971E-9</v>
       </c>
-      <c r="EW46" s="1">
+      <c r="EW46" s="5">
         <v>4.9925156515465687E-10</v>
       </c>
-      <c r="EX46" s="1">
+      <c r="EX46" s="5">
         <v>5.217394596879642E-9</v>
       </c>
-      <c r="EY46" s="1">
+      <c r="EY46" s="5">
         <v>4.2325168297236923E-11</v>
       </c>
-      <c r="EZ46" s="1">
+      <c r="EZ46" s="5">
         <v>1.6593269430040579E-10</v>
       </c>
-      <c r="FA46" s="1">
+      <c r="FA46" s="5">
         <v>1.3460989585493203E-12</v>
       </c>
-      <c r="FB46" s="1">
+      <c r="FB46" s="5">
         <v>5.4107153329770737E-11</v>
       </c>
-      <c r="FC46" s="1">
+      <c r="FC46" s="5">
         <v>9.7136716315496989E-8</v>
       </c>
-      <c r="FD46" s="1">
+      <c r="FD46" s="5">
         <v>1.0300530755498487E-7</v>
       </c>
-      <c r="FE46" s="1">
+      <c r="FE46" s="5">
         <v>1.8784286130588054E-12</v>
       </c>
-      <c r="FF46" s="1">
+      <c r="FF46" s="5">
         <v>3.1359019915804178E-9</v>
       </c>
-      <c r="FG46" s="1">
+      <c r="FG46" s="5">
         <v>2.5439435766343251E-11</v>
       </c>
-      <c r="FH46" s="1">
+      <c r="FH46" s="5">
         <v>1.1672791556557836E-7</v>
       </c>
-      <c r="FI46" s="1">
+      <c r="FI46" s="5">
         <v>9.4693405162322884E-10</v>
       </c>
-      <c r="FJ46" s="1">
+      <c r="FJ46" s="5">
         <v>3.8062518786115913E-8</v>
       </c>
-      <c r="FK46" s="1">
+      <c r="FK46" s="5">
         <v>2.7203569898737593E-8</v>
       </c>
-      <c r="FL46" s="1">
+      <c r="FL46" s="5">
         <v>1.8201314515450034E-8</v>
       </c>
-      <c r="FM46" s="1">
+      <c r="FM46" s="5">
         <v>1.3214096898166612E-9</v>
       </c>
-      <c r="FN46" s="1">
+      <c r="FN46" s="5">
         <v>1.6458052007089513E-11</v>
       </c>
-      <c r="FO46" s="1">
+      <c r="FO46" s="5">
         <v>1.335129649183021E-13</v>
       </c>
-      <c r="FP46" s="1">
+      <c r="FP46" s="5">
         <v>1.1854098827385453E-7</v>
       </c>
-      <c r="FQ46" s="1">
+      <c r="FQ46" s="5">
         <v>9.6164226401262434E-10</v>
       </c>
-      <c r="FR46" s="1">
+      <c r="FR46" s="5">
         <v>3.8653723112158277E-8</v>
       </c>
-      <c r="FS46" s="1">
+      <c r="FS46" s="5">
         <v>2.7626106605335483E-8</v>
       </c>
-      <c r="FT46" s="1">
+      <c r="FT46" s="5">
         <v>1.8484025499955989E-8</v>
       </c>
-      <c r="FU46" s="1">
+      <c r="FU46" s="5">
         <v>1.3419342577264355E-9</v>
       </c>
-      <c r="FV46" s="1">
+      <c r="FV46" s="5">
         <v>1.8016381283260864E-8</v>
       </c>
-      <c r="FW46" s="1">
+      <c r="FW46" s="5">
         <v>5.7298841835153543E-10</v>
       </c>
-      <c r="FX46" s="1">
+      <c r="FX46" s="5">
         <v>4.8210990838066803E-8</v>
       </c>
-      <c r="FY46" s="1">
+      <c r="FY46" s="5">
         <v>1.5332901599079626E-9</v>
       </c>
-      <c r="FZ46" s="1">
+      <c r="FZ46" s="5">
         <v>6.1631416627859789E-8</v>
       </c>
-      <c r="GA46" s="1">
+      <c r="GA46" s="5">
         <v>4.4048434847705132E-8</v>
       </c>
-      <c r="GB46" s="1">
+      <c r="GB46" s="5">
         <v>2.9471849792696785E-8</v>
       </c>
-      <c r="GC46" s="1">
+      <c r="GC46" s="5">
         <v>2.1396468689462497E-9</v>
       </c>
-      <c r="GD46" s="1">
+      <c r="GD46" s="5">
         <v>1.0231344946821924E-10</v>
       </c>
-      <c r="GE46" s="1">
+      <c r="GE46" s="5">
         <v>3.2539510711413415E-12</v>
       </c>
-      <c r="GF46" s="1">
+      <c r="GF46" s="5">
         <v>5.297544970744654E-8</v>
       </c>
-      <c r="GG46" s="1">
+      <c r="GG46" s="5">
         <v>1.6848178392730835E-9</v>
       </c>
-      <c r="GH46" s="1">
+      <c r="GH46" s="5">
         <v>6.7722150139817496E-8</v>
       </c>
-      <c r="GI46" s="1">
+      <c r="GI46" s="5">
         <v>4.8401524079709883E-8</v>
       </c>
-      <c r="GJ46" s="1">
+      <c r="GJ46" s="5">
         <v>3.2384404850056925E-8</v>
       </c>
-      <c r="GK46" s="1">
+      <c r="GK46" s="5">
         <v>2.3510973485678752E-9</v>
       </c>
-      <c r="GL46" s="1">
+      <c r="GL46" s="5">
         <v>5.1360195407557364E-10</v>
       </c>
-      <c r="GM46" s="1">
+      <c r="GM46" s="5">
         <v>1.6686435244658324E-12</v>
       </c>
-      <c r="GN46" s="1">
+      <c r="GN46" s="5">
         <v>7.5247539050054451E-6</v>
       </c>
-      <c r="GO46" s="1">
+      <c r="GO46" s="5">
         <v>1.2646440069016493E-5</v>
       </c>
-      <c r="GP46" s="1">
+      <c r="GP46" s="5">
         <v>1.2279904762111499E-5</v>
       </c>
-      <c r="GQ46" s="1">
+      <c r="GQ46" s="5">
         <v>5.9933620773435054E-7</v>
       </c>
-      <c r="GR46" s="1">
+      <c r="GR46" s="5">
         <v>2.8911106399324896E-8</v>
       </c>
-      <c r="GS46" s="1">
+      <c r="GS46" s="5">
         <v>1.6833420181562668E-8</v>
       </c>
-      <c r="GT46" s="1">
+      <c r="GT46" s="5">
         <v>2.8042900776383653E-13</v>
       </c>
-      <c r="GU46" s="1">
+      <c r="GU46" s="5">
         <v>4.0486718673371622E-17</v>
       </c>
-      <c r="GV46" s="1">
+      <c r="GV46" s="5">
         <v>5.3631046797537919E-12</v>
       </c>
-      <c r="GW46" s="1">
+      <c r="GW46" s="5">
         <v>1.2744790847441899E-5</v>
       </c>
-      <c r="GX46" s="1">
+      <c r="GX46" s="5">
         <v>6.5026204048493463E-11</v>
       </c>
-      <c r="GY46" s="1">
+      <c r="GY46" s="5">
         <v>5.4327764323024637E-14</v>
       </c>
-      <c r="GZ46" s="1">
+      <c r="GZ46" s="5">
         <v>9.7532750015200136E-9</v>
       </c>
-      <c r="HA46" s="1">
+      <c r="HA46" s="5">
         <v>1.6391795920001503E-8</v>
       </c>
-      <c r="HB46" s="1">
+      <c r="HB46" s="5">
         <v>5.6270997124599116E-15</v>
       </c>
-      <c r="HC46" s="1">
+      <c r="HC46" s="5">
         <v>1.2438912341074032E-5</v>
       </c>
-      <c r="HD46" s="1">
+      <c r="HD46" s="5">
         <v>8.2389424023656994E-10</v>
       </c>
-      <c r="HE46" s="1">
+      <c r="HE46" s="5">
         <v>6.8834311164156833E-13</v>
       </c>
-      <c r="HF46" s="1">
+      <c r="HF46" s="5">
         <v>1.2357585475105971E-7</v>
       </c>
-      <c r="HG46" s="1">
+      <c r="HG46" s="5">
         <v>2.0768715312444865E-7</v>
       </c>
-      <c r="HH46" s="1">
+      <c r="HH46" s="5">
         <v>7.1296426199918239E-14</v>
       </c>
-      <c r="HI46" s="1">
+      <c r="HI46" s="5">
         <v>9.4840263109708405E-6</v>
       </c>
-      <c r="HJ46" s="1">
+      <c r="HJ46" s="5">
         <v>8.1548313797179963E-9</v>
       </c>
-      <c r="HK46" s="1">
+      <c r="HK46" s="5">
         <v>6.8131579498796542E-12</v>
       </c>
-      <c r="HL46" s="1">
+      <c r="HL46" s="5">
         <v>1.223142652882601E-6</v>
       </c>
-      <c r="HM46" s="1">
+      <c r="HM46" s="5">
         <v>2.0556690802472406E-6</v>
       </c>
-      <c r="HN46" s="1">
+      <c r="HN46" s="5">
         <v>7.0568561512374449E-13</v>
       </c>
-      <c r="HO46" s="1">
+      <c r="HO46" s="5">
         <v>2.3223316468710319E-6</v>
       </c>
-      <c r="HP46" s="1">
+      <c r="HP46" s="5">
         <v>2.5922670286378247E-8</v>
       </c>
-      <c r="HQ46" s="1">
+      <c r="HQ46" s="5">
         <v>2.1657740910552528E-11</v>
       </c>
-      <c r="HR46" s="1">
+      <c r="HR46" s="5">
         <v>3.8881395906648064E-6</v>
       </c>
-      <c r="HS46" s="1">
+      <c r="HS46" s="5">
         <v>6.534582922721095E-6</v>
       </c>
-      <c r="HT46" s="1">
+      <c r="HT46" s="5">
         <v>2.2432412284454039E-12</v>
       </c>
-      <c r="HU46" s="1">
+      <c r="HU46" s="5">
         <v>3.2007958551517953E-6</v>
       </c>
-      <c r="HV46" s="1">
+      <c r="HV46" s="5">
         <v>3.1842980383989127E-6</v>
       </c>
-      <c r="HW46" s="1">
+      <c r="HW46" s="5">
         <v>1.1401110745039266E-11</v>
       </c>
-      <c r="HX46" s="1">
+      <c r="HX46" s="5">
         <v>1.4691834237764236E-10</v>
       </c>
-      <c r="HY46" s="1">
+      <c r="HY46" s="5">
         <v>2.4691757332151515E-10</v>
       </c>
-      <c r="HZ46" s="1">
+      <c r="HZ46" s="5">
         <v>1.180891580942108E-12</v>
       </c>
-      <c r="IA46" s="1">
+      <c r="IA46" s="5">
         <v>9.1436575570946853E-8</v>
       </c>
-      <c r="IB46" s="1">
+      <c r="IB46" s="5">
         <v>6.2932605512201575E-6</v>
       </c>
-      <c r="IC46" s="1">
+      <c r="IC46" s="5">
         <v>2.2532491235633146E-11</v>
       </c>
-      <c r="ID46" s="1">
+      <c r="ID46" s="5">
         <v>2.9036080895787352E-10</v>
       </c>
-      <c r="IE46" s="1">
+      <c r="IE46" s="5">
         <v>4.8799345116237358E-10</v>
       </c>
-      <c r="IF46" s="1">
+      <c r="IF46" s="5">
         <v>2.3338450084038155E-12</v>
       </c>
-      <c r="IG46" s="1">
+      <c r="IG46" s="5">
         <v>1.3407020238059734E-9</v>
       </c>
-      <c r="IH46" s="1">
+      <c r="IH46" s="5">
         <v>6.38334491961399E-6</v>
       </c>
-      <c r="II46" s="1">
+      <c r="II46" s="5">
         <v>2.2855031249837697E-11</v>
       </c>
-      <c r="IJ46" s="1">
+      <c r="IJ46" s="5">
         <v>2.9451719644344294E-10</v>
       </c>
-      <c r="IK46" s="1">
+      <c r="IK46" s="5">
         <v>4.9497880787791462E-10</v>
       </c>
-      <c r="IL46" s="1">
+      <c r="IL46" s="5">
         <v>2.3672525371676817E-12</v>
       </c>
-      <c r="IM46" s="1">
+      <c r="IM46" s="5">
         <v>1.9408402198008491E-11</v>
       </c>
-      <c r="IN46" s="1">
+      <c r="IN46" s="5">
         <v>6.3846660012225908E-6</v>
       </c>
-      <c r="IO46" s="1">
+      <c r="IO46" s="5">
         <v>2.2859761466342273E-11</v>
       </c>
-      <c r="IP46" s="1">
+      <c r="IP46" s="5">
         <v>2.9457813969757203E-10</v>
       </c>
-      <c r="IQ46" s="1">
+      <c r="IQ46" s="5">
         <v>4.9508131788459766E-10</v>
       </c>
-      <c r="IR46" s="1">
+      <c r="IR46" s="5">
         <v>2.3677426451515209E-12</v>
       </c>
-      <c r="IS46" s="1">
+      <c r="IS46" s="5">
         <v>2.1145255349725115E-6</v>
       </c>
-      <c r="IT46" s="1">
+      <c r="IT46" s="5">
         <v>1.0788688278306046E-11</v>
       </c>
-      <c r="IU46" s="1">
+      <c r="IU46" s="5">
         <v>1.4005608714340324E-10</v>
       </c>
-      <c r="IV46" s="1">
+      <c r="IV46" s="5">
         <v>7.1459121850542434E-16</v>
       </c>
+      <c r="IW46" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="47" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>264</v>
       </c>
@@ -34525,7 +35011,7 @@
         <v>4.5902601608943586E-16</v>
       </c>
     </row>
-    <row r="48" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>264</v>
       </c>
@@ -35295,7 +35781,7 @@
         <v>3.0553319206026573E-16</v>
       </c>
     </row>
-    <row r="49" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>264</v>
       </c>
@@ -36065,7 +36551,7 @@
         <v>1.867682036904113E-16</v>
       </c>
     </row>
-    <row r="50" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>264</v>
       </c>
@@ -36835,7 +37321,7 @@
         <v>1.324887790017593E-16</v>
       </c>
     </row>
-    <row r="51" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>264</v>
       </c>
@@ -37605,7 +38091,7 @@
         <v>3.8276674932231172E-9</v>
       </c>
     </row>
-    <row r="52" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>264</v>
       </c>
@@ -38375,7 +38861,7 @@
         <v>5.6026276377308854E-11</v>
       </c>
     </row>
-    <row r="53" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>264</v>
       </c>
@@ -39145,7 +39631,7 @@
         <v>6.056007910477612E-13</v>
       </c>
     </row>
-    <row r="54" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>264</v>
       </c>
@@ -39915,7 +40401,7 @@
         <v>6.5925639936973643E-15</v>
       </c>
     </row>
-    <row r="55" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>264</v>
       </c>
@@ -40685,7 +41171,7 @@
         <v>7.825681589971129E-17</v>
       </c>
     </row>
-    <row r="56" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>264</v>
       </c>
@@ -41455,777 +41941,780 @@
         <v>8.8034101896769291E-19</v>
       </c>
     </row>
-    <row r="57" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:257" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5">
         <v>1.0734012984014996E-10</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="5">
         <v>2.0338083701974125E-13</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="5">
         <v>2.0000000949949026E-2</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="5">
         <v>2.11070611840114E-4</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="5">
         <v>3.8120406679809093E-4</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="5">
         <v>1.0912847938016057E-3</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="5">
         <v>5.3261523135006428E-5</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="5">
         <v>7.5527199078351259E-4</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="5">
         <v>5.3791645768797025E-5</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="5">
         <v>3.1273780041374266E-4</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="5">
         <v>4.7901633927414572E-24</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57" s="5">
         <v>1.5903028593165512E-10</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="5">
         <v>4.82332384358992E-16</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="5">
         <v>1.0213983382114298E-14</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57" s="5">
         <v>7.9334842456134276E-11</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57" s="5">
         <v>1.4328268781431842E-10</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57" s="5">
         <v>3.7638401712263222E-15</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T57" s="5">
         <v>1.5233758163218321E-10</v>
       </c>
-      <c r="U57" s="1">
+      <c r="U57" s="5">
         <v>6.7853415384888649E-4</v>
       </c>
-      <c r="V57" s="1">
+      <c r="V57" s="5">
         <v>1.6196818819480541E-7</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W57" s="5">
         <v>3.1269669589446289E-20</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X57" s="5">
         <v>2.9131389985025338E-23</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y57" s="5">
         <v>2.224157469754573E-6</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z57" s="5">
         <v>5.673816121998243E-5</v>
       </c>
-      <c r="AA57" s="1">
+      <c r="AA57" s="5">
         <v>3.0126031560939737E-5</v>
       </c>
-      <c r="AB57" s="1">
+      <c r="AB57" s="5">
         <v>1.2050883242409327E-6</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AC57" s="5">
         <v>5.1915580115746707E-5</v>
       </c>
-      <c r="AD57" s="1">
+      <c r="AD57" s="5">
         <v>1.6890315237105824E-5</v>
       </c>
-      <c r="AE57" s="1">
+      <c r="AE57" s="5">
         <v>2.2703901259024661E-11</v>
       </c>
-      <c r="AF57" s="1">
+      <c r="AF57" s="5">
         <v>1.8982637683961912E-10</v>
       </c>
-      <c r="AG57" s="1">
+      <c r="AG57" s="5">
         <v>1.8189268518567676E-14</v>
       </c>
-      <c r="AH57" s="1">
+      <c r="AH57" s="5">
         <v>2.0965837399522513E-10</v>
       </c>
-      <c r="AI57" s="1">
+      <c r="AI57" s="5">
         <v>9.6982213926288807E-11</v>
       </c>
-      <c r="AJ57" s="1">
+      <c r="AJ57" s="5">
         <v>1.9117101831249806E-17</v>
       </c>
-      <c r="AK57" s="1">
+      <c r="AK57" s="5">
         <v>1.6683003719805689E-12</v>
       </c>
-      <c r="AL57" s="1">
+      <c r="AL57" s="5">
         <v>4.4979849917581305E-5</v>
       </c>
-      <c r="AM57" s="1">
+      <c r="AM57" s="5">
         <v>3.2478009965841663E-14</v>
       </c>
-      <c r="AN57" s="1">
+      <c r="AN57" s="5">
         <v>3.9258178922362463E-16</v>
       </c>
-      <c r="AO57" s="1">
+      <c r="AO57" s="5">
         <v>4.0742520873975757E-7</v>
       </c>
-      <c r="AP57" s="1">
+      <c r="AP57" s="5">
         <v>7.3583025294293302E-7</v>
       </c>
-      <c r="AQ57" s="1">
+      <c r="AQ57" s="5">
         <v>3.301911320565846E-7</v>
       </c>
-      <c r="AR57" s="1">
+      <c r="AR57" s="5">
         <v>1.6115391868454594E-8</v>
       </c>
-      <c r="AS57" s="1">
+      <c r="AS57" s="5">
         <v>6.7296556728761182E-10</v>
       </c>
-      <c r="AT57" s="1">
+      <c r="AT57" s="5">
         <v>3.6462476143632679E-10</v>
       </c>
-      <c r="AU57" s="1">
+      <c r="AU57" s="5">
         <v>6.8695423272401468E-15</v>
       </c>
-      <c r="AV57" s="1">
+      <c r="AV57" s="5">
         <v>5.7842807887240038E-21</v>
       </c>
-      <c r="AW57" s="1">
+      <c r="AW57" s="5">
         <v>5.0477931425078371E-16</v>
       </c>
-      <c r="AX57" s="1">
+      <c r="AX57" s="5">
         <v>7.942419582813906E-7</v>
       </c>
-      <c r="AY57" s="1">
+      <c r="AY57" s="5">
         <v>1.104349348255354E-12</v>
       </c>
-      <c r="AZ57" s="1">
+      <c r="AZ57" s="5">
         <v>5.6050652894549644E-16</v>
       </c>
-      <c r="BA57" s="1">
+      <c r="BA57" s="5">
         <v>1.160642169100696E-8</v>
       </c>
-      <c r="BB57" s="1">
+      <c r="BB57" s="5">
         <v>1.6650536844788435E-8</v>
       </c>
-      <c r="BC57" s="1">
+      <c r="BC57" s="5">
         <v>7.386604699858273E-15</v>
       </c>
-      <c r="BD57" s="1">
+      <c r="BD57" s="5">
         <v>7.218182896006303E-7</v>
       </c>
-      <c r="BE57" s="1">
+      <c r="BE57" s="5">
         <v>3.9347285183745423E-12</v>
       </c>
-      <c r="BF57" s="1">
+      <c r="BF57" s="5">
         <v>1.9970497559113959E-15</v>
       </c>
-      <c r="BG57" s="1">
+      <c r="BG57" s="5">
         <v>4.1352961634053796E-8</v>
       </c>
-      <c r="BH57" s="1">
+      <c r="BH57" s="5">
         <v>5.9324825177263413E-8</v>
       </c>
-      <c r="BI57" s="1">
+      <c r="BI57" s="5">
         <v>2.6318009786401786E-14</v>
       </c>
-      <c r="BJ57" s="1">
+      <c r="BJ57" s="5">
         <v>5.3173098552994276E-7</v>
       </c>
-      <c r="BK57" s="1">
+      <c r="BK57" s="5">
         <v>1.1363499644510195E-11</v>
       </c>
-      <c r="BL57" s="1">
+      <c r="BL57" s="5">
         <v>5.7674826857355259E-15</v>
       </c>
-      <c r="BM57" s="1">
+      <c r="BM57" s="5">
         <v>1.1942740660467879E-7</v>
       </c>
-      <c r="BN57" s="1">
+      <c r="BN57" s="5">
         <v>1.7133016894835811E-7</v>
       </c>
-      <c r="BO57" s="1">
+      <c r="BO57" s="5">
         <v>7.6006454743038857E-14</v>
       </c>
-      <c r="BP57" s="1">
+      <c r="BP57" s="5">
         <v>2.6162394406012351E-7</v>
       </c>
-      <c r="BQ57" s="1">
+      <c r="BQ57" s="5">
         <v>2.1919511051181489E-11</v>
       </c>
-      <c r="BR57" s="1">
+      <c r="BR57" s="5">
         <v>1.1125129124549713E-14</v>
       </c>
-      <c r="BS57" s="1">
+      <c r="BS57" s="5">
         <v>2.3036832501998545E-7</v>
       </c>
-      <c r="BT57" s="1">
+      <c r="BT57" s="5">
         <v>3.3048568116945116E-7</v>
       </c>
-      <c r="BU57" s="1">
+      <c r="BU57" s="5">
         <v>1.4661191013713537E-13</v>
       </c>
-      <c r="BV57" s="1">
+      <c r="BV57" s="5">
         <v>3.867702599503112E-7</v>
       </c>
-      <c r="BW57" s="1">
+      <c r="BW57" s="5">
         <v>2.7265071994706303E-9</v>
       </c>
-      <c r="BX57" s="1">
+      <c r="BX57" s="5">
         <v>1.3838236769843131E-12</v>
       </c>
-      <c r="BY57" s="1">
+      <c r="BY57" s="5">
         <v>1.1407702546199134E-8</v>
       </c>
-      <c r="BZ57" s="1">
+      <c r="BZ57" s="5">
         <v>1.0325918573708574E-8</v>
       </c>
-      <c r="CA57" s="1">
+      <c r="CA57" s="5">
         <v>1.823664506095202E-11</v>
       </c>
-      <c r="CB57" s="1">
+      <c r="CB57" s="5">
         <v>2.1870174035751874E-7</v>
       </c>
-      <c r="CC57" s="1">
+      <c r="CC57" s="5">
         <v>2.144565220980625E-8</v>
       </c>
-      <c r="CD57" s="1">
+      <c r="CD57" s="5">
         <v>1.0884624385881668E-11</v>
       </c>
-      <c r="CE57" s="1">
+      <c r="CE57" s="5">
         <v>8.9728583303426887E-8</v>
       </c>
-      <c r="CF57" s="1">
+      <c r="CF57" s="5">
         <v>8.1219699715454587E-8</v>
       </c>
-      <c r="CG57" s="1">
+      <c r="CG57" s="5">
         <v>1.4344241321044704E-10</v>
       </c>
-      <c r="CH57" s="1">
+      <c r="CH57" s="5">
         <v>3.1045361944913107E-8</v>
       </c>
-      <c r="CI57" s="1">
+      <c r="CI57" s="5">
         <v>4.2346464004541377E-8</v>
       </c>
-      <c r="CJ57" s="1">
+      <c r="CJ57" s="5">
         <v>2.1492712631298101E-11</v>
       </c>
-      <c r="CK57" s="1">
+      <c r="CK57" s="5">
         <v>1.7717753621847734E-7</v>
       </c>
-      <c r="CL57" s="1">
+      <c r="CL57" s="5">
         <v>1.6037592320160167E-7</v>
       </c>
-      <c r="CM57" s="1">
+      <c r="CM57" s="5">
         <v>2.8324053782121441E-10</v>
       </c>
-      <c r="CN57" s="1">
+      <c r="CN57" s="5">
         <v>2.3999907111359541E-9</v>
       </c>
-      <c r="CO57" s="1">
+      <c r="CO57" s="5">
         <v>4.553689519408536E-8</v>
       </c>
-      <c r="CP57" s="1">
+      <c r="CP57" s="5">
         <v>2.3112018286726184E-11</v>
       </c>
-      <c r="CQ57" s="1">
+      <c r="CQ57" s="5">
         <v>1.9052643069703831E-7</v>
       </c>
-      <c r="CR57" s="1">
+      <c r="CR57" s="5">
         <v>1.7245896106623728E-7</v>
       </c>
-      <c r="CS57" s="1">
+      <c r="CS57" s="5">
         <v>3.0458043934814496E-10</v>
       </c>
-      <c r="CT57" s="1">
+      <c r="CT57" s="5">
         <v>1.8619783992157262E-7</v>
       </c>
-      <c r="CU57" s="1">
+      <c r="CU57" s="5">
         <v>2.5889775009566058E-13</v>
       </c>
-      <c r="CV57" s="1">
+      <c r="CV57" s="5">
         <v>1.0149894443314869E-12</v>
       </c>
-      <c r="CW57" s="1">
+      <c r="CW57" s="5">
         <v>1.4112864814234755E-18</v>
       </c>
-      <c r="CX57" s="1">
+      <c r="CX57" s="5">
         <v>2.1975349667910021E-14</v>
       </c>
-      <c r="CY57" s="1">
+      <c r="CY57" s="5">
         <v>9.0793232394922182E-9</v>
       </c>
-      <c r="CZ57" s="1">
+      <c r="CZ57" s="5">
         <v>1.0346261242669354E-8</v>
       </c>
-      <c r="DA57" s="1">
+      <c r="DA57" s="5">
         <v>2.896009680838133E-13</v>
       </c>
-      <c r="DB57" s="1">
+      <c r="DB57" s="5">
         <v>7.8977185379964252E-8</v>
       </c>
-      <c r="DC57" s="1">
+      <c r="DC57" s="5">
         <v>1.09813390966276E-13</v>
       </c>
-      <c r="DD57" s="1">
+      <c r="DD57" s="5">
         <v>6.6169071147992486E-12</v>
       </c>
-      <c r="DE57" s="1">
+      <c r="DE57" s="5">
         <v>9.2004416916379147E-18</v>
       </c>
-      <c r="DF57" s="1">
+      <c r="DF57" s="5">
         <v>1.432614511787077E-13</v>
       </c>
-      <c r="DG57" s="1">
+      <c r="DG57" s="5">
         <v>5.9189823415298807E-8</v>
       </c>
-      <c r="DH57" s="1">
+      <c r="DH57" s="5">
         <v>6.7449228956746416E-8</v>
       </c>
-      <c r="DI57" s="1">
+      <c r="DI57" s="5">
         <v>1.8879632088471553E-12</v>
       </c>
-      <c r="DJ57" s="1">
+      <c r="DJ57" s="5">
         <v>1.1896539615146089E-7</v>
       </c>
-      <c r="DK57" s="1">
+      <c r="DK57" s="5">
         <v>1.6541477649250154E-13</v>
       </c>
-      <c r="DL57" s="1">
+      <c r="DL57" s="5">
         <v>1.1665615548346604E-8</v>
       </c>
-      <c r="DM57" s="1">
+      <c r="DM57" s="5">
         <v>1.6220391266133856E-14</v>
       </c>
-      <c r="DN57" s="1">
+      <c r="DN57" s="5">
         <v>2.5257007286219856E-10</v>
       </c>
-      <c r="DO57" s="1">
+      <c r="DO57" s="5">
         <v>4.1543133347248379E-8</v>
       </c>
-      <c r="DP57" s="1">
+      <c r="DP57" s="5">
         <v>2.9869631871326038E-8</v>
       </c>
-      <c r="DQ57" s="1">
+      <c r="DQ57" s="5">
         <v>3.3284813287778894E-9</v>
       </c>
-      <c r="DR57" s="1">
+      <c r="DR57" s="5">
         <v>1.4485834076652987E-9</v>
       </c>
-      <c r="DS57" s="1">
+      <c r="DS57" s="5">
         <v>2.0141747895343722E-15</v>
       </c>
-      <c r="DT57" s="1">
+      <c r="DT57" s="5">
         <v>2.7485104201647258E-8</v>
       </c>
-      <c r="DU57" s="1">
+      <c r="DU57" s="5">
         <v>3.821650829927476E-14</v>
       </c>
-      <c r="DV57" s="1">
+      <c r="DV57" s="5">
         <v>5.9507479461643434E-10</v>
       </c>
-      <c r="DW57" s="1">
+      <c r="DW57" s="5">
         <v>9.7878856751435862E-8</v>
       </c>
-      <c r="DX57" s="1">
+      <c r="DX57" s="5">
         <v>7.0375182690689477E-8</v>
       </c>
-      <c r="DY57" s="1">
+      <c r="DY57" s="5">
         <v>7.8421602752759634E-9</v>
       </c>
-      <c r="DZ57" s="1">
+      <c r="DZ57" s="5">
         <v>7.8978962529734752E-8</v>
       </c>
-      <c r="EA57" s="1">
+      <c r="EA57" s="5">
         <v>4.305249729431306E-13</v>
       </c>
-      <c r="EB57" s="1">
+      <c r="EB57" s="5">
         <v>1.6878412021543033E-12</v>
       </c>
-      <c r="EC57" s="1">
+      <c r="EC57" s="5">
         <v>9.2006492925054245E-18</v>
       </c>
-      <c r="ED57" s="1">
+      <c r="ED57" s="5">
         <v>1.4326465694784357E-13</v>
       </c>
-      <c r="EE57" s="1">
+      <c r="EE57" s="5">
         <v>5.9191147639647486E-8</v>
       </c>
-      <c r="EF57" s="1">
+      <c r="EF57" s="5">
         <v>6.7450742356002048E-8</v>
       </c>
-      <c r="EG57" s="1">
+      <c r="EG57" s="5">
         <v>1.8880053973240949E-12</v>
       </c>
-      <c r="EH57" s="1">
+      <c r="EH57" s="5">
         <v>1.7356406994687279E-7</v>
       </c>
-      <c r="EI57" s="1">
+      <c r="EI57" s="5">
         <v>9.4612103821861458E-13</v>
       </c>
-      <c r="EJ57" s="1">
+      <c r="EJ57" s="5">
         <v>1.2235265395520979E-9</v>
       </c>
-      <c r="EK57" s="1">
+      <c r="EK57" s="5">
         <v>6.6696078123141009E-15</v>
       </c>
-      <c r="EL57" s="1">
+      <c r="EL57" s="5">
         <v>1.0385345699309499E-10</v>
       </c>
-      <c r="EM57" s="1">
+      <c r="EM57" s="5">
         <v>1.7081982961908066E-8</v>
       </c>
-      <c r="EN57" s="1">
+      <c r="EN57" s="5">
         <v>1.2281995297066616E-8</v>
       </c>
-      <c r="EO57" s="1">
+      <c r="EO57" s="5">
         <v>1.3686271326834503E-9</v>
       </c>
-      <c r="EP57" s="1">
+      <c r="EP57" s="5">
         <v>5.5965567775380227E-9</v>
       </c>
-      <c r="EQ57" s="1">
+      <c r="EQ57" s="5">
         <v>3.0507583712418283E-14</v>
       </c>
-      <c r="ER57" s="1">
+      <c r="ER57" s="5">
         <v>7.6338096522410362E-9</v>
       </c>
-      <c r="ES57" s="1">
+      <c r="ES57" s="5">
         <v>4.1612923006392641E-14</v>
       </c>
-      <c r="ET57" s="1">
+      <c r="ET57" s="5">
         <v>6.4796151613258245E-10</v>
       </c>
-      <c r="EU57" s="1">
+      <c r="EU57" s="5">
         <v>1.0657775198152763E-7</v>
       </c>
-      <c r="EV57" s="1">
+      <c r="EV57" s="5">
         <v>7.6629712568237591E-8</v>
       </c>
-      <c r="EW57" s="1">
+      <c r="EW57" s="5">
         <v>8.5391261072320964E-9</v>
       </c>
-      <c r="EX57" s="1">
+      <c r="EX57" s="5">
         <v>8.0179382770964189E-9</v>
       </c>
-      <c r="EY57" s="1">
+      <c r="EY57" s="5">
         <v>1.7134950579285886E-13</v>
       </c>
-      <c r="EZ57" s="1">
+      <c r="EZ57" s="5">
         <v>6.7176300411057245E-13</v>
       </c>
-      <c r="FA57" s="1">
+      <c r="FA57" s="5">
         <v>1.4356092237836033E-17</v>
       </c>
-      <c r="FB57" s="1">
+      <c r="FB57" s="5">
         <v>2.2354007207899677E-13</v>
       </c>
-      <c r="FC57" s="1">
+      <c r="FC57" s="5">
         <v>9.2357692504527135E-8</v>
       </c>
-      <c r="FD57" s="1">
+      <c r="FD57" s="5">
         <v>1.0524537128397606E-7</v>
       </c>
-      <c r="FE57" s="1">
+      <c r="FE57" s="5">
         <v>2.9459107664738318E-12</v>
       </c>
-      <c r="FF57" s="1">
+      <c r="FF57" s="5">
         <v>1.9062460662999247E-8</v>
       </c>
-      <c r="FG57" s="1">
+      <c r="FG57" s="5">
         <v>4.0737945386579634E-13</v>
       </c>
-      <c r="FH57" s="1">
+      <c r="FH57" s="5">
         <v>1.8692440462485714E-9</v>
       </c>
-      <c r="FI57" s="1">
+      <c r="FI57" s="5">
         <v>3.9947178801173376E-14</v>
       </c>
-      <c r="FJ57" s="1">
+      <c r="FJ57" s="5">
         <v>6.220231239099431E-10</v>
       </c>
-      <c r="FK57" s="1">
+      <c r="FK57" s="5">
         <v>1.0231136306457153E-7</v>
       </c>
-      <c r="FL57" s="1">
+      <c r="FL57" s="5">
         <v>7.356216869239735E-8</v>
       </c>
-      <c r="FM57" s="1">
+      <c r="FM57" s="5">
         <v>8.1972979643029872E-9</v>
       </c>
-      <c r="FN57" s="1">
+      <c r="FN57" s="5">
         <v>1.0852648379788114E-10</v>
       </c>
-      <c r="FO57" s="1">
+      <c r="FO57" s="5">
         <v>2.3192944509591289E-15</v>
       </c>
-      <c r="FP57" s="1">
+      <c r="FP57" s="5">
         <v>2.0591577776501066E-9</v>
       </c>
-      <c r="FQ57" s="1">
+      <c r="FQ57" s="5">
         <v>4.4005780954593857E-14</v>
       </c>
-      <c r="FR57" s="1">
+      <c r="FR57" s="5">
         <v>6.8521942310771688E-10</v>
       </c>
-      <c r="FS57" s="1">
+      <c r="FS57" s="5">
         <v>1.1270599305676797E-7</v>
       </c>
-      <c r="FT57" s="1">
+      <c r="FT57" s="5">
         <v>8.1035938121222563E-8</v>
       </c>
-      <c r="FU57" s="1">
+      <c r="FU57" s="5">
         <v>9.0301277592419589E-9</v>
       </c>
-      <c r="FV57" s="1">
+      <c r="FV57" s="5">
         <v>5.5012075600646472E-8</v>
       </c>
-      <c r="FW57" s="1">
+      <c r="FW57" s="5">
         <v>4.609049838901153E-12</v>
       </c>
-      <c r="FX57" s="1">
+      <c r="FX57" s="5">
         <v>3.8780337991423575E-10</v>
       </c>
-      <c r="FY57" s="1">
+      <c r="FY57" s="5">
         <v>3.2491142125272436E-14</v>
       </c>
-      <c r="FZ57" s="1">
+      <c r="FZ57" s="5">
         <v>5.0592435756824888E-10</v>
       </c>
-      <c r="GA57" s="1">
+      <c r="GA57" s="5">
         <v>8.3215254877207612E-8</v>
       </c>
-      <c r="GB57" s="1">
+      <c r="GB57" s="5">
         <v>5.983200674078632E-8</v>
       </c>
-      <c r="GC57" s="1">
+      <c r="GC57" s="5">
         <v>6.6672967915955188E-9</v>
       </c>
-      <c r="GD57" s="1">
+      <c r="GD57" s="5">
         <v>3.8743990682539829E-10</v>
       </c>
-      <c r="GE57" s="1">
+      <c r="GE57" s="5">
         <v>3.2460687925533825E-14</v>
       </c>
-      <c r="GF57" s="1">
+      <c r="GF57" s="5">
         <v>5.2847536480166582E-10</v>
       </c>
-      <c r="GG57" s="1">
+      <c r="GG57" s="5">
         <v>4.4276993398898157E-14</v>
       </c>
-      <c r="GH57" s="1">
+      <c r="GH57" s="5">
         <v>6.8943510178092497E-10</v>
       </c>
-      <c r="GI57" s="1">
+      <c r="GI57" s="5">
         <v>1.1339939912629228E-7</v>
       </c>
-      <c r="GJ57" s="1">
+      <c r="GJ57" s="5">
         <v>8.1534501312542119E-8</v>
       </c>
-      <c r="GK57" s="1">
+      <c r="GK57" s="5">
         <v>9.0856824267490597E-9</v>
       </c>
-      <c r="GL57" s="1">
+      <c r="GL57" s="5">
         <v>1.2712426881688382E-12</v>
       </c>
-      <c r="GM57" s="1">
+      <c r="GM57" s="5">
         <v>7.7890406638568513E-15</v>
       </c>
-      <c r="GN57" s="1">
+      <c r="GN57" s="5">
         <v>8.0835421518402235E-6</v>
       </c>
-      <c r="GO57" s="1">
+      <c r="GO57" s="5">
         <v>1.4599281922394948E-5</v>
       </c>
-      <c r="GP57" s="1">
+      <c r="GP57" s="5">
         <v>1.2924222881106678E-5</v>
       </c>
-      <c r="GQ57" s="1">
+      <c r="GQ57" s="5">
         <v>6.3078290528315389E-7</v>
       </c>
-      <c r="GR57" s="1">
+      <c r="GR57" s="5">
         <v>2.6340976949380206E-8</v>
       </c>
-      <c r="GS57" s="1">
+      <c r="GS57" s="5">
         <v>1.4272011941110168E-8</v>
       </c>
-      <c r="GT57" s="1">
+      <c r="GT57" s="5">
         <v>2.6888515419268177E-13</v>
       </c>
-      <c r="GU57" s="1">
+      <c r="GU57" s="5">
         <v>2.2640622712295309E-19</v>
       </c>
-      <c r="GV57" s="1">
+      <c r="GV57" s="5">
         <v>1.9757890572535224E-14</v>
       </c>
-      <c r="GW57" s="1">
+      <c r="GW57" s="5">
         <v>1.2736360535866781E-5</v>
       </c>
-      <c r="GX57" s="1">
+      <c r="GX57" s="5">
         <v>2.4492909550139377E-13</v>
       </c>
-      <c r="GY57" s="1">
+      <c r="GY57" s="5">
         <v>2.9878311104957226E-16</v>
       </c>
-      <c r="GZ57" s="1">
+      <c r="GZ57" s="5">
         <v>1.2344506963241477E-8</v>
       </c>
-      <c r="HA57" s="1">
+      <c r="HA57" s="5">
         <v>2.2294795582097188E-8</v>
       </c>
-      <c r="HB57" s="1">
+      <c r="HB57" s="5">
         <v>8.2106718967807464E-15</v>
       </c>
-      <c r="HC57" s="1">
+      <c r="HC57" s="5">
         <v>1.2335472275606438E-5</v>
       </c>
-      <c r="HD57" s="1">
+      <c r="HD57" s="5">
         <v>3.0795277600396149E-12</v>
       </c>
-      <c r="HE57" s="1">
+      <c r="HE57" s="5">
         <v>3.7566419532324253E-15</v>
       </c>
-      <c r="HF57" s="1">
+      <c r="HF57" s="5">
         <v>1.5520921653029788E-7</v>
       </c>
-      <c r="HG57" s="1">
+      <c r="HG57" s="5">
         <v>2.8031561180424643E-7</v>
       </c>
-      <c r="HH57" s="1">
+      <c r="HH57" s="5">
         <v>1.0323394326251133E-13</v>
       </c>
-      <c r="HI57" s="1">
+      <c r="HI57" s="5">
         <v>8.7571811322693848E-6</v>
       </c>
-      <c r="HJ57" s="1">
+      <c r="HJ57" s="5">
         <v>2.838088202634446E-11</v>
       </c>
-      <c r="HK57" s="1">
+      <c r="HK57" s="5">
         <v>3.4621155692470744E-14</v>
       </c>
-      <c r="HL57" s="1">
+      <c r="HL57" s="5">
         <v>1.4304059141477987E-6</v>
       </c>
-      <c r="HM57" s="1">
+      <c r="HM57" s="5">
         <v>2.583384437144674E-6</v>
       </c>
-      <c r="HN57" s="1">
+      <c r="HN57" s="5">
         <v>9.5140245186247547E-13</v>
       </c>
-      <c r="HO57" s="1">
+      <c r="HO57" s="5">
         <v>1.8375186452973155E-6</v>
       </c>
-      <c r="HP57" s="1">
+      <c r="HP57" s="5">
         <v>7.7308373436093018E-11</v>
       </c>
-      <c r="HQ57" s="1">
+      <c r="HQ57" s="5">
         <v>9.4306630708383403E-14</v>
       </c>
-      <c r="HR57" s="1">
+      <c r="HR57" s="5">
         <v>3.8963674768628003E-6</v>
       </c>
-      <c r="HS57" s="1">
+      <c r="HS57" s="5">
         <v>7.0370345670965747E-6</v>
       </c>
-      <c r="HT57" s="1">
+      <c r="HT57" s="5">
         <v>2.5915816060560957E-12</v>
       </c>
-      <c r="HU57" s="1">
+      <c r="HU57" s="5">
         <v>6.3606088684175103E-6</v>
       </c>
-      <c r="HV57" s="1">
+      <c r="HV57" s="5">
         <v>2.3850294281715895E-8</v>
       </c>
-      <c r="HW57" s="1">
+      <c r="HW57" s="5">
         <v>1.2468363033632177E-13</v>
       </c>
-      <c r="HX57" s="1">
+      <c r="HX57" s="5">
         <v>3.697662559780559E-10</v>
       </c>
-      <c r="HY57" s="1">
+      <c r="HY57" s="5">
         <v>6.6781637059318408E-10</v>
       </c>
-      <c r="HZ57" s="1">
+      <c r="HZ57" s="5">
         <v>3.4263534082266244E-12</v>
       </c>
-      <c r="IA57" s="1">
+      <c r="IA57" s="5">
         <v>5.0250277526528126E-6</v>
       </c>
-      <c r="IB57" s="1">
+      <c r="IB57" s="5">
         <v>1.303568047604424E-6</v>
       </c>
-      <c r="IC57" s="1">
+      <c r="IC57" s="5">
         <v>6.8147411835195996E-12</v>
       </c>
-      <c r="ID57" s="1">
+      <c r="ID57" s="5">
         <v>2.0210042605759464E-8</v>
       </c>
-      <c r="IE57" s="1">
+      <c r="IE57" s="5">
         <v>3.6500346073180444E-8</v>
       </c>
-      <c r="IF57" s="1">
+      <c r="IF57" s="5">
         <v>1.8727166550126544E-10</v>
       </c>
-      <c r="IG57" s="1">
+      <c r="IG57" s="5">
         <v>3.236346799426911E-7</v>
       </c>
-      <c r="IH57" s="1">
+      <c r="IH57" s="5">
         <v>5.8083158895136978E-6</v>
       </c>
-      <c r="II57" s="1">
+      <c r="II57" s="5">
         <v>3.0364480766233932E-11</v>
       </c>
-      <c r="IJ57" s="1">
+      <c r="IJ57" s="5">
         <v>9.0050008096552563E-8</v>
       </c>
-      <c r="IK57" s="1">
+      <c r="IK57" s="5">
         <v>1.6263479738560567E-7</v>
       </c>
-      <c r="IL57" s="1">
+      <c r="IL57" s="5">
         <v>8.3442742562242238E-10</v>
       </c>
-      <c r="IM57" s="1">
+      <c r="IM57" s="5">
         <v>4.9237900197693511E-9</v>
       </c>
-      <c r="IN57" s="1">
+      <c r="IN57" s="5">
         <v>6.1136962159290248E-6</v>
       </c>
-      <c r="IO57" s="1">
+      <c r="IO57" s="5">
         <v>3.1960939827737167E-11</v>
       </c>
-      <c r="IP57" s="1">
+      <c r="IP57" s="5">
         <v>9.4784514929481303E-8</v>
       </c>
-      <c r="IQ57" s="1">
+      <c r="IQ57" s="5">
         <v>1.7118556695516739E-7</v>
       </c>
-      <c r="IR57" s="1">
+      <c r="IR57" s="5">
         <v>8.7829870288681128E-10</v>
       </c>
-      <c r="IS57" s="1">
+      <c r="IS57" s="5">
         <v>2.1102108641580112E-6</v>
       </c>
-      <c r="IT57" s="1">
+      <c r="IT57" s="5">
         <v>4.0580825281543383E-14</v>
       </c>
-      <c r="IU57" s="1">
+      <c r="IU57" s="5">
         <v>5.268102131800527E-13</v>
       </c>
-      <c r="IV57" s="1">
+      <c r="IV57" s="5">
         <v>1.0130927991559024E-20</v>
       </c>
+      <c r="IW57" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="58" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>264</v>
       </c>
@@ -42995,7 +43484,7 @@
         <v>5.2042534339336674E-16</v>
       </c>
     </row>
-    <row r="59" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>264</v>
       </c>
@@ -43765,7 +44254,7 @@
         <v>5.2220222485008249E-16</v>
       </c>
     </row>
-    <row r="60" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>264</v>
       </c>
@@ -44535,7 +45024,7 @@
         <v>5.2457401923924259E-16</v>
       </c>
     </row>
-    <row r="61" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>264</v>
       </c>
@@ -45305,7 +45794,7 @@
         <v>5.271043192289735E-16</v>
       </c>
     </row>
-    <row r="62" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>264</v>
       </c>
@@ -46075,7 +46564,7 @@
         <v>5.2983199797811815E-16</v>
       </c>
     </row>
-    <row r="63" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>264</v>
       </c>
@@ -46845,777 +47334,780 @@
         <v>5.3274724858034238E-16</v>
       </c>
     </row>
-    <row r="64" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:257" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5">
         <v>2.882862659703278E-8</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="5">
         <v>1.4788822564563292E-14</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="5">
         <v>2.0000000949949026E-2</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="5">
         <v>2.6057197828777134E-4</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="5">
         <v>4.3790321797132492E-4</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="5">
         <v>1.0929207783192396E-3</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="5">
         <v>5.3341376769822091E-5</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="5">
         <v>7.4673251947388053E-4</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="5">
         <v>5.380301081459038E-5</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64" s="5">
         <v>1.7522716007078998E-6</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64" s="5">
         <v>1.4151821053762873E-26</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64" s="5">
         <v>1.4723696711386189E-10</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="5">
         <v>3.264780056519349E-17</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="5">
         <v>2.5707159265375274E-18</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64" s="5">
         <v>9.1169136969744298E-11</v>
       </c>
-      <c r="R64" s="1">
+      <c r="R64" s="5">
         <v>1.5321393620701968E-10</v>
       </c>
-      <c r="S64" s="1">
+      <c r="S64" s="5">
         <v>9.3716651308758009E-13</v>
       </c>
-      <c r="T64" s="1">
+      <c r="T64" s="5">
         <v>1.4144297683615107E-10</v>
       </c>
-      <c r="U64" s="1">
+      <c r="U64" s="5">
         <v>1.0289507918059826E-3</v>
       </c>
-      <c r="V64" s="1">
+      <c r="V64" s="5">
         <v>6.6250679083168507E-5</v>
       </c>
-      <c r="W64" s="1">
+      <c r="W64" s="5">
         <v>2.5002763476224154E-20</v>
       </c>
-      <c r="X64" s="1">
+      <c r="X64" s="5">
         <v>6.2829610103651933E-21</v>
       </c>
-      <c r="Y64" s="1">
+      <c r="Y64" s="5">
         <v>3.9043575270625297E-6</v>
       </c>
-      <c r="Z64" s="1">
+      <c r="Z64" s="5">
         <v>3.7084947734911111E-7</v>
       </c>
-      <c r="AA64" s="1">
+      <c r="AA64" s="5">
         <v>3.4745975426631048E-5</v>
       </c>
-      <c r="AB64" s="1">
+      <c r="AB64" s="5">
         <v>2.2734345748176565E-6</v>
       </c>
-      <c r="AC64" s="1">
+      <c r="AC64" s="5">
         <v>3.6466929032030748E-7</v>
       </c>
-      <c r="AD64" s="1">
+      <c r="AD64" s="5">
         <v>2.0935336578986607E-5</v>
       </c>
-      <c r="AE64" s="1">
+      <c r="AE64" s="5">
         <v>6.1677462148809672E-15</v>
       </c>
-      <c r="AF64" s="1">
+      <c r="AF64" s="5">
         <v>1.920084857431488E-16</v>
       </c>
-      <c r="AG64" s="1">
+      <c r="AG64" s="5">
         <v>1.327948820310375E-15</v>
       </c>
-      <c r="AH64" s="1">
+      <c r="AH64" s="5">
         <v>8.6743356638233071E-14</v>
       </c>
-      <c r="AI64" s="1">
+      <c r="AI64" s="5">
         <v>2.2482168185194334E-16</v>
       </c>
-      <c r="AJ64" s="1">
+      <c r="AJ64" s="5">
         <v>1.4011267048129995E-18</v>
       </c>
-      <c r="AK64" s="1">
+      <c r="AK64" s="5">
         <v>1.8537893388317211E-13</v>
       </c>
-      <c r="AL64" s="1">
+      <c r="AL64" s="5">
         <v>1.6711598505025904E-7</v>
       </c>
-      <c r="AM64" s="1">
+      <c r="AM64" s="5">
         <v>8.7036852142034417E-12</v>
       </c>
-      <c r="AN64" s="1">
+      <c r="AN64" s="5">
         <v>2.5802353863807302E-17</v>
       </c>
-      <c r="AO64" s="1">
+      <c r="AO64" s="5">
         <v>4.5462511683146692E-7</v>
       </c>
-      <c r="AP64" s="1">
+      <c r="AP64" s="5">
         <v>7.6401847801158923E-7</v>
       </c>
-      <c r="AQ64" s="1">
+      <c r="AQ64" s="5">
         <v>3.2996502124868154E-7</v>
       </c>
-      <c r="AR64" s="1">
+      <c r="AR64" s="5">
         <v>1.6104358447633697E-8</v>
       </c>
-      <c r="AS64" s="1">
+      <c r="AS64" s="5">
         <v>1.178769208916027E-9</v>
       </c>
-      <c r="AT64" s="1">
+      <c r="AT64" s="5">
         <v>6.8637531139761497E-10</v>
       </c>
-      <c r="AU64" s="1">
+      <c r="AU64" s="5">
         <v>1.8621116226883951E-18</v>
       </c>
-      <c r="AV64" s="1">
+      <c r="AV64" s="5">
         <v>4.2301584543577428E-22</v>
       </c>
-      <c r="AW64" s="1">
+      <c r="AW64" s="5">
         <v>5.596797565293107E-17</v>
       </c>
-      <c r="AX64" s="1">
+      <c r="AX64" s="5">
         <v>7.7643239423689561E-7</v>
       </c>
-      <c r="AY64" s="1">
+      <c r="AY64" s="5">
         <v>3.422603024220856E-10</v>
       </c>
-      <c r="AZ64" s="1">
+      <c r="AZ64" s="5">
         <v>5.5704938074773124E-17</v>
       </c>
-      <c r="BA64" s="1">
+      <c r="BA64" s="5">
         <v>1.9583390005866851E-8</v>
       </c>
-      <c r="BB64" s="1">
+      <c r="BB64" s="5">
         <v>2.6141971252616933E-8</v>
       </c>
-      <c r="BC64" s="1">
+      <c r="BC64" s="5">
         <v>2.3155757942656764E-18</v>
       </c>
-      <c r="BD64" s="1">
+      <c r="BD64" s="5">
         <v>6.6728408920963932E-7</v>
       </c>
-      <c r="BE64" s="1">
+      <c r="BE64" s="5">
         <v>1.1531795596118224E-9</v>
       </c>
-      <c r="BF64" s="1">
+      <c r="BF64" s="5">
         <v>1.8768699238261261E-16</v>
       </c>
-      <c r="BG64" s="1">
+      <c r="BG64" s="5">
         <v>6.5982424935888044E-8</v>
       </c>
-      <c r="BH64" s="1">
+      <c r="BH64" s="5">
         <v>8.8080309615093821E-8</v>
       </c>
-      <c r="BI64" s="1">
+      <c r="BI64" s="5">
         <v>7.8018827813584879E-18</v>
       </c>
-      <c r="BJ64" s="1">
+      <c r="BJ64" s="5">
         <v>4.3019490195976679E-7</v>
       </c>
-      <c r="BK64" s="1">
+      <c r="BK64" s="5">
         <v>2.9146380360054234E-9</v>
       </c>
-      <c r="BL64" s="1">
+      <c r="BL64" s="5">
         <v>4.7437511902744625E-16</v>
       </c>
-      <c r="BM64" s="1">
+      <c r="BM64" s="5">
         <v>1.6676926380510633E-7</v>
       </c>
-      <c r="BN64" s="1">
+      <c r="BN64" s="5">
         <v>2.2262120512656953E-7</v>
       </c>
-      <c r="BO64" s="1">
+      <c r="BO64" s="5">
         <v>1.9719104131540285E-17</v>
       </c>
-      <c r="BP64" s="1">
+      <c r="BP64" s="5">
         <v>1.7977626951001969E-7</v>
       </c>
-      <c r="BQ64" s="1">
+      <c r="BQ64" s="5">
         <v>4.7751278961054029E-9</v>
       </c>
-      <c r="BR64" s="1">
+      <c r="BR64" s="5">
         <v>7.7718114501180721E-16</v>
       </c>
-      <c r="BS64" s="1">
+      <c r="BS64" s="5">
         <v>2.7322246593827857E-7</v>
       </c>
-      <c r="BT64" s="1">
+      <c r="BT64" s="5">
         <v>3.6472616470515124E-7</v>
       </c>
-      <c r="BU64" s="1">
+      <c r="BU64" s="5">
         <v>3.2306326033724708E-17</v>
       </c>
-      <c r="BV64" s="1">
+      <c r="BV64" s="5">
         <v>1.2354824218588939E-7</v>
       </c>
-      <c r="BW64" s="1">
+      <c r="BW64" s="5">
         <v>2.7611463227191502E-7</v>
       </c>
-      <c r="BX64" s="1">
+      <c r="BX64" s="5">
         <v>4.4939335638971687E-14</v>
       </c>
-      <c r="BY64" s="1">
+      <c r="BY64" s="5">
         <v>6.2895622508823029E-9</v>
       </c>
-      <c r="BZ64" s="1">
+      <c r="BZ64" s="5">
         <v>5.2975085751832691E-9</v>
       </c>
-      <c r="CA64" s="1">
+      <c r="CA64" s="5">
         <v>1.8680648194095539E-15</v>
       </c>
-      <c r="CB64" s="1">
+      <c r="CB64" s="5">
         <v>1.2315786113645827E-8</v>
       </c>
-      <c r="CC64" s="1">
+      <c r="CC64" s="5">
         <v>3.8286723458879458E-7</v>
       </c>
-      <c r="CD64" s="1">
+      <c r="CD64" s="5">
         <v>6.2313976385464353E-14</v>
       </c>
-      <c r="CE64" s="1">
+      <c r="CE64" s="5">
         <v>8.7212615248601107E-9</v>
       </c>
-      <c r="CF64" s="1">
+      <c r="CF64" s="5">
         <v>7.3456548158169052E-9</v>
       </c>
-      <c r="CG64" s="1">
+      <c r="CG64" s="5">
         <v>2.5903043961918342E-15</v>
       </c>
-      <c r="CH64" s="1">
+      <c r="CH64" s="5">
         <v>9.1069728872547597E-10</v>
       </c>
-      <c r="CI64" s="1">
+      <c r="CI64" s="5">
         <v>3.9381300643044563E-7</v>
       </c>
-      <c r="CJ64" s="1">
+      <c r="CJ64" s="5">
         <v>6.4095461152075573E-14</v>
       </c>
-      <c r="CK64" s="1">
+      <c r="CK64" s="5">
         <v>8.9705913237413725E-9</v>
       </c>
-      <c r="CL64" s="1">
+      <c r="CL64" s="5">
         <v>7.5556580619255946E-9</v>
       </c>
-      <c r="CM64" s="1">
+      <c r="CM64" s="5">
         <v>2.6643577933347211E-15</v>
       </c>
-      <c r="CN64" s="1">
+      <c r="CN64" s="5">
         <v>6.5612164960168109E-11</v>
       </c>
-      <c r="CO64" s="1">
+      <c r="CO64" s="5">
         <v>3.9462404856088123E-7</v>
       </c>
-      <c r="CP64" s="1">
+      <c r="CP64" s="5">
         <v>6.4227459737079196E-14</v>
       </c>
-      <c r="CQ64" s="1">
+      <c r="CQ64" s="5">
         <v>8.9890667999907257E-9</v>
       </c>
-      <c r="CR64" s="1">
+      <c r="CR64" s="5">
         <v>7.5712186075173138E-9</v>
       </c>
-      <c r="CS64" s="1">
+      <c r="CS64" s="5">
         <v>2.6698451576307406E-15</v>
       </c>
-      <c r="CT64" s="1">
+      <c r="CT64" s="5">
         <v>1.7491458121040072E-7</v>
       </c>
-      <c r="CU64" s="1">
+      <c r="CU64" s="5">
         <v>7.7104350169807127E-11</v>
       </c>
-      <c r="CV64" s="1">
+      <c r="CV64" s="5">
         <v>3.0228192514881802E-10</v>
       </c>
-      <c r="CW64" s="1">
+      <c r="CW64" s="5">
         <v>1.3324933241970132E-13</v>
       </c>
-      <c r="CX64" s="1">
+      <c r="CX64" s="5">
         <v>2.0986960996546334E-15</v>
       </c>
-      <c r="CY64" s="1">
+      <c r="CY64" s="5">
         <v>1.4721212909353732E-8</v>
       </c>
-      <c r="CZ64" s="1">
+      <c r="CZ64" s="5">
         <v>1.5609689230769047E-8</v>
       </c>
-      <c r="DA64" s="1">
+      <c r="DA64" s="5">
         <v>8.7239830509210744E-17</v>
       </c>
-      <c r="DB64" s="1">
+      <c r="DB64" s="5">
         <v>5.5691890540787171E-8</v>
       </c>
-      <c r="DC64" s="1">
+      <c r="DC64" s="5">
         <v>2.4549623590834426E-11</v>
       </c>
-      <c r="DD64" s="1">
+      <c r="DD64" s="5">
         <v>1.4792603065593311E-9</v>
       </c>
-      <c r="DE64" s="1">
+      <c r="DE64" s="5">
         <v>6.5207492210200845E-13</v>
       </c>
-      <c r="DF64" s="1">
+      <c r="DF64" s="5">
         <v>1.0270271232772581E-14</v>
       </c>
-      <c r="DG64" s="1">
+      <c r="DG64" s="5">
         <v>7.2040380257236975E-8</v>
       </c>
-      <c r="DH64" s="1">
+      <c r="DH64" s="5">
         <v>7.6388259903342528E-8</v>
       </c>
-      <c r="DI64" s="1">
+      <c r="DI64" s="5">
         <v>4.2692067188596302E-16</v>
       </c>
-      <c r="DJ64" s="1">
+      <c r="DJ64" s="5">
         <v>6.2107619525954409E-9</v>
       </c>
-      <c r="DK64" s="1">
+      <c r="DK64" s="5">
         <v>2.7377751195647897E-12</v>
       </c>
-      <c r="DL64" s="1">
+      <c r="DL64" s="5">
         <v>1.9307717442697824E-7</v>
       </c>
-      <c r="DM64" s="1">
+      <c r="DM64" s="5">
         <v>8.5110632508395305E-11</v>
       </c>
-      <c r="DN64" s="1">
+      <c r="DN64" s="5">
         <v>1.3405046598850386E-12</v>
       </c>
-      <c r="DO64" s="1">
+      <c r="DO64" s="5">
         <v>3.7433641823494707E-9</v>
       </c>
-      <c r="DP64" s="1">
+      <c r="DP64" s="5">
         <v>2.5044558977176153E-9</v>
       </c>
-      <c r="DQ64" s="1">
+      <c r="DQ64" s="5">
         <v>5.5722887286536652E-14</v>
       </c>
-      <c r="DR64" s="1">
+      <c r="DR64" s="5">
         <v>3.30969159571715E-11</v>
       </c>
-      <c r="DS64" s="1">
+      <c r="DS64" s="5">
         <v>1.4589500492826149E-14</v>
       </c>
-      <c r="DT64" s="1">
+      <c r="DT64" s="5">
         <v>1.9906124215903185E-7</v>
       </c>
-      <c r="DU64" s="1">
+      <c r="DU64" s="5">
         <v>8.7748481478428823E-11</v>
       </c>
-      <c r="DV64" s="1">
+      <c r="DV64" s="5">
         <v>1.3820510948190035E-12</v>
       </c>
-      <c r="DW64" s="1">
+      <c r="DW64" s="5">
         <v>3.8593827426233427E-9</v>
       </c>
-      <c r="DX64" s="1">
+      <c r="DX64" s="5">
         <v>2.5820767267272173E-9</v>
       </c>
-      <c r="DY64" s="1">
+      <c r="DY64" s="5">
         <v>5.7449915611203466E-14</v>
       </c>
-      <c r="DZ64" s="1">
+      <c r="DZ64" s="5">
         <v>5.5972324774572293E-8</v>
       </c>
-      <c r="EA64" s="1">
+      <c r="EA64" s="5">
         <v>9.6729628850910153E-11</v>
       </c>
-      <c r="EB64" s="1">
+      <c r="EB64" s="5">
         <v>3.7922130727385936E-10</v>
       </c>
-      <c r="EC64" s="1">
+      <c r="EC64" s="5">
         <v>6.5535843535880002E-13</v>
       </c>
-      <c r="ED64" s="1">
+      <c r="ED64" s="5">
         <v>1.0321988546218318E-14</v>
       </c>
-      <c r="EE64" s="1">
+      <c r="EE64" s="5">
         <v>7.2403137693237371E-8</v>
       </c>
-      <c r="EF64" s="1">
+      <c r="EF64" s="5">
         <v>7.6772917972801841E-8</v>
       </c>
-      <c r="EG64" s="1">
+      <c r="EG64" s="5">
         <v>4.2907045516073081E-16</v>
       </c>
-      <c r="EH64" s="1">
+      <c r="EH64" s="5">
         <v>5.8349115518154163E-8</v>
       </c>
-      <c r="EI64" s="1">
+      <c r="EI64" s="5">
         <v>1.0083711533067859E-10</v>
       </c>
-      <c r="EJ64" s="1">
+      <c r="EJ64" s="5">
         <v>1.3040286243789105E-7</v>
       </c>
-      <c r="EK64" s="1">
+      <c r="EK64" s="5">
         <v>2.2535815053523095E-10</v>
       </c>
-      <c r="EL64" s="1">
+      <c r="EL64" s="5">
         <v>3.5494229242994415E-12</v>
       </c>
-      <c r="EM64" s="1">
+      <c r="EM64" s="5">
         <v>9.9117765036067717E-9</v>
       </c>
-      <c r="EN64" s="1">
+      <c r="EN64" s="5">
         <v>6.631363108969063E-9</v>
       </c>
-      <c r="EO64" s="1">
+      <c r="EO64" s="5">
         <v>1.4754449752211602E-13</v>
       </c>
-      <c r="EP64" s="1">
+      <c r="EP64" s="5">
         <v>4.2045774093436701E-10</v>
       </c>
-      <c r="EQ64" s="1">
+      <c r="EQ64" s="5">
         <v>7.266219406759856E-13</v>
       </c>
-      <c r="ER64" s="1">
+      <c r="ER64" s="5">
         <v>1.8181861196951366E-7</v>
       </c>
-      <c r="ES64" s="1">
+      <c r="ES64" s="5">
         <v>3.1421326920810203E-10</v>
       </c>
-      <c r="ET64" s="1">
+      <c r="ET64" s="5">
         <v>4.9489041883660412E-12</v>
       </c>
-      <c r="EU64" s="1">
+      <c r="EU64" s="5">
         <v>1.3819831767002015E-8</v>
       </c>
-      <c r="EV64" s="1">
+      <c r="EV64" s="5">
         <v>9.24600361291893E-9</v>
       </c>
-      <c r="EW64" s="1">
+      <c r="EW64" s="5">
         <v>2.057189516524975E-13</v>
       </c>
-      <c r="EX64" s="1">
+      <c r="EX64" s="5">
         <v>4.8962486960998115E-9</v>
       </c>
-      <c r="EY64" s="1">
+      <c r="EY64" s="5">
         <v>3.3172852963629921E-11</v>
       </c>
-      <c r="EZ64" s="1">
+      <c r="EZ64" s="5">
         <v>1.300517196661089E-10</v>
       </c>
-      <c r="FA64" s="1">
+      <c r="FA64" s="5">
         <v>8.8112084729602995E-13</v>
       </c>
-      <c r="FB64" s="1">
+      <c r="FB64" s="5">
         <v>1.3877733823181919E-14</v>
       </c>
-      <c r="FC64" s="1">
+      <c r="FC64" s="5">
         <v>9.7344779609314654E-8</v>
       </c>
-      <c r="FD64" s="1">
+      <c r="FD64" s="5">
         <v>1.0321986100330265E-7</v>
       </c>
-      <c r="FE64" s="1">
+      <c r="FE64" s="5">
         <v>5.7687781989729624E-16</v>
       </c>
-      <c r="FF64" s="1">
+      <c r="FF64" s="5">
         <v>4.3044961231644479E-9</v>
       </c>
-      <c r="FG64" s="1">
+      <c r="FG64" s="5">
         <v>2.9163637551956186E-11</v>
       </c>
-      <c r="FH64" s="1">
+      <c r="FH64" s="5">
         <v>1.3381610531193732E-7</v>
       </c>
-      <c r="FI64" s="1">
+      <c r="FI64" s="5">
         <v>9.066251158750036E-10</v>
       </c>
-      <c r="FJ64" s="1">
+      <c r="FJ64" s="5">
         <v>1.4279476946325184E-11</v>
       </c>
-      <c r="FK64" s="1">
+      <c r="FK64" s="5">
         <v>3.9875487420847418E-8</v>
       </c>
-      <c r="FL64" s="1">
+      <c r="FL64" s="5">
         <v>2.6678251191010462E-8</v>
       </c>
-      <c r="FM64" s="1">
+      <c r="FM64" s="5">
         <v>5.9357765968479564E-13</v>
       </c>
-      <c r="FN64" s="1">
+      <c r="FN64" s="5">
         <v>2.2725410410841283E-11</v>
       </c>
-      <c r="FO64" s="1">
+      <c r="FO64" s="5">
         <v>1.5396821691337299E-13</v>
       </c>
-      <c r="FP64" s="1">
+      <c r="FP64" s="5">
         <v>1.3668186349461601E-7</v>
       </c>
-      <c r="FQ64" s="1">
+      <c r="FQ64" s="5">
         <v>9.2604114737895952E-10</v>
       </c>
-      <c r="FR64" s="1">
+      <c r="FR64" s="5">
         <v>1.4585279455288035E-11</v>
       </c>
-      <c r="FS64" s="1">
+      <c r="FS64" s="5">
         <v>4.072944477871208E-8</v>
       </c>
-      <c r="FT64" s="1">
+      <c r="FT64" s="5">
         <v>2.7249579418896217E-8</v>
       </c>
-      <c r="FU64" s="1">
+      <c r="FU64" s="5">
         <v>6.0628943636477449E-13</v>
       </c>
-      <c r="FV64" s="1">
+      <c r="FV64" s="5">
         <v>2.6776186901988935E-8</v>
       </c>
-      <c r="FW64" s="1">
+      <c r="FW64" s="5">
         <v>7.112157690368819E-10</v>
       </c>
-      <c r="FX64" s="1">
+      <c r="FX64" s="5">
         <v>5.9841375924238885E-8</v>
       </c>
-      <c r="FY64" s="1">
+      <c r="FY64" s="5">
         <v>1.5894769138886154E-9</v>
       </c>
-      <c r="FZ64" s="1">
+      <c r="FZ64" s="5">
         <v>2.5034487672906855E-11</v>
       </c>
-      <c r="GA64" s="1">
+      <c r="GA64" s="5">
         <v>6.9908895648879473E-8</v>
       </c>
-      <c r="GB64" s="1">
+      <c r="GB64" s="5">
         <v>4.6771767704384438E-8</v>
       </c>
-      <c r="GC64" s="1">
+      <c r="GC64" s="5">
         <v>1.0406483947022086E-12</v>
       </c>
-      <c r="GD64" s="1">
+      <c r="GD64" s="5">
         <v>1.5960988075674172E-10</v>
       </c>
-      <c r="GE64" s="1">
+      <c r="GE64" s="5">
         <v>4.2394781957533385E-12</v>
       </c>
-      <c r="GF64" s="1">
+      <c r="GF64" s="5">
         <v>6.9020127749080353E-8</v>
       </c>
-      <c r="GG64" s="1">
+      <c r="GG64" s="5">
         <v>1.8332784032584251E-9</v>
       </c>
-      <c r="GH64" s="1">
+      <c r="GH64" s="5">
         <v>2.8874392249746224E-11</v>
       </c>
-      <c r="GI64" s="1">
+      <c r="GI64" s="5">
         <v>8.0631845968052697E-8</v>
       </c>
-      <c r="GJ64" s="1">
+      <c r="GJ64" s="5">
         <v>5.3945829510909668E-8</v>
       </c>
-      <c r="GK64" s="1">
+      <c r="GK64" s="5">
         <v>1.2002677200470347E-12</v>
       </c>
-      <c r="GL64" s="1">
+      <c r="GL64" s="5">
         <v>3.0397388729543941E-10</v>
       </c>
-      <c r="GM64" s="1">
+      <c r="GM64" s="5">
         <v>4.2509412306962741E-16</v>
       </c>
-      <c r="GN64" s="1">
+      <c r="GN64" s="5">
         <v>7.489955352825233E-6</v>
       </c>
-      <c r="GO64" s="1">
+      <c r="GO64" s="5">
         <v>1.2587214909698754E-5</v>
       </c>
-      <c r="GP64" s="1">
+      <c r="GP64" s="5">
         <v>1.152394024674108E-5</v>
       </c>
-      <c r="GQ64" s="1">
+      <c r="GQ64" s="5">
         <v>5.6244041008196119E-7</v>
       </c>
-      <c r="GR64" s="1">
+      <c r="GR64" s="5">
         <v>4.1168200941644383E-8</v>
       </c>
-      <c r="GS64" s="1">
+      <c r="GS64" s="5">
         <v>2.3971475446266269E-8</v>
       </c>
-      <c r="GT64" s="1">
+      <c r="GT64" s="5">
         <v>6.5033749135711281E-17</v>
       </c>
-      <c r="GU64" s="1">
+      <c r="GU64" s="5">
         <v>1.4773715415076352E-20</v>
       </c>
-      <c r="GV64" s="1">
+      <c r="GV64" s="5">
         <v>1.9546666287856288E-15</v>
       </c>
-      <c r="GW64" s="1">
+      <c r="GW64" s="5">
         <v>1.2741231468018796E-5</v>
       </c>
-      <c r="GX64" s="1">
+      <c r="GX64" s="5">
         <v>5.6017958413184685E-11</v>
       </c>
-      <c r="GY64" s="1">
+      <c r="GY64" s="5">
         <v>1.5802567691539581E-17</v>
       </c>
-      <c r="GZ64" s="1">
+      <c r="GZ64" s="5">
         <v>1.1084644017075948E-8</v>
       </c>
-      <c r="HA64" s="1">
+      <c r="HA64" s="5">
         <v>1.8628255009186521E-8</v>
       </c>
-      <c r="HB64" s="1">
+      <c r="HB64" s="5">
         <v>1.8994585552845409E-18</v>
       </c>
-      <c r="HC64" s="1">
+      <c r="HC64" s="5">
         <v>1.2395047704602064E-5</v>
       </c>
-      <c r="HD64" s="1">
+      <c r="HD64" s="5">
         <v>7.074527522989648E-10</v>
       </c>
-      <c r="HE64" s="1">
+      <c r="HE64" s="5">
         <v>1.9957116085191771E-16</v>
       </c>
-      <c r="HF64" s="1">
+      <c r="HF64" s="5">
         <v>1.3998835065803768E-7</v>
       </c>
-      <c r="HG64" s="1">
+      <c r="HG64" s="5">
         <v>2.3525685504130554E-7</v>
       </c>
-      <c r="HH64" s="1">
+      <c r="HH64" s="5">
         <v>2.3988327728655008E-17</v>
       </c>
-      <c r="HI64" s="1">
+      <c r="HI64" s="5">
         <v>9.1630636635870773E-6</v>
       </c>
-      <c r="HJ64" s="1">
+      <c r="HJ64" s="5">
         <v>6.789270966282415E-9</v>
       </c>
-      <c r="HK64" s="1">
+      <c r="HK64" s="5">
         <v>1.9152413967422171E-15</v>
       </c>
-      <c r="HL64" s="1">
+      <c r="HL64" s="5">
         <v>1.343437900928955E-6</v>
       </c>
-      <c r="HM64" s="1">
+      <c r="HM64" s="5">
         <v>2.2577094987502805E-6</v>
       </c>
-      <c r="HN64" s="1">
+      <c r="HN64" s="5">
         <v>2.3021077708435837E-16</v>
       </c>
-      <c r="HO64" s="1">
+      <c r="HO64" s="5">
         <v>2.0896549734521683E-6</v>
       </c>
-      <c r="HP64" s="1">
+      <c r="HP64" s="5">
         <v>2.0099730606735227E-8</v>
       </c>
-      <c r="HQ64" s="1">
+      <c r="HQ64" s="5">
         <v>5.6700985226979081E-15</v>
       </c>
-      <c r="HR64" s="1">
+      <c r="HR64" s="5">
         <v>3.9772662060152454E-6</v>
       </c>
-      <c r="HS64" s="1">
+      <c r="HS64" s="5">
         <v>6.6839793545342679E-6</v>
       </c>
-      <c r="HT64" s="1">
+      <c r="HT64" s="5">
         <v>6.8154226618720649E-16</v>
       </c>
-      <c r="HU64" s="1">
+      <c r="HU64" s="5">
         <v>3.4378583322357379E-6</v>
       </c>
-      <c r="HV64" s="1">
+      <c r="HV64" s="5">
         <v>2.9471612254166637E-6</v>
       </c>
-      <c r="HW64" s="1">
+      <c r="HW64" s="5">
         <v>3.562905313221918E-15</v>
       </c>
-      <c r="HX64" s="1">
+      <c r="HX64" s="5">
         <v>1.7939009762623625E-10</v>
       </c>
-      <c r="HY64" s="1">
+      <c r="HY64" s="5">
         <v>3.0147332853449604E-10</v>
       </c>
-      <c r="HZ64" s="1">
+      <c r="HZ64" s="5">
         <v>4.2825895566441629E-16</v>
       </c>
-      <c r="IA64" s="1">
+      <c r="IA64" s="5">
         <v>1.0586365065726922E-7</v>
       </c>
-      <c r="IB64" s="1">
+      <c r="IB64" s="5">
         <v>6.2786121882497647E-6</v>
       </c>
-      <c r="IC64" s="1">
+      <c r="IC64" s="5">
         <v>7.5903892254453854E-15</v>
       </c>
-      <c r="ID64" s="1">
+      <c r="ID64" s="5">
         <v>3.8217146958468116E-10</v>
       </c>
-      <c r="IE64" s="1">
+      <c r="IE64" s="5">
         <v>6.4225671865236115E-10</v>
       </c>
-      <c r="IF64" s="1">
+      <c r="IF64" s="5">
         <v>9.1236002542418283E-16</v>
       </c>
-      <c r="IG64" s="1">
+      <c r="IG64" s="5">
         <v>1.5556613896852904E-9</v>
       </c>
-      <c r="IH64" s="1">
+      <c r="IH64" s="5">
         <v>6.3829030366558838E-6</v>
       </c>
-      <c r="II64" s="1">
+      <c r="II64" s="5">
         <v>7.7164700195009277E-15</v>
       </c>
-      <c r="IJ64" s="1">
+      <c r="IJ64" s="5">
         <v>3.8851957600914513E-10</v>
       </c>
-      <c r="IK64" s="1">
+      <c r="IK64" s="5">
         <v>6.529249855674571E-10</v>
       </c>
-      <c r="IL64" s="1">
+      <c r="IL64" s="5">
         <v>9.2751477391406264E-16</v>
       </c>
-      <c r="IM64" s="1">
+      <c r="IM64" s="5">
         <v>2.2452059715205273E-11</v>
       </c>
-      <c r="IN64" s="1">
+      <c r="IN64" s="5">
         <v>6.3844361155148419E-6</v>
       </c>
-      <c r="IO64" s="1">
+      <c r="IO64" s="5">
         <v>7.7183225416548975E-15</v>
       </c>
-      <c r="IP64" s="1">
+      <c r="IP64" s="5">
         <v>3.8861284540699119E-10</v>
       </c>
-      <c r="IQ64" s="1">
+      <c r="IQ64" s="5">
         <v>6.5308172419901053E-10</v>
       </c>
-      <c r="IR64" s="1">
+      <c r="IR64" s="5">
         <v>9.2773737418605336E-16</v>
       </c>
-      <c r="IS64" s="1">
+      <c r="IS64" s="5">
         <v>2.1126703368978715E-6</v>
       </c>
-      <c r="IT64" s="1">
+      <c r="IT64" s="5">
         <v>9.2885431842709185E-12</v>
       </c>
-      <c r="IU64" s="1">
+      <c r="IU64" s="5">
         <v>1.2058158655989949E-10</v>
       </c>
-      <c r="IV64" s="1">
+      <c r="IV64" s="5">
         <v>5.301476503910328E-16</v>
       </c>
+      <c r="IW64" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="65" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>264</v>
       </c>
@@ -48385,7 +48877,7 @@
         <v>5.3013825702894156E-16</v>
       </c>
     </row>
-    <row r="66" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>264</v>
       </c>
@@ -49155,7 +49647,7 @@
         <v>5.3004615481824833E-16</v>
       </c>
     </row>
-    <row r="67" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>264</v>
       </c>
@@ -49925,7 +50417,7 @@
         <v>5.2911207652878685E-16</v>
       </c>
     </row>
-    <row r="68" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>264</v>
       </c>
@@ -50695,777 +51187,780 @@
         <v>5.1540107622954085E-16</v>
       </c>
     </row>
-    <row r="69" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:257" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5">
         <v>2.8831289355935041E-8</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="5">
         <v>1.2957433170868171E-7</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="5">
         <v>2.0000000949949026E-2</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="5">
         <v>2.6298413285985589E-4</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="5">
         <v>4.4157754746265709E-4</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="5">
         <v>1.0938035557046533E-3</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="5">
         <v>5.3384461352834478E-5</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="5">
         <v>7.4620416853576899E-4</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="5">
         <v>5.3795294661540538E-5</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69" s="5">
         <v>1.7485660919192014E-6</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69" s="5">
         <v>1.4153814776441303E-26</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69" s="5">
         <v>9.3066740854060545E-11</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="5">
         <v>1.8080942348510822E-10</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="5">
         <v>1.4235741107083999E-11</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69" s="5">
         <v>5.8160942139665275E-11</v>
       </c>
-      <c r="R69" s="1">
+      <c r="R69" s="5">
         <v>9.7658234772046585E-11</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="5">
         <v>5.9242795563903146E-13</v>
       </c>
-      <c r="T69" s="1">
+      <c r="T69" s="5">
         <v>8.9476854073684452E-11</v>
       </c>
-      <c r="U69" s="1">
+      <c r="U69" s="5">
         <v>1.0265315650030971E-3</v>
       </c>
-      <c r="V69" s="1">
+      <c r="V69" s="5">
         <v>6.6088818130083382E-5</v>
       </c>
-      <c r="W69" s="1">
+      <c r="W69" s="5">
         <v>2.5000351404633252E-20</v>
       </c>
-      <c r="X69" s="1">
+      <c r="X69" s="5">
         <v>6.281746896634073E-21</v>
       </c>
-      <c r="Y69" s="1">
+      <c r="Y69" s="5">
         <v>3.9265664781851228E-6</v>
       </c>
-      <c r="Z69" s="1">
+      <c r="Z69" s="5">
         <v>3.7292451793291548E-7</v>
       </c>
-      <c r="AA69" s="1">
+      <c r="AA69" s="5">
         <v>3.4989650885108858E-5</v>
       </c>
-      <c r="AB69" s="1">
+      <c r="AB69" s="5">
         <v>2.2883302790432936E-6</v>
       </c>
-      <c r="AC69" s="1">
+      <c r="AC69" s="5">
         <v>3.6702516581499367E-7</v>
       </c>
-      <c r="AD69" s="1">
+      <c r="AD69" s="5">
         <v>2.1100287995068356E-5</v>
       </c>
-      <c r="AE69" s="1">
+      <c r="AE69" s="5">
         <v>5.4026770612836117E-8</v>
       </c>
-      <c r="AF69" s="1">
+      <c r="AF69" s="5">
         <v>1.6817572889848975E-9</v>
       </c>
-      <c r="AG69" s="1">
+      <c r="AG69" s="5">
         <v>1.1619130546591805E-8</v>
       </c>
-      <c r="AH69" s="1">
+      <c r="AH69" s="5">
         <v>7.5790842402057024E-7</v>
       </c>
-      <c r="AI69" s="1">
+      <c r="AI69" s="5">
         <v>1.9601906764421528E-9</v>
       </c>
-      <c r="AJ69" s="1">
+      <c r="AJ69" s="5">
         <v>1.2270334921737902E-11</v>
       </c>
-      <c r="AK69" s="1">
+      <c r="AK69" s="5">
         <v>1.6198712273762794E-6</v>
       </c>
-      <c r="AL69" s="1">
+      <c r="AL69" s="5">
         <v>1.6711598505025904E-7</v>
       </c>
-      <c r="AM69" s="1">
+      <c r="AM69" s="5">
         <v>7.1993963511899451E-12</v>
       </c>
-      <c r="AN69" s="1">
+      <c r="AN69" s="5">
         <v>1.7329878493433476E-10</v>
       </c>
-      <c r="AO69" s="1">
+      <c r="AO69" s="5">
         <v>3.517272929402996E-7</v>
       </c>
-      <c r="AP69" s="1">
+      <c r="AP69" s="5">
         <v>5.9058650988679266E-7</v>
       </c>
-      <c r="AQ69" s="1">
+      <c r="AQ69" s="5">
         <v>2.7313123323574037E-7</v>
       </c>
-      <c r="AR69" s="1">
+      <c r="AR69" s="5">
         <v>1.333051382717636E-8</v>
       </c>
-      <c r="AS69" s="1">
+      <c r="AS69" s="5">
         <v>9.8049409145235215E-10</v>
       </c>
-      <c r="AT69" s="1">
+      <c r="AT69" s="5">
         <v>5.7141380014302466E-10</v>
       </c>
-      <c r="AU69" s="1">
+      <c r="AU69" s="5">
         <v>1.3490903431476466E-11</v>
       </c>
-      <c r="AV69" s="1">
+      <c r="AV69" s="5">
         <v>3.0639978717097989E-15</v>
       </c>
-      <c r="AW69" s="1">
+      <c r="AW69" s="5">
         <v>4.0449441594550139E-10</v>
       </c>
-      <c r="AX69" s="1">
+      <c r="AX69" s="5">
         <v>8.0615728622319653E-7</v>
       </c>
-      <c r="AY69" s="1">
+      <c r="AY69" s="5">
         <v>2.0515530416319022E-10</v>
       </c>
-      <c r="AZ69" s="1">
+      <c r="AZ69" s="5">
         <v>1.6883893130620339E-10</v>
       </c>
-      <c r="BA69" s="1">
+      <c r="BA69" s="5">
         <v>6.8372759024622426E-9</v>
       </c>
-      <c r="BB69" s="1">
+      <c r="BB69" s="5">
         <v>9.1192828006072908E-9</v>
       </c>
-      <c r="BC69" s="1">
+      <c r="BC69" s="5">
         <v>1.2157037732164652E-11</v>
       </c>
-      <c r="BD69" s="1">
+      <c r="BD69" s="5">
         <v>7.6194355703642124E-7</v>
       </c>
-      <c r="BE69" s="1">
+      <c r="BE69" s="5">
         <v>7.6018452772794297E-10</v>
       </c>
-      <c r="BF69" s="1">
+      <c r="BF69" s="5">
         <v>6.2561744714207089E-10</v>
       </c>
-      <c r="BG69" s="1">
+      <c r="BG69" s="5">
         <v>2.5334911081781987E-8</v>
       </c>
-      <c r="BH69" s="1">
+      <c r="BH69" s="5">
         <v>3.3790683814626925E-8</v>
       </c>
-      <c r="BI69" s="1">
+      <c r="BI69" s="5">
         <v>4.5046809312929743E-11</v>
       </c>
-      <c r="BJ69" s="1">
+      <c r="BJ69" s="5">
         <v>6.2710589912707835E-7</v>
       </c>
-      <c r="BK69" s="1">
+      <c r="BK69" s="5">
         <v>2.4528462426502561E-9</v>
       </c>
-      <c r="BL69" s="1">
+      <c r="BL69" s="5">
         <v>2.0186451869646782E-9</v>
       </c>
-      <c r="BM69" s="1">
+      <c r="BM69" s="5">
         <v>8.1746748282186654E-8</v>
       </c>
-      <c r="BN69" s="1">
+      <c r="BN69" s="5">
         <v>1.0903052834147278E-7</v>
       </c>
-      <c r="BO69" s="1">
+      <c r="BO69" s="5">
         <v>1.4535005001631421E-10</v>
       </c>
-      <c r="BP69" s="1">
+      <c r="BP69" s="5">
         <v>3.702404568220365E-7</v>
       </c>
-      <c r="BQ69" s="1">
+      <c r="BQ69" s="5">
         <v>5.6773615561655086E-9</v>
       </c>
-      <c r="BR69" s="1">
+      <c r="BR69" s="5">
         <v>4.6723596315217017E-9</v>
       </c>
-      <c r="BS69" s="1">
+      <c r="BS69" s="5">
         <v>1.8921118488048201E-7</v>
       </c>
-      <c r="BT69" s="1">
+      <c r="BT69" s="5">
         <v>2.5236223625994608E-7</v>
       </c>
-      <c r="BU69" s="1">
+      <c r="BU69" s="5">
         <v>3.3642747786833549E-10</v>
       </c>
-      <c r="BV69" s="1">
+      <c r="BV69" s="5">
         <v>1.1885766242818071E-7</v>
       </c>
-      <c r="BW69" s="1">
+      <c r="BW69" s="5">
         <v>1.5335221468941678E-7</v>
       </c>
-      <c r="BX69" s="1">
+      <c r="BX69" s="5">
         <v>1.2620592914661586E-7</v>
       </c>
-      <c r="BY69" s="1">
+      <c r="BY69" s="5">
         <v>2.0346513849814336E-9</v>
       </c>
-      <c r="BZ69" s="1">
+      <c r="BZ69" s="5">
         <v>1.7122541425312703E-9</v>
       </c>
-      <c r="CA69" s="1">
+      <c r="CA69" s="5">
         <v>9.0873022368898541E-9</v>
       </c>
-      <c r="CB69" s="1">
+      <c r="CB69" s="5">
         <v>1.1676807736142414E-8</v>
       </c>
-      <c r="CC69" s="1">
+      <c r="CC69" s="5">
         <v>2.0956576609697536E-7</v>
       </c>
-      <c r="CD69" s="1">
+      <c r="CD69" s="5">
         <v>1.7246865264223969E-7</v>
       </c>
-      <c r="CE69" s="1">
+      <c r="CE69" s="5">
         <v>2.7804836874638324E-9</v>
       </c>
-      <c r="CF69" s="1">
+      <c r="CF69" s="5">
         <v>2.3399069252257445E-9</v>
       </c>
-      <c r="CG69" s="1">
+      <c r="CG69" s="5">
         <v>1.2418391314475263E-8</v>
       </c>
-      <c r="CH69" s="1">
+      <c r="CH69" s="5">
         <v>8.6216033889506921E-10</v>
       </c>
-      <c r="CI69" s="1">
+      <c r="CI69" s="5">
         <v>2.1523779084173954E-7</v>
       </c>
-      <c r="CJ69" s="1">
+      <c r="CJ69" s="5">
         <v>1.7713658712707973E-7</v>
       </c>
-      <c r="CK69" s="1">
+      <c r="CK69" s="5">
         <v>2.8557386932680769E-9</v>
       </c>
-      <c r="CL69" s="1">
+      <c r="CL69" s="5">
         <v>2.40323731805498E-9</v>
       </c>
-      <c r="CM69" s="1">
+      <c r="CM69" s="5">
         <v>1.2754500554447991E-8</v>
       </c>
-      <c r="CN69" s="1">
+      <c r="CN69" s="5">
         <v>6.2103579920325456E-11</v>
       </c>
-      <c r="CO69" s="1">
+      <c r="CO69" s="5">
         <v>2.1565739428686288E-7</v>
       </c>
-      <c r="CP69" s="1">
+      <c r="CP69" s="5">
         <v>1.7748191864376647E-7</v>
       </c>
-      <c r="CQ69" s="1">
+      <c r="CQ69" s="5">
         <v>2.8613059379757344E-9</v>
       </c>
-      <c r="CR69" s="1">
+      <c r="CR69" s="5">
         <v>2.407922352860015E-9</v>
       </c>
-      <c r="CS69" s="1">
+      <c r="CS69" s="5">
         <v>1.277936523128077E-8</v>
       </c>
-      <c r="CT69" s="1">
+      <c r="CT69" s="5">
         <v>1.8742874287744314E-7</v>
       </c>
-      <c r="CU69" s="1">
+      <c r="CU69" s="5">
         <v>4.7697886550071219E-11</v>
       </c>
-      <c r="CV69" s="1">
+      <c r="CV69" s="5">
         <v>1.8699603639982009E-10</v>
       </c>
-      <c r="CW69" s="1">
+      <c r="CW69" s="5">
         <v>4.758777283663015E-14</v>
       </c>
-      <c r="CX69" s="1">
+      <c r="CX69" s="5">
         <v>6.5648117405005105E-9</v>
       </c>
-      <c r="CY69" s="1">
+      <c r="CY69" s="5">
         <v>5.3043566158655328E-9</v>
       </c>
-      <c r="CZ69" s="1">
+      <c r="CZ69" s="5">
         <v>5.6196643467786425E-9</v>
       </c>
-      <c r="DA69" s="1">
+      <c r="DA69" s="5">
         <v>4.7269110694816772E-10</v>
       </c>
-      <c r="DB69" s="1">
+      <c r="DB69" s="5">
         <v>8.2630325088720223E-8</v>
       </c>
-      <c r="DC69" s="1">
+      <c r="DC69" s="5">
         <v>2.1028216221929261E-11</v>
       </c>
-      <c r="DD69" s="1">
+      <c r="DD69" s="5">
         <v>1.2670744648093078E-9</v>
       </c>
-      <c r="DE69" s="1">
+      <c r="DE69" s="5">
         <v>3.22452035693177E-13</v>
       </c>
-      <c r="DF69" s="1">
+      <c r="DF69" s="5">
         <v>4.4482784072050713E-8</v>
       </c>
-      <c r="DG69" s="1">
+      <c r="DG69" s="5">
         <v>3.5942017236298688E-8</v>
       </c>
-      <c r="DH69" s="1">
+      <c r="DH69" s="5">
         <v>3.8078525893627413E-8</v>
       </c>
-      <c r="DI69" s="1">
+      <c r="DI69" s="5">
         <v>3.2029276255977351E-9</v>
       </c>
-      <c r="DJ69" s="1">
+      <c r="DJ69" s="5">
         <v>2.9598099084667117E-10</v>
       </c>
-      <c r="DK69" s="1">
+      <c r="DK69" s="5">
         <v>7.5322861374226548E-14</v>
       </c>
-      <c r="DL69" s="1">
+      <c r="DL69" s="5">
         <v>5.3120239920946813E-9</v>
       </c>
-      <c r="DM69" s="1">
+      <c r="DM69" s="5">
         <v>1.3518329274064956E-12</v>
       </c>
-      <c r="DN69" s="1">
+      <c r="DN69" s="5">
         <v>1.8648767740081166E-7</v>
       </c>
-      <c r="DO69" s="1">
+      <c r="DO69" s="5">
         <v>5.9987431207249264E-11</v>
       </c>
-      <c r="DP69" s="1">
+      <c r="DP69" s="5">
         <v>4.0099466986388929E-11</v>
       </c>
-      <c r="DQ69" s="1">
+      <c r="DQ69" s="5">
         <v>1.3427813156571648E-8</v>
       </c>
-      <c r="DR69" s="1">
+      <c r="DR69" s="5">
         <v>1.5319217774752944E-12</v>
       </c>
-      <c r="DS69" s="1">
+      <c r="DS69" s="5">
         <v>3.8985181709862006E-16</v>
       </c>
-      <c r="DT69" s="1">
+      <c r="DT69" s="5">
         <v>5.3196653531014217E-9</v>
       </c>
-      <c r="DU69" s="1">
+      <c r="DU69" s="5">
         <v>1.3537774143259027E-12</v>
       </c>
-      <c r="DV69" s="1">
+      <c r="DV69" s="5">
         <v>1.8675515616732883E-7</v>
       </c>
-      <c r="DW69" s="1">
+      <c r="DW69" s="5">
         <v>6.0073477936636812E-11</v>
       </c>
-      <c r="DX69" s="1">
+      <c r="DX69" s="5">
         <v>4.0156985423580688E-11</v>
       </c>
-      <c r="DY69" s="1">
+      <c r="DY69" s="5">
         <v>1.3447073526785911E-8</v>
       </c>
-      <c r="DZ69" s="1">
+      <c r="DZ69" s="5">
         <v>8.2986453646523389E-8</v>
       </c>
-      <c r="EA69" s="1">
+      <c r="EA69" s="5">
         <v>8.2794867996364165E-11</v>
       </c>
-      <c r="EB69" s="1">
+      <c r="EB69" s="5">
         <v>3.2459111530596058E-10</v>
       </c>
-      <c r="EC69" s="1">
+      <c r="EC69" s="5">
         <v>3.238417664321988E-13</v>
       </c>
-      <c r="ED69" s="1">
+      <c r="ED69" s="5">
         <v>4.4674512840248688E-8</v>
       </c>
-      <c r="EE69" s="1">
+      <c r="EE69" s="5">
         <v>3.6096936933178172E-8</v>
       </c>
-      <c r="EF69" s="1">
+      <c r="EF69" s="5">
         <v>3.824264967732601E-8</v>
       </c>
-      <c r="EG69" s="1">
+      <c r="EG69" s="5">
         <v>3.2167330737053454E-9</v>
       </c>
-      <c r="EH69" s="1">
+      <c r="EH69" s="5">
         <v>1.0667939944959795E-9</v>
       </c>
-      <c r="EI69" s="1">
+      <c r="EI69" s="5">
         <v>1.0643312557601432E-12</v>
       </c>
-      <c r="EJ69" s="1">
+      <c r="EJ69" s="5">
         <v>1.3763961776474763E-9</v>
       </c>
-      <c r="EK69" s="1">
+      <c r="EK69" s="5">
         <v>1.3732185432229422E-12</v>
       </c>
-      <c r="EL69" s="1">
+      <c r="EL69" s="5">
         <v>1.8943749627686278E-7</v>
       </c>
-      <c r="EM69" s="1">
+      <c r="EM69" s="5">
         <v>6.093631133793476E-11</v>
       </c>
-      <c r="EN69" s="1">
+      <c r="EN69" s="5">
         <v>4.0733754305874285E-11</v>
       </c>
-      <c r="EO69" s="1">
+      <c r="EO69" s="5">
         <v>1.3640212921333337E-8</v>
       </c>
-      <c r="EP69" s="1">
+      <c r="EP69" s="5">
         <v>5.5420250421569517E-12</v>
       </c>
-      <c r="EQ69" s="1">
+      <c r="EQ69" s="5">
         <v>5.529230695763484E-15</v>
       </c>
-      <c r="ER69" s="1">
+      <c r="ER69" s="5">
         <v>1.3835630894563265E-9</v>
       </c>
-      <c r="ES69" s="1">
+      <c r="ES69" s="5">
         <v>1.3803689625660603E-12</v>
       </c>
-      <c r="ET69" s="1">
+      <c r="ET69" s="5">
         <v>1.9042127855260367E-7</v>
       </c>
-      <c r="EU69" s="1">
+      <c r="EU69" s="5">
         <v>6.1252758665763319E-11</v>
       </c>
-      <c r="EV69" s="1">
+      <c r="EV69" s="5">
         <v>4.0945293546498677E-11</v>
       </c>
-      <c r="EW69" s="1">
+      <c r="EW69" s="5">
         <v>1.3711047100555961E-8</v>
       </c>
-      <c r="EX69" s="1">
+      <c r="EX69" s="5">
         <v>8.6917936374032823E-9</v>
       </c>
-      <c r="EY69" s="1">
+      <c r="EY69" s="5">
         <v>3.39968643376365E-11</v>
       </c>
-      <c r="EZ69" s="1">
+      <c r="EZ69" s="5">
         <v>1.3328217531338557E-10</v>
       </c>
-      <c r="FA69" s="1">
+      <c r="FA69" s="5">
         <v>5.2131656906334492E-13</v>
       </c>
-      <c r="FB69" s="1">
+      <c r="FB69" s="5">
         <v>7.1916383381686526E-8</v>
       </c>
-      <c r="FC69" s="1">
+      <c r="FC69" s="5">
         <v>5.8108317748200208E-8</v>
       </c>
-      <c r="FD69" s="1">
+      <c r="FD69" s="5">
         <v>6.1562462374275021E-8</v>
       </c>
-      <c r="FE69" s="1">
+      <c r="FE69" s="5">
         <v>5.178250167254122E-9</v>
       </c>
-      <c r="FF69" s="1">
+      <c r="FF69" s="5">
         <v>1.9761308795793154E-11</v>
       </c>
-      <c r="FG69" s="1">
+      <c r="FG69" s="5">
         <v>7.7293886869917119E-14</v>
       </c>
-      <c r="FH69" s="1">
+      <c r="FH69" s="5">
         <v>3.5465975213549348E-10</v>
       </c>
-      <c r="FI69" s="1">
+      <c r="FI69" s="5">
         <v>1.3872072541218748E-12</v>
       </c>
-      <c r="FJ69" s="1">
+      <c r="FJ69" s="5">
         <v>1.9136725495078558E-7</v>
       </c>
-      <c r="FK69" s="1">
+      <c r="FK69" s="5">
         <v>6.1557048606805578E-11</v>
       </c>
-      <c r="FL69" s="1">
+      <c r="FL69" s="5">
         <v>4.1148697072412191E-11</v>
       </c>
-      <c r="FM69" s="1">
+      <c r="FM69" s="5">
         <v>1.3779160980996375E-8</v>
       </c>
-      <c r="FN69" s="1">
+      <c r="FN69" s="5">
         <v>1.0214412229427777E-13</v>
       </c>
-      <c r="FO69" s="1">
+      <c r="FO69" s="5">
         <v>3.9952394579636811E-16</v>
       </c>
-      <c r="FP69" s="1">
+      <c r="FP69" s="5">
         <v>3.5469991993337741E-10</v>
       </c>
-      <c r="FQ69" s="1">
+      <c r="FQ69" s="5">
         <v>1.3873643465972103E-12</v>
       </c>
-      <c r="FR69" s="1">
+      <c r="FR69" s="5">
         <v>1.9138560491676013E-7</v>
       </c>
-      <c r="FS69" s="1">
+      <c r="FS69" s="5">
         <v>6.1562953217220198E-11</v>
       </c>
-      <c r="FT69" s="1">
+      <c r="FT69" s="5">
         <v>4.1152644137496814E-11</v>
       </c>
-      <c r="FU69" s="1">
+      <c r="FU69" s="5">
         <v>1.3780483386355563E-8</v>
       </c>
-      <c r="FV69" s="1">
+      <c r="FV69" s="5">
         <v>7.0184962241808576E-11</v>
       </c>
-      <c r="FW69" s="1">
+      <c r="FW69" s="5">
         <v>1.0762340965118667E-12</v>
       </c>
-      <c r="FX69" s="1">
+      <c r="FX69" s="5">
         <v>9.0553853864160221E-11</v>
       </c>
-      <c r="FY69" s="1">
+      <c r="FY69" s="5">
         <v>1.3885759223132362E-12</v>
       </c>
-      <c r="FZ69" s="1">
+      <c r="FZ69" s="5">
         <v>1.9156553935710531E-7</v>
       </c>
-      <c r="GA69" s="1">
+      <c r="GA69" s="5">
         <v>6.1620834031224407E-11</v>
       </c>
-      <c r="GB69" s="1">
+      <c r="GB69" s="5">
         <v>4.119133674401043E-11</v>
       </c>
-      <c r="GC69" s="1">
+      <c r="GC69" s="5">
         <v>1.3793440048492429E-8</v>
       </c>
-      <c r="GD69" s="1">
+      <c r="GD69" s="5">
         <v>3.6288048552648907E-13</v>
       </c>
-      <c r="GE69" s="1">
+      <c r="GE69" s="5">
         <v>5.5645019889840655E-15</v>
       </c>
-      <c r="GF69" s="1">
+      <c r="GF69" s="5">
         <v>9.0592890596221712E-11</v>
       </c>
-      <c r="GG69" s="1">
+      <c r="GG69" s="5">
         <v>1.3891744633457501E-12</v>
       </c>
-      <c r="GH69" s="1">
+      <c r="GH69" s="5">
         <v>1.9163161960729597E-7</v>
       </c>
-      <c r="GI69" s="1">
+      <c r="GI69" s="5">
         <v>6.1642093470888118E-11</v>
       </c>
-      <c r="GJ69" s="1">
+      <c r="GJ69" s="5">
         <v>4.1205547599400612E-11</v>
       </c>
-      <c r="GK69" s="1">
+      <c r="GK69" s="5">
         <v>1.379819670600863E-8</v>
       </c>
-      <c r="GL69" s="1">
+      <c r="GL69" s="5">
         <v>2.7795296480102887E-10</v>
       </c>
-      <c r="GM69" s="1">
+      <c r="GM69" s="5">
         <v>3.2280302176519554E-9</v>
       </c>
-      <c r="GN69" s="1">
+      <c r="GN69" s="5">
         <v>6.55161184088442E-6</v>
       </c>
-      <c r="GO69" s="1">
+      <c r="GO69" s="5">
         <v>1.1000833540081301E-5</v>
       </c>
-      <c r="GP69" s="1">
+      <c r="GP69" s="5">
         <v>1.054500043486551E-5</v>
       </c>
-      <c r="GQ69" s="1">
+      <c r="GQ69" s="5">
         <v>5.1466205040192952E-7</v>
       </c>
-      <c r="GR69" s="1">
+      <c r="GR69" s="5">
         <v>3.7854736330046612E-8</v>
       </c>
-      <c r="GS69" s="1">
+      <c r="GS69" s="5">
         <v>2.2061039368501668E-8</v>
       </c>
-      <c r="GT69" s="1">
+      <c r="GT69" s="5">
         <v>5.2085429979040571E-10</v>
       </c>
-      <c r="GU69" s="1">
+      <c r="GU69" s="5">
         <v>1.1829425810023514E-13</v>
       </c>
-      <c r="GV69" s="1">
+      <c r="GV69" s="5">
         <v>1.5616645243463986E-8</v>
       </c>
-      <c r="GW69" s="1">
+      <c r="GW69" s="5">
         <v>1.2749366781959416E-5</v>
       </c>
-      <c r="GX69" s="1">
+      <c r="GX69" s="5">
         <v>4.743819593292274E-11</v>
       </c>
-      <c r="GY69" s="1">
+      <c r="GY69" s="5">
         <v>9.9196105329286693E-11</v>
       </c>
-      <c r="GZ69" s="1">
+      <c r="GZ69" s="5">
         <v>8.0150301483340101E-9</v>
       </c>
-      <c r="HA69" s="1">
+      <c r="HA69" s="5">
         <v>1.3458065172233123E-8</v>
       </c>
-      <c r="HB69" s="1">
+      <c r="HB69" s="5">
         <v>1.4088771001941543E-11</v>
       </c>
-      <c r="HC69" s="1">
+      <c r="HC69" s="5">
         <v>1.2495742689999721E-5</v>
       </c>
-      <c r="HD69" s="1">
+      <c r="HD69" s="5">
         <v>6.0358021198420198E-10</v>
       </c>
-      <c r="HE69" s="1">
+      <c r="HE69" s="5">
         <v>1.2621223869366618E-9</v>
       </c>
-      <c r="HF69" s="1">
+      <c r="HF69" s="5">
         <v>1.0197929875734075E-7</v>
       </c>
-      <c r="HG69" s="1">
+      <c r="HG69" s="5">
         <v>1.7123377927222197E-7</v>
       </c>
-      <c r="HH69" s="1">
+      <c r="HH69" s="5">
         <v>1.7925858681604057E-10</v>
       </c>
-      <c r="HI69" s="1">
+      <c r="HI69" s="5">
         <v>9.9310724945780069E-6</v>
       </c>
-      <c r="HJ69" s="1">
+      <c r="HJ69" s="5">
         <v>6.2273356001184096E-9</v>
       </c>
-      <c r="HK69" s="1">
+      <c r="HK69" s="5">
         <v>1.3021732447891623E-8</v>
       </c>
-      <c r="HL69" s="1">
+      <c r="HL69" s="5">
         <v>1.0521539788093404E-6</v>
       </c>
-      <c r="HM69" s="1">
+      <c r="HM69" s="5">
         <v>1.7666754478240385E-6</v>
       </c>
-      <c r="HN69" s="1">
+      <c r="HN69" s="5">
         <v>1.8494698091583582E-9</v>
       </c>
-      <c r="HO69" s="1">
+      <c r="HO69" s="5">
         <v>2.7101348808682757E-6</v>
       </c>
-      <c r="HP69" s="1">
+      <c r="HP69" s="5">
         <v>2.2061256753134812E-8</v>
       </c>
-      <c r="HQ69" s="1">
+      <c r="HQ69" s="5">
         <v>4.6131419426509057E-8</v>
       </c>
-      <c r="HR69" s="1">
+      <c r="HR69" s="5">
         <v>3.7274113489478512E-6</v>
       </c>
-      <c r="HS69" s="1">
+      <c r="HS69" s="5">
         <v>6.2587093269644953E-6</v>
       </c>
-      <c r="HT69" s="1">
+      <c r="HT69" s="5">
         <v>6.5520206343144244E-9</v>
       </c>
-      <c r="HU69" s="1">
+      <c r="HU69" s="5">
         <v>3.6845884913007798E-6</v>
       </c>
-      <c r="HV69" s="1">
+      <c r="HV69" s="5">
         <v>2.6731823732266414E-6</v>
       </c>
-      <c r="HW69" s="1">
+      <c r="HW69" s="5">
         <v>2.3954938425699825E-8</v>
       </c>
-      <c r="HX69" s="1">
+      <c r="HX69" s="5">
         <v>1.3893309742941611E-10</v>
       </c>
-      <c r="HY69" s="1">
+      <c r="HY69" s="5">
         <v>2.3328302300810688E-10</v>
       </c>
-      <c r="HZ69" s="1">
+      <c r="HZ69" s="5">
         <v>3.4023075055033286E-9</v>
       </c>
-      <c r="IA69" s="1">
+      <c r="IA69" s="5">
         <v>1.234788428005373E-7</v>
       </c>
-      <c r="IB69" s="1">
+      <c r="IB69" s="5">
         <v>6.1977312408808785E-6</v>
       </c>
-      <c r="IC69" s="1">
+      <c r="IC69" s="5">
         <v>5.5539144514446994E-8</v>
       </c>
-      <c r="ID69" s="1">
+      <c r="ID69" s="5">
         <v>3.221142267734851E-10</v>
       </c>
-      <c r="IE69" s="1">
+      <c r="IE69" s="5">
         <v>5.408630670452161E-10</v>
       </c>
-      <c r="IF69" s="1">
+      <c r="IF69" s="5">
         <v>7.8881965570333975E-9</v>
       </c>
-      <c r="IG69" s="1">
+      <c r="IG69" s="5">
         <v>1.8194563020673652E-9</v>
       </c>
-      <c r="IH69" s="1">
+      <c r="IH69" s="5">
         <v>6.3181414924236951E-6</v>
       </c>
-      <c r="II69" s="1">
+      <c r="II69" s="5">
         <v>5.6618167274849017E-8</v>
       </c>
-      <c r="IJ69" s="1">
+      <c r="IJ69" s="5">
         <v>3.2837226124260717E-10</v>
       </c>
-      <c r="IK69" s="1">
+      <c r="IK69" s="5">
         <v>5.5137095024430389E-10</v>
       </c>
-      <c r="IL69" s="1">
+      <c r="IL69" s="5">
         <v>8.0414486972802977E-9</v>
       </c>
-      <c r="IM69" s="1">
+      <c r="IM69" s="5">
         <v>2.6368855459874567E-11</v>
       </c>
-      <c r="IN69" s="1">
+      <c r="IN69" s="5">
         <v>6.3199162557601702E-6</v>
       </c>
-      <c r="IO69" s="1">
+      <c r="IO69" s="5">
         <v>5.6634071609660059E-8</v>
       </c>
-      <c r="IP69" s="1">
+      <c r="IP69" s="5">
         <v>3.2846450745885189E-10</v>
       </c>
-      <c r="IQ69" s="1">
+      <c r="IQ69" s="5">
         <v>5.5152583435920491E-10</v>
       </c>
-      <c r="IR69" s="1">
+      <c r="IR69" s="5">
         <v>8.0437073706652292E-9</v>
       </c>
-      <c r="IS69" s="1">
+      <c r="IS69" s="5">
         <v>2.1155312215715456E-6</v>
       </c>
-      <c r="IT69" s="1">
+      <c r="IT69" s="5">
         <v>7.871527292618454E-12</v>
       </c>
-      <c r="IU69" s="1">
+      <c r="IU69" s="5">
         <v>1.0218622708289027E-10</v>
       </c>
-      <c r="IV69" s="1">
+      <c r="IV69" s="5">
         <v>3.8021733278214644E-16</v>
       </c>
+      <c r="IW69" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="70" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>264</v>
       </c>
@@ -52235,7 +52730,7 @@
         <v>2.1677281762537503E-16</v>
       </c>
     </row>
-    <row r="71" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:257" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>264</v>
       </c>
@@ -53006,6 +53501,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:IV71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <printOptions gridLines="1"/>
   <pageMargins left="1.5" right="1.5" top="1.5" bottom="1.5" header="0.5" footer="0.5"/>
   <headerFooter>
